--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,202 +662,226 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10793300</v>
+        <v>14227100</v>
       </c>
       <c r="E8" s="3">
-        <v>25215600</v>
+        <v>11906700</v>
       </c>
       <c r="F8" s="3">
-        <v>14290500</v>
+        <v>10887700</v>
       </c>
       <c r="G8" s="3">
-        <v>12146100</v>
+        <v>25436000</v>
       </c>
       <c r="H8" s="3">
-        <v>10168600</v>
+        <v>13570300</v>
       </c>
       <c r="I8" s="3">
+        <v>11469200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>10257500</v>
+      </c>
+      <c r="K8" s="3">
         <v>10410100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10033500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9644600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9004000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9777000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11362500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>10356500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4109800</v>
+        <v>5157000</v>
       </c>
       <c r="E9" s="3">
-        <v>9716200</v>
+        <v>5399600</v>
       </c>
       <c r="F9" s="3">
-        <v>5771100</v>
+        <v>4145700</v>
       </c>
       <c r="G9" s="3">
-        <v>6678000</v>
+        <v>9801200</v>
       </c>
       <c r="H9" s="3">
-        <v>4502900</v>
+        <v>5390700</v>
       </c>
       <c r="I9" s="3">
+        <v>6251300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4542300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3850700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3194100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3418700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2877900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3122500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3506200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>3695200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6683500</v>
+        <v>9070100</v>
       </c>
       <c r="E10" s="3">
-        <v>15499400</v>
+        <v>6507200</v>
       </c>
       <c r="F10" s="3">
-        <v>8519400</v>
+        <v>6742000</v>
       </c>
       <c r="G10" s="3">
-        <v>5468000</v>
+        <v>15634900</v>
       </c>
       <c r="H10" s="3">
-        <v>5665700</v>
+        <v>8179600</v>
       </c>
       <c r="I10" s="3">
+        <v>5217900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5715200</v>
+      </c>
+      <c r="K10" s="3">
         <v>6559500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6839400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6225900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6126100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>6654500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>7856300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>6661400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,52 +898,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1418600</v>
+        <v>1442100</v>
       </c>
       <c r="E12" s="3">
-        <v>2900900</v>
+        <v>1559500</v>
       </c>
       <c r="F12" s="3">
-        <v>1488900</v>
+        <v>1431000</v>
       </c>
       <c r="G12" s="3">
-        <v>1938000</v>
+        <v>2926300</v>
       </c>
       <c r="H12" s="3">
-        <v>1281400</v>
+        <v>1458700</v>
       </c>
       <c r="I12" s="3">
+        <v>1880700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1292600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1391200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1141900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1384500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1210600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1230800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1284100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1461400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,8 +994,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1044,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,8 +1094,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1065,96 +1115,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9459300</v>
+        <v>11459200</v>
       </c>
       <c r="E17" s="3">
-        <v>22384900</v>
+        <v>11468100</v>
       </c>
       <c r="F17" s="3">
-        <v>12149400</v>
+        <v>9542000</v>
       </c>
       <c r="G17" s="3">
-        <v>16724700</v>
+        <v>22580600</v>
       </c>
       <c r="H17" s="3">
-        <v>5421900</v>
+        <v>11598800</v>
       </c>
       <c r="I17" s="3">
+        <v>16127800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5469300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8932200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7497100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8943400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7446600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8135500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8513600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>9668700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1334100</v>
+        <v>2767900</v>
       </c>
       <c r="E18" s="3">
-        <v>2830600</v>
+        <v>438600</v>
       </c>
       <c r="F18" s="3">
-        <v>2141100</v>
+        <v>1345700</v>
       </c>
       <c r="G18" s="3">
-        <v>-4578700</v>
+        <v>2855400</v>
       </c>
       <c r="H18" s="3">
-        <v>4746700</v>
+        <v>1971500</v>
       </c>
       <c r="I18" s="3">
+        <v>-4658600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4788200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1477900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2536400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>701200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1557300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1641500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2848800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>687900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1171,96 +1235,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-196500</v>
+        <v>-722200</v>
       </c>
       <c r="E20" s="3">
-        <v>-825700</v>
+        <v>-418700</v>
       </c>
       <c r="F20" s="3">
-        <v>-347000</v>
+        <v>-198300</v>
       </c>
       <c r="G20" s="3">
-        <v>-797100</v>
+        <v>-832900</v>
       </c>
       <c r="H20" s="3">
-        <v>-745500</v>
+        <v>-330100</v>
       </c>
       <c r="I20" s="3">
+        <v>-797500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-752100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-354700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>142700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-289500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-452200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-414000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-347400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-262900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2247600</v>
+        <v>3460100</v>
       </c>
       <c r="E21" s="3">
-        <v>5022300</v>
+        <v>1798700</v>
       </c>
       <c r="F21" s="3">
-        <v>3098600</v>
+        <v>2267300</v>
       </c>
       <c r="G21" s="3">
-        <v>-693900</v>
+        <v>5066200</v>
       </c>
       <c r="H21" s="3">
-        <v>4983800</v>
+        <v>2957300</v>
       </c>
       <c r="I21" s="3">
+        <v>-856200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5027400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1875400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3236900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1348600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1757000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1804200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3358300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2344100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,96 +1381,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1137500</v>
+        <v>2045700</v>
       </c>
       <c r="E23" s="3">
-        <v>2004900</v>
+        <v>19900</v>
       </c>
       <c r="F23" s="3">
-        <v>1794100</v>
+        <v>1147500</v>
       </c>
       <c r="G23" s="3">
-        <v>-5375800</v>
+        <v>2022500</v>
       </c>
       <c r="H23" s="3">
-        <v>4001100</v>
+        <v>1641500</v>
       </c>
       <c r="I23" s="3">
+        <v>-5456000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>4036100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1123300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2679100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>411800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1105200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1227500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2501400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>424900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>36200</v>
+        <v>530500</v>
       </c>
       <c r="E24" s="3">
-        <v>408500</v>
+        <v>49800</v>
       </c>
       <c r="F24" s="3">
-        <v>437000</v>
+        <v>36600</v>
       </c>
       <c r="G24" s="3">
-        <v>-1047500</v>
+        <v>412000</v>
       </c>
       <c r="H24" s="3">
-        <v>910200</v>
+        <v>396500</v>
       </c>
       <c r="I24" s="3">
+        <v>-1067700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>918200</v>
+      </c>
+      <c r="K24" s="3">
         <v>236100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>542400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>488100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>237900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>289500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>497700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>74000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1435,96 +1531,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1101300</v>
+        <v>1515200</v>
       </c>
       <c r="E26" s="3">
-        <v>1596500</v>
+        <v>-29900</v>
       </c>
       <c r="F26" s="3">
-        <v>1357100</v>
+        <v>1110900</v>
       </c>
       <c r="G26" s="3">
-        <v>-4328300</v>
+        <v>1610500</v>
       </c>
       <c r="H26" s="3">
-        <v>3090900</v>
+        <v>1244900</v>
       </c>
       <c r="I26" s="3">
+        <v>-4388300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3117900</v>
+      </c>
+      <c r="K26" s="3">
         <v>887200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2136700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-76300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>867300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>938000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2003700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>351000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1092500</v>
+        <v>1516300</v>
       </c>
       <c r="E27" s="3">
-        <v>1596500</v>
+        <v>-42100</v>
       </c>
       <c r="F27" s="3">
-        <v>1362600</v>
+        <v>1102100</v>
       </c>
       <c r="G27" s="3">
-        <v>-4330500</v>
+        <v>1610500</v>
       </c>
       <c r="H27" s="3">
-        <v>3082100</v>
+        <v>1250500</v>
       </c>
       <c r="I27" s="3">
+        <v>-4390500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3109000</v>
+      </c>
+      <c r="K27" s="3">
         <v>880600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2136700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-78500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>870700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>935700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1783000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>346300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1567,52 +1681,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>45000</v>
+        <v>132900</v>
       </c>
       <c r="E29" s="3">
-        <v>205300</v>
+        <v>1608200</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>45400</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>207100</v>
       </c>
       <c r="H29" s="3">
-        <v>70300</v>
+        <v>124100</v>
       </c>
       <c r="I29" s="3">
+        <v>44300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K29" s="3">
         <v>-8800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>8800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>244600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>3483800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>437600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>662000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>185500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,8 +1781,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1699,96 +1831,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>196500</v>
+        <v>722200</v>
       </c>
       <c r="E32" s="3">
-        <v>825700</v>
+        <v>418700</v>
       </c>
       <c r="F32" s="3">
-        <v>347000</v>
+        <v>198300</v>
       </c>
       <c r="G32" s="3">
-        <v>797100</v>
+        <v>832900</v>
       </c>
       <c r="H32" s="3">
-        <v>745500</v>
+        <v>330100</v>
       </c>
       <c r="I32" s="3">
+        <v>797500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>752100</v>
+      </c>
+      <c r="K32" s="3">
         <v>354700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-142700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>289500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>452200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>414000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>347400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>262900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1137500</v>
+        <v>1649200</v>
       </c>
       <c r="E33" s="3">
-        <v>1801800</v>
+        <v>1566100</v>
       </c>
       <c r="F33" s="3">
-        <v>1362600</v>
+        <v>1147500</v>
       </c>
       <c r="G33" s="3">
-        <v>-4330500</v>
+        <v>1817600</v>
       </c>
       <c r="H33" s="3">
-        <v>3152400</v>
+        <v>1374500</v>
       </c>
       <c r="I33" s="3">
+        <v>-4346200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3179900</v>
+      </c>
+      <c r="K33" s="3">
         <v>871800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2145500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>166100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>4354400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1373300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>2445000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>531700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,101 +1981,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1137500</v>
+        <v>1649200</v>
       </c>
       <c r="E35" s="3">
-        <v>1801800</v>
+        <v>1566100</v>
       </c>
       <c r="F35" s="3">
-        <v>1362600</v>
+        <v>1147500</v>
       </c>
       <c r="G35" s="3">
-        <v>-4330500</v>
+        <v>1817600</v>
       </c>
       <c r="H35" s="3">
-        <v>3152400</v>
+        <v>1374500</v>
       </c>
       <c r="I35" s="3">
+        <v>-4346200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3179900</v>
+      </c>
+      <c r="K35" s="3">
         <v>871800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2145500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>166100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>4354400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1373300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>2445000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>531700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1942,8 +2110,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1960,404 +2130,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4842200</v>
+        <v>2535300</v>
       </c>
       <c r="E41" s="3">
-        <v>3670600</v>
+        <v>3527700</v>
       </c>
       <c r="F41" s="3">
-        <v>4460100</v>
+        <v>4884500</v>
       </c>
       <c r="G41" s="3">
-        <v>4449100</v>
+        <v>3702700</v>
       </c>
       <c r="H41" s="3">
-        <v>5325300</v>
+        <v>4499100</v>
       </c>
       <c r="I41" s="3">
+        <v>4488000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>5371900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5469100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5854500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>8505800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6232700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3111300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2610600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2229100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1256100</v>
+        <v>3059200</v>
       </c>
       <c r="E42" s="3">
-        <v>954200</v>
+        <v>2576300</v>
       </c>
       <c r="F42" s="3">
-        <v>935500</v>
+        <v>1267100</v>
       </c>
       <c r="G42" s="3">
-        <v>1280300</v>
+        <v>962500</v>
       </c>
       <c r="H42" s="3">
-        <v>1757900</v>
+        <v>943700</v>
       </c>
       <c r="I42" s="3">
+        <v>1291500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1773300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1709600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>8031900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3959500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>6806000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>8115400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>7819900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>7365700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>15585000</v>
+        <v>18470300</v>
       </c>
       <c r="E43" s="3">
-        <v>18180700</v>
+        <v>16770200</v>
       </c>
       <c r="F43" s="3">
-        <v>18527700</v>
+        <v>15721300</v>
       </c>
       <c r="G43" s="3">
-        <v>15900100</v>
+        <v>18339600</v>
       </c>
       <c r="H43" s="3">
-        <v>15745300</v>
+        <v>18662000</v>
       </c>
       <c r="I43" s="3">
+        <v>16039200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>15883000</v>
+      </c>
+      <c r="K43" s="3">
         <v>18145500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>12064800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>11592400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>11857200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>15914300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>18548500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>16263100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11545500</v>
+        <v>11082600</v>
       </c>
       <c r="E44" s="3">
-        <v>11409300</v>
+        <v>11795900</v>
       </c>
       <c r="F44" s="3">
-        <v>11724400</v>
+        <v>11646400</v>
       </c>
       <c r="G44" s="3">
-        <v>12222900</v>
+        <v>11509100</v>
       </c>
       <c r="H44" s="3">
-        <v>12124100</v>
+        <v>11643100</v>
       </c>
       <c r="I44" s="3">
+        <v>12329800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>12230100</v>
+      </c>
+      <c r="K44" s="3">
         <v>12023100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>7029400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>7349000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>7558800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>9490900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>10181600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>9869400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3568500</v>
+        <v>1400000</v>
       </c>
       <c r="E45" s="3">
-        <v>1766700</v>
+        <v>1259300</v>
       </c>
       <c r="F45" s="3">
-        <v>254700</v>
+        <v>3599700</v>
       </c>
       <c r="G45" s="3">
-        <v>256900</v>
+        <v>1782100</v>
       </c>
       <c r="H45" s="3">
-        <v>258000</v>
+        <v>257000</v>
       </c>
       <c r="I45" s="3">
+        <v>259200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>260300</v>
+      </c>
+      <c r="K45" s="3">
         <v>4083500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3438900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>2334900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2046500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>32900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>11700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>36797300</v>
+        <v>36547500</v>
       </c>
       <c r="E46" s="3">
-        <v>35981500</v>
+        <v>35929400</v>
       </c>
       <c r="F46" s="3">
-        <v>35902400</v>
+        <v>37119000</v>
       </c>
       <c r="G46" s="3">
-        <v>34109400</v>
+        <v>36296100</v>
       </c>
       <c r="H46" s="3">
-        <v>35210700</v>
+        <v>36004800</v>
       </c>
       <c r="I46" s="3">
+        <v>34407600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>35518500</v>
+      </c>
+      <c r="K46" s="3">
         <v>41430800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>36419600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>33741600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>34501200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>36635200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>39193500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>35739000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3989000</v>
+        <v>3049200</v>
       </c>
       <c r="E47" s="3">
-        <v>3763900</v>
+        <v>3111200</v>
       </c>
       <c r="F47" s="3">
-        <v>3712300</v>
+        <v>4023900</v>
       </c>
       <c r="G47" s="3">
-        <v>3571800</v>
+        <v>3796900</v>
       </c>
       <c r="H47" s="3">
-        <v>4278900</v>
+        <v>3744800</v>
       </c>
       <c r="I47" s="3">
+        <v>3603000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4316300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4441400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5320900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6777900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>6690400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2778000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2882900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2873500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14353100</v>
+        <v>13405300</v>
       </c>
       <c r="E48" s="3">
-        <v>15030500</v>
+        <v>13821700</v>
       </c>
       <c r="F48" s="3">
-        <v>15299500</v>
+        <v>14478500</v>
       </c>
       <c r="G48" s="3">
-        <v>14211400</v>
+        <v>15161900</v>
       </c>
       <c r="H48" s="3">
-        <v>14482600</v>
+        <v>15432200</v>
       </c>
       <c r="I48" s="3">
+        <v>14335700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14609200</v>
+      </c>
+      <c r="K48" s="3">
         <v>14381600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8048300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>8564100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>8308300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>14217900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>15359300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>15393300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>82859500</v>
+        <v>81853900</v>
       </c>
       <c r="E49" s="3">
-        <v>80452700</v>
+        <v>81779600</v>
       </c>
       <c r="F49" s="3">
-        <v>82841900</v>
+        <v>83583900</v>
       </c>
       <c r="G49" s="3">
-        <v>82501500</v>
+        <v>81156100</v>
       </c>
       <c r="H49" s="3">
-        <v>84834800</v>
+        <v>83844200</v>
       </c>
       <c r="I49" s="3">
+        <v>83222800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>85576500</v>
+      </c>
+      <c r="K49" s="3">
         <v>85283900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>28180200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>29648600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>30135500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>31985700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>34811700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>35072300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2400,8 +2626,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2444,52 +2676,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5578900</v>
+        <v>4119200</v>
       </c>
       <c r="E52" s="3">
-        <v>5738100</v>
+        <v>5108300</v>
       </c>
       <c r="F52" s="3">
-        <v>5206700</v>
+        <v>5627700</v>
       </c>
       <c r="G52" s="3">
-        <v>4757600</v>
+        <v>5788300</v>
       </c>
       <c r="H52" s="3">
-        <v>4496300</v>
+        <v>5354100</v>
       </c>
       <c r="I52" s="3">
+        <v>4799200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4535600</v>
+      </c>
+      <c r="K52" s="3">
         <v>5569100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4813600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5514600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6432400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7104400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7589900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7453700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2532,52 +2776,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>143577800</v>
+        <v>138975000</v>
       </c>
       <c r="E54" s="3">
-        <v>140966700</v>
+        <v>139750300</v>
       </c>
       <c r="F54" s="3">
-        <v>142962900</v>
+        <v>144833100</v>
       </c>
       <c r="G54" s="3">
-        <v>139151700</v>
+        <v>142199200</v>
       </c>
       <c r="H54" s="3">
-        <v>143303300</v>
+        <v>144380100</v>
       </c>
       <c r="I54" s="3">
+        <v>140368400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>144556200</v>
+      </c>
+      <c r="K54" s="3">
         <v>151106800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>82782600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>84246900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>86067900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>92721300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>99837200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>96531800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2594,8 +2850,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2612,272 +2870,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6255300</v>
+        <v>5904600</v>
       </c>
       <c r="E57" s="3">
-        <v>5911600</v>
+        <v>7117400</v>
       </c>
       <c r="F57" s="3">
-        <v>6046700</v>
+        <v>6310000</v>
       </c>
       <c r="G57" s="3">
-        <v>6629700</v>
+        <v>5963300</v>
       </c>
       <c r="H57" s="3">
-        <v>6101600</v>
+        <v>6328800</v>
       </c>
       <c r="I57" s="3">
+        <v>6687700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6154900</v>
+      </c>
+      <c r="K57" s="3">
         <v>5456000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4329400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5754700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4407200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5846700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>6679000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7524100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6613300</v>
+        <v>3544300</v>
       </c>
       <c r="E58" s="3">
-        <v>7252300</v>
+        <v>2416800</v>
       </c>
       <c r="F58" s="3">
-        <v>4596200</v>
+        <v>6671100</v>
       </c>
       <c r="G58" s="3">
-        <v>4042800</v>
+        <v>7315700</v>
       </c>
       <c r="H58" s="3">
-        <v>3834200</v>
+        <v>4636400</v>
       </c>
       <c r="I58" s="3">
+        <v>4078200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3867700</v>
+      </c>
+      <c r="K58" s="3">
         <v>10470500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1933600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2171100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3973000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>5651500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4928800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>3992100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>15742000</v>
+        <v>15272700</v>
       </c>
       <c r="E59" s="3">
-        <v>14715400</v>
+        <v>16178700</v>
       </c>
       <c r="F59" s="3">
-        <v>15591600</v>
+        <v>15879700</v>
       </c>
       <c r="G59" s="3">
-        <v>14718700</v>
+        <v>14844100</v>
       </c>
       <c r="H59" s="3">
-        <v>12530400</v>
+        <v>15593900</v>
       </c>
       <c r="I59" s="3">
+        <v>14847400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>12639900</v>
+      </c>
+      <c r="K59" s="3">
         <v>13753500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8118600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7325500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8352100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9550400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11366000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10242700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>28610600</v>
+        <v>24721600</v>
       </c>
       <c r="E60" s="3">
-        <v>27879300</v>
+        <v>25712900</v>
       </c>
       <c r="F60" s="3">
-        <v>26234500</v>
+        <v>28860700</v>
       </c>
       <c r="G60" s="3">
-        <v>25391300</v>
+        <v>28123100</v>
       </c>
       <c r="H60" s="3">
-        <v>22466200</v>
+        <v>26559100</v>
       </c>
       <c r="I60" s="3">
+        <v>25613300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>22662600</v>
+      </c>
+      <c r="K60" s="3">
         <v>29680000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14381600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15251200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16732200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>21048500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>22973800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>21758900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>41462700</v>
+        <v>40773000</v>
       </c>
       <c r="E61" s="3">
-        <v>40321900</v>
+        <v>40883700</v>
       </c>
       <c r="F61" s="3">
-        <v>41670200</v>
+        <v>41825200</v>
       </c>
       <c r="G61" s="3">
-        <v>41407800</v>
+        <v>40674400</v>
       </c>
       <c r="H61" s="3">
-        <v>44313100</v>
+        <v>42034500</v>
       </c>
       <c r="I61" s="3">
+        <v>41769800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>44700500</v>
+      </c>
+      <c r="K61" s="3">
         <v>46767100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>13475800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>14005800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>14110100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>15896400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>17358300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>18992200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>22835100</v>
+        <v>19450600</v>
       </c>
       <c r="E62" s="3">
-        <v>23413800</v>
+        <v>20616900</v>
       </c>
       <c r="F62" s="3">
-        <v>22265200</v>
+        <v>23034800</v>
       </c>
       <c r="G62" s="3">
-        <v>21682200</v>
+        <v>23618500</v>
       </c>
       <c r="H62" s="3">
-        <v>21188100</v>
+        <v>22624900</v>
       </c>
       <c r="I62" s="3">
+        <v>21871800</v>
+      </c>
+      <c r="J62" s="3">
+        <v>21373400</v>
+      </c>
+      <c r="K62" s="3">
         <v>22817500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12779600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>13632200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>13426900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>15964800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>17415800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18339600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2920,8 +3216,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2964,8 +3266,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3008,52 +3316,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>93108200</v>
+        <v>85135700</v>
       </c>
       <c r="E66" s="3">
-        <v>91802700</v>
+        <v>87412900</v>
       </c>
       <c r="F66" s="3">
-        <v>90357700</v>
+        <v>93922300</v>
       </c>
       <c r="G66" s="3">
-        <v>88669000</v>
+        <v>92605300</v>
       </c>
       <c r="H66" s="3">
-        <v>88156200</v>
+        <v>91408000</v>
       </c>
       <c r="I66" s="3">
+        <v>89444200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>88927000</v>
+      </c>
+      <c r="K66" s="3">
         <v>99344800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>40698500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>42956500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>44334300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>56088300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>60377300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>60926600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3070,8 +3390,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3114,8 +3436,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3158,8 +3486,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3202,8 +3536,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3246,52 +3586,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>27658600</v>
+        <v>30827800</v>
       </c>
       <c r="E72" s="3">
-        <v>26353100</v>
+        <v>29325900</v>
       </c>
       <c r="F72" s="3">
-        <v>29794200</v>
+        <v>27900400</v>
       </c>
       <c r="G72" s="3">
-        <v>27671800</v>
+        <v>26583500</v>
       </c>
       <c r="H72" s="3">
-        <v>32336100</v>
+        <v>29961700</v>
       </c>
       <c r="I72" s="3">
+        <v>27913700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>32618800</v>
+      </c>
+      <c r="K72" s="3">
         <v>28951000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>29155200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>28078900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>28522100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>23421500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>36975000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>33120200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3334,8 +3686,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3378,8 +3736,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3422,52 +3786,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>50469600</v>
+        <v>53839300</v>
       </c>
       <c r="E76" s="3">
-        <v>49164000</v>
+        <v>52337400</v>
       </c>
       <c r="F76" s="3">
-        <v>52605200</v>
+        <v>50910800</v>
       </c>
       <c r="G76" s="3">
-        <v>50482700</v>
+        <v>49593900</v>
       </c>
       <c r="H76" s="3">
-        <v>55147100</v>
+        <v>52972100</v>
       </c>
       <c r="I76" s="3">
+        <v>50924100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>55629200</v>
+      </c>
+      <c r="K76" s="3">
         <v>51761900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>42084100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>41290400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>41733500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>36633000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>39460000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>35605200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3510,101 +3886,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1137500</v>
+        <v>1649200</v>
       </c>
       <c r="E81" s="3">
-        <v>1801800</v>
+        <v>1566100</v>
       </c>
       <c r="F81" s="3">
-        <v>1362600</v>
+        <v>1147500</v>
       </c>
       <c r="G81" s="3">
-        <v>-4330500</v>
+        <v>1817600</v>
       </c>
       <c r="H81" s="3">
-        <v>3152400</v>
+        <v>1374500</v>
       </c>
       <c r="I81" s="3">
+        <v>-4346200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3179900</v>
+      </c>
+      <c r="K81" s="3">
         <v>871800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2145500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>166100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>4354400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1373300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>2445000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>531700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3621,52 +4015,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1110100</v>
+        <v>1414400</v>
       </c>
       <c r="E83" s="3">
-        <v>3017300</v>
+        <v>1778800</v>
       </c>
       <c r="F83" s="3">
-        <v>1304400</v>
+        <v>1119800</v>
       </c>
       <c r="G83" s="3">
-        <v>4681900</v>
+        <v>3043700</v>
       </c>
       <c r="H83" s="3">
-        <v>982700</v>
+        <v>1315800</v>
       </c>
       <c r="I83" s="3">
+        <v>4722800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>991300</v>
+      </c>
+      <c r="K83" s="3">
         <v>752100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>557800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>936900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>295100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>933500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>856900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1320500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3709,8 +4111,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3753,8 +4161,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3797,8 +4211,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3841,8 +4261,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3885,52 +4311,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2505600</v>
+        <v>-261400</v>
       </c>
       <c r="E89" s="3">
-        <v>2940400</v>
+        <v>3574200</v>
       </c>
       <c r="F89" s="3">
-        <v>1183600</v>
+        <v>2527500</v>
       </c>
       <c r="G89" s="3">
-        <v>3258900</v>
+        <v>2966200</v>
       </c>
       <c r="H89" s="3">
-        <v>2252000</v>
+        <v>1194000</v>
       </c>
       <c r="I89" s="3">
+        <v>3287400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2271700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2459500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>723600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2545800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3041700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2595200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>987200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>3212700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3947,52 +4385,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-800400</v>
+        <v>-433100</v>
       </c>
       <c r="E91" s="3">
-        <v>-936600</v>
+        <v>-1182900</v>
       </c>
       <c r="F91" s="3">
-        <v>-433700</v>
+        <v>-807400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1236300</v>
+        <v>-944800</v>
       </c>
       <c r="H91" s="3">
-        <v>-723600</v>
+        <v>-437500</v>
       </c>
       <c r="I91" s="3">
+        <v>-1247200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-729900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-504000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-383200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-624900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-534100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-487100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>748900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4035,8 +4481,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4079,52 +4531,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-262400</v>
+        <v>-662300</v>
       </c>
       <c r="E94" s="3">
-        <v>-512800</v>
+        <v>38800</v>
       </c>
       <c r="F94" s="3">
-        <v>84500</v>
+        <v>-264700</v>
       </c>
       <c r="G94" s="3">
-        <v>-627000</v>
+        <v>-517200</v>
       </c>
       <c r="H94" s="3">
-        <v>7029400</v>
+        <v>85300</v>
       </c>
       <c r="I94" s="3">
+        <v>-632400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>7090900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1917500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>194100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4141,52 +4605,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-2866900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>-2891900</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-3300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4229,8 +4701,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4273,8 +4751,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4317,136 +4801,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1114500</v>
+        <v>39900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3187500</v>
+        <v>-4952100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1282500</v>
+        <v>-1124200</v>
       </c>
       <c r="G100" s="3">
-        <v>-3482900</v>
+        <v>-3215400</v>
       </c>
       <c r="H100" s="3">
-        <v>-9400000</v>
+        <v>-1293700</v>
       </c>
       <c r="I100" s="3">
+        <v>-3513300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-9482200</v>
+      </c>
+      <c r="K100" s="3">
         <v>39249100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-637900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-41500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-616000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>717200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>3413400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>23100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>25300</v>
-      </c>
       <c r="G101" s="3">
-        <v>-24200</v>
+        <v>23300</v>
       </c>
       <c r="H101" s="3">
-        <v>-59300</v>
+        <v>25500</v>
       </c>
       <c r="I101" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-424900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-129600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-51600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-72900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-41500</v>
-      </c>
-      <c r="N101" s="3">
-        <v>10600</v>
-      </c>
-      <c r="O101" s="3">
-        <v>5900</v>
       </c>
       <c r="P101" s="3">
         <v>10600</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R101" s="3">
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1129800</v>
+        <v>-959200</v>
       </c>
       <c r="E102" s="3">
-        <v>-736800</v>
+        <v>-1356800</v>
       </c>
       <c r="F102" s="3">
-        <v>11000</v>
+        <v>1139700</v>
       </c>
       <c r="G102" s="3">
-        <v>-875100</v>
+        <v>-743200</v>
       </c>
       <c r="H102" s="3">
-        <v>-177900</v>
+        <v>11100</v>
       </c>
       <c r="I102" s="3">
+        <v>-882800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-179400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-357900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2273200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3121400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>616000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>381500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>782900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,226 +662,238 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14227100</v>
+        <v>11892900</v>
       </c>
       <c r="E8" s="3">
-        <v>11906700</v>
+        <v>15194400</v>
       </c>
       <c r="F8" s="3">
-        <v>10887700</v>
+        <v>12716200</v>
       </c>
       <c r="G8" s="3">
-        <v>25436000</v>
+        <v>11627900</v>
       </c>
       <c r="H8" s="3">
-        <v>13570300</v>
+        <v>12672400</v>
       </c>
       <c r="I8" s="3">
-        <v>11469200</v>
+        <v>14492900</v>
       </c>
       <c r="J8" s="3">
+        <v>12248900</v>
+      </c>
+      <c r="K8" s="3">
         <v>10257500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10410100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10033500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9644600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9004000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9777000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11362500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10356500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5157000</v>
+        <v>4752900</v>
       </c>
       <c r="E9" s="3">
-        <v>5399600</v>
+        <v>5507600</v>
       </c>
       <c r="F9" s="3">
-        <v>4145700</v>
+        <v>5766600</v>
       </c>
       <c r="G9" s="3">
-        <v>9801200</v>
+        <v>4427600</v>
       </c>
       <c r="H9" s="3">
-        <v>5390700</v>
+        <v>4782500</v>
       </c>
       <c r="I9" s="3">
-        <v>6251300</v>
+        <v>5757200</v>
       </c>
       <c r="J9" s="3">
+        <v>6676300</v>
+      </c>
+      <c r="K9" s="3">
         <v>4542300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3850700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3194100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3418700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2877900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3122500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3506200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3695200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9070100</v>
+        <v>7140000</v>
       </c>
       <c r="E10" s="3">
-        <v>6507200</v>
+        <v>9686800</v>
       </c>
       <c r="F10" s="3">
-        <v>6742000</v>
+        <v>6949500</v>
       </c>
       <c r="G10" s="3">
-        <v>15634900</v>
+        <v>7200300</v>
       </c>
       <c r="H10" s="3">
-        <v>8179600</v>
+        <v>7889900</v>
       </c>
       <c r="I10" s="3">
-        <v>5217900</v>
+        <v>8735700</v>
       </c>
       <c r="J10" s="3">
+        <v>5572600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5715200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6559500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6839400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6225900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6126100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6654500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7856300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6661400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,58 +912,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1442100</v>
+        <v>1380400</v>
       </c>
       <c r="E12" s="3">
-        <v>1559500</v>
+        <v>1540100</v>
       </c>
       <c r="F12" s="3">
-        <v>1431000</v>
+        <v>1665500</v>
       </c>
       <c r="G12" s="3">
-        <v>2926300</v>
+        <v>1528300</v>
       </c>
       <c r="H12" s="3">
-        <v>1458700</v>
+        <v>1542500</v>
       </c>
       <c r="I12" s="3">
-        <v>1880700</v>
+        <v>1557900</v>
       </c>
       <c r="J12" s="3">
+        <v>2008600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1292600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1391200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1141900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1384500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1210600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1230800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1284100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1461400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,8 +1016,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1050,8 +1069,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,8 +1122,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1117,108 +1142,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11459200</v>
+        <v>24649300</v>
       </c>
       <c r="E17" s="3">
-        <v>11468100</v>
+        <v>12238300</v>
       </c>
       <c r="F17" s="3">
-        <v>9542000</v>
+        <v>12247700</v>
       </c>
       <c r="G17" s="3">
-        <v>22580600</v>
+        <v>10190700</v>
       </c>
       <c r="H17" s="3">
-        <v>11598800</v>
+        <v>11743800</v>
       </c>
       <c r="I17" s="3">
-        <v>16127800</v>
+        <v>12387300</v>
       </c>
       <c r="J17" s="3">
+        <v>17224200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5469300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8932200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7497100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8943400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7446600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8135500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8513600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9668700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2767900</v>
+        <v>-12756400</v>
       </c>
       <c r="E18" s="3">
-        <v>438600</v>
+        <v>2956100</v>
       </c>
       <c r="F18" s="3">
-        <v>1345700</v>
+        <v>468400</v>
       </c>
       <c r="G18" s="3">
-        <v>2855400</v>
+        <v>1437200</v>
       </c>
       <c r="H18" s="3">
-        <v>1971500</v>
+        <v>928600</v>
       </c>
       <c r="I18" s="3">
-        <v>-4658600</v>
+        <v>2105600</v>
       </c>
       <c r="J18" s="3">
+        <v>-4975300</v>
+      </c>
+      <c r="K18" s="3">
         <v>4788200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1477900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2536400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>701200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1557300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1641500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2848800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>687900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1237,108 +1269,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-722200</v>
+        <v>-326500</v>
       </c>
       <c r="E20" s="3">
-        <v>-418700</v>
+        <v>-771300</v>
       </c>
       <c r="F20" s="3">
-        <v>-198300</v>
+        <v>-447100</v>
       </c>
       <c r="G20" s="3">
-        <v>-832900</v>
+        <v>-211700</v>
       </c>
       <c r="H20" s="3">
-        <v>-330100</v>
+        <v>-538200</v>
       </c>
       <c r="I20" s="3">
-        <v>-797500</v>
+        <v>-352500</v>
       </c>
       <c r="J20" s="3">
+        <v>-851700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-752100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-354700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>142700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-289500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-452200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-414000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-347400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-262900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3460100</v>
+        <v>-11687100</v>
       </c>
       <c r="E21" s="3">
-        <v>1798700</v>
+        <v>3695400</v>
       </c>
       <c r="F21" s="3">
-        <v>2267300</v>
+        <v>1921000</v>
       </c>
       <c r="G21" s="3">
-        <v>5066200</v>
+        <v>2421400</v>
       </c>
       <c r="H21" s="3">
-        <v>2957300</v>
+        <v>2235700</v>
       </c>
       <c r="I21" s="3">
-        <v>-856200</v>
+        <v>3158300</v>
       </c>
       <c r="J21" s="3">
+        <v>-914400</v>
+      </c>
+      <c r="K21" s="3">
         <v>5027400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1875400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3236900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1348600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1757000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1804200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3358300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2344100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1387,108 +1426,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2045700</v>
+        <v>-13082900</v>
       </c>
       <c r="E23" s="3">
-        <v>19900</v>
+        <v>2184800</v>
       </c>
       <c r="F23" s="3">
-        <v>1147500</v>
+        <v>21300</v>
       </c>
       <c r="G23" s="3">
-        <v>2022500</v>
+        <v>1225500</v>
       </c>
       <c r="H23" s="3">
-        <v>1641500</v>
+        <v>390400</v>
       </c>
       <c r="I23" s="3">
-        <v>-5456000</v>
+        <v>1753100</v>
       </c>
       <c r="J23" s="3">
+        <v>-5827000</v>
+      </c>
+      <c r="K23" s="3">
         <v>4036100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1123300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2679100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>411800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1105200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1227500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2501400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>424900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>530500</v>
+        <v>-1715200</v>
       </c>
       <c r="E24" s="3">
-        <v>49800</v>
+        <v>566600</v>
       </c>
       <c r="F24" s="3">
-        <v>36600</v>
+        <v>53200</v>
       </c>
       <c r="G24" s="3">
-        <v>412000</v>
+        <v>39000</v>
       </c>
       <c r="H24" s="3">
-        <v>396500</v>
+        <v>11800</v>
       </c>
       <c r="I24" s="3">
-        <v>-1067700</v>
+        <v>423500</v>
       </c>
       <c r="J24" s="3">
+        <v>-1140300</v>
+      </c>
+      <c r="K24" s="3">
         <v>918200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>236100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>542400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>488100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>237900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>289500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>497700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>74000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1537,108 +1585,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1515200</v>
+        <v>-11367700</v>
       </c>
       <c r="E26" s="3">
-        <v>-29900</v>
+        <v>1618200</v>
       </c>
       <c r="F26" s="3">
-        <v>1110900</v>
+        <v>-31900</v>
       </c>
       <c r="G26" s="3">
-        <v>1610500</v>
+        <v>1186400</v>
       </c>
       <c r="H26" s="3">
-        <v>1244900</v>
+        <v>378500</v>
       </c>
       <c r="I26" s="3">
-        <v>-4388300</v>
+        <v>1329600</v>
       </c>
       <c r="J26" s="3">
+        <v>-4686600</v>
+      </c>
+      <c r="K26" s="3">
         <v>3117900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>887200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2136700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-76300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>867300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>938000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2003700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>351000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1516300</v>
+        <v>-11378300</v>
       </c>
       <c r="E27" s="3">
-        <v>-42100</v>
+        <v>1619400</v>
       </c>
       <c r="F27" s="3">
-        <v>1102100</v>
+        <v>-45000</v>
       </c>
       <c r="G27" s="3">
-        <v>1610500</v>
+        <v>1177000</v>
       </c>
       <c r="H27" s="3">
-        <v>1250500</v>
+        <v>377300</v>
       </c>
       <c r="I27" s="3">
-        <v>-4390500</v>
+        <v>1335500</v>
       </c>
       <c r="J27" s="3">
+        <v>-4689000</v>
+      </c>
+      <c r="K27" s="3">
         <v>3109000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>880600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2136700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-78500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>870700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>935700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1783000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>346300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1687,58 +1744,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>132900</v>
+        <v>84000</v>
       </c>
       <c r="E29" s="3">
-        <v>1608200</v>
+        <v>141900</v>
       </c>
       <c r="F29" s="3">
-        <v>45400</v>
+        <v>1717600</v>
       </c>
       <c r="G29" s="3">
-        <v>207100</v>
+        <v>48500</v>
       </c>
       <c r="H29" s="3">
-        <v>124100</v>
+        <v>100500</v>
       </c>
       <c r="I29" s="3">
-        <v>44300</v>
+        <v>132500</v>
       </c>
       <c r="J29" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K29" s="3">
         <v>70900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-8800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>8800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>244600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>3483800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>437600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>662000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>185500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1787,8 +1850,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1837,108 +1903,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>722200</v>
+        <v>326500</v>
       </c>
       <c r="E32" s="3">
-        <v>418700</v>
+        <v>771300</v>
       </c>
       <c r="F32" s="3">
-        <v>198300</v>
+        <v>447100</v>
       </c>
       <c r="G32" s="3">
-        <v>832900</v>
+        <v>211700</v>
       </c>
       <c r="H32" s="3">
-        <v>330100</v>
+        <v>538200</v>
       </c>
       <c r="I32" s="3">
-        <v>797500</v>
+        <v>352500</v>
       </c>
       <c r="J32" s="3">
+        <v>851700</v>
+      </c>
+      <c r="K32" s="3">
         <v>752100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>354700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-142700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>289500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>452200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>414000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>347400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>262900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1649200</v>
+        <v>-11294300</v>
       </c>
       <c r="E33" s="3">
-        <v>1566100</v>
+        <v>1761300</v>
       </c>
       <c r="F33" s="3">
-        <v>1147500</v>
+        <v>1672600</v>
       </c>
       <c r="G33" s="3">
-        <v>1817600</v>
+        <v>1225500</v>
       </c>
       <c r="H33" s="3">
-        <v>1374500</v>
+        <v>477900</v>
       </c>
       <c r="I33" s="3">
-        <v>-4346200</v>
+        <v>1468000</v>
       </c>
       <c r="J33" s="3">
+        <v>-4641700</v>
+      </c>
+      <c r="K33" s="3">
         <v>3179900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>871800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2145500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>166100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4354400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1373300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2445000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>531700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1987,113 +2062,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1649200</v>
+        <v>-11294300</v>
       </c>
       <c r="E35" s="3">
-        <v>1566100</v>
+        <v>1761300</v>
       </c>
       <c r="F35" s="3">
-        <v>1147500</v>
+        <v>1672600</v>
       </c>
       <c r="G35" s="3">
-        <v>1817600</v>
+        <v>1225500</v>
       </c>
       <c r="H35" s="3">
-        <v>1374500</v>
+        <v>477900</v>
       </c>
       <c r="I35" s="3">
-        <v>-4346200</v>
+        <v>1468000</v>
       </c>
       <c r="J35" s="3">
+        <v>-4641700</v>
+      </c>
+      <c r="K35" s="3">
         <v>3179900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>871800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2145500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>166100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4354400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1373300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2445000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>531700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2112,8 +2196,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2132,458 +2217,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2535300</v>
+        <v>3723800</v>
       </c>
       <c r="E41" s="3">
-        <v>3527700</v>
+        <v>2707700</v>
       </c>
       <c r="F41" s="3">
-        <v>4884500</v>
+        <v>3767500</v>
       </c>
       <c r="G41" s="3">
-        <v>3702700</v>
+        <v>5216600</v>
       </c>
       <c r="H41" s="3">
-        <v>4499100</v>
+        <v>3954400</v>
       </c>
       <c r="I41" s="3">
-        <v>4488000</v>
+        <v>4804900</v>
       </c>
       <c r="J41" s="3">
+        <v>4793100</v>
+      </c>
+      <c r="K41" s="3">
         <v>5371900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5469100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5854500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8505800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6232700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3111300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2610600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2229100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3059200</v>
+        <v>3028200</v>
       </c>
       <c r="E42" s="3">
-        <v>2576300</v>
+        <v>3267200</v>
       </c>
       <c r="F42" s="3">
-        <v>1267100</v>
+        <v>2751400</v>
       </c>
       <c r="G42" s="3">
-        <v>962500</v>
+        <v>1353200</v>
       </c>
       <c r="H42" s="3">
-        <v>943700</v>
+        <v>1027900</v>
       </c>
       <c r="I42" s="3">
-        <v>1291500</v>
+        <v>1007800</v>
       </c>
       <c r="J42" s="3">
+        <v>1379300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1773300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1709600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8031900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3959500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6806000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8115400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7819900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7365700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18470300</v>
+        <v>18598700</v>
       </c>
       <c r="E43" s="3">
-        <v>16770200</v>
+        <v>19726000</v>
       </c>
       <c r="F43" s="3">
-        <v>15721300</v>
+        <v>17910300</v>
       </c>
       <c r="G43" s="3">
-        <v>18339600</v>
+        <v>16790100</v>
       </c>
       <c r="H43" s="3">
-        <v>18662000</v>
+        <v>19586500</v>
       </c>
       <c r="I43" s="3">
-        <v>16039200</v>
+        <v>19930700</v>
       </c>
       <c r="J43" s="3">
+        <v>17129600</v>
+      </c>
+      <c r="K43" s="3">
         <v>15883000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18145500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12064800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>11592400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11857200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15914300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18548500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16263100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11082600</v>
+        <v>11980400</v>
       </c>
       <c r="E44" s="3">
-        <v>11795900</v>
+        <v>11836100</v>
       </c>
       <c r="F44" s="3">
-        <v>11646400</v>
+        <v>12597900</v>
       </c>
       <c r="G44" s="3">
-        <v>11509100</v>
+        <v>12438200</v>
       </c>
       <c r="H44" s="3">
-        <v>11643100</v>
+        <v>12149600</v>
       </c>
       <c r="I44" s="3">
-        <v>12329800</v>
+        <v>12434600</v>
       </c>
       <c r="J44" s="3">
+        <v>13168000</v>
+      </c>
+      <c r="K44" s="3">
         <v>12230100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12023100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7029400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7349000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7558800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9490900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10181600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9869400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1400000</v>
+        <v>1410000</v>
       </c>
       <c r="E45" s="3">
-        <v>1259300</v>
+        <v>1495200</v>
       </c>
       <c r="F45" s="3">
-        <v>3599700</v>
+        <v>1345000</v>
       </c>
       <c r="G45" s="3">
-        <v>1782100</v>
+        <v>3844400</v>
       </c>
       <c r="H45" s="3">
-        <v>257000</v>
+        <v>1903300</v>
       </c>
       <c r="I45" s="3">
-        <v>259200</v>
+        <v>274400</v>
       </c>
       <c r="J45" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K45" s="3">
         <v>260300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4083500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3438900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2334900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2046500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32900</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>11700</v>
       </c>
       <c r="R45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>36547500</v>
+        <v>38741200</v>
       </c>
       <c r="E46" s="3">
-        <v>35929400</v>
+        <v>39032200</v>
       </c>
       <c r="F46" s="3">
-        <v>37119000</v>
+        <v>38372100</v>
       </c>
       <c r="G46" s="3">
-        <v>36296100</v>
+        <v>39642500</v>
       </c>
       <c r="H46" s="3">
-        <v>36004800</v>
+        <v>38621700</v>
       </c>
       <c r="I46" s="3">
-        <v>34407600</v>
+        <v>38452500</v>
       </c>
       <c r="J46" s="3">
+        <v>36746800</v>
+      </c>
+      <c r="K46" s="3">
         <v>35518500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>41430800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36419600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>33741600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34501200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36635200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>39193500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35739000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3049200</v>
+        <v>3273100</v>
       </c>
       <c r="E47" s="3">
-        <v>3111200</v>
+        <v>3256500</v>
       </c>
       <c r="F47" s="3">
-        <v>4023900</v>
+        <v>3322800</v>
       </c>
       <c r="G47" s="3">
-        <v>3796900</v>
+        <v>4297500</v>
       </c>
       <c r="H47" s="3">
-        <v>3744800</v>
+        <v>4055000</v>
       </c>
       <c r="I47" s="3">
-        <v>3603000</v>
+        <v>3999400</v>
       </c>
       <c r="J47" s="3">
+        <v>3848000</v>
+      </c>
+      <c r="K47" s="3">
         <v>4316300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4441400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5320900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6777900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6690400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2778000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2882900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2873500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>13405300</v>
+        <v>14017400</v>
       </c>
       <c r="E48" s="3">
-        <v>13821700</v>
+        <v>14316600</v>
       </c>
       <c r="F48" s="3">
-        <v>14478500</v>
+        <v>14761400</v>
       </c>
       <c r="G48" s="3">
-        <v>15161900</v>
+        <v>15462900</v>
       </c>
       <c r="H48" s="3">
-        <v>15432200</v>
+        <v>16192700</v>
       </c>
       <c r="I48" s="3">
-        <v>14335700</v>
+        <v>16481300</v>
       </c>
       <c r="J48" s="3">
+        <v>15310300</v>
+      </c>
+      <c r="K48" s="3">
         <v>14609200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14381600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8048300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8564100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8308300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14217900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15359300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15393300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>81853900</v>
+        <v>85391200</v>
       </c>
       <c r="E49" s="3">
-        <v>81779600</v>
+        <v>87418700</v>
       </c>
       <c r="F49" s="3">
-        <v>83583900</v>
+        <v>87339400</v>
       </c>
       <c r="G49" s="3">
-        <v>81156100</v>
+        <v>89266400</v>
       </c>
       <c r="H49" s="3">
-        <v>83844200</v>
+        <v>86673400</v>
       </c>
       <c r="I49" s="3">
-        <v>83222800</v>
+        <v>89544300</v>
       </c>
       <c r="J49" s="3">
+        <v>88880700</v>
+      </c>
+      <c r="K49" s="3">
         <v>85576500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>85283900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28180200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29648600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>30135500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31985700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>34811700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>35072300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2632,8 +2745,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2682,58 +2798,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4119200</v>
+        <v>4862900</v>
       </c>
       <c r="E52" s="3">
-        <v>5108300</v>
+        <v>4399200</v>
       </c>
       <c r="F52" s="3">
-        <v>5627700</v>
+        <v>5455500</v>
       </c>
       <c r="G52" s="3">
-        <v>5788300</v>
+        <v>6010300</v>
       </c>
       <c r="H52" s="3">
-        <v>5354100</v>
+        <v>6224400</v>
       </c>
       <c r="I52" s="3">
-        <v>4799200</v>
+        <v>5718100</v>
       </c>
       <c r="J52" s="3">
+        <v>5125500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4535600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5569100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4813600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5514600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6432400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7104400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7589900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7453700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2782,58 +2904,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>138975000</v>
+        <v>146285700</v>
       </c>
       <c r="E54" s="3">
-        <v>139750300</v>
+        <v>148423200</v>
       </c>
       <c r="F54" s="3">
-        <v>144833100</v>
+        <v>149251200</v>
       </c>
       <c r="G54" s="3">
-        <v>142199200</v>
+        <v>154679600</v>
       </c>
       <c r="H54" s="3">
-        <v>144380100</v>
+        <v>151767300</v>
       </c>
       <c r="I54" s="3">
-        <v>140368400</v>
+        <v>154195700</v>
       </c>
       <c r="J54" s="3">
+        <v>149911300</v>
+      </c>
+      <c r="K54" s="3">
         <v>144556200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>151106800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82782600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84246900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>86067900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>92721300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>99837200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96531800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2852,8 +2980,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2872,308 +3001,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>5904600</v>
+        <v>6030400</v>
       </c>
       <c r="E57" s="3">
-        <v>7117400</v>
+        <v>6306000</v>
       </c>
       <c r="F57" s="3">
-        <v>6310000</v>
+        <v>7601300</v>
       </c>
       <c r="G57" s="3">
-        <v>5963300</v>
+        <v>6739000</v>
       </c>
       <c r="H57" s="3">
-        <v>6328800</v>
+        <v>6368700</v>
       </c>
       <c r="I57" s="3">
-        <v>6687700</v>
+        <v>6759100</v>
       </c>
       <c r="J57" s="3">
+        <v>7142400</v>
+      </c>
+      <c r="K57" s="3">
         <v>6154900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5456000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4329400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5754700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4407200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5846700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6679000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7524100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3544300</v>
+        <v>8720300</v>
       </c>
       <c r="E58" s="3">
-        <v>2416800</v>
+        <v>3785300</v>
       </c>
       <c r="F58" s="3">
-        <v>6671100</v>
+        <v>2581100</v>
       </c>
       <c r="G58" s="3">
-        <v>7315700</v>
+        <v>7124600</v>
       </c>
       <c r="H58" s="3">
-        <v>4636400</v>
+        <v>7897000</v>
       </c>
       <c r="I58" s="3">
-        <v>4078200</v>
+        <v>4951600</v>
       </c>
       <c r="J58" s="3">
+        <v>4355400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3867700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10470500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1933600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2171100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3973000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5651500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4928800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3992100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>15272700</v>
+        <v>28476000</v>
       </c>
       <c r="E59" s="3">
-        <v>16178700</v>
+        <v>16311000</v>
       </c>
       <c r="F59" s="3">
-        <v>15879700</v>
+        <v>17278600</v>
       </c>
       <c r="G59" s="3">
-        <v>14844100</v>
+        <v>16959200</v>
       </c>
       <c r="H59" s="3">
-        <v>15593900</v>
+        <v>15853200</v>
       </c>
       <c r="I59" s="3">
-        <v>14847400</v>
+        <v>16654000</v>
       </c>
       <c r="J59" s="3">
+        <v>15856800</v>
+      </c>
+      <c r="K59" s="3">
         <v>12639900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13753500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8118600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7325500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8352100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9550400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11366000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10242700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>24721600</v>
+        <v>43226700</v>
       </c>
       <c r="E60" s="3">
-        <v>25712900</v>
+        <v>26402300</v>
       </c>
       <c r="F60" s="3">
-        <v>28860700</v>
+        <v>27461000</v>
       </c>
       <c r="G60" s="3">
-        <v>28123100</v>
+        <v>30822800</v>
       </c>
       <c r="H60" s="3">
-        <v>26559100</v>
+        <v>30119000</v>
       </c>
       <c r="I60" s="3">
-        <v>25613300</v>
+        <v>28364800</v>
       </c>
       <c r="J60" s="3">
+        <v>27354600</v>
+      </c>
+      <c r="K60" s="3">
         <v>22662600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29680000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14381600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15251200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16732200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>21048500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22973800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21758900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>40773000</v>
+        <v>40155900</v>
       </c>
       <c r="E61" s="3">
-        <v>40883700</v>
+        <v>43544900</v>
       </c>
       <c r="F61" s="3">
-        <v>41825200</v>
+        <v>43663200</v>
       </c>
       <c r="G61" s="3">
-        <v>40674400</v>
+        <v>44668700</v>
       </c>
       <c r="H61" s="3">
-        <v>42034500</v>
+        <v>43355700</v>
       </c>
       <c r="I61" s="3">
-        <v>41769800</v>
+        <v>44892200</v>
       </c>
       <c r="J61" s="3">
+        <v>44609500</v>
+      </c>
+      <c r="K61" s="3">
         <v>44700500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46767100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13475800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14005800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14110100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15896400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17358300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18992200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>19450600</v>
+        <v>20477200</v>
       </c>
       <c r="E62" s="3">
-        <v>20616900</v>
+        <v>20772900</v>
       </c>
       <c r="F62" s="3">
-        <v>23034800</v>
+        <v>22018500</v>
       </c>
       <c r="G62" s="3">
-        <v>23618500</v>
+        <v>24600800</v>
       </c>
       <c r="H62" s="3">
-        <v>22624900</v>
+        <v>25224200</v>
       </c>
       <c r="I62" s="3">
-        <v>21871800</v>
+        <v>24163100</v>
       </c>
       <c r="J62" s="3">
+        <v>23358700</v>
+      </c>
+      <c r="K62" s="3">
         <v>21373400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22817500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12779600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13632200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13426900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15964800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17415800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18339600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3222,8 +3370,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3272,8 +3423,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3322,58 +3476,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>85135700</v>
+        <v>104051400</v>
       </c>
       <c r="E66" s="3">
-        <v>87412900</v>
+        <v>90923600</v>
       </c>
       <c r="F66" s="3">
-        <v>93922300</v>
+        <v>93355700</v>
       </c>
       <c r="G66" s="3">
-        <v>92605300</v>
+        <v>100307600</v>
       </c>
       <c r="H66" s="3">
-        <v>91408000</v>
+        <v>98901100</v>
       </c>
       <c r="I66" s="3">
-        <v>89444200</v>
+        <v>97622400</v>
       </c>
       <c r="J66" s="3">
+        <v>95525100</v>
+      </c>
+      <c r="K66" s="3">
         <v>88927000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>99344800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40698500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>42956500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>44334300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>56088300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60377300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60926600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3392,8 +3552,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3442,8 +3603,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3492,8 +3656,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3542,8 +3709,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3592,58 +3762,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>30827800</v>
+        <v>17658300</v>
       </c>
       <c r="E72" s="3">
-        <v>29325900</v>
+        <v>32923700</v>
       </c>
       <c r="F72" s="3">
-        <v>27900400</v>
+        <v>31319600</v>
       </c>
       <c r="G72" s="3">
-        <v>26583500</v>
+        <v>29797300</v>
       </c>
       <c r="H72" s="3">
-        <v>29961700</v>
+        <v>28291400</v>
       </c>
       <c r="I72" s="3">
-        <v>27913700</v>
+        <v>31998600</v>
       </c>
       <c r="J72" s="3">
+        <v>29811400</v>
+      </c>
+      <c r="K72" s="3">
         <v>32618800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28951000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29155200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28078900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28522100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>23421500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36975000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33120200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3692,8 +3868,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3742,8 +3921,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3792,58 +3974,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>53839300</v>
+        <v>42234300</v>
       </c>
       <c r="E76" s="3">
-        <v>52337400</v>
+        <v>57499600</v>
       </c>
       <c r="F76" s="3">
-        <v>50910800</v>
+        <v>55895600</v>
       </c>
       <c r="G76" s="3">
-        <v>49593900</v>
+        <v>54372000</v>
       </c>
       <c r="H76" s="3">
-        <v>52972100</v>
+        <v>52866200</v>
       </c>
       <c r="I76" s="3">
-        <v>50924100</v>
+        <v>56573400</v>
       </c>
       <c r="J76" s="3">
+        <v>54386200</v>
+      </c>
+      <c r="K76" s="3">
         <v>55629200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51761900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42084100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41290400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41733500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36633000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39460000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35605200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3892,113 +4080,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1649200</v>
+        <v>-11294300</v>
       </c>
       <c r="E81" s="3">
-        <v>1566100</v>
+        <v>1761300</v>
       </c>
       <c r="F81" s="3">
-        <v>1147500</v>
+        <v>1672600</v>
       </c>
       <c r="G81" s="3">
-        <v>1817600</v>
+        <v>1225500</v>
       </c>
       <c r="H81" s="3">
-        <v>1374500</v>
+        <v>477900</v>
       </c>
       <c r="I81" s="3">
-        <v>-4346200</v>
+        <v>1468000</v>
       </c>
       <c r="J81" s="3">
+        <v>-4641700</v>
+      </c>
+      <c r="K81" s="3">
         <v>3179900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>871800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2145500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>166100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4354400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1373300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2445000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>531700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4017,58 +4214,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1414400</v>
+        <v>1395800</v>
       </c>
       <c r="E83" s="3">
-        <v>1778800</v>
+        <v>1510600</v>
       </c>
       <c r="F83" s="3">
-        <v>1119800</v>
+        <v>1899700</v>
       </c>
       <c r="G83" s="3">
-        <v>3043700</v>
+        <v>1195900</v>
       </c>
       <c r="H83" s="3">
-        <v>1315800</v>
+        <v>1845300</v>
       </c>
       <c r="I83" s="3">
-        <v>4722800</v>
+        <v>1405300</v>
       </c>
       <c r="J83" s="3">
+        <v>5043900</v>
+      </c>
+      <c r="K83" s="3">
         <v>991300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>752100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>557800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>936900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>295100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>933500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>856900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1320500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4117,8 +4318,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4167,8 +4371,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4217,8 +4424,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4267,8 +4477,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4317,58 +4530,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-261400</v>
+        <v>2855500</v>
       </c>
       <c r="E89" s="3">
-        <v>3574200</v>
+        <v>-279200</v>
       </c>
       <c r="F89" s="3">
-        <v>2527500</v>
+        <v>3817200</v>
       </c>
       <c r="G89" s="3">
-        <v>2966200</v>
+        <v>2699400</v>
       </c>
       <c r="H89" s="3">
-        <v>1194000</v>
+        <v>1892600</v>
       </c>
       <c r="I89" s="3">
-        <v>3287400</v>
+        <v>1275200</v>
       </c>
       <c r="J89" s="3">
+        <v>3510800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2271700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2459500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>723600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2545800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3041700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2595200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>987200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3212700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4387,58 +4606,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-433100</v>
+        <v>-692000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1182900</v>
+        <v>-462500</v>
       </c>
       <c r="F91" s="3">
-        <v>-807400</v>
+        <v>-1263300</v>
       </c>
       <c r="G91" s="3">
-        <v>-944800</v>
+        <v>-862300</v>
       </c>
       <c r="H91" s="3">
-        <v>-437500</v>
+        <v>-541800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1247200</v>
+        <v>-467200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1331900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-729900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-504000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-383200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-624900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-534100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-487100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>748900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4487,8 +4710,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4537,58 +4763,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-662300</v>
+        <v>-498000</v>
       </c>
       <c r="E94" s="3">
-        <v>38800</v>
+        <v>-707400</v>
       </c>
       <c r="F94" s="3">
-        <v>-264700</v>
+        <v>41400</v>
       </c>
       <c r="G94" s="3">
-        <v>-517200</v>
+        <v>-282700</v>
       </c>
       <c r="H94" s="3">
-        <v>85300</v>
+        <v>-643500</v>
       </c>
       <c r="I94" s="3">
-        <v>-632400</v>
+        <v>91100</v>
       </c>
       <c r="J94" s="3">
+        <v>-675400</v>
+      </c>
+      <c r="K94" s="3">
         <v>7090900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1917500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>194100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4607,58 +4839,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3254200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-4400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-2891900</v>
+        <v>-4700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-3400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4707,8 +4943,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4757,8 +4996,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4807,154 +5049,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>39900</v>
+        <v>-1331900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4952100</v>
+        <v>42600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1124200</v>
+        <v>-5288700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3215400</v>
+        <v>-1200600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1293700</v>
+        <v>-2052300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3513300</v>
+        <v>-1381600</v>
       </c>
       <c r="J100" s="3">
+        <v>-3752200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39249100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-637900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-41500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-616000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>717200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3413400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-75300</v>
+        <v>-36700</v>
       </c>
       <c r="E101" s="3">
-        <v>-17700</v>
+        <v>-80400</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>-18900</v>
       </c>
       <c r="G101" s="3">
-        <v>23300</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
-        <v>25500</v>
+        <v>-2400</v>
       </c>
       <c r="I101" s="3">
-        <v>-24400</v>
+        <v>27200</v>
       </c>
       <c r="J101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-59800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-424900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-129600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-51600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-72900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-41500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-959200</v>
+        <v>988900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1356800</v>
+        <v>-1024400</v>
       </c>
       <c r="F102" s="3">
-        <v>1139700</v>
+        <v>-1449100</v>
       </c>
       <c r="G102" s="3">
-        <v>-743200</v>
+        <v>1217200</v>
       </c>
       <c r="H102" s="3">
-        <v>11100</v>
+        <v>-805600</v>
       </c>
       <c r="I102" s="3">
-        <v>-882800</v>
+        <v>11800</v>
       </c>
       <c r="J102" s="3">
+        <v>-942800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-179400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-357900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2273200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3121400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>616000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>381500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>782900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,238 +662,250 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11892900</v>
+        <v>10174900</v>
       </c>
       <c r="E8" s="3">
-        <v>15194400</v>
+        <v>12026600</v>
       </c>
       <c r="F8" s="3">
-        <v>12716200</v>
+        <v>15365200</v>
       </c>
       <c r="G8" s="3">
-        <v>11627900</v>
+        <v>12859200</v>
       </c>
       <c r="H8" s="3">
-        <v>12672400</v>
+        <v>11758600</v>
       </c>
       <c r="I8" s="3">
-        <v>14492900</v>
+        <v>27470700</v>
       </c>
       <c r="J8" s="3">
+        <v>14655800</v>
+      </c>
+      <c r="K8" s="3">
         <v>12248900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10257500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10410100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10033500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9644600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9004000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9777000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11362500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10356500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4752900</v>
+        <v>8128200</v>
       </c>
       <c r="E9" s="3">
-        <v>5507600</v>
+        <v>4806300</v>
       </c>
       <c r="F9" s="3">
-        <v>5766600</v>
+        <v>5569500</v>
       </c>
       <c r="G9" s="3">
-        <v>4427600</v>
+        <v>5831500</v>
       </c>
       <c r="H9" s="3">
-        <v>4782500</v>
+        <v>4525200</v>
       </c>
       <c r="I9" s="3">
-        <v>5757200</v>
+        <v>10658100</v>
       </c>
       <c r="J9" s="3">
+        <v>5821900</v>
+      </c>
+      <c r="K9" s="3">
         <v>6676300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4542300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3850700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3194100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3418700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2877900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3122500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3506200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3695200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7140000</v>
+        <v>2046700</v>
       </c>
       <c r="E10" s="3">
-        <v>9686800</v>
+        <v>7220300</v>
       </c>
       <c r="F10" s="3">
-        <v>6949500</v>
+        <v>9795700</v>
       </c>
       <c r="G10" s="3">
-        <v>7200300</v>
+        <v>7027700</v>
       </c>
       <c r="H10" s="3">
-        <v>7889900</v>
+        <v>7233400</v>
       </c>
       <c r="I10" s="3">
-        <v>8735700</v>
+        <v>16812600</v>
       </c>
       <c r="J10" s="3">
+        <v>8833900</v>
+      </c>
+      <c r="K10" s="3">
         <v>5572600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5715200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6559500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6839400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6225900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6126100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6654500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7856300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6661400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,61 +925,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1380400</v>
+        <v>4026400</v>
       </c>
       <c r="E12" s="3">
-        <v>1540100</v>
+        <v>1396000</v>
       </c>
       <c r="F12" s="3">
-        <v>1665500</v>
+        <v>1557500</v>
       </c>
       <c r="G12" s="3">
-        <v>1528300</v>
+        <v>1684200</v>
       </c>
       <c r="H12" s="3">
-        <v>1542500</v>
+        <v>1532300</v>
       </c>
       <c r="I12" s="3">
-        <v>1557900</v>
+        <v>3135200</v>
       </c>
       <c r="J12" s="3">
+        <v>1575400</v>
+      </c>
+      <c r="K12" s="3">
         <v>2008600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1292600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1391200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1141900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1384500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1210600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1230800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1284100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1461400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1019,8 +1035,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,8 +1091,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1125,8 +1147,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1143,114 +1168,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>24649300</v>
+        <v>21418000</v>
       </c>
       <c r="E17" s="3">
-        <v>12238300</v>
+        <v>24926400</v>
       </c>
       <c r="F17" s="3">
-        <v>12247700</v>
+        <v>12375900</v>
       </c>
       <c r="G17" s="3">
-        <v>10190700</v>
+        <v>12385500</v>
       </c>
       <c r="H17" s="3">
-        <v>11743800</v>
+        <v>10313600</v>
       </c>
       <c r="I17" s="3">
-        <v>12387300</v>
+        <v>24402500</v>
       </c>
       <c r="J17" s="3">
+        <v>12526600</v>
+      </c>
+      <c r="K17" s="3">
         <v>17224200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5469300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8932200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7497100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8943400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7446600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8135500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8513600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9668700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-12756400</v>
+        <v>-11243100</v>
       </c>
       <c r="E18" s="3">
-        <v>2956100</v>
+        <v>-12899800</v>
       </c>
       <c r="F18" s="3">
-        <v>468400</v>
+        <v>2989300</v>
       </c>
       <c r="G18" s="3">
-        <v>1437200</v>
+        <v>473700</v>
       </c>
       <c r="H18" s="3">
-        <v>928600</v>
+        <v>1445000</v>
       </c>
       <c r="I18" s="3">
-        <v>2105600</v>
+        <v>3068300</v>
       </c>
       <c r="J18" s="3">
+        <v>2129200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4788200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1477900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2536400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>701200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1557300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1641500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2848800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>687900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1270,114 +1302,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-326500</v>
+        <v>-13200</v>
       </c>
       <c r="E20" s="3">
-        <v>-771300</v>
+        <v>-330200</v>
       </c>
       <c r="F20" s="3">
-        <v>-447100</v>
+        <v>-779900</v>
       </c>
       <c r="G20" s="3">
-        <v>-211700</v>
+        <v>-452200</v>
       </c>
       <c r="H20" s="3">
-        <v>-538200</v>
+        <v>-214100</v>
       </c>
       <c r="I20" s="3">
-        <v>-352500</v>
+        <v>-899500</v>
       </c>
       <c r="J20" s="3">
+        <v>-356500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-851700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-752100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-354700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>142700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-289500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-452200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-414000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-347400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-262900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-11687100</v>
+        <v>1056200</v>
       </c>
       <c r="E21" s="3">
-        <v>3695400</v>
+        <v>-11818500</v>
       </c>
       <c r="F21" s="3">
-        <v>1921000</v>
+        <v>3736900</v>
       </c>
       <c r="G21" s="3">
-        <v>2421400</v>
+        <v>1942600</v>
       </c>
       <c r="H21" s="3">
-        <v>2235700</v>
+        <v>2440200</v>
       </c>
       <c r="I21" s="3">
-        <v>3158300</v>
+        <v>5455900</v>
       </c>
       <c r="J21" s="3">
+        <v>3193900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-914400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5027400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1875400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3236900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1348600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1757000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1804200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3358300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2344100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1429,114 +1468,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-13082900</v>
+        <v>-11256200</v>
       </c>
       <c r="E23" s="3">
-        <v>2184800</v>
+        <v>-13230000</v>
       </c>
       <c r="F23" s="3">
-        <v>21300</v>
+        <v>2209400</v>
       </c>
       <c r="G23" s="3">
-        <v>1225500</v>
+        <v>21500</v>
       </c>
       <c r="H23" s="3">
-        <v>390400</v>
+        <v>1230900</v>
       </c>
       <c r="I23" s="3">
-        <v>1753100</v>
+        <v>2168700</v>
       </c>
       <c r="J23" s="3">
+        <v>1772800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4036100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1123300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2679100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>411800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1105200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1227500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2501400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>424900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-1715200</v>
+        <v>-2039500</v>
       </c>
       <c r="E24" s="3">
-        <v>566600</v>
+        <v>-1734500</v>
       </c>
       <c r="F24" s="3">
-        <v>53200</v>
+        <v>573000</v>
       </c>
       <c r="G24" s="3">
-        <v>39000</v>
+        <v>53800</v>
       </c>
       <c r="H24" s="3">
-        <v>11800</v>
+        <v>37100</v>
       </c>
       <c r="I24" s="3">
-        <v>423500</v>
+        <v>441400</v>
       </c>
       <c r="J24" s="3">
+        <v>428200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>918200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>236100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>542400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>488100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>237900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>289500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>497700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>74000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1588,114 +1636,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-11367700</v>
+        <v>-9216700</v>
       </c>
       <c r="E26" s="3">
-        <v>1618200</v>
+        <v>-11495500</v>
       </c>
       <c r="F26" s="3">
-        <v>-31900</v>
+        <v>1636400</v>
       </c>
       <c r="G26" s="3">
-        <v>1186400</v>
+        <v>-32300</v>
       </c>
       <c r="H26" s="3">
-        <v>378500</v>
+        <v>1193800</v>
       </c>
       <c r="I26" s="3">
-        <v>1329600</v>
+        <v>1727300</v>
       </c>
       <c r="J26" s="3">
+        <v>1344500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3117900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>887200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2136700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-76300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>867300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>938000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2003700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>351000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-11378300</v>
+        <v>-9213100</v>
       </c>
       <c r="E27" s="3">
-        <v>1619400</v>
+        <v>-11506200</v>
       </c>
       <c r="F27" s="3">
-        <v>-45000</v>
+        <v>1637600</v>
       </c>
       <c r="G27" s="3">
-        <v>1177000</v>
+        <v>-45500</v>
       </c>
       <c r="H27" s="3">
-        <v>377300</v>
+        <v>1184200</v>
       </c>
       <c r="I27" s="3">
-        <v>1335500</v>
+        <v>1727300</v>
       </c>
       <c r="J27" s="3">
+        <v>1350500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3109000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>880600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2136700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-78500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>870700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>935700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1783000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>346300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1747,61 +1804,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>84000</v>
+        <v>5930800</v>
       </c>
       <c r="E29" s="3">
-        <v>141900</v>
+        <v>84900</v>
       </c>
       <c r="F29" s="3">
-        <v>1717600</v>
+        <v>143500</v>
       </c>
       <c r="G29" s="3">
-        <v>48500</v>
+        <v>1736900</v>
       </c>
       <c r="H29" s="3">
-        <v>100500</v>
+        <v>55000</v>
       </c>
       <c r="I29" s="3">
-        <v>132500</v>
+        <v>235700</v>
       </c>
       <c r="J29" s="3">
+        <v>134000</v>
+      </c>
+      <c r="K29" s="3">
         <v>47300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>70900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-8800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>8800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>244600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>3483800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>437600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>662000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>185500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1853,8 +1916,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1906,114 +1972,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>326500</v>
+        <v>13200</v>
       </c>
       <c r="E32" s="3">
-        <v>771300</v>
+        <v>330200</v>
       </c>
       <c r="F32" s="3">
-        <v>447100</v>
+        <v>779900</v>
       </c>
       <c r="G32" s="3">
-        <v>211700</v>
+        <v>452200</v>
       </c>
       <c r="H32" s="3">
-        <v>538200</v>
+        <v>214100</v>
       </c>
       <c r="I32" s="3">
-        <v>352500</v>
+        <v>899500</v>
       </c>
       <c r="J32" s="3">
+        <v>356500</v>
+      </c>
+      <c r="K32" s="3">
         <v>851700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>752100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>354700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-142700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>289500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>452200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>414000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>347400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>262900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-11294300</v>
+        <v>-3282400</v>
       </c>
       <c r="E33" s="3">
-        <v>1761300</v>
+        <v>-11421300</v>
       </c>
       <c r="F33" s="3">
-        <v>1672600</v>
+        <v>1781100</v>
       </c>
       <c r="G33" s="3">
-        <v>1225500</v>
+        <v>1691400</v>
       </c>
       <c r="H33" s="3">
-        <v>477900</v>
+        <v>1239300</v>
       </c>
       <c r="I33" s="3">
-        <v>1468000</v>
+        <v>1963000</v>
       </c>
       <c r="J33" s="3">
+        <v>1484500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3179900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>871800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2145500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>166100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4354400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1373300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2445000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>531700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2065,119 +2140,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-11294300</v>
+        <v>-3282400</v>
       </c>
       <c r="E35" s="3">
-        <v>1761300</v>
+        <v>-11421300</v>
       </c>
       <c r="F35" s="3">
-        <v>1672600</v>
+        <v>1781100</v>
       </c>
       <c r="G35" s="3">
-        <v>1225500</v>
+        <v>1691400</v>
       </c>
       <c r="H35" s="3">
-        <v>477900</v>
+        <v>1239300</v>
       </c>
       <c r="I35" s="3">
-        <v>1468000</v>
+        <v>1963000</v>
       </c>
       <c r="J35" s="3">
+        <v>1484500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3179900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>871800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2145500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>166100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4354400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1373300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2445000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>531700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2197,8 +2281,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2218,485 +2303,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3723800</v>
+        <v>6061100</v>
       </c>
       <c r="E41" s="3">
-        <v>2707700</v>
+        <v>3765600</v>
       </c>
       <c r="F41" s="3">
-        <v>3767500</v>
+        <v>2738100</v>
       </c>
       <c r="G41" s="3">
-        <v>5216600</v>
+        <v>3809900</v>
       </c>
       <c r="H41" s="3">
-        <v>3954400</v>
+        <v>5275200</v>
       </c>
       <c r="I41" s="3">
-        <v>4804900</v>
+        <v>3998900</v>
       </c>
       <c r="J41" s="3">
+        <v>4859000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4793100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5371900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5469100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5854500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8505800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6232700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3111300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2610600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2229100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3028200</v>
+        <v>12527800</v>
       </c>
       <c r="E42" s="3">
-        <v>3267200</v>
+        <v>3062300</v>
       </c>
       <c r="F42" s="3">
-        <v>2751400</v>
+        <v>3303900</v>
       </c>
       <c r="G42" s="3">
-        <v>1353200</v>
+        <v>2782400</v>
       </c>
       <c r="H42" s="3">
-        <v>1027900</v>
+        <v>1368500</v>
       </c>
       <c r="I42" s="3">
-        <v>1007800</v>
+        <v>1039500</v>
       </c>
       <c r="J42" s="3">
+        <v>1019200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1379300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1773300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1709600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8031900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3959500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>6806000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8115400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7819900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7365700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18598700</v>
+        <v>15914200</v>
       </c>
       <c r="E43" s="3">
-        <v>19726000</v>
+        <v>18807900</v>
       </c>
       <c r="F43" s="3">
-        <v>17910300</v>
+        <v>19947800</v>
       </c>
       <c r="G43" s="3">
-        <v>16790100</v>
+        <v>18111700</v>
       </c>
       <c r="H43" s="3">
-        <v>19586500</v>
+        <v>16978900</v>
       </c>
       <c r="I43" s="3">
-        <v>19930700</v>
+        <v>19806700</v>
       </c>
       <c r="J43" s="3">
+        <v>20154800</v>
+      </c>
+      <c r="K43" s="3">
         <v>17129600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15883000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18145500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12064800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11592400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11857200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15914300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18548500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16263100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11980400</v>
+        <v>12502700</v>
       </c>
       <c r="E44" s="3">
-        <v>11836100</v>
+        <v>12115100</v>
       </c>
       <c r="F44" s="3">
-        <v>12597900</v>
+        <v>11969200</v>
       </c>
       <c r="G44" s="3">
-        <v>12438200</v>
+        <v>12739500</v>
       </c>
       <c r="H44" s="3">
-        <v>12149600</v>
+        <v>12434500</v>
       </c>
       <c r="I44" s="3">
-        <v>12434600</v>
+        <v>12286200</v>
       </c>
       <c r="J44" s="3">
+        <v>12574500</v>
+      </c>
+      <c r="K44" s="3">
         <v>13168000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12230100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12023100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7029400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7349000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7558800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9490900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10181600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9869400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1410000</v>
+        <v>51400</v>
       </c>
       <c r="E45" s="3">
-        <v>1495200</v>
+        <v>1425900</v>
       </c>
       <c r="F45" s="3">
-        <v>1345000</v>
+        <v>1512000</v>
       </c>
       <c r="G45" s="3">
-        <v>3844400</v>
+        <v>1360100</v>
       </c>
       <c r="H45" s="3">
-        <v>1903300</v>
+        <v>3887700</v>
       </c>
       <c r="I45" s="3">
-        <v>274400</v>
+        <v>1924700</v>
       </c>
       <c r="J45" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K45" s="3">
         <v>276800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>260300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4083500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3438900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2334900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2046500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>32900</v>
-      </c>
-      <c r="R45" s="3">
-        <v>11700</v>
       </c>
       <c r="S45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>38741200</v>
+        <v>47057300</v>
       </c>
       <c r="E46" s="3">
-        <v>39032200</v>
+        <v>39176700</v>
       </c>
       <c r="F46" s="3">
-        <v>38372100</v>
+        <v>39471000</v>
       </c>
       <c r="G46" s="3">
-        <v>39642500</v>
+        <v>38803500</v>
       </c>
       <c r="H46" s="3">
-        <v>38621700</v>
+        <v>39944700</v>
       </c>
       <c r="I46" s="3">
-        <v>38452500</v>
+        <v>39055900</v>
       </c>
       <c r="J46" s="3">
+        <v>38884900</v>
+      </c>
+      <c r="K46" s="3">
         <v>36746800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35518500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>41430800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36419600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>33741600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34501200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36635200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>39193500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35739000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3273100</v>
+        <v>3583800</v>
       </c>
       <c r="E47" s="3">
-        <v>3256500</v>
+        <v>3309900</v>
       </c>
       <c r="F47" s="3">
-        <v>3322800</v>
+        <v>3293100</v>
       </c>
       <c r="G47" s="3">
-        <v>4297500</v>
+        <v>3360100</v>
       </c>
       <c r="H47" s="3">
-        <v>4055000</v>
+        <v>4345800</v>
       </c>
       <c r="I47" s="3">
-        <v>3999400</v>
+        <v>4100600</v>
       </c>
       <c r="J47" s="3">
+        <v>4044400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3848000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4316300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4441400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5320900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6777900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6690400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2778000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2882900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2873500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14017400</v>
+        <v>13758700</v>
       </c>
       <c r="E48" s="3">
-        <v>14316600</v>
+        <v>14175000</v>
       </c>
       <c r="F48" s="3">
-        <v>14761400</v>
+        <v>14477600</v>
       </c>
       <c r="G48" s="3">
-        <v>15462900</v>
+        <v>14927400</v>
       </c>
       <c r="H48" s="3">
-        <v>16192700</v>
+        <v>15636700</v>
       </c>
       <c r="I48" s="3">
-        <v>16481300</v>
+        <v>16374800</v>
       </c>
       <c r="J48" s="3">
+        <v>16666700</v>
+      </c>
+      <c r="K48" s="3">
         <v>15310300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14609200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14381600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8048300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8564100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8308300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14217900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15359300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15393300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>85391200</v>
+        <v>72461000</v>
       </c>
       <c r="E49" s="3">
-        <v>87418700</v>
+        <v>86351300</v>
       </c>
       <c r="F49" s="3">
-        <v>87339400</v>
+        <v>88401600</v>
       </c>
       <c r="G49" s="3">
-        <v>89266400</v>
+        <v>88321400</v>
       </c>
       <c r="H49" s="3">
-        <v>86673400</v>
+        <v>90492500</v>
       </c>
       <c r="I49" s="3">
-        <v>89544300</v>
+        <v>87648000</v>
       </c>
       <c r="J49" s="3">
+        <v>90551100</v>
+      </c>
+      <c r="K49" s="3">
         <v>88880700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>85576500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>85283900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>28180200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29648600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30135500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31985700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>34811700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35072300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2748,8 +2861,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2801,61 +2917,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4862900</v>
+        <v>6109000</v>
       </c>
       <c r="E52" s="3">
-        <v>4399200</v>
+        <v>4917600</v>
       </c>
       <c r="F52" s="3">
-        <v>5455500</v>
+        <v>4448700</v>
       </c>
       <c r="G52" s="3">
-        <v>6010300</v>
+        <v>5516900</v>
       </c>
       <c r="H52" s="3">
-        <v>6224400</v>
+        <v>5898500</v>
       </c>
       <c r="I52" s="3">
-        <v>5718100</v>
+        <v>6294400</v>
       </c>
       <c r="J52" s="3">
+        <v>5782400</v>
+      </c>
+      <c r="K52" s="3">
         <v>5125500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4535600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5569100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4813600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5514600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6432400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7104400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7589900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7453700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2907,61 +3029,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>146285700</v>
+        <v>142969800</v>
       </c>
       <c r="E54" s="3">
-        <v>148423200</v>
+        <v>147930500</v>
       </c>
       <c r="F54" s="3">
-        <v>149251200</v>
+        <v>150092000</v>
       </c>
       <c r="G54" s="3">
-        <v>154679600</v>
+        <v>150929300</v>
       </c>
       <c r="H54" s="3">
-        <v>151767300</v>
+        <v>156318200</v>
       </c>
       <c r="I54" s="3">
-        <v>154195700</v>
+        <v>153473700</v>
       </c>
       <c r="J54" s="3">
+        <v>155929500</v>
+      </c>
+      <c r="K54" s="3">
         <v>149911300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>144556200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>151106800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82782600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84246900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>86067900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>92721300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>99837200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>96531800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2981,8 +3109,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3002,326 +3131,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6030400</v>
+        <v>6532400</v>
       </c>
       <c r="E57" s="3">
-        <v>6306000</v>
+        <v>6098200</v>
       </c>
       <c r="F57" s="3">
-        <v>7601300</v>
+        <v>6376900</v>
       </c>
       <c r="G57" s="3">
-        <v>6739000</v>
+        <v>7686800</v>
       </c>
       <c r="H57" s="3">
-        <v>6368700</v>
+        <v>6814800</v>
       </c>
       <c r="I57" s="3">
-        <v>6759100</v>
+        <v>6440300</v>
       </c>
       <c r="J57" s="3">
+        <v>6835100</v>
+      </c>
+      <c r="K57" s="3">
         <v>7142400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6154900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5456000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4329400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5754700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4407200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5846700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6679000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7524100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>8720300</v>
+        <v>9880600</v>
       </c>
       <c r="E58" s="3">
-        <v>3785300</v>
+        <v>8818400</v>
       </c>
       <c r="F58" s="3">
-        <v>2581100</v>
+        <v>3827800</v>
       </c>
       <c r="G58" s="3">
-        <v>7124600</v>
+        <v>2610100</v>
       </c>
       <c r="H58" s="3">
-        <v>7897000</v>
+        <v>7204700</v>
       </c>
       <c r="I58" s="3">
-        <v>4951600</v>
+        <v>7985800</v>
       </c>
       <c r="J58" s="3">
+        <v>5007300</v>
+      </c>
+      <c r="K58" s="3">
         <v>4355400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3867700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10470500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1933600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2171100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3973000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5651500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4928800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3992100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>28476000</v>
+        <v>26398900</v>
       </c>
       <c r="E59" s="3">
-        <v>16311000</v>
+        <v>28796100</v>
       </c>
       <c r="F59" s="3">
-        <v>17278600</v>
+        <v>16494400</v>
       </c>
       <c r="G59" s="3">
-        <v>16959200</v>
+        <v>17472900</v>
       </c>
       <c r="H59" s="3">
-        <v>15853200</v>
+        <v>17149900</v>
       </c>
       <c r="I59" s="3">
-        <v>16654000</v>
+        <v>16031500</v>
       </c>
       <c r="J59" s="3">
+        <v>16841300</v>
+      </c>
+      <c r="K59" s="3">
         <v>15856800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12639900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13753500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8118600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7325500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8352100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9550400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11366000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10242700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>43226700</v>
+        <v>42812000</v>
       </c>
       <c r="E60" s="3">
-        <v>26402300</v>
+        <v>43712700</v>
       </c>
       <c r="F60" s="3">
-        <v>27461000</v>
+        <v>26699200</v>
       </c>
       <c r="G60" s="3">
-        <v>30822800</v>
+        <v>27769800</v>
       </c>
       <c r="H60" s="3">
-        <v>30119000</v>
+        <v>31169400</v>
       </c>
       <c r="I60" s="3">
-        <v>28364800</v>
+        <v>30457600</v>
       </c>
       <c r="J60" s="3">
+        <v>28683700</v>
+      </c>
+      <c r="K60" s="3">
         <v>27354600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22662600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29680000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14381600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15251200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16732200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>21048500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22973800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21758900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>40155900</v>
+        <v>42094300</v>
       </c>
       <c r="E61" s="3">
-        <v>43544900</v>
+        <v>40607400</v>
       </c>
       <c r="F61" s="3">
-        <v>43663200</v>
+        <v>44034500</v>
       </c>
       <c r="G61" s="3">
-        <v>44668700</v>
+        <v>44154100</v>
       </c>
       <c r="H61" s="3">
-        <v>43355700</v>
+        <v>45170900</v>
       </c>
       <c r="I61" s="3">
-        <v>44892200</v>
+        <v>43843100</v>
       </c>
       <c r="J61" s="3">
+        <v>45397000</v>
+      </c>
+      <c r="K61" s="3">
         <v>44609500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44700500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46767100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13475800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14005800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14110100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15896400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17358300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18992200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>20477200</v>
+        <v>20410800</v>
       </c>
       <c r="E62" s="3">
-        <v>20772900</v>
+        <v>20707400</v>
       </c>
       <c r="F62" s="3">
-        <v>22018500</v>
+        <v>21006500</v>
       </c>
       <c r="G62" s="3">
-        <v>24600800</v>
+        <v>22266100</v>
       </c>
       <c r="H62" s="3">
-        <v>25224200</v>
+        <v>24877400</v>
       </c>
       <c r="I62" s="3">
-        <v>24163100</v>
+        <v>25507800</v>
       </c>
       <c r="J62" s="3">
+        <v>24434800</v>
+      </c>
+      <c r="K62" s="3">
         <v>23358700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21373400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22817500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12779600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13632200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13426900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15964800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17415800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18339600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3373,8 +3521,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3426,8 +3577,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3479,61 +3633,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>104051400</v>
+        <v>105496500</v>
       </c>
       <c r="E66" s="3">
-        <v>90923600</v>
+        <v>105221300</v>
       </c>
       <c r="F66" s="3">
-        <v>93355700</v>
+        <v>91945900</v>
       </c>
       <c r="G66" s="3">
-        <v>100307600</v>
+        <v>94405300</v>
       </c>
       <c r="H66" s="3">
-        <v>98901100</v>
+        <v>101435400</v>
       </c>
       <c r="I66" s="3">
-        <v>97622400</v>
+        <v>100013100</v>
       </c>
       <c r="J66" s="3">
+        <v>98720000</v>
+      </c>
+      <c r="K66" s="3">
         <v>95525100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88927000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>99344800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40698500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>42956500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>44334300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>56088300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>60377300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60926600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3553,8 +3713,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3606,8 +3767,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3659,8 +3823,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3712,8 +3879,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3765,61 +3935,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>17658300</v>
+        <v>12621100</v>
       </c>
       <c r="E72" s="3">
-        <v>32923700</v>
+        <v>17856900</v>
       </c>
       <c r="F72" s="3">
-        <v>31319600</v>
+        <v>33293800</v>
       </c>
       <c r="G72" s="3">
-        <v>29797300</v>
+        <v>31671800</v>
       </c>
       <c r="H72" s="3">
-        <v>28291400</v>
+        <v>30031800</v>
       </c>
       <c r="I72" s="3">
-        <v>31998600</v>
+        <v>28609500</v>
       </c>
       <c r="J72" s="3">
+        <v>32358400</v>
+      </c>
+      <c r="K72" s="3">
         <v>29811400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32618800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28951000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29155200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28078900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28522100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>23421500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36975000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33120200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3871,8 +4047,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3924,8 +4103,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3977,61 +4159,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>42234300</v>
+        <v>37473400</v>
       </c>
       <c r="E76" s="3">
-        <v>57499600</v>
+        <v>42709100</v>
       </c>
       <c r="F76" s="3">
-        <v>55895600</v>
+        <v>58146100</v>
       </c>
       <c r="G76" s="3">
-        <v>54372000</v>
+        <v>56524000</v>
       </c>
       <c r="H76" s="3">
-        <v>52866200</v>
+        <v>54882900</v>
       </c>
       <c r="I76" s="3">
-        <v>56573400</v>
+        <v>53460600</v>
       </c>
       <c r="J76" s="3">
+        <v>57209500</v>
+      </c>
+      <c r="K76" s="3">
         <v>54386200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55629200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51761900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42084100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41290400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41733500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36633000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>39460000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35605200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4083,119 +4271,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-11294300</v>
+        <v>-3282400</v>
       </c>
       <c r="E81" s="3">
-        <v>1761300</v>
+        <v>-11421300</v>
       </c>
       <c r="F81" s="3">
-        <v>1672600</v>
+        <v>1781100</v>
       </c>
       <c r="G81" s="3">
-        <v>1225500</v>
+        <v>1691400</v>
       </c>
       <c r="H81" s="3">
-        <v>477900</v>
+        <v>1239300</v>
       </c>
       <c r="I81" s="3">
-        <v>1468000</v>
+        <v>1963000</v>
       </c>
       <c r="J81" s="3">
+        <v>1484500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3179900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>871800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2145500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>166100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4354400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1373300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2445000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>531700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4215,61 +4412,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1395800</v>
+        <v>12312500</v>
       </c>
       <c r="E83" s="3">
-        <v>1510600</v>
+        <v>1411500</v>
       </c>
       <c r="F83" s="3">
-        <v>1899700</v>
+        <v>1527500</v>
       </c>
       <c r="G83" s="3">
-        <v>1195900</v>
+        <v>1921100</v>
       </c>
       <c r="H83" s="3">
-        <v>1845300</v>
+        <v>1209400</v>
       </c>
       <c r="I83" s="3">
-        <v>1405300</v>
+        <v>3287200</v>
       </c>
       <c r="J83" s="3">
+        <v>1421100</v>
+      </c>
+      <c r="K83" s="3">
         <v>5043900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>991300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>752100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>557800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>936900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>295100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>933500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>856900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1320500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4321,8 +4522,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4374,8 +4578,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4427,8 +4634,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4480,8 +4690,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4533,61 +4746,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2855500</v>
+        <v>2352900</v>
       </c>
       <c r="E89" s="3">
-        <v>-279200</v>
+        <v>2887600</v>
       </c>
       <c r="F89" s="3">
-        <v>3817200</v>
+        <v>-282300</v>
       </c>
       <c r="G89" s="3">
-        <v>2699400</v>
+        <v>3860100</v>
       </c>
       <c r="H89" s="3">
-        <v>1892600</v>
+        <v>2729700</v>
       </c>
       <c r="I89" s="3">
-        <v>1275200</v>
+        <v>3203400</v>
       </c>
       <c r="J89" s="3">
+        <v>1289500</v>
+      </c>
+      <c r="K89" s="3">
         <v>3510800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2271700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2459500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>723600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2545800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3041700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2595200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>987200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3212700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4607,61 +4826,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-692000</v>
+        <v>-656700</v>
       </c>
       <c r="E91" s="3">
-        <v>-462500</v>
+        <v>-699800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1263300</v>
+        <v>-467700</v>
       </c>
       <c r="G91" s="3">
-        <v>-862300</v>
+        <v>-1277500</v>
       </c>
       <c r="H91" s="3">
-        <v>-541800</v>
+        <v>-872000</v>
       </c>
       <c r="I91" s="3">
-        <v>-467200</v>
+        <v>-1020400</v>
       </c>
       <c r="J91" s="3">
+        <v>-472500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-729900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-504000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-383200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-624900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-534100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-487100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>748900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4713,8 +4936,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4766,61 +4992,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-498000</v>
+        <v>-3421100</v>
       </c>
       <c r="E94" s="3">
-        <v>-707400</v>
+        <v>-503600</v>
       </c>
       <c r="F94" s="3">
-        <v>41400</v>
+        <v>-715300</v>
       </c>
       <c r="G94" s="3">
-        <v>-282700</v>
+        <v>41900</v>
       </c>
       <c r="H94" s="3">
-        <v>-643500</v>
+        <v>-285900</v>
       </c>
       <c r="I94" s="3">
-        <v>91100</v>
+        <v>-558600</v>
       </c>
       <c r="J94" s="3">
+        <v>92100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-675400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7090900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1917500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>194100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4840,61 +5072,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-3254200</v>
+        <v>-20300</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-3290700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-3123300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-2638500</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4700</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2638500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4946,8 +5182,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4999,8 +5238,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5052,163 +5294,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1331900</v>
+        <v>3429500</v>
       </c>
       <c r="E100" s="3">
-        <v>42600</v>
+        <v>-1346900</v>
       </c>
       <c r="F100" s="3">
-        <v>-5288700</v>
+        <v>43100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1200600</v>
+        <v>-5348200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2052300</v>
+        <v>-1214100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1381600</v>
+        <v>-3472600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1397200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>39249100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-637900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-41500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-616000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>717200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3413400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-36700</v>
+        <v>-74200</v>
       </c>
       <c r="E101" s="3">
-        <v>-80400</v>
+        <v>-37100</v>
       </c>
       <c r="F101" s="3">
-        <v>-18900</v>
+        <v>-81300</v>
       </c>
       <c r="G101" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2400</v>
-      </c>
       <c r="I101" s="3">
-        <v>27200</v>
+        <v>25100</v>
       </c>
       <c r="J101" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-59800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-424900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-129600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-51600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-72900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>988900</v>
+        <v>2287100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1024400</v>
+        <v>1000000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1449100</v>
+        <v>-1035900</v>
       </c>
       <c r="G102" s="3">
-        <v>1217200</v>
+        <v>-1465300</v>
       </c>
       <c r="H102" s="3">
-        <v>-805600</v>
+        <v>1230900</v>
       </c>
       <c r="I102" s="3">
-        <v>11800</v>
+        <v>-802700</v>
       </c>
       <c r="J102" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-942800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-179400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-357900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2273200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3121400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>616000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>381500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>782900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,250 +662,262 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10174900</v>
+        <v>11758100</v>
       </c>
       <c r="E8" s="3">
-        <v>12026600</v>
+        <v>10006500</v>
       </c>
       <c r="F8" s="3">
-        <v>15365200</v>
+        <v>11827500</v>
       </c>
       <c r="G8" s="3">
-        <v>12859200</v>
+        <v>15110900</v>
       </c>
       <c r="H8" s="3">
-        <v>11758600</v>
+        <v>12646300</v>
       </c>
       <c r="I8" s="3">
-        <v>27470700</v>
+        <v>11564000</v>
       </c>
       <c r="J8" s="3">
+        <v>27016000</v>
+      </c>
+      <c r="K8" s="3">
         <v>14655800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12248900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10257500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10410100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10033500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9644600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9004000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9777000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11362500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10356500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8128200</v>
+        <v>4316200</v>
       </c>
       <c r="E9" s="3">
-        <v>4806300</v>
+        <v>7993600</v>
       </c>
       <c r="F9" s="3">
-        <v>5569500</v>
+        <v>4726800</v>
       </c>
       <c r="G9" s="3">
-        <v>5831500</v>
+        <v>5477300</v>
       </c>
       <c r="H9" s="3">
-        <v>4525200</v>
+        <v>5787900</v>
       </c>
       <c r="I9" s="3">
-        <v>10658100</v>
+        <v>4450300</v>
       </c>
       <c r="J9" s="3">
+        <v>10481700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5821900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6676300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4542300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3850700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3194100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3418700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2877900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3122500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3506200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3695200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2046700</v>
+        <v>7441900</v>
       </c>
       <c r="E10" s="3">
-        <v>7220300</v>
+        <v>2012800</v>
       </c>
       <c r="F10" s="3">
-        <v>9795700</v>
+        <v>7100800</v>
       </c>
       <c r="G10" s="3">
-        <v>7027700</v>
+        <v>9633500</v>
       </c>
       <c r="H10" s="3">
-        <v>7233400</v>
+        <v>6858400</v>
       </c>
       <c r="I10" s="3">
-        <v>16812600</v>
+        <v>7113700</v>
       </c>
       <c r="J10" s="3">
+        <v>16534300</v>
+      </c>
+      <c r="K10" s="3">
         <v>8833900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5572600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5715200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6559500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6839400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6225900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6126100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6654500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7856300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6661400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,64 +938,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>4026400</v>
+        <v>1518700</v>
       </c>
       <c r="E12" s="3">
-        <v>1396000</v>
+        <v>3959800</v>
       </c>
       <c r="F12" s="3">
-        <v>1557500</v>
+        <v>1372900</v>
       </c>
       <c r="G12" s="3">
-        <v>1684200</v>
+        <v>1531700</v>
       </c>
       <c r="H12" s="3">
-        <v>1532300</v>
+        <v>1645800</v>
       </c>
       <c r="I12" s="3">
-        <v>3135200</v>
+        <v>1507000</v>
       </c>
       <c r="J12" s="3">
+        <v>3083300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1575400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2008600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1292600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1391200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1141900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1384500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1210600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1230800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1284100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1461400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1038,8 +1054,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1094,8 +1113,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1172,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1169,120 +1194,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21418000</v>
+        <v>9975900</v>
       </c>
       <c r="E17" s="3">
-        <v>24926400</v>
+        <v>21063400</v>
       </c>
       <c r="F17" s="3">
-        <v>12375900</v>
+        <v>24513800</v>
       </c>
       <c r="G17" s="3">
-        <v>12385500</v>
+        <v>12171000</v>
       </c>
       <c r="H17" s="3">
-        <v>10313600</v>
+        <v>12188700</v>
       </c>
       <c r="I17" s="3">
-        <v>24402500</v>
+        <v>10142900</v>
       </c>
       <c r="J17" s="3">
+        <v>23998600</v>
+      </c>
+      <c r="K17" s="3">
         <v>12526600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17224200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5469300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8932200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7497100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8943400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7446600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8135500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8513600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9668700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-11243100</v>
+        <v>1782200</v>
       </c>
       <c r="E18" s="3">
-        <v>-12899800</v>
+        <v>-11057000</v>
       </c>
       <c r="F18" s="3">
-        <v>2989300</v>
+        <v>-12686300</v>
       </c>
       <c r="G18" s="3">
-        <v>473700</v>
+        <v>2939800</v>
       </c>
       <c r="H18" s="3">
-        <v>1445000</v>
+        <v>457600</v>
       </c>
       <c r="I18" s="3">
-        <v>3068300</v>
+        <v>1421100</v>
       </c>
       <c r="J18" s="3">
+        <v>3017500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2129200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4788200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1477900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2536400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>701200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1557300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1641500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2848800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>687900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,120 +1335,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-13200</v>
+        <v>-167000</v>
       </c>
       <c r="E20" s="3">
-        <v>-330200</v>
+        <v>-12900</v>
       </c>
       <c r="F20" s="3">
-        <v>-779900</v>
+        <v>-324700</v>
       </c>
       <c r="G20" s="3">
+        <v>-767000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-444700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-210600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-884700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-356500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-851700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-752100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-354700</v>
+      </c>
+      <c r="O20" s="3">
+        <v>142700</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-289500</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-452200</v>
       </c>
-      <c r="H20" s="3">
-        <v>-214100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-899500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-356500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-851700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-752100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-354700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>142700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-289500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-452200</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-414000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-347400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-262900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1056200</v>
+        <v>2214000</v>
       </c>
       <c r="E21" s="3">
-        <v>-11818500</v>
+        <v>1038800</v>
       </c>
       <c r="F21" s="3">
-        <v>3736900</v>
+        <v>-11622800</v>
       </c>
       <c r="G21" s="3">
-        <v>1942600</v>
+        <v>3675100</v>
       </c>
       <c r="H21" s="3">
-        <v>2440200</v>
+        <v>1902200</v>
       </c>
       <c r="I21" s="3">
-        <v>5455900</v>
+        <v>2399900</v>
       </c>
       <c r="J21" s="3">
+        <v>5365600</v>
+      </c>
+      <c r="K21" s="3">
         <v>3193900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-914400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5027400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1875400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3236900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1348600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1757000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1804200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3358300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2344100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1471,120 +1510,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-11256200</v>
+        <v>1615200</v>
       </c>
       <c r="E23" s="3">
-        <v>-13230000</v>
+        <v>-11069900</v>
       </c>
       <c r="F23" s="3">
-        <v>2209400</v>
+        <v>-13011000</v>
       </c>
       <c r="G23" s="3">
-        <v>21500</v>
+        <v>2172800</v>
       </c>
       <c r="H23" s="3">
-        <v>1230900</v>
+        <v>12900</v>
       </c>
       <c r="I23" s="3">
-        <v>2168700</v>
+        <v>1210500</v>
       </c>
       <c r="J23" s="3">
+        <v>2132800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1772800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4036100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1123300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2679100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>411800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1105200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1227500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2501400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>424900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-2039500</v>
+        <v>1161100</v>
       </c>
       <c r="E24" s="3">
-        <v>-1734500</v>
+        <v>-2005800</v>
       </c>
       <c r="F24" s="3">
-        <v>573000</v>
+        <v>-1705800</v>
       </c>
       <c r="G24" s="3">
-        <v>53800</v>
+        <v>563500</v>
       </c>
       <c r="H24" s="3">
-        <v>37100</v>
+        <v>50600</v>
       </c>
       <c r="I24" s="3">
-        <v>441400</v>
+        <v>36500</v>
       </c>
       <c r="J24" s="3">
+        <v>434100</v>
+      </c>
+      <c r="K24" s="3">
         <v>428200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>918200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>236100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>542400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>488100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>237900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>289500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>497700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>74000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,120 +1687,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-9216700</v>
+        <v>454100</v>
       </c>
       <c r="E26" s="3">
-        <v>-11495500</v>
+        <v>-9064200</v>
       </c>
       <c r="F26" s="3">
-        <v>1636400</v>
+        <v>-11305200</v>
       </c>
       <c r="G26" s="3">
-        <v>-32300</v>
+        <v>1609300</v>
       </c>
       <c r="H26" s="3">
-        <v>1193800</v>
+        <v>-37600</v>
       </c>
       <c r="I26" s="3">
-        <v>1727300</v>
+        <v>1174000</v>
       </c>
       <c r="J26" s="3">
+        <v>1698700</v>
+      </c>
+      <c r="K26" s="3">
         <v>1344500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3117900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>887200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2136700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-76300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>867300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>938000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2003700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>351000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-9213100</v>
+        <v>450600</v>
       </c>
       <c r="E27" s="3">
-        <v>-11506200</v>
+        <v>-9060600</v>
       </c>
       <c r="F27" s="3">
-        <v>1637600</v>
+        <v>-11315800</v>
       </c>
       <c r="G27" s="3">
-        <v>-45500</v>
+        <v>1610500</v>
       </c>
       <c r="H27" s="3">
-        <v>1184200</v>
+        <v>-50600</v>
       </c>
       <c r="I27" s="3">
-        <v>1727300</v>
+        <v>1164600</v>
       </c>
       <c r="J27" s="3">
+        <v>1698700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1350500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3109000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>880600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2136700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-78500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>870700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>935700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1783000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>346300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1807,64 +1864,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>5930800</v>
+        <v>-88200</v>
       </c>
       <c r="E29" s="3">
-        <v>84900</v>
+        <v>5832600</v>
       </c>
       <c r="F29" s="3">
-        <v>143500</v>
+        <v>83500</v>
       </c>
       <c r="G29" s="3">
-        <v>1736900</v>
+        <v>141200</v>
       </c>
       <c r="H29" s="3">
-        <v>55000</v>
+        <v>1714000</v>
       </c>
       <c r="I29" s="3">
-        <v>235700</v>
+        <v>54100</v>
       </c>
       <c r="J29" s="3">
+        <v>231800</v>
+      </c>
+      <c r="K29" s="3">
         <v>134000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>47300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>70900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-8800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>8800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>244600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>3483800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>437600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>662000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>185500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1919,8 +1982,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1975,120 +2041,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>13200</v>
+        <v>167000</v>
       </c>
       <c r="E32" s="3">
-        <v>330200</v>
+        <v>12900</v>
       </c>
       <c r="F32" s="3">
-        <v>779900</v>
+        <v>324700</v>
       </c>
       <c r="G32" s="3">
+        <v>767000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>444700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>210600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>884700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>356500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>851700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>752100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>354700</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-142700</v>
+      </c>
+      <c r="P32" s="3">
+        <v>289500</v>
+      </c>
+      <c r="Q32" s="3">
         <v>452200</v>
       </c>
-      <c r="H32" s="3">
-        <v>214100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>899500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>356500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>851700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>752100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>354700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-142700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>289500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>452200</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>414000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>347400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>262900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-3282400</v>
+        <v>362300</v>
       </c>
       <c r="E33" s="3">
-        <v>-11421300</v>
+        <v>-3228000</v>
       </c>
       <c r="F33" s="3">
-        <v>1781100</v>
+        <v>-11232300</v>
       </c>
       <c r="G33" s="3">
-        <v>1691400</v>
+        <v>1751700</v>
       </c>
       <c r="H33" s="3">
-        <v>1239300</v>
+        <v>1663400</v>
       </c>
       <c r="I33" s="3">
-        <v>1963000</v>
+        <v>1218800</v>
       </c>
       <c r="J33" s="3">
+        <v>1930500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1484500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3179900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>871800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2145500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>166100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4354400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1373300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2445000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>531700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2143,125 +2218,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-3282400</v>
+        <v>362300</v>
       </c>
       <c r="E35" s="3">
-        <v>-11421300</v>
+        <v>-3228000</v>
       </c>
       <c r="F35" s="3">
-        <v>1781100</v>
+        <v>-11232300</v>
       </c>
       <c r="G35" s="3">
-        <v>1691400</v>
+        <v>1751700</v>
       </c>
       <c r="H35" s="3">
-        <v>1239300</v>
+        <v>1663400</v>
       </c>
       <c r="I35" s="3">
-        <v>1963000</v>
+        <v>1218800</v>
       </c>
       <c r="J35" s="3">
+        <v>1930500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1484500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3179900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>871800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2145500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>166100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4354400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1373300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2445000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>531700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2282,8 +2366,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2304,512 +2389,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>6061100</v>
+        <v>4930300</v>
       </c>
       <c r="E41" s="3">
-        <v>3765600</v>
+        <v>5960800</v>
       </c>
       <c r="F41" s="3">
-        <v>2738100</v>
+        <v>3703300</v>
       </c>
       <c r="G41" s="3">
-        <v>3809900</v>
+        <v>2692800</v>
       </c>
       <c r="H41" s="3">
-        <v>5275200</v>
+        <v>3746800</v>
       </c>
       <c r="I41" s="3">
-        <v>3998900</v>
+        <v>5187900</v>
       </c>
       <c r="J41" s="3">
+        <v>3932700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4859000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4793100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5371900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5469100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5854500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8505800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6232700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3111300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2610600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2229100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>12527800</v>
+        <v>9340600</v>
       </c>
       <c r="E42" s="3">
-        <v>3062300</v>
+        <v>12320400</v>
       </c>
       <c r="F42" s="3">
-        <v>3303900</v>
+        <v>3011600</v>
       </c>
       <c r="G42" s="3">
-        <v>2782400</v>
+        <v>3249200</v>
       </c>
       <c r="H42" s="3">
-        <v>1368500</v>
+        <v>2736300</v>
       </c>
       <c r="I42" s="3">
-        <v>1039500</v>
+        <v>1345800</v>
       </c>
       <c r="J42" s="3">
+        <v>1022300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1019200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1379300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1773300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1709600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8031900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3959500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6806000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8115400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7819900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7365700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>15914200</v>
+        <v>14652100</v>
       </c>
       <c r="E43" s="3">
-        <v>18807900</v>
+        <v>15650800</v>
       </c>
       <c r="F43" s="3">
-        <v>19947800</v>
+        <v>18496500</v>
       </c>
       <c r="G43" s="3">
-        <v>18111700</v>
+        <v>19617600</v>
       </c>
       <c r="H43" s="3">
-        <v>16978900</v>
+        <v>17811900</v>
       </c>
       <c r="I43" s="3">
-        <v>19806700</v>
+        <v>16697800</v>
       </c>
       <c r="J43" s="3">
+        <v>19478800</v>
+      </c>
+      <c r="K43" s="3">
         <v>20154800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17129600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15883000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18145500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12064800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11592400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11857200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15914300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18548500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>16263100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>12502700</v>
+        <v>12894500</v>
       </c>
       <c r="E44" s="3">
-        <v>12115100</v>
+        <v>12295700</v>
       </c>
       <c r="F44" s="3">
-        <v>11969200</v>
+        <v>11914600</v>
       </c>
       <c r="G44" s="3">
-        <v>12739500</v>
+        <v>11771100</v>
       </c>
       <c r="H44" s="3">
-        <v>12434500</v>
+        <v>12528700</v>
       </c>
       <c r="I44" s="3">
-        <v>12286200</v>
+        <v>12228700</v>
       </c>
       <c r="J44" s="3">
+        <v>12082800</v>
+      </c>
+      <c r="K44" s="3">
         <v>12574500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13168000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12230100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12023100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7029400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7349000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7558800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9490900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>10181600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9869400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>51400</v>
+        <v>132900</v>
       </c>
       <c r="E45" s="3">
-        <v>1425900</v>
+        <v>50600</v>
       </c>
       <c r="F45" s="3">
-        <v>1512000</v>
+        <v>1402300</v>
       </c>
       <c r="G45" s="3">
-        <v>1360100</v>
+        <v>1487000</v>
       </c>
       <c r="H45" s="3">
-        <v>3887700</v>
+        <v>1337600</v>
       </c>
       <c r="I45" s="3">
-        <v>1924700</v>
+        <v>3823300</v>
       </c>
       <c r="J45" s="3">
+        <v>1892800</v>
+      </c>
+      <c r="K45" s="3">
         <v>277500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>276800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>260300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4083500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3438900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2334900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2046500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>32900</v>
-      </c>
-      <c r="S45" s="3">
-        <v>11700</v>
       </c>
       <c r="T45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>47057300</v>
+        <v>41950400</v>
       </c>
       <c r="E46" s="3">
-        <v>39176700</v>
+        <v>46278400</v>
       </c>
       <c r="F46" s="3">
-        <v>39471000</v>
+        <v>38528300</v>
       </c>
       <c r="G46" s="3">
-        <v>38803500</v>
+        <v>38817700</v>
       </c>
       <c r="H46" s="3">
-        <v>39944700</v>
+        <v>38161200</v>
       </c>
       <c r="I46" s="3">
-        <v>39055900</v>
+        <v>39283500</v>
       </c>
       <c r="J46" s="3">
+        <v>38409500</v>
+      </c>
+      <c r="K46" s="3">
         <v>38884900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36746800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35518500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>41430800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36419600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>33741600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>34501200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36635200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>39193500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35739000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3583800</v>
+        <v>3389200</v>
       </c>
       <c r="E47" s="3">
-        <v>3309900</v>
+        <v>3524500</v>
       </c>
       <c r="F47" s="3">
-        <v>3293100</v>
+        <v>3255100</v>
       </c>
       <c r="G47" s="3">
-        <v>3360100</v>
+        <v>3238600</v>
       </c>
       <c r="H47" s="3">
-        <v>4345800</v>
+        <v>3304500</v>
       </c>
       <c r="I47" s="3">
-        <v>4100600</v>
+        <v>4273900</v>
       </c>
       <c r="J47" s="3">
+        <v>4032700</v>
+      </c>
+      <c r="K47" s="3">
         <v>4044400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3848000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4316300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4441400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5320900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6777900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6690400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2778000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2882900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2873500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>13758700</v>
+        <v>13775600</v>
       </c>
       <c r="E48" s="3">
-        <v>14175000</v>
+        <v>13531000</v>
       </c>
       <c r="F48" s="3">
-        <v>14477600</v>
+        <v>13940300</v>
       </c>
       <c r="G48" s="3">
-        <v>14927400</v>
+        <v>14238000</v>
       </c>
       <c r="H48" s="3">
-        <v>15636700</v>
+        <v>14680300</v>
       </c>
       <c r="I48" s="3">
-        <v>16374800</v>
+        <v>15377900</v>
       </c>
       <c r="J48" s="3">
+        <v>16103700</v>
+      </c>
+      <c r="K48" s="3">
         <v>16666700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15310300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14609200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14381600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8048300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8564100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8308300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14217900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15359300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15393300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>72461000</v>
+        <v>73065000</v>
       </c>
       <c r="E49" s="3">
-        <v>86351300</v>
+        <v>71261600</v>
       </c>
       <c r="F49" s="3">
-        <v>88401600</v>
+        <v>84922000</v>
       </c>
       <c r="G49" s="3">
-        <v>88321400</v>
+        <v>86938300</v>
       </c>
       <c r="H49" s="3">
-        <v>90492500</v>
+        <v>86859500</v>
       </c>
       <c r="I49" s="3">
-        <v>87648000</v>
+        <v>88994700</v>
       </c>
       <c r="J49" s="3">
+        <v>86197200</v>
+      </c>
+      <c r="K49" s="3">
         <v>90551100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>88880700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>85576500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>85283900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>28180200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29648600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>30135500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31985700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>34811700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>35072300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2864,8 +2977,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2920,64 +3036,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>6109000</v>
+        <v>5512600</v>
       </c>
       <c r="E52" s="3">
-        <v>4917600</v>
+        <v>6007900</v>
       </c>
       <c r="F52" s="3">
-        <v>4448700</v>
+        <v>4836200</v>
       </c>
       <c r="G52" s="3">
-        <v>5516900</v>
+        <v>4375000</v>
       </c>
       <c r="H52" s="3">
-        <v>5898500</v>
+        <v>5425600</v>
       </c>
       <c r="I52" s="3">
-        <v>6294400</v>
+        <v>5800800</v>
       </c>
       <c r="J52" s="3">
+        <v>6190200</v>
+      </c>
+      <c r="K52" s="3">
         <v>5782400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5125500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4535600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5569100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4813600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5514600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6432400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7104400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7589900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7453700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3032,64 +3154,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>142969800</v>
+        <v>137692900</v>
       </c>
       <c r="E54" s="3">
-        <v>147930500</v>
+        <v>140603300</v>
       </c>
       <c r="F54" s="3">
-        <v>150092000</v>
+        <v>145481900</v>
       </c>
       <c r="G54" s="3">
-        <v>150929300</v>
+        <v>147607600</v>
       </c>
       <c r="H54" s="3">
-        <v>156318200</v>
+        <v>148431100</v>
       </c>
       <c r="I54" s="3">
-        <v>153473700</v>
+        <v>153730800</v>
       </c>
       <c r="J54" s="3">
+        <v>150933300</v>
+      </c>
+      <c r="K54" s="3">
         <v>155929500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149911300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>144556200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>151106800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82782600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84246900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>86067900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>92721300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>99837200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>96531800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3110,8 +3238,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3132,344 +3261,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6532400</v>
+        <v>6685500</v>
       </c>
       <c r="E57" s="3">
-        <v>6098200</v>
+        <v>6424300</v>
       </c>
       <c r="F57" s="3">
-        <v>6376900</v>
+        <v>5997300</v>
       </c>
       <c r="G57" s="3">
-        <v>7686800</v>
+        <v>6271400</v>
       </c>
       <c r="H57" s="3">
-        <v>6814800</v>
+        <v>7559500</v>
       </c>
       <c r="I57" s="3">
-        <v>6440300</v>
+        <v>6702000</v>
       </c>
       <c r="J57" s="3">
+        <v>6333700</v>
+      </c>
+      <c r="K57" s="3">
         <v>6835100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7142400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6154900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5456000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4329400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5754700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4407200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5846700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6679000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7524100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>9880600</v>
+        <v>10081700</v>
       </c>
       <c r="E58" s="3">
-        <v>8818400</v>
+        <v>9717100</v>
       </c>
       <c r="F58" s="3">
-        <v>3827800</v>
+        <v>8672400</v>
       </c>
       <c r="G58" s="3">
-        <v>2610100</v>
+        <v>3764500</v>
       </c>
       <c r="H58" s="3">
-        <v>7204700</v>
+        <v>2566900</v>
       </c>
       <c r="I58" s="3">
-        <v>7985800</v>
+        <v>7085500</v>
       </c>
       <c r="J58" s="3">
+        <v>7853600</v>
+      </c>
+      <c r="K58" s="3">
         <v>5007300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4355400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3867700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10470500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1933600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2171100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3973000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5651500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4928800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3992100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>26398900</v>
+        <v>26439600</v>
       </c>
       <c r="E59" s="3">
-        <v>28796100</v>
+        <v>25962000</v>
       </c>
       <c r="F59" s="3">
-        <v>16494400</v>
+        <v>28319500</v>
       </c>
       <c r="G59" s="3">
-        <v>17472900</v>
+        <v>16221400</v>
       </c>
       <c r="H59" s="3">
-        <v>17149900</v>
+        <v>17183700</v>
       </c>
       <c r="I59" s="3">
-        <v>16031500</v>
+        <v>16866000</v>
       </c>
       <c r="J59" s="3">
+        <v>15766100</v>
+      </c>
+      <c r="K59" s="3">
         <v>16841300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15856800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12639900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13753500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8118600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7325500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8352100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9550400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11366000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10242700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>42812000</v>
+        <v>43206800</v>
       </c>
       <c r="E60" s="3">
-        <v>43712700</v>
+        <v>42103400</v>
       </c>
       <c r="F60" s="3">
-        <v>26699200</v>
+        <v>42989200</v>
       </c>
       <c r="G60" s="3">
-        <v>27769800</v>
+        <v>26257200</v>
       </c>
       <c r="H60" s="3">
-        <v>31169400</v>
+        <v>27310100</v>
       </c>
       <c r="I60" s="3">
-        <v>30457600</v>
+        <v>30653500</v>
       </c>
       <c r="J60" s="3">
+        <v>29953500</v>
+      </c>
+      <c r="K60" s="3">
         <v>28683700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27354600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22662600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29680000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14381600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15251200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16732200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>21048500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22973800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21758900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>42094300</v>
+        <v>39051800</v>
       </c>
       <c r="E61" s="3">
-        <v>40607400</v>
+        <v>41397500</v>
       </c>
       <c r="F61" s="3">
-        <v>44034500</v>
+        <v>39935300</v>
       </c>
       <c r="G61" s="3">
-        <v>44154100</v>
+        <v>43305600</v>
       </c>
       <c r="H61" s="3">
-        <v>45170900</v>
+        <v>43423300</v>
       </c>
       <c r="I61" s="3">
-        <v>43843100</v>
+        <v>44423200</v>
       </c>
       <c r="J61" s="3">
+        <v>43117400</v>
+      </c>
+      <c r="K61" s="3">
         <v>45397000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44609500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44700500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46767100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13475800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14005800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14110100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15896400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17358300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>18992200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>20410800</v>
+        <v>19320000</v>
       </c>
       <c r="E62" s="3">
-        <v>20707400</v>
+        <v>20072900</v>
       </c>
       <c r="F62" s="3">
-        <v>21006500</v>
+        <v>20364700</v>
       </c>
       <c r="G62" s="3">
-        <v>22266100</v>
+        <v>20658800</v>
       </c>
       <c r="H62" s="3">
-        <v>24877400</v>
+        <v>21897500</v>
       </c>
       <c r="I62" s="3">
-        <v>25507800</v>
+        <v>24465600</v>
       </c>
       <c r="J62" s="3">
+        <v>25085600</v>
+      </c>
+      <c r="K62" s="3">
         <v>24434800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23358700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21373400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22817500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12779600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13632200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13426900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15964800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17415800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18339600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3524,8 +3672,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3580,8 +3731,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3636,64 +3790,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>105496500</v>
+        <v>101784500</v>
       </c>
       <c r="E66" s="3">
-        <v>105221300</v>
+        <v>103750200</v>
       </c>
       <c r="F66" s="3">
-        <v>91945900</v>
+        <v>103479700</v>
       </c>
       <c r="G66" s="3">
-        <v>94405300</v>
+        <v>90424000</v>
       </c>
       <c r="H66" s="3">
-        <v>101435400</v>
+        <v>92842700</v>
       </c>
       <c r="I66" s="3">
-        <v>100013100</v>
+        <v>99756400</v>
       </c>
       <c r="J66" s="3">
+        <v>98357600</v>
+      </c>
+      <c r="K66" s="3">
         <v>98720000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95525100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88927000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>99344800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40698500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>42956500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>44334300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>56088300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>60377300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60926600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3714,8 +3874,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3770,8 +3931,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3826,8 +3990,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3882,8 +4049,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3938,64 +4108,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>12621100</v>
+        <v>11467500</v>
       </c>
       <c r="E72" s="3">
-        <v>17856900</v>
+        <v>12412200</v>
       </c>
       <c r="F72" s="3">
-        <v>33293800</v>
+        <v>17561300</v>
       </c>
       <c r="G72" s="3">
-        <v>31671800</v>
+        <v>32742700</v>
       </c>
       <c r="H72" s="3">
-        <v>30031800</v>
+        <v>31147500</v>
       </c>
       <c r="I72" s="3">
-        <v>28609500</v>
+        <v>29534700</v>
       </c>
       <c r="J72" s="3">
+        <v>28136000</v>
+      </c>
+      <c r="K72" s="3">
         <v>32358400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29811400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32618800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28951000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29155200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28078900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28522100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>23421500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36975000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>33120200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4050,8 +4226,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4106,8 +4285,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4162,64 +4344,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>37473400</v>
+        <v>35908400</v>
       </c>
       <c r="E76" s="3">
-        <v>42709100</v>
+        <v>36853100</v>
       </c>
       <c r="F76" s="3">
-        <v>58146100</v>
+        <v>42002200</v>
       </c>
       <c r="G76" s="3">
-        <v>56524000</v>
+        <v>57183600</v>
       </c>
       <c r="H76" s="3">
-        <v>54882900</v>
+        <v>55588400</v>
       </c>
       <c r="I76" s="3">
-        <v>53460600</v>
+        <v>53974400</v>
       </c>
       <c r="J76" s="3">
+        <v>52575700</v>
+      </c>
+      <c r="K76" s="3">
         <v>57209500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54386200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55629200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51761900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42084100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41290400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41733500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36633000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>39460000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35605200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4274,125 +4462,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-3282400</v>
+        <v>362300</v>
       </c>
       <c r="E81" s="3">
-        <v>-11421300</v>
+        <v>-3228000</v>
       </c>
       <c r="F81" s="3">
-        <v>1781100</v>
+        <v>-11232300</v>
       </c>
       <c r="G81" s="3">
-        <v>1691400</v>
+        <v>1751700</v>
       </c>
       <c r="H81" s="3">
-        <v>1239300</v>
+        <v>1663400</v>
       </c>
       <c r="I81" s="3">
-        <v>1963000</v>
+        <v>1218800</v>
       </c>
       <c r="J81" s="3">
+        <v>1930500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1484500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3179900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>871800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2145500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>166100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4354400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1373300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2445000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>531700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4413,64 +4610,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>12312500</v>
+        <v>598800</v>
       </c>
       <c r="E83" s="3">
-        <v>1411500</v>
+        <v>12108700</v>
       </c>
       <c r="F83" s="3">
-        <v>1527500</v>
+        <v>1388200</v>
       </c>
       <c r="G83" s="3">
-        <v>1921100</v>
+        <v>1502300</v>
       </c>
       <c r="H83" s="3">
-        <v>1209400</v>
+        <v>1889300</v>
       </c>
       <c r="I83" s="3">
-        <v>3287200</v>
+        <v>1189300</v>
       </c>
       <c r="J83" s="3">
+        <v>3232700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1421100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5043900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>991300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>752100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>557800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>936900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>295100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>933500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>856900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1320500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4525,8 +4726,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4581,8 +4785,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4637,8 +4844,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4693,8 +4903,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4749,64 +4962,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2352900</v>
+        <v>883500</v>
       </c>
       <c r="E89" s="3">
-        <v>2887600</v>
+        <v>2314000</v>
       </c>
       <c r="F89" s="3">
-        <v>-282300</v>
+        <v>2839800</v>
       </c>
       <c r="G89" s="3">
-        <v>3860100</v>
+        <v>-277600</v>
       </c>
       <c r="H89" s="3">
-        <v>2729700</v>
+        <v>3796200</v>
       </c>
       <c r="I89" s="3">
-        <v>3203400</v>
+        <v>2684500</v>
       </c>
       <c r="J89" s="3">
+        <v>3150400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1289500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3510800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2271700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2459500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>723600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2545800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3041700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2595200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>987200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3212700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4827,64 +5046,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-656700</v>
+        <v>-1050500</v>
       </c>
       <c r="E91" s="3">
-        <v>-699800</v>
+        <v>-645800</v>
       </c>
       <c r="F91" s="3">
-        <v>-467700</v>
+        <v>-688200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1277500</v>
+        <v>-460000</v>
       </c>
       <c r="H91" s="3">
-        <v>-872000</v>
+        <v>-1256400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1020400</v>
+        <v>-857600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1003500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-472500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-729900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-504000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-383200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-624900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-534100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-487100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>748900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4939,8 +5162,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4995,64 +5221,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3421100</v>
+        <v>-228200</v>
       </c>
       <c r="E94" s="3">
-        <v>-503600</v>
+        <v>-3364500</v>
       </c>
       <c r="F94" s="3">
-        <v>-715300</v>
+        <v>-495300</v>
       </c>
       <c r="G94" s="3">
-        <v>41900</v>
+        <v>-703500</v>
       </c>
       <c r="H94" s="3">
-        <v>-285900</v>
+        <v>41200</v>
       </c>
       <c r="I94" s="3">
-        <v>-558600</v>
+        <v>-281200</v>
       </c>
       <c r="J94" s="3">
+        <v>-549400</v>
+      </c>
+      <c r="K94" s="3">
         <v>92100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-675400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7090900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1917500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>194100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5073,64 +5305,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-20300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3290700</v>
+        <v>-20000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-3236300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-4800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-3123300</v>
+        <v>-4700</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-3071600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5185,8 +5421,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5241,8 +5480,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5297,172 +5539,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>3429500</v>
+        <v>-1592800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1346900</v>
+        <v>3372700</v>
       </c>
       <c r="F100" s="3">
-        <v>43100</v>
+        <v>-1324600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5348200</v>
+        <v>42400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1214100</v>
+        <v>-5259700</v>
       </c>
       <c r="I100" s="3">
-        <v>-3472600</v>
+        <v>-1194000</v>
       </c>
       <c r="J100" s="3">
+        <v>-3415100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39249100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-637900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-616000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>717200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3413400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-74200</v>
+        <v>-92900</v>
       </c>
       <c r="E101" s="3">
-        <v>-37100</v>
+        <v>-72900</v>
       </c>
       <c r="F101" s="3">
-        <v>-81300</v>
+        <v>-36500</v>
       </c>
       <c r="G101" s="3">
-        <v>-19100</v>
+        <v>-80000</v>
       </c>
       <c r="H101" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
-        <v>25100</v>
-      </c>
       <c r="J101" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K101" s="3">
         <v>27500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-59800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-424900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-129600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-51600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-72900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-41500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>2287100</v>
+        <v>-1030500</v>
       </c>
       <c r="E102" s="3">
-        <v>1000000</v>
+        <v>2249300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1035900</v>
+        <v>983500</v>
       </c>
       <c r="G102" s="3">
-        <v>-1465300</v>
+        <v>-1018800</v>
       </c>
       <c r="H102" s="3">
-        <v>1230900</v>
+        <v>-1441100</v>
       </c>
       <c r="I102" s="3">
-        <v>-802700</v>
+        <v>1210500</v>
       </c>
       <c r="J102" s="3">
+        <v>-789400</v>
+      </c>
+      <c r="K102" s="3">
         <v>12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-942800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-179400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-357900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2273200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3121400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>616000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>381500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>782900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,262 +662,274 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11758100</v>
+        <v>15101700</v>
       </c>
       <c r="E8" s="3">
-        <v>10006500</v>
+        <v>12243800</v>
       </c>
       <c r="F8" s="3">
-        <v>11827500</v>
+        <v>10419800</v>
       </c>
       <c r="G8" s="3">
-        <v>15110900</v>
+        <v>12316000</v>
       </c>
       <c r="H8" s="3">
-        <v>12646300</v>
+        <v>15735000</v>
       </c>
       <c r="I8" s="3">
-        <v>11564000</v>
+        <v>13168600</v>
       </c>
       <c r="J8" s="3">
+        <v>12041700</v>
+      </c>
+      <c r="K8" s="3">
         <v>27016000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14655800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12248900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10257500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10410100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10033500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9644600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9004000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9777000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11362500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10356500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4316200</v>
+        <v>5755000</v>
       </c>
       <c r="E9" s="3">
-        <v>7993600</v>
+        <v>4494500</v>
       </c>
       <c r="F9" s="3">
-        <v>4726800</v>
+        <v>8323800</v>
       </c>
       <c r="G9" s="3">
-        <v>5477300</v>
+        <v>4922000</v>
       </c>
       <c r="H9" s="3">
-        <v>5787900</v>
+        <v>5703600</v>
       </c>
       <c r="I9" s="3">
-        <v>4450300</v>
+        <v>6027000</v>
       </c>
       <c r="J9" s="3">
+        <v>4634100</v>
+      </c>
+      <c r="K9" s="3">
         <v>10481700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5821900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6676300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4542300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3850700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3194100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3418700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2877900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3122500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3506200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3695200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7441900</v>
+        <v>9346700</v>
       </c>
       <c r="E10" s="3">
-        <v>2012800</v>
+        <v>7749300</v>
       </c>
       <c r="F10" s="3">
-        <v>7100800</v>
+        <v>2096000</v>
       </c>
       <c r="G10" s="3">
-        <v>9633500</v>
+        <v>7394000</v>
       </c>
       <c r="H10" s="3">
-        <v>6858400</v>
+        <v>10031400</v>
       </c>
       <c r="I10" s="3">
-        <v>7113700</v>
+        <v>7141700</v>
       </c>
       <c r="J10" s="3">
+        <v>7407500</v>
+      </c>
+      <c r="K10" s="3">
         <v>16534300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8833900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5572600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5715200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6559500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6839400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6225900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6126100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6654500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7856300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6661400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,67 +951,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1518700</v>
+        <v>1467500</v>
       </c>
       <c r="E12" s="3">
-        <v>3959800</v>
+        <v>1581500</v>
       </c>
       <c r="F12" s="3">
-        <v>1372900</v>
+        <v>4123300</v>
       </c>
       <c r="G12" s="3">
-        <v>1531700</v>
+        <v>1429600</v>
       </c>
       <c r="H12" s="3">
-        <v>1645800</v>
+        <v>1594900</v>
       </c>
       <c r="I12" s="3">
-        <v>1507000</v>
+        <v>1713800</v>
       </c>
       <c r="J12" s="3">
+        <v>1569200</v>
+      </c>
+      <c r="K12" s="3">
         <v>3083300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1575400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2008600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1292600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1391200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1141900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1384500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1210600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1230800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1284100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1461400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,8 +1073,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,8 +1135,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1175,8 +1197,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1195,126 +1220,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9975900</v>
+        <v>11325000</v>
       </c>
       <c r="E17" s="3">
-        <v>21063400</v>
+        <v>10387900</v>
       </c>
       <c r="F17" s="3">
-        <v>24513800</v>
+        <v>21933400</v>
       </c>
       <c r="G17" s="3">
-        <v>12171000</v>
+        <v>25526300</v>
       </c>
       <c r="H17" s="3">
-        <v>12188700</v>
+        <v>12673700</v>
       </c>
       <c r="I17" s="3">
-        <v>10142900</v>
+        <v>12692100</v>
       </c>
       <c r="J17" s="3">
+        <v>10561900</v>
+      </c>
+      <c r="K17" s="3">
         <v>23998600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12526600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17224200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5469300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8932200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7497100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8943400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7446600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8135500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8513600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9668700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1782200</v>
+        <v>3776600</v>
       </c>
       <c r="E18" s="3">
-        <v>-11057000</v>
+        <v>1855900</v>
       </c>
       <c r="F18" s="3">
-        <v>-12686300</v>
+        <v>-11513700</v>
       </c>
       <c r="G18" s="3">
-        <v>2939800</v>
+        <v>-13210300</v>
       </c>
       <c r="H18" s="3">
-        <v>457600</v>
+        <v>3061300</v>
       </c>
       <c r="I18" s="3">
-        <v>1421100</v>
+        <v>476500</v>
       </c>
       <c r="J18" s="3">
+        <v>1479800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3017500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2129200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4788200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1477900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2536400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>701200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1557300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1641500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2848800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>687900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,126 +1368,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-167000</v>
+        <v>-426300</v>
       </c>
       <c r="E20" s="3">
-        <v>-12900</v>
+        <v>-173900</v>
       </c>
       <c r="F20" s="3">
-        <v>-324700</v>
+        <v>-13500</v>
       </c>
       <c r="G20" s="3">
-        <v>-767000</v>
+        <v>-338100</v>
       </c>
       <c r="H20" s="3">
-        <v>-444700</v>
+        <v>-798700</v>
       </c>
       <c r="I20" s="3">
-        <v>-210600</v>
+        <v>-463000</v>
       </c>
       <c r="J20" s="3">
+        <v>-219300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-884700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-356500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-851700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-752100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-354700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>142700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-289500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-452200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-414000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-347400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-262900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2214000</v>
+        <v>4680700</v>
       </c>
       <c r="E21" s="3">
-        <v>1038800</v>
+        <v>2305400</v>
       </c>
       <c r="F21" s="3">
-        <v>-11622800</v>
+        <v>1081700</v>
       </c>
       <c r="G21" s="3">
-        <v>3675100</v>
+        <v>-12102900</v>
       </c>
       <c r="H21" s="3">
-        <v>1902200</v>
+        <v>3826900</v>
       </c>
       <c r="I21" s="3">
-        <v>2399900</v>
+        <v>1980800</v>
       </c>
       <c r="J21" s="3">
+        <v>2499000</v>
+      </c>
+      <c r="K21" s="3">
         <v>5365600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3193900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-914400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5027400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1875400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3236900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1348600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1757000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1804200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3358300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2344100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1513,126 +1552,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1615200</v>
+        <v>3350300</v>
       </c>
       <c r="E23" s="3">
-        <v>-11069900</v>
+        <v>1681900</v>
       </c>
       <c r="F23" s="3">
-        <v>-13011000</v>
+        <v>-11527200</v>
       </c>
       <c r="G23" s="3">
-        <v>2172800</v>
+        <v>-13548400</v>
       </c>
       <c r="H23" s="3">
-        <v>12900</v>
+        <v>2262600</v>
       </c>
       <c r="I23" s="3">
-        <v>1210500</v>
+        <v>13500</v>
       </c>
       <c r="J23" s="3">
+        <v>1260500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2132800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1772800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4036100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1123300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2679100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>411800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1105200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1227500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2501400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>424900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1161100</v>
+        <v>790100</v>
       </c>
       <c r="E24" s="3">
-        <v>-2005800</v>
+        <v>1209100</v>
       </c>
       <c r="F24" s="3">
-        <v>-1705800</v>
+        <v>-2088600</v>
       </c>
       <c r="G24" s="3">
-        <v>563500</v>
+        <v>-1776200</v>
       </c>
       <c r="H24" s="3">
-        <v>50600</v>
+        <v>586800</v>
       </c>
       <c r="I24" s="3">
-        <v>36500</v>
+        <v>52700</v>
       </c>
       <c r="J24" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K24" s="3">
         <v>434100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>428200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>918200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>236100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>542400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>488100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>237900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>289500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>497700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>74000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,126 +1738,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>454100</v>
+        <v>2560200</v>
       </c>
       <c r="E26" s="3">
-        <v>-9064200</v>
+        <v>472800</v>
       </c>
       <c r="F26" s="3">
-        <v>-11305200</v>
+        <v>-9438500</v>
       </c>
       <c r="G26" s="3">
-        <v>1609300</v>
+        <v>-11772200</v>
       </c>
       <c r="H26" s="3">
-        <v>-37600</v>
+        <v>1675800</v>
       </c>
       <c r="I26" s="3">
-        <v>1174000</v>
+        <v>-39200</v>
       </c>
       <c r="J26" s="3">
+        <v>1222500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1698700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1344500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3117900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>887200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2136700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-76300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>867300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>938000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2003700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>351000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>450600</v>
+        <v>2559000</v>
       </c>
       <c r="E27" s="3">
-        <v>-9060600</v>
+        <v>469200</v>
       </c>
       <c r="F27" s="3">
-        <v>-11315800</v>
+        <v>-9434900</v>
       </c>
       <c r="G27" s="3">
-        <v>1610500</v>
+        <v>-11783200</v>
       </c>
       <c r="H27" s="3">
-        <v>-50600</v>
+        <v>1677000</v>
       </c>
       <c r="I27" s="3">
-        <v>1164600</v>
+        <v>-52700</v>
       </c>
       <c r="J27" s="3">
+        <v>1212700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1698700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1350500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3109000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>880600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2136700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-78500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>870700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>935700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1783000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>346300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1867,67 +1924,73 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-88200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>5832600</v>
+        <v>-91900</v>
       </c>
       <c r="F29" s="3">
-        <v>83500</v>
+        <v>6073500</v>
       </c>
       <c r="G29" s="3">
-        <v>141200</v>
+        <v>87000</v>
       </c>
       <c r="H29" s="3">
-        <v>1714000</v>
+        <v>147000</v>
       </c>
       <c r="I29" s="3">
-        <v>54100</v>
+        <v>1784800</v>
       </c>
       <c r="J29" s="3">
+        <v>56300</v>
+      </c>
+      <c r="K29" s="3">
         <v>231800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>134000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>47300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>70900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-8800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>8800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>244600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>3483800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>437600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>662000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>185500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1985,8 +2048,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2044,126 +2110,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>167000</v>
+        <v>426300</v>
       </c>
       <c r="E32" s="3">
-        <v>12900</v>
+        <v>173900</v>
       </c>
       <c r="F32" s="3">
-        <v>324700</v>
+        <v>13500</v>
       </c>
       <c r="G32" s="3">
-        <v>767000</v>
+        <v>338100</v>
       </c>
       <c r="H32" s="3">
-        <v>444700</v>
+        <v>798700</v>
       </c>
       <c r="I32" s="3">
-        <v>210600</v>
+        <v>463000</v>
       </c>
       <c r="J32" s="3">
+        <v>219300</v>
+      </c>
+      <c r="K32" s="3">
         <v>884700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>356500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>851700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>752100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>354700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-142700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>289500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>452200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>414000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>347400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>262900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>362300</v>
+        <v>2559000</v>
       </c>
       <c r="E33" s="3">
-        <v>-3228000</v>
+        <v>377300</v>
       </c>
       <c r="F33" s="3">
-        <v>-11232300</v>
+        <v>-3361400</v>
       </c>
       <c r="G33" s="3">
-        <v>1751700</v>
+        <v>-11696200</v>
       </c>
       <c r="H33" s="3">
-        <v>1663400</v>
+        <v>1824000</v>
       </c>
       <c r="I33" s="3">
-        <v>1218800</v>
+        <v>1732100</v>
       </c>
       <c r="J33" s="3">
+        <v>1269100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1930500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1484500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3179900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>871800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2145500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>166100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4354400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1373300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2445000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>531700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2221,131 +2296,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>362300</v>
+        <v>2559000</v>
       </c>
       <c r="E35" s="3">
-        <v>-3228000</v>
+        <v>377300</v>
       </c>
       <c r="F35" s="3">
-        <v>-11232300</v>
+        <v>-3361400</v>
       </c>
       <c r="G35" s="3">
-        <v>1751700</v>
+        <v>-11696200</v>
       </c>
       <c r="H35" s="3">
-        <v>1663400</v>
+        <v>1824000</v>
       </c>
       <c r="I35" s="3">
-        <v>1218800</v>
+        <v>1732100</v>
       </c>
       <c r="J35" s="3">
+        <v>1269100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1930500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1484500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3179900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>871800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2145500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>166100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4354400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1373300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2445000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>531700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2367,8 +2451,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2390,539 +2475,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4930300</v>
+        <v>6798700</v>
       </c>
       <c r="E41" s="3">
-        <v>5960800</v>
+        <v>5133900</v>
       </c>
       <c r="F41" s="3">
-        <v>3703300</v>
+        <v>6207000</v>
       </c>
       <c r="G41" s="3">
-        <v>2692800</v>
+        <v>3856300</v>
       </c>
       <c r="H41" s="3">
-        <v>3746800</v>
+        <v>2804000</v>
       </c>
       <c r="I41" s="3">
-        <v>5187900</v>
+        <v>3901600</v>
       </c>
       <c r="J41" s="3">
+        <v>5402200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3932700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4859000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4793100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5371900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5469100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5854500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8505800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6232700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3111300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2610600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2229100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>9340600</v>
+        <v>4608400</v>
       </c>
       <c r="E42" s="3">
-        <v>12320400</v>
+        <v>9726400</v>
       </c>
       <c r="F42" s="3">
-        <v>3011600</v>
+        <v>12829300</v>
       </c>
       <c r="G42" s="3">
-        <v>3249200</v>
+        <v>3136000</v>
       </c>
       <c r="H42" s="3">
-        <v>2736300</v>
+        <v>3383400</v>
       </c>
       <c r="I42" s="3">
-        <v>1345800</v>
+        <v>2849300</v>
       </c>
       <c r="J42" s="3">
+        <v>1401400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1022300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1019200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1379300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1773300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1709600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8031900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3959500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6806000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8115400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7819900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7365700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14652100</v>
+        <v>19468800</v>
       </c>
       <c r="E43" s="3">
-        <v>15650800</v>
+        <v>15257300</v>
       </c>
       <c r="F43" s="3">
-        <v>18496500</v>
+        <v>16297300</v>
       </c>
       <c r="G43" s="3">
-        <v>19617600</v>
+        <v>19260500</v>
       </c>
       <c r="H43" s="3">
-        <v>17811900</v>
+        <v>20427900</v>
       </c>
       <c r="I43" s="3">
-        <v>16697800</v>
+        <v>18547600</v>
       </c>
       <c r="J43" s="3">
+        <v>17387500</v>
+      </c>
+      <c r="K43" s="3">
         <v>19478800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20154800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17129600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15883000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18145500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12064800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11592400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11857200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15914300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18548500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>16263100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>12894500</v>
+        <v>12809700</v>
       </c>
       <c r="E44" s="3">
-        <v>12295700</v>
+        <v>13427100</v>
       </c>
       <c r="F44" s="3">
-        <v>11914600</v>
+        <v>12803600</v>
       </c>
       <c r="G44" s="3">
-        <v>11771100</v>
+        <v>12406700</v>
       </c>
       <c r="H44" s="3">
-        <v>12528700</v>
+        <v>12257200</v>
       </c>
       <c r="I44" s="3">
-        <v>12228700</v>
+        <v>13046100</v>
       </c>
       <c r="J44" s="3">
+        <v>12733800</v>
+      </c>
+      <c r="K44" s="3">
         <v>12082800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12574500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13168000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12230100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12023100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7029400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7349000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7558800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9490900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>10181600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9869400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>132900</v>
+        <v>165400</v>
       </c>
       <c r="E45" s="3">
-        <v>50600</v>
+        <v>138400</v>
       </c>
       <c r="F45" s="3">
-        <v>1402300</v>
+        <v>52700</v>
       </c>
       <c r="G45" s="3">
-        <v>1487000</v>
+        <v>1460200</v>
       </c>
       <c r="H45" s="3">
-        <v>1337600</v>
+        <v>1548400</v>
       </c>
       <c r="I45" s="3">
-        <v>3823300</v>
+        <v>1392800</v>
       </c>
       <c r="J45" s="3">
+        <v>3981200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1892800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>277500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>276800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>260300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4083500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3438900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2334900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2046500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32900</v>
-      </c>
-      <c r="T45" s="3">
-        <v>11700</v>
       </c>
       <c r="U45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>41950400</v>
+        <v>43851000</v>
       </c>
       <c r="E46" s="3">
-        <v>46278400</v>
+        <v>43683100</v>
       </c>
       <c r="F46" s="3">
-        <v>38528300</v>
+        <v>48189900</v>
       </c>
       <c r="G46" s="3">
-        <v>38817700</v>
+        <v>40119600</v>
       </c>
       <c r="H46" s="3">
-        <v>38161200</v>
+        <v>40421000</v>
       </c>
       <c r="I46" s="3">
-        <v>39283500</v>
+        <v>39737500</v>
       </c>
       <c r="J46" s="3">
+        <v>40906100</v>
+      </c>
+      <c r="K46" s="3">
         <v>38409500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38884900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36746800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35518500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>41430800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36419600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>33741600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>34501200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36635200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>39193500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>35739000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3389200</v>
+        <v>4031400</v>
       </c>
       <c r="E47" s="3">
-        <v>3524500</v>
+        <v>3529200</v>
       </c>
       <c r="F47" s="3">
-        <v>3255100</v>
+        <v>3670100</v>
       </c>
       <c r="G47" s="3">
-        <v>3238600</v>
+        <v>3389500</v>
       </c>
       <c r="H47" s="3">
-        <v>3304500</v>
+        <v>3372400</v>
       </c>
       <c r="I47" s="3">
-        <v>4273900</v>
+        <v>3441000</v>
       </c>
       <c r="J47" s="3">
+        <v>4450400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4032700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4044400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3848000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4316300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4441400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5320900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6777900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6690400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2778000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2882900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2873500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>13775600</v>
+        <v>14467100</v>
       </c>
       <c r="E48" s="3">
-        <v>13531000</v>
+        <v>14344600</v>
       </c>
       <c r="F48" s="3">
-        <v>13940300</v>
+        <v>14089800</v>
       </c>
       <c r="G48" s="3">
-        <v>14238000</v>
+        <v>14516100</v>
       </c>
       <c r="H48" s="3">
-        <v>14680300</v>
+        <v>14826100</v>
       </c>
       <c r="I48" s="3">
-        <v>15377900</v>
+        <v>15286700</v>
       </c>
       <c r="J48" s="3">
+        <v>16013100</v>
+      </c>
+      <c r="K48" s="3">
         <v>16103700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16666700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15310300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14609200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14381600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8048300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8564100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8308300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14217900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15359300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15393300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>73065000</v>
+        <v>77975500</v>
       </c>
       <c r="E49" s="3">
-        <v>71261600</v>
+        <v>76082900</v>
       </c>
       <c r="F49" s="3">
-        <v>84922000</v>
+        <v>74205000</v>
       </c>
       <c r="G49" s="3">
-        <v>86938300</v>
+        <v>88429600</v>
       </c>
       <c r="H49" s="3">
-        <v>86859500</v>
+        <v>90529200</v>
       </c>
       <c r="I49" s="3">
-        <v>88994700</v>
+        <v>90447100</v>
       </c>
       <c r="J49" s="3">
+        <v>92670500</v>
+      </c>
+      <c r="K49" s="3">
         <v>86197200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>90551100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>88880700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>85576500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>85283900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28180200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29648600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>30135500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31985700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>34811700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>35072300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2980,8 +3093,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3039,67 +3155,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5512600</v>
+        <v>5175600</v>
       </c>
       <c r="E52" s="3">
-        <v>6007900</v>
+        <v>5740300</v>
       </c>
       <c r="F52" s="3">
-        <v>4836200</v>
+        <v>6256000</v>
       </c>
       <c r="G52" s="3">
-        <v>4375000</v>
+        <v>5035900</v>
       </c>
       <c r="H52" s="3">
-        <v>5425600</v>
+        <v>4555700</v>
       </c>
       <c r="I52" s="3">
-        <v>5800800</v>
+        <v>5649700</v>
       </c>
       <c r="J52" s="3">
+        <v>6040400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6190200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5782400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5125500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4535600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5569100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4813600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5514600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6432400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7104400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7589900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7453700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3157,67 +3279,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>137692900</v>
+        <v>145500600</v>
       </c>
       <c r="E54" s="3">
-        <v>140603300</v>
+        <v>143380200</v>
       </c>
       <c r="F54" s="3">
-        <v>145481900</v>
+        <v>146410800</v>
       </c>
       <c r="G54" s="3">
-        <v>147607600</v>
+        <v>151490800</v>
       </c>
       <c r="H54" s="3">
-        <v>148431100</v>
+        <v>153704400</v>
       </c>
       <c r="I54" s="3">
-        <v>153730800</v>
+        <v>154561900</v>
       </c>
       <c r="J54" s="3">
+        <v>160080500</v>
+      </c>
+      <c r="K54" s="3">
         <v>150933300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>155929500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>149911300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>144556200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>151106800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82782600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84246900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>86067900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>92721300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>99837200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>96531800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3239,8 +3367,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3262,362 +3391,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6685500</v>
+        <v>6357700</v>
       </c>
       <c r="E57" s="3">
-        <v>6424300</v>
+        <v>6961600</v>
       </c>
       <c r="F57" s="3">
-        <v>5997300</v>
+        <v>6689700</v>
       </c>
       <c r="G57" s="3">
-        <v>6271400</v>
+        <v>6245000</v>
       </c>
       <c r="H57" s="3">
-        <v>7559500</v>
+        <v>6530400</v>
       </c>
       <c r="I57" s="3">
-        <v>6702000</v>
+        <v>7871800</v>
       </c>
       <c r="J57" s="3">
+        <v>6978800</v>
+      </c>
+      <c r="K57" s="3">
         <v>6333700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6835100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7142400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6154900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5456000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4329400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5754700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4407200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5846700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6679000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7524100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>10081700</v>
+        <v>6060000</v>
       </c>
       <c r="E58" s="3">
-        <v>9717100</v>
+        <v>10498200</v>
       </c>
       <c r="F58" s="3">
-        <v>8672400</v>
+        <v>10118400</v>
       </c>
       <c r="G58" s="3">
-        <v>3764500</v>
+        <v>9030600</v>
       </c>
       <c r="H58" s="3">
-        <v>2566900</v>
+        <v>3920000</v>
       </c>
       <c r="I58" s="3">
-        <v>7085500</v>
+        <v>2672900</v>
       </c>
       <c r="J58" s="3">
+        <v>7378100</v>
+      </c>
+      <c r="K58" s="3">
         <v>7853600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5007300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4355400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3867700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>10470500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1933600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2171100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3973000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5651500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4928800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3992100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>26439600</v>
+        <v>23023700</v>
       </c>
       <c r="E59" s="3">
-        <v>25962000</v>
+        <v>27531700</v>
       </c>
       <c r="F59" s="3">
-        <v>28319500</v>
+        <v>27034300</v>
       </c>
       <c r="G59" s="3">
-        <v>16221400</v>
+        <v>29489200</v>
       </c>
       <c r="H59" s="3">
-        <v>17183700</v>
+        <v>16891400</v>
       </c>
       <c r="I59" s="3">
-        <v>16866000</v>
+        <v>17893400</v>
       </c>
       <c r="J59" s="3">
+        <v>17562700</v>
+      </c>
+      <c r="K59" s="3">
         <v>15766100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16841300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15856800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12639900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13753500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8118600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7325500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8352100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9550400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11366000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10242700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>43206800</v>
+        <v>35441400</v>
       </c>
       <c r="E60" s="3">
-        <v>42103400</v>
+        <v>44991400</v>
       </c>
       <c r="F60" s="3">
-        <v>42989200</v>
+        <v>43842400</v>
       </c>
       <c r="G60" s="3">
-        <v>26257200</v>
+        <v>44764800</v>
       </c>
       <c r="H60" s="3">
-        <v>27310100</v>
+        <v>27341800</v>
       </c>
       <c r="I60" s="3">
-        <v>30653500</v>
+        <v>28438100</v>
       </c>
       <c r="J60" s="3">
+        <v>31919600</v>
+      </c>
+      <c r="K60" s="3">
         <v>29953500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28683700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27354600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22662600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29680000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14381600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15251200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16732200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21048500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22973800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21758900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>39051800</v>
+        <v>46449200</v>
       </c>
       <c r="E61" s="3">
-        <v>41397500</v>
+        <v>40664800</v>
       </c>
       <c r="F61" s="3">
-        <v>39935300</v>
+        <v>43107400</v>
       </c>
       <c r="G61" s="3">
-        <v>43305600</v>
+        <v>41584700</v>
       </c>
       <c r="H61" s="3">
-        <v>43423300</v>
+        <v>45094300</v>
       </c>
       <c r="I61" s="3">
-        <v>44423200</v>
+        <v>45216800</v>
       </c>
       <c r="J61" s="3">
+        <v>46258100</v>
+      </c>
+      <c r="K61" s="3">
         <v>43117400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45397000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44609500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44700500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>46767100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>13475800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14005800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14110100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15896400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17358300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>18992200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>19320000</v>
+        <v>21014700</v>
       </c>
       <c r="E62" s="3">
-        <v>20072900</v>
+        <v>20118000</v>
       </c>
       <c r="F62" s="3">
-        <v>20364700</v>
+        <v>20902000</v>
       </c>
       <c r="G62" s="3">
-        <v>20658800</v>
+        <v>21205800</v>
       </c>
       <c r="H62" s="3">
-        <v>21897500</v>
+        <v>21512000</v>
       </c>
       <c r="I62" s="3">
-        <v>24465600</v>
+        <v>22802000</v>
       </c>
       <c r="J62" s="3">
+        <v>25476100</v>
+      </c>
+      <c r="K62" s="3">
         <v>25085600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24434800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23358700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21373400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22817500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12779600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13632200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13426900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15964800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17415800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18339600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3675,8 +3823,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3734,8 +3885,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3793,67 +3947,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>101784500</v>
+        <v>103130700</v>
       </c>
       <c r="E66" s="3">
-        <v>103750200</v>
+        <v>105988600</v>
       </c>
       <c r="F66" s="3">
-        <v>103479700</v>
+        <v>108035500</v>
       </c>
       <c r="G66" s="3">
-        <v>90424000</v>
+        <v>107753800</v>
       </c>
       <c r="H66" s="3">
-        <v>92842700</v>
+        <v>94158900</v>
       </c>
       <c r="I66" s="3">
-        <v>99756400</v>
+        <v>96677400</v>
       </c>
       <c r="J66" s="3">
+        <v>103876700</v>
+      </c>
+      <c r="K66" s="3">
         <v>98357600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>98720000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95525100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>88927000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>99344800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40698500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>42956500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>44334300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>56088300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60377300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60926600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3875,8 +4035,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3934,8 +4095,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3993,8 +4157,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4052,8 +4219,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4111,67 +4281,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>11467500</v>
+        <v>16919600</v>
       </c>
       <c r="E72" s="3">
-        <v>12412200</v>
+        <v>11941200</v>
       </c>
       <c r="F72" s="3">
-        <v>17561300</v>
+        <v>12924900</v>
       </c>
       <c r="G72" s="3">
-        <v>32742700</v>
+        <v>18286700</v>
       </c>
       <c r="H72" s="3">
-        <v>31147500</v>
+        <v>34095100</v>
       </c>
       <c r="I72" s="3">
-        <v>29534700</v>
+        <v>32434100</v>
       </c>
       <c r="J72" s="3">
+        <v>30754600</v>
+      </c>
+      <c r="K72" s="3">
         <v>28136000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>32358400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29811400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32618800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28951000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29155200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28078900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28522100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>23421500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36975000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>33120200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4229,8 +4405,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4288,8 +4467,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4347,67 +4529,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>35908400</v>
+        <v>42370000</v>
       </c>
       <c r="E76" s="3">
-        <v>36853100</v>
+        <v>37391600</v>
       </c>
       <c r="F76" s="3">
-        <v>42002200</v>
+        <v>38375300</v>
       </c>
       <c r="G76" s="3">
-        <v>57183600</v>
+        <v>43737000</v>
       </c>
       <c r="H76" s="3">
-        <v>55588400</v>
+        <v>59545500</v>
       </c>
       <c r="I76" s="3">
-        <v>53974400</v>
+        <v>57884500</v>
       </c>
       <c r="J76" s="3">
+        <v>56203800</v>
+      </c>
+      <c r="K76" s="3">
         <v>52575700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>57209500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54386200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55629200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51761900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>42084100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41290400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41733500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36633000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39460000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35605200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4465,131 +4653,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>362300</v>
+        <v>2559000</v>
       </c>
       <c r="E81" s="3">
-        <v>-3228000</v>
+        <v>377300</v>
       </c>
       <c r="F81" s="3">
-        <v>-11232300</v>
+        <v>-3361400</v>
       </c>
       <c r="G81" s="3">
-        <v>1751700</v>
+        <v>-11696200</v>
       </c>
       <c r="H81" s="3">
-        <v>1663400</v>
+        <v>1824000</v>
       </c>
       <c r="I81" s="3">
-        <v>1218800</v>
+        <v>1732100</v>
       </c>
       <c r="J81" s="3">
+        <v>1269100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1930500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1484500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3179900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>871800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2145500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>166100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4354400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1373300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2445000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>531700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4611,67 +4808,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>598800</v>
+        <v>1330300</v>
       </c>
       <c r="E83" s="3">
-        <v>12108700</v>
+        <v>623500</v>
       </c>
       <c r="F83" s="3">
-        <v>1388200</v>
+        <v>12608800</v>
       </c>
       <c r="G83" s="3">
-        <v>1502300</v>
+        <v>1445500</v>
       </c>
       <c r="H83" s="3">
-        <v>1889300</v>
+        <v>1564300</v>
       </c>
       <c r="I83" s="3">
-        <v>1189300</v>
+        <v>1967300</v>
       </c>
       <c r="J83" s="3">
+        <v>1238500</v>
+      </c>
+      <c r="K83" s="3">
         <v>3232700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1421100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5043900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>991300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>752100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>557800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>936900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>295100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>933500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>856900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1320500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4729,8 +4930,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4788,8 +4992,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4847,8 +5054,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4906,8 +5116,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4965,67 +5178,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>883500</v>
+        <v>-3387100</v>
       </c>
       <c r="E89" s="3">
-        <v>2314000</v>
+        <v>920000</v>
       </c>
       <c r="F89" s="3">
-        <v>2839800</v>
+        <v>2409600</v>
       </c>
       <c r="G89" s="3">
-        <v>-277600</v>
+        <v>2957100</v>
       </c>
       <c r="H89" s="3">
-        <v>3796200</v>
+        <v>-289100</v>
       </c>
       <c r="I89" s="3">
-        <v>2684500</v>
+        <v>3953000</v>
       </c>
       <c r="J89" s="3">
+        <v>2795400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3150400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1289500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3510800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2271700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2459500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>723600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2545800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3041700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2595200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>987200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3212700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5047,67 +5266,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1050500</v>
+        <v>-403000</v>
       </c>
       <c r="E91" s="3">
-        <v>-645800</v>
+        <v>-1093900</v>
       </c>
       <c r="F91" s="3">
-        <v>-688200</v>
+        <v>-672500</v>
       </c>
       <c r="G91" s="3">
-        <v>-460000</v>
+        <v>-716600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1256400</v>
+        <v>-479000</v>
       </c>
       <c r="I91" s="3">
-        <v>-857600</v>
+        <v>-1308300</v>
       </c>
       <c r="J91" s="3">
+        <v>-893000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-472500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-729900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-504000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-383200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-624900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-534100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-487100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>748900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5165,8 +5388,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5224,67 +5450,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-228200</v>
+        <v>4832600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3364500</v>
+        <v>-237600</v>
       </c>
       <c r="F94" s="3">
-        <v>-495300</v>
+        <v>-3503500</v>
       </c>
       <c r="G94" s="3">
-        <v>-703500</v>
+        <v>-515700</v>
       </c>
       <c r="H94" s="3">
-        <v>41200</v>
+        <v>-732500</v>
       </c>
       <c r="I94" s="3">
-        <v>-281200</v>
+        <v>42900</v>
       </c>
       <c r="J94" s="3">
+        <v>-292800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-549400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>92100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-675400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7090900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1917500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>194100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5306,8 +5538,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,58 +5548,61 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-3236300</v>
+        <v>-20800</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-3369900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-3071600</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-2638500</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-4700</v>
       </c>
-      <c r="J96" s="3">
-        <v>-3071600</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2638500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5424,8 +5660,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5483,8 +5722,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5542,181 +5784,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1592800</v>
+        <v>138400</v>
       </c>
       <c r="E100" s="3">
-        <v>3372700</v>
+        <v>-1658600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1324600</v>
+        <v>3512000</v>
       </c>
       <c r="G100" s="3">
-        <v>42400</v>
+        <v>-1379300</v>
       </c>
       <c r="H100" s="3">
-        <v>-5259700</v>
+        <v>44100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1194000</v>
+        <v>-5476900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1243400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>39249100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-637900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-41500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-616000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>717200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3413400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-92900</v>
+        <v>80800</v>
       </c>
       <c r="E101" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>24700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>27500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-424900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-129600</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="R101" s="3">
         <v>-72900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-80000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>24700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>27500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-59800</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-424900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-129600</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-51600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-72900</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-41500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1030500</v>
+        <v>1664800</v>
       </c>
       <c r="E102" s="3">
-        <v>2249300</v>
+        <v>-1073100</v>
       </c>
       <c r="F102" s="3">
-        <v>983500</v>
+        <v>2342200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1018800</v>
+        <v>1024100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1441100</v>
+        <v>-1060800</v>
       </c>
       <c r="I102" s="3">
-        <v>1210500</v>
+        <v>-1500600</v>
       </c>
       <c r="J102" s="3">
+        <v>1260500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-789400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-942800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-179400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-357900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2273200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3121400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>616000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>381500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>782900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,274 +662,286 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15101700</v>
+        <v>12671100</v>
       </c>
       <c r="E8" s="3">
-        <v>12243800</v>
+        <v>14391800</v>
       </c>
       <c r="F8" s="3">
-        <v>10419800</v>
+        <v>11668300</v>
       </c>
       <c r="G8" s="3">
-        <v>12316000</v>
+        <v>9930000</v>
       </c>
       <c r="H8" s="3">
-        <v>15735000</v>
+        <v>11737100</v>
       </c>
       <c r="I8" s="3">
-        <v>13168600</v>
+        <v>14995400</v>
       </c>
       <c r="J8" s="3">
+        <v>12549700</v>
+      </c>
+      <c r="K8" s="3">
         <v>12041700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27016000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14655800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12248900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10257500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10410100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10033500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9644600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9004000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9777000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11362500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10356500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5755000</v>
+        <v>5307000</v>
       </c>
       <c r="E9" s="3">
-        <v>4494500</v>
+        <v>5484500</v>
       </c>
       <c r="F9" s="3">
-        <v>8323800</v>
+        <v>4283200</v>
       </c>
       <c r="G9" s="3">
-        <v>4922000</v>
+        <v>7932600</v>
       </c>
       <c r="H9" s="3">
-        <v>5703600</v>
+        <v>4690700</v>
       </c>
       <c r="I9" s="3">
-        <v>6027000</v>
+        <v>5435500</v>
       </c>
       <c r="J9" s="3">
+        <v>5743700</v>
+      </c>
+      <c r="K9" s="3">
         <v>4634100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10481700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5821900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6676300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4542300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3850700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3194100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3418700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2877900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3122500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3506200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3695200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9346700</v>
+        <v>7364000</v>
       </c>
       <c r="E10" s="3">
-        <v>7749300</v>
+        <v>8907300</v>
       </c>
       <c r="F10" s="3">
-        <v>2096000</v>
+        <v>7385000</v>
       </c>
       <c r="G10" s="3">
-        <v>7394000</v>
+        <v>1997400</v>
       </c>
       <c r="H10" s="3">
-        <v>10031400</v>
+        <v>7046500</v>
       </c>
       <c r="I10" s="3">
-        <v>7141700</v>
+        <v>9559900</v>
       </c>
       <c r="J10" s="3">
+        <v>6806000</v>
+      </c>
+      <c r="K10" s="3">
         <v>7407500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>16534300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8833900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5572600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5715200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6559500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6839400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6225900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6126100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6654500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7856300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6661400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,70 +964,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1467500</v>
+        <v>1912200</v>
       </c>
       <c r="E12" s="3">
-        <v>1581500</v>
+        <v>1398600</v>
       </c>
       <c r="F12" s="3">
-        <v>4123300</v>
+        <v>1507100</v>
       </c>
       <c r="G12" s="3">
-        <v>1429600</v>
+        <v>3929500</v>
       </c>
       <c r="H12" s="3">
-        <v>1594900</v>
+        <v>1362400</v>
       </c>
       <c r="I12" s="3">
-        <v>1713800</v>
+        <v>1520000</v>
       </c>
       <c r="J12" s="3">
+        <v>1633200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1569200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3083300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1575400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2008600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1292600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1391200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1141900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1384500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1210600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1230800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1284100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1461400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1092,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1138,8 +1157,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,8 +1222,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1221,132 +1246,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11325000</v>
+        <v>15333900</v>
       </c>
       <c r="E17" s="3">
-        <v>10387900</v>
+        <v>10792700</v>
       </c>
       <c r="F17" s="3">
-        <v>21933400</v>
+        <v>9899600</v>
       </c>
       <c r="G17" s="3">
-        <v>25526300</v>
+        <v>20902500</v>
       </c>
       <c r="H17" s="3">
-        <v>12673700</v>
+        <v>24326500</v>
       </c>
       <c r="I17" s="3">
-        <v>12692100</v>
+        <v>12078000</v>
       </c>
       <c r="J17" s="3">
+        <v>12095500</v>
+      </c>
+      <c r="K17" s="3">
         <v>10561900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23998600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12526600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17224200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5469300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8932200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7497100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8943400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7446600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8135500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8513600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9668700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3776600</v>
+        <v>-2662900</v>
       </c>
       <c r="E18" s="3">
-        <v>1855900</v>
+        <v>3599100</v>
       </c>
       <c r="F18" s="3">
-        <v>-11513700</v>
+        <v>1768600</v>
       </c>
       <c r="G18" s="3">
-        <v>-13210300</v>
+        <v>-10972500</v>
       </c>
       <c r="H18" s="3">
-        <v>3061300</v>
+        <v>-12589300</v>
       </c>
       <c r="I18" s="3">
-        <v>476500</v>
+        <v>2917400</v>
       </c>
       <c r="J18" s="3">
+        <v>454100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1479800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3017500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2129200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4788200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1477900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2536400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>701200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1557300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1641500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2848800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>687900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1369,132 +1401,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-426300</v>
+        <v>-115600</v>
       </c>
       <c r="E20" s="3">
-        <v>-173900</v>
+        <v>-406300</v>
       </c>
       <c r="F20" s="3">
-        <v>-13500</v>
+        <v>-165800</v>
       </c>
       <c r="G20" s="3">
-        <v>-338100</v>
+        <v>-12800</v>
       </c>
       <c r="H20" s="3">
-        <v>-798700</v>
+        <v>-322200</v>
       </c>
       <c r="I20" s="3">
-        <v>-463000</v>
+        <v>-761200</v>
       </c>
       <c r="J20" s="3">
+        <v>-441300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-219300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-884700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-356500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-851700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-752100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-354700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>142700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-289500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-452200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-414000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-347400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-262900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4680700</v>
+        <v>-1155700</v>
       </c>
       <c r="E21" s="3">
-        <v>2305400</v>
+        <v>4460700</v>
       </c>
       <c r="F21" s="3">
-        <v>1081700</v>
+        <v>2197100</v>
       </c>
       <c r="G21" s="3">
-        <v>-12102900</v>
+        <v>1030800</v>
       </c>
       <c r="H21" s="3">
-        <v>3826900</v>
+        <v>-11534000</v>
       </c>
       <c r="I21" s="3">
-        <v>1980800</v>
+        <v>3647000</v>
       </c>
       <c r="J21" s="3">
+        <v>1887700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2499000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5365600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3193900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-914400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5027400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1875400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3236900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1348600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1757000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1804200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3358300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2344100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1555,132 +1594,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3350300</v>
+        <v>-2778400</v>
       </c>
       <c r="E23" s="3">
-        <v>1681900</v>
+        <v>3192900</v>
       </c>
       <c r="F23" s="3">
-        <v>-11527200</v>
+        <v>1602900</v>
       </c>
       <c r="G23" s="3">
-        <v>-13548400</v>
+        <v>-10985300</v>
       </c>
       <c r="H23" s="3">
-        <v>2262600</v>
+        <v>-12911600</v>
       </c>
       <c r="I23" s="3">
-        <v>13500</v>
+        <v>2156200</v>
       </c>
       <c r="J23" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1260500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2132800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1772800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4036100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1123300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2679100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>411800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1105200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1227500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2501400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>424900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>790100</v>
+        <v>-60700</v>
       </c>
       <c r="E24" s="3">
-        <v>1209100</v>
+        <v>753000</v>
       </c>
       <c r="F24" s="3">
-        <v>-2088600</v>
+        <v>1152200</v>
       </c>
       <c r="G24" s="3">
-        <v>-1776200</v>
+        <v>-1990400</v>
       </c>
       <c r="H24" s="3">
-        <v>586800</v>
+        <v>-1692700</v>
       </c>
       <c r="I24" s="3">
-        <v>52700</v>
+        <v>559200</v>
       </c>
       <c r="J24" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K24" s="3">
         <v>38000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>434100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>428200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>918200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>236100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>542400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>488100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>237900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>289500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>497700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>74000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1741,132 +1789,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2560200</v>
+        <v>-2717700</v>
       </c>
       <c r="E26" s="3">
-        <v>472800</v>
+        <v>2439900</v>
       </c>
       <c r="F26" s="3">
-        <v>-9438500</v>
+        <v>450600</v>
       </c>
       <c r="G26" s="3">
-        <v>-11772200</v>
+        <v>-8994900</v>
       </c>
       <c r="H26" s="3">
-        <v>1675800</v>
+        <v>-11218800</v>
       </c>
       <c r="I26" s="3">
-        <v>-39200</v>
+        <v>1597000</v>
       </c>
       <c r="J26" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1222500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1698700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1344500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3117900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>887200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2136700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-76300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>867300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>938000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2003700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>351000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2559000</v>
+        <v>-2725900</v>
       </c>
       <c r="E27" s="3">
-        <v>469200</v>
+        <v>2438700</v>
       </c>
       <c r="F27" s="3">
-        <v>-9434900</v>
+        <v>447100</v>
       </c>
       <c r="G27" s="3">
-        <v>-11783200</v>
+        <v>-8991400</v>
       </c>
       <c r="H27" s="3">
-        <v>1677000</v>
+        <v>-11229300</v>
       </c>
       <c r="I27" s="3">
-        <v>-52700</v>
+        <v>1598200</v>
       </c>
       <c r="J27" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1212700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1698700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1350500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3109000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>880600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2136700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-78500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>870700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>935700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1783000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>346300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1927,8 +1984,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,61 +1996,64 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-91900</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>6073500</v>
+        <v>-87600</v>
       </c>
       <c r="G29" s="3">
-        <v>87000</v>
+        <v>5788000</v>
       </c>
       <c r="H29" s="3">
-        <v>147000</v>
+        <v>82900</v>
       </c>
       <c r="I29" s="3">
-        <v>1784800</v>
+        <v>140100</v>
       </c>
       <c r="J29" s="3">
+        <v>1700900</v>
+      </c>
+      <c r="K29" s="3">
         <v>56300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>231800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>134000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>47300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>70900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-8800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>8800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>244600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>3483800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>437600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>662000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>185500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2051,8 +2114,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2113,132 +2179,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>426300</v>
+        <v>115600</v>
       </c>
       <c r="E32" s="3">
-        <v>173900</v>
+        <v>406300</v>
       </c>
       <c r="F32" s="3">
-        <v>13500</v>
+        <v>165800</v>
       </c>
       <c r="G32" s="3">
-        <v>338100</v>
+        <v>12800</v>
       </c>
       <c r="H32" s="3">
-        <v>798700</v>
+        <v>322200</v>
       </c>
       <c r="I32" s="3">
-        <v>463000</v>
+        <v>761200</v>
       </c>
       <c r="J32" s="3">
+        <v>441300</v>
+      </c>
+      <c r="K32" s="3">
         <v>219300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>884700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>356500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>851700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>752100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>354700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-142700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>289500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>452200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>414000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>347400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>262900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2559000</v>
+        <v>-2725900</v>
       </c>
       <c r="E33" s="3">
-        <v>377300</v>
+        <v>2438700</v>
       </c>
       <c r="F33" s="3">
-        <v>-3361400</v>
+        <v>359600</v>
       </c>
       <c r="G33" s="3">
-        <v>-11696200</v>
+        <v>-3203400</v>
       </c>
       <c r="H33" s="3">
-        <v>1824000</v>
+        <v>-11146400</v>
       </c>
       <c r="I33" s="3">
-        <v>1732100</v>
+        <v>1738300</v>
       </c>
       <c r="J33" s="3">
+        <v>1650700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1269100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1930500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1484500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3179900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>871800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2145500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>166100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4354400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1373300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2445000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>531700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2299,137 +2374,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2559000</v>
+        <v>-2725900</v>
       </c>
       <c r="E35" s="3">
-        <v>377300</v>
+        <v>2438700</v>
       </c>
       <c r="F35" s="3">
-        <v>-3361400</v>
+        <v>359600</v>
       </c>
       <c r="G35" s="3">
-        <v>-11696200</v>
+        <v>-3203400</v>
       </c>
       <c r="H35" s="3">
-        <v>1824000</v>
+        <v>-11146400</v>
       </c>
       <c r="I35" s="3">
-        <v>1732100</v>
+        <v>1738300</v>
       </c>
       <c r="J35" s="3">
+        <v>1650700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1269100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1930500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1484500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3179900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>871800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2145500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>166100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4354400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1373300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2445000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>531700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2452,8 +2536,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2476,566 +2561,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>6798700</v>
+        <v>3956400</v>
       </c>
       <c r="E41" s="3">
-        <v>5133900</v>
+        <v>6479100</v>
       </c>
       <c r="F41" s="3">
-        <v>6207000</v>
+        <v>4892600</v>
       </c>
       <c r="G41" s="3">
-        <v>3856300</v>
+        <v>5915300</v>
       </c>
       <c r="H41" s="3">
-        <v>2804000</v>
+        <v>3675000</v>
       </c>
       <c r="I41" s="3">
-        <v>3901600</v>
+        <v>2672200</v>
       </c>
       <c r="J41" s="3">
+        <v>3718200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5402200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3932700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4859000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4793100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5371900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5469100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5854500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8505800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6232700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3111300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2610600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2229100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4608400</v>
+        <v>3629500</v>
       </c>
       <c r="E42" s="3">
-        <v>9726400</v>
+        <v>4391800</v>
       </c>
       <c r="F42" s="3">
-        <v>12829300</v>
+        <v>9269200</v>
       </c>
       <c r="G42" s="3">
-        <v>3136000</v>
+        <v>12226300</v>
       </c>
       <c r="H42" s="3">
-        <v>3383400</v>
+        <v>2988600</v>
       </c>
       <c r="I42" s="3">
-        <v>2849300</v>
+        <v>3224400</v>
       </c>
       <c r="J42" s="3">
+        <v>2715400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1401400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1022300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1019200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1379300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1773300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1709600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>8031900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3959500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>6806000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8115400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7819900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7365700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>19468800</v>
+        <v>18440400</v>
       </c>
       <c r="E43" s="3">
-        <v>15257300</v>
+        <v>18553600</v>
       </c>
       <c r="F43" s="3">
-        <v>16297300</v>
+        <v>14540100</v>
       </c>
       <c r="G43" s="3">
-        <v>19260500</v>
+        <v>15531200</v>
       </c>
       <c r="H43" s="3">
-        <v>20427900</v>
+        <v>18355200</v>
       </c>
       <c r="I43" s="3">
-        <v>18547600</v>
+        <v>19467700</v>
       </c>
       <c r="J43" s="3">
+        <v>17675800</v>
+      </c>
+      <c r="K43" s="3">
         <v>17387500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19478800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20154800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17129600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15883000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18145500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12064800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11592400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11857200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15914300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18548500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>16263100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>12809700</v>
+        <v>11820000</v>
       </c>
       <c r="E44" s="3">
-        <v>13427100</v>
+        <v>12207600</v>
       </c>
       <c r="F44" s="3">
-        <v>12803600</v>
+        <v>12796000</v>
       </c>
       <c r="G44" s="3">
-        <v>12406700</v>
+        <v>12201800</v>
       </c>
       <c r="H44" s="3">
-        <v>12257200</v>
+        <v>11823500</v>
       </c>
       <c r="I44" s="3">
-        <v>13046100</v>
+        <v>11681100</v>
       </c>
       <c r="J44" s="3">
+        <v>12432900</v>
+      </c>
+      <c r="K44" s="3">
         <v>12733800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12082800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12574500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13168000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12230100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12023100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7029400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7349000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7558800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9490900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>10181600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9869400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>165400</v>
+        <v>37400</v>
       </c>
       <c r="E45" s="3">
-        <v>138400</v>
+        <v>157600</v>
       </c>
       <c r="F45" s="3">
-        <v>52700</v>
+        <v>131900</v>
       </c>
       <c r="G45" s="3">
-        <v>1460200</v>
+        <v>50200</v>
       </c>
       <c r="H45" s="3">
-        <v>1548400</v>
+        <v>1391600</v>
       </c>
       <c r="I45" s="3">
-        <v>1392800</v>
+        <v>1475600</v>
       </c>
       <c r="J45" s="3">
+        <v>1327300</v>
+      </c>
+      <c r="K45" s="3">
         <v>3981200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1892800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>277500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>276800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>260300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4083500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3438900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2334900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2046500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>32900</v>
-      </c>
-      <c r="U45" s="3">
-        <v>11700</v>
       </c>
       <c r="V45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>43851000</v>
+        <v>37883600</v>
       </c>
       <c r="E46" s="3">
-        <v>43683100</v>
+        <v>41789800</v>
       </c>
       <c r="F46" s="3">
-        <v>48189900</v>
+        <v>41629800</v>
       </c>
       <c r="G46" s="3">
-        <v>40119600</v>
+        <v>45924700</v>
       </c>
       <c r="H46" s="3">
-        <v>40421000</v>
+        <v>38233800</v>
       </c>
       <c r="I46" s="3">
-        <v>39737500</v>
+        <v>38521000</v>
       </c>
       <c r="J46" s="3">
+        <v>37869600</v>
+      </c>
+      <c r="K46" s="3">
         <v>40906100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>38409500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38884900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36746800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35518500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>41430800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36419600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33741600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>34501200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>36635200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>39193500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>35739000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4031400</v>
+        <v>3969200</v>
       </c>
       <c r="E47" s="3">
-        <v>3529200</v>
+        <v>3841900</v>
       </c>
       <c r="F47" s="3">
-        <v>3670100</v>
+        <v>3363300</v>
       </c>
       <c r="G47" s="3">
-        <v>3389500</v>
+        <v>3497600</v>
       </c>
       <c r="H47" s="3">
-        <v>3372400</v>
+        <v>3230200</v>
       </c>
       <c r="I47" s="3">
-        <v>3441000</v>
+        <v>3213900</v>
       </c>
       <c r="J47" s="3">
+        <v>3279300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4450400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4032700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4044400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3848000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4316300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4441400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5320900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6777900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6690400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2778000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2882900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2873500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14467100</v>
+        <v>13810500</v>
       </c>
       <c r="E48" s="3">
-        <v>14344600</v>
+        <v>13787100</v>
       </c>
       <c r="F48" s="3">
-        <v>14089800</v>
+        <v>13670400</v>
       </c>
       <c r="G48" s="3">
-        <v>14516100</v>
+        <v>13427500</v>
       </c>
       <c r="H48" s="3">
-        <v>14826100</v>
+        <v>13833800</v>
       </c>
       <c r="I48" s="3">
-        <v>15286700</v>
+        <v>14129200</v>
       </c>
       <c r="J48" s="3">
+        <v>14568100</v>
+      </c>
+      <c r="K48" s="3">
         <v>16013100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16103700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16666700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15310300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14609200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14381600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8048300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8564100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8308300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14217900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15359300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15393300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>77975500</v>
+        <v>72698100</v>
       </c>
       <c r="E49" s="3">
-        <v>76082900</v>
+        <v>74310300</v>
       </c>
       <c r="F49" s="3">
-        <v>74205000</v>
+        <v>72506700</v>
       </c>
       <c r="G49" s="3">
-        <v>88429600</v>
+        <v>70717000</v>
       </c>
       <c r="H49" s="3">
-        <v>90529200</v>
+        <v>84273000</v>
       </c>
       <c r="I49" s="3">
-        <v>90447100</v>
+        <v>86273900</v>
       </c>
       <c r="J49" s="3">
+        <v>86195700</v>
+      </c>
+      <c r="K49" s="3">
         <v>92670500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86197200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>90551100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>88880700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>85576500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>85283900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28180200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29648600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30135500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31985700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>34811700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>35072300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3096,8 +3209,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3158,70 +3274,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5175600</v>
+        <v>5221800</v>
       </c>
       <c r="E52" s="3">
-        <v>5740300</v>
+        <v>4932300</v>
       </c>
       <c r="F52" s="3">
-        <v>6256000</v>
+        <v>5470500</v>
       </c>
       <c r="G52" s="3">
-        <v>5035900</v>
+        <v>5962000</v>
       </c>
       <c r="H52" s="3">
-        <v>4555700</v>
+        <v>4799200</v>
       </c>
       <c r="I52" s="3">
-        <v>5649700</v>
+        <v>4341600</v>
       </c>
       <c r="J52" s="3">
+        <v>5384100</v>
+      </c>
+      <c r="K52" s="3">
         <v>6040400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6190200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5782400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5125500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4535600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5569100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4813600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5514600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6432400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7104400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7589900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7453700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3282,70 +3404,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>145500600</v>
+        <v>133583200</v>
       </c>
       <c r="E54" s="3">
-        <v>143380200</v>
+        <v>138661500</v>
       </c>
       <c r="F54" s="3">
-        <v>146410800</v>
+        <v>136640700</v>
       </c>
       <c r="G54" s="3">
-        <v>151490800</v>
+        <v>139528800</v>
       </c>
       <c r="H54" s="3">
-        <v>153704400</v>
+        <v>144370100</v>
       </c>
       <c r="I54" s="3">
-        <v>154561900</v>
+        <v>146479600</v>
       </c>
       <c r="J54" s="3">
+        <v>147296800</v>
+      </c>
+      <c r="K54" s="3">
         <v>160080500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>150933300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155929500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>149911300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>144556200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>151106800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>82782600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84246900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>86067900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>92721300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>99837200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>96531800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3368,8 +3496,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3392,380 +3521,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6357700</v>
+        <v>5974800</v>
       </c>
       <c r="E57" s="3">
-        <v>6961600</v>
+        <v>6058900</v>
       </c>
       <c r="F57" s="3">
-        <v>6689700</v>
+        <v>6634400</v>
       </c>
       <c r="G57" s="3">
-        <v>6245000</v>
+        <v>6375200</v>
       </c>
       <c r="H57" s="3">
-        <v>6530400</v>
+        <v>5951500</v>
       </c>
       <c r="I57" s="3">
-        <v>7871800</v>
+        <v>6223500</v>
       </c>
       <c r="J57" s="3">
+        <v>7501800</v>
+      </c>
+      <c r="K57" s="3">
         <v>6978800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6333700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6835100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7142400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6154900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5456000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4329400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5754700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4407200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5846700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6679000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7524100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6060000</v>
+        <v>4328800</v>
       </c>
       <c r="E58" s="3">
-        <v>10498200</v>
+        <v>5775200</v>
       </c>
       <c r="F58" s="3">
-        <v>10118400</v>
+        <v>10004700</v>
       </c>
       <c r="G58" s="3">
-        <v>9030600</v>
+        <v>9642800</v>
       </c>
       <c r="H58" s="3">
-        <v>3920000</v>
+        <v>8606100</v>
       </c>
       <c r="I58" s="3">
-        <v>2672900</v>
+        <v>3735700</v>
       </c>
       <c r="J58" s="3">
+        <v>2547300</v>
+      </c>
+      <c r="K58" s="3">
         <v>7378100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7853600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5007300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4355400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3867700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>10470500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1933600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2171100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3973000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5651500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4928800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3992100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>23023700</v>
+        <v>22297500</v>
       </c>
       <c r="E59" s="3">
-        <v>27531700</v>
+        <v>21941500</v>
       </c>
       <c r="F59" s="3">
-        <v>27034300</v>
+        <v>26237500</v>
       </c>
       <c r="G59" s="3">
-        <v>29489200</v>
+        <v>25763600</v>
       </c>
       <c r="H59" s="3">
-        <v>16891400</v>
+        <v>28103100</v>
       </c>
       <c r="I59" s="3">
-        <v>17893400</v>
+        <v>16097400</v>
       </c>
       <c r="J59" s="3">
+        <v>17052400</v>
+      </c>
+      <c r="K59" s="3">
         <v>17562700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15766100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16841300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15856800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12639900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13753500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8118600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7325500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8352100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9550400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11366000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10242700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>35441400</v>
+        <v>32601100</v>
       </c>
       <c r="E60" s="3">
-        <v>44991400</v>
+        <v>33775500</v>
       </c>
       <c r="F60" s="3">
-        <v>43842400</v>
+        <v>42876600</v>
       </c>
       <c r="G60" s="3">
-        <v>44764800</v>
+        <v>41781600</v>
       </c>
       <c r="H60" s="3">
-        <v>27341800</v>
+        <v>42660700</v>
       </c>
       <c r="I60" s="3">
-        <v>28438100</v>
+        <v>26056600</v>
       </c>
       <c r="J60" s="3">
+        <v>27101400</v>
+      </c>
+      <c r="K60" s="3">
         <v>31919600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29953500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>28683700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27354600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22662600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29680000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14381600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15251200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16732200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21048500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22973800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21758900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>46449200</v>
+        <v>42801900</v>
       </c>
       <c r="E61" s="3">
-        <v>40664800</v>
+        <v>44265900</v>
       </c>
       <c r="F61" s="3">
-        <v>43107400</v>
+        <v>38753300</v>
       </c>
       <c r="G61" s="3">
-        <v>41584700</v>
+        <v>41081200</v>
       </c>
       <c r="H61" s="3">
-        <v>45094300</v>
+        <v>39630100</v>
       </c>
       <c r="I61" s="3">
-        <v>45216800</v>
+        <v>42974700</v>
       </c>
       <c r="J61" s="3">
+        <v>43091400</v>
+      </c>
+      <c r="K61" s="3">
         <v>46258100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43117400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45397000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44609500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44700500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>46767100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>13475800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14005800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14110100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>15896400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17358300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>18992200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>21014700</v>
+        <v>22483100</v>
       </c>
       <c r="E62" s="3">
-        <v>20118000</v>
+        <v>20026900</v>
       </c>
       <c r="F62" s="3">
-        <v>20902000</v>
+        <v>19172400</v>
       </c>
       <c r="G62" s="3">
-        <v>21205800</v>
+        <v>19919500</v>
       </c>
       <c r="H62" s="3">
-        <v>21512000</v>
+        <v>20209000</v>
       </c>
       <c r="I62" s="3">
-        <v>22802000</v>
+        <v>20500900</v>
       </c>
       <c r="J62" s="3">
+        <v>21730200</v>
+      </c>
+      <c r="K62" s="3">
         <v>25476100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25085600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24434800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23358700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21373400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22817500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12779600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13632200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13426900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15964800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17415800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>18339600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3826,8 +3974,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3888,8 +4039,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3950,70 +4104,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>103130700</v>
+        <v>98106800</v>
       </c>
       <c r="E66" s="3">
-        <v>105988600</v>
+        <v>98283100</v>
       </c>
       <c r="F66" s="3">
-        <v>108035500</v>
+        <v>101006600</v>
       </c>
       <c r="G66" s="3">
-        <v>107753800</v>
+        <v>102957400</v>
       </c>
       <c r="H66" s="3">
-        <v>94158900</v>
+        <v>102688900</v>
       </c>
       <c r="I66" s="3">
-        <v>96677400</v>
+        <v>89733000</v>
       </c>
       <c r="J66" s="3">
+        <v>92133200</v>
+      </c>
+      <c r="K66" s="3">
         <v>103876700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>98357600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>98720000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>95525100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>88927000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>99344800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40698500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>42956500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>44334300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>56088300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>60377300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>60926600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4036,8 +4196,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4098,8 +4259,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4160,8 +4324,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4222,8 +4389,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4284,70 +4454,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>16919600</v>
+        <v>11222300</v>
       </c>
       <c r="E72" s="3">
-        <v>11941200</v>
+        <v>16124300</v>
       </c>
       <c r="F72" s="3">
-        <v>12924900</v>
+        <v>11379900</v>
       </c>
       <c r="G72" s="3">
-        <v>18286700</v>
+        <v>12317300</v>
       </c>
       <c r="H72" s="3">
-        <v>34095100</v>
+        <v>17427100</v>
       </c>
       <c r="I72" s="3">
-        <v>32434100</v>
+        <v>32492500</v>
       </c>
       <c r="J72" s="3">
+        <v>30909500</v>
+      </c>
+      <c r="K72" s="3">
         <v>30754600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28136000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>32358400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29811400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32618800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28951000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29155200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28078900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28522100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>23421500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36975000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>33120200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4408,8 +4584,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4470,8 +4649,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4532,70 +4714,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>42370000</v>
+        <v>35476400</v>
       </c>
       <c r="E76" s="3">
-        <v>37391600</v>
+        <v>40378400</v>
       </c>
       <c r="F76" s="3">
-        <v>38375300</v>
+        <v>35634000</v>
       </c>
       <c r="G76" s="3">
-        <v>43737000</v>
+        <v>36571500</v>
       </c>
       <c r="H76" s="3">
-        <v>59545500</v>
+        <v>41681200</v>
       </c>
       <c r="I76" s="3">
-        <v>57884500</v>
+        <v>56746600</v>
       </c>
       <c r="J76" s="3">
+        <v>55163600</v>
+      </c>
+      <c r="K76" s="3">
         <v>56203800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52575700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>57209500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54386200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55629200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51761900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>42084100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>41290400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41733500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36633000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39460000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35605200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4656,137 +4844,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2559000</v>
+        <v>-2725900</v>
       </c>
       <c r="E81" s="3">
-        <v>377300</v>
+        <v>2438700</v>
       </c>
       <c r="F81" s="3">
-        <v>-3361400</v>
+        <v>359600</v>
       </c>
       <c r="G81" s="3">
-        <v>-11696200</v>
+        <v>-3203400</v>
       </c>
       <c r="H81" s="3">
-        <v>1824000</v>
+        <v>-11146400</v>
       </c>
       <c r="I81" s="3">
-        <v>1732100</v>
+        <v>1738300</v>
       </c>
       <c r="J81" s="3">
+        <v>1650700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1269100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1930500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1484500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3179900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>871800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2145500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>166100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4354400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1373300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2445000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>531700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4809,70 +5006,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1330300</v>
+        <v>1622700</v>
       </c>
       <c r="E83" s="3">
-        <v>623500</v>
+        <v>1267800</v>
       </c>
       <c r="F83" s="3">
-        <v>12608800</v>
+        <v>594200</v>
       </c>
       <c r="G83" s="3">
-        <v>1445500</v>
+        <v>12016200</v>
       </c>
       <c r="H83" s="3">
-        <v>1564300</v>
+        <v>1377500</v>
       </c>
       <c r="I83" s="3">
-        <v>1967300</v>
+        <v>1490800</v>
       </c>
       <c r="J83" s="3">
+        <v>1874900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1238500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3232700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1421100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5043900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>991300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>752100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>557800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>936900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>295100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>933500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>856900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1320500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4933,8 +5134,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4995,8 +5199,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5057,8 +5264,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5119,8 +5329,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5181,70 +5394,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-3387100</v>
+        <v>2331300</v>
       </c>
       <c r="E89" s="3">
-        <v>920000</v>
+        <v>-3227900</v>
       </c>
       <c r="F89" s="3">
-        <v>2409600</v>
+        <v>876700</v>
       </c>
       <c r="G89" s="3">
-        <v>2957100</v>
+        <v>2296300</v>
       </c>
       <c r="H89" s="3">
-        <v>-289100</v>
+        <v>2818100</v>
       </c>
       <c r="I89" s="3">
-        <v>3953000</v>
+        <v>-275500</v>
       </c>
       <c r="J89" s="3">
+        <v>3767200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2795400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3150400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1289500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3510800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2271700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2459500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>723600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2545800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3041700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2595200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>987200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3212700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5267,70 +5486,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-403000</v>
+        <v>-575500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1093900</v>
+        <v>-384100</v>
       </c>
       <c r="F91" s="3">
-        <v>-672500</v>
+        <v>-1042500</v>
       </c>
       <c r="G91" s="3">
-        <v>-716600</v>
+        <v>-640900</v>
       </c>
       <c r="H91" s="3">
-        <v>-479000</v>
+        <v>-682900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1308300</v>
+        <v>-456500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1246800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-893000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-472500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-729900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-504000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-383200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-624900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-534100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-487100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>748900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5391,8 +5614,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5453,70 +5679,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>4832600</v>
+        <v>521800</v>
       </c>
       <c r="E94" s="3">
-        <v>-237600</v>
+        <v>4605400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3503500</v>
+        <v>-226500</v>
       </c>
       <c r="G94" s="3">
-        <v>-515700</v>
+        <v>-3338800</v>
       </c>
       <c r="H94" s="3">
-        <v>-732500</v>
+        <v>-491500</v>
       </c>
       <c r="I94" s="3">
-        <v>42900</v>
+        <v>-698100</v>
       </c>
       <c r="J94" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-292800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-549400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>92100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-675400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7090900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1917500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>194100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5539,8 +5771,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,58 +5784,61 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-20800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-3369900</v>
+        <v>-19800</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-3211500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-4700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5663,8 +5899,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5725,8 +5964,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5787,190 +6029,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>138400</v>
+        <v>-5373600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1658600</v>
+        <v>131900</v>
       </c>
       <c r="F100" s="3">
-        <v>3512000</v>
+        <v>-1580700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1379300</v>
+        <v>3347000</v>
       </c>
       <c r="H100" s="3">
-        <v>44100</v>
+        <v>-1314500</v>
       </c>
       <c r="I100" s="3">
-        <v>-5476900</v>
+        <v>42000</v>
       </c>
       <c r="J100" s="3">
+        <v>-5219500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>39249100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-637900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-41500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-616000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>717200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3413400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>80800</v>
+        <v>-2300</v>
       </c>
       <c r="E101" s="3">
-        <v>-96800</v>
+        <v>77000</v>
       </c>
       <c r="F101" s="3">
-        <v>-75900</v>
+        <v>-92200</v>
       </c>
       <c r="G101" s="3">
-        <v>-38000</v>
+        <v>-72400</v>
       </c>
       <c r="H101" s="3">
-        <v>-83300</v>
+        <v>-36200</v>
       </c>
       <c r="I101" s="3">
-        <v>-19600</v>
+        <v>-79400</v>
       </c>
       <c r="J101" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>24700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-26000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-59800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-424900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-129600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-51600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-72900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-41500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1664800</v>
+        <v>-2522800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1073100</v>
+        <v>1586500</v>
       </c>
       <c r="F102" s="3">
-        <v>2342200</v>
+        <v>-1022700</v>
       </c>
       <c r="G102" s="3">
-        <v>1024100</v>
+        <v>2232100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1060800</v>
+        <v>976000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1500600</v>
+        <v>-1011000</v>
       </c>
       <c r="J102" s="3">
+        <v>-1430100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1260500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-789400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-942800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-179400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-357900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2273200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3121400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>616000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>381500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>782900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,286 +662,298 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12671100</v>
+        <v>11043700</v>
       </c>
       <c r="E8" s="3">
-        <v>14391800</v>
+        <v>12255300</v>
       </c>
       <c r="F8" s="3">
-        <v>11668300</v>
+        <v>13919500</v>
       </c>
       <c r="G8" s="3">
-        <v>9930000</v>
+        <v>11285400</v>
       </c>
       <c r="H8" s="3">
-        <v>11737100</v>
+        <v>9604100</v>
       </c>
       <c r="I8" s="3">
-        <v>14995400</v>
+        <v>11352000</v>
       </c>
       <c r="J8" s="3">
+        <v>14503300</v>
+      </c>
+      <c r="K8" s="3">
         <v>12549700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12041700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27016000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14655800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12248900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10257500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10410100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10033500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9644600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9004000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9777000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11362500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10356500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5307000</v>
+        <v>4388800</v>
       </c>
       <c r="E9" s="3">
-        <v>5484500</v>
+        <v>5132900</v>
       </c>
       <c r="F9" s="3">
-        <v>4283200</v>
+        <v>5304500</v>
       </c>
       <c r="G9" s="3">
-        <v>7932600</v>
+        <v>4142700</v>
       </c>
       <c r="H9" s="3">
-        <v>4690700</v>
+        <v>7672200</v>
       </c>
       <c r="I9" s="3">
-        <v>5435500</v>
+        <v>4536700</v>
       </c>
       <c r="J9" s="3">
+        <v>5257100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5743700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4634100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10481700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5821900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6676300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4542300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3850700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3194100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3418700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2877900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3122500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3506200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3695200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7364000</v>
+        <v>6654900</v>
       </c>
       <c r="E10" s="3">
-        <v>8907300</v>
+        <v>7122400</v>
       </c>
       <c r="F10" s="3">
-        <v>7385000</v>
+        <v>8615000</v>
       </c>
       <c r="G10" s="3">
-        <v>1997400</v>
+        <v>7142700</v>
       </c>
       <c r="H10" s="3">
-        <v>7046500</v>
+        <v>1931900</v>
       </c>
       <c r="I10" s="3">
-        <v>9559900</v>
+        <v>6815200</v>
       </c>
       <c r="J10" s="3">
+        <v>9246200</v>
+      </c>
+      <c r="K10" s="3">
         <v>6806000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7407500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>16534300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8833900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5572600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5715200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6559500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6839400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6225900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6126100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6654500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7856300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6661400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,73 +977,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1912200</v>
+        <v>1765900</v>
       </c>
       <c r="E12" s="3">
-        <v>1398600</v>
+        <v>1849500</v>
       </c>
       <c r="F12" s="3">
-        <v>1507100</v>
+        <v>1352700</v>
       </c>
       <c r="G12" s="3">
-        <v>3929500</v>
+        <v>1457700</v>
       </c>
       <c r="H12" s="3">
-        <v>1362400</v>
+        <v>3800600</v>
       </c>
       <c r="I12" s="3">
-        <v>1520000</v>
+        <v>1317700</v>
       </c>
       <c r="J12" s="3">
+        <v>1470100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1633200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1569200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3083300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1575400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2008600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1292600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1391200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1141900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1384500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1210600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1230800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1284100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1461400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1095,8 +1111,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,8 +1179,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1225,8 +1247,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1247,138 +1272,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>15333900</v>
+        <v>10445300</v>
       </c>
       <c r="E17" s="3">
-        <v>10792700</v>
+        <v>14830700</v>
       </c>
       <c r="F17" s="3">
-        <v>9899600</v>
+        <v>10438500</v>
       </c>
       <c r="G17" s="3">
-        <v>20902500</v>
+        <v>9574800</v>
       </c>
       <c r="H17" s="3">
-        <v>24326500</v>
+        <v>20216500</v>
       </c>
       <c r="I17" s="3">
-        <v>12078000</v>
+        <v>23528200</v>
       </c>
       <c r="J17" s="3">
+        <v>11681700</v>
+      </c>
+      <c r="K17" s="3">
         <v>12095500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10561900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23998600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12526600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17224200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5469300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8932200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7497100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8943400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7446600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8135500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8513600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9668700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-2662900</v>
+        <v>598400</v>
       </c>
       <c r="E18" s="3">
-        <v>3599100</v>
+        <v>-2575500</v>
       </c>
       <c r="F18" s="3">
-        <v>1768600</v>
+        <v>3481000</v>
       </c>
       <c r="G18" s="3">
-        <v>-10972500</v>
+        <v>1710600</v>
       </c>
       <c r="H18" s="3">
-        <v>-12589300</v>
+        <v>-10612400</v>
       </c>
       <c r="I18" s="3">
-        <v>2917400</v>
+        <v>-12176200</v>
       </c>
       <c r="J18" s="3">
+        <v>2821600</v>
+      </c>
+      <c r="K18" s="3">
         <v>454100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1479800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3017500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2129200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4788200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1477900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2536400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>701200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1557300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1641500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2848800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>687900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1402,138 +1434,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-115600</v>
+        <v>-379400</v>
       </c>
       <c r="E20" s="3">
-        <v>-406300</v>
+        <v>-111800</v>
       </c>
       <c r="F20" s="3">
-        <v>-165800</v>
+        <v>-392900</v>
       </c>
       <c r="G20" s="3">
-        <v>-12800</v>
+        <v>-160300</v>
       </c>
       <c r="H20" s="3">
-        <v>-322200</v>
+        <v>-12400</v>
       </c>
       <c r="I20" s="3">
-        <v>-761200</v>
+        <v>-311600</v>
       </c>
       <c r="J20" s="3">
+        <v>-736200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-441300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-219300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-884700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-356500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-851700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-752100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-354700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>142700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-289500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-452200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-414000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-347400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-262900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-1155700</v>
+        <v>1201400</v>
       </c>
       <c r="E21" s="3">
-        <v>4460700</v>
+        <v>-1117800</v>
       </c>
       <c r="F21" s="3">
-        <v>2197100</v>
+        <v>4314300</v>
       </c>
       <c r="G21" s="3">
-        <v>1030800</v>
+        <v>2125000</v>
       </c>
       <c r="H21" s="3">
-        <v>-11534000</v>
+        <v>997000</v>
       </c>
       <c r="I21" s="3">
-        <v>3647000</v>
+        <v>-11155500</v>
       </c>
       <c r="J21" s="3">
+        <v>3527300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1887700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2499000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5365600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3193900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-914400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5027400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1875400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3236900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1348600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1757000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1804200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3358300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2344100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1597,138 +1636,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-2778400</v>
+        <v>219000</v>
       </c>
       <c r="E23" s="3">
-        <v>3192900</v>
+        <v>-2687300</v>
       </c>
       <c r="F23" s="3">
-        <v>1602900</v>
+        <v>3088100</v>
       </c>
       <c r="G23" s="3">
-        <v>-10985300</v>
+        <v>1550300</v>
       </c>
       <c r="H23" s="3">
-        <v>-12911600</v>
+        <v>-10624800</v>
       </c>
       <c r="I23" s="3">
-        <v>2156200</v>
+        <v>-12487800</v>
       </c>
       <c r="J23" s="3">
+        <v>2085400</v>
+      </c>
+      <c r="K23" s="3">
         <v>12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1260500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2132800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1772800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4036100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1123300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2679100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>411800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1105200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1227500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2501400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>424900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-60700</v>
+        <v>117400</v>
       </c>
       <c r="E24" s="3">
-        <v>753000</v>
+        <v>-58700</v>
       </c>
       <c r="F24" s="3">
-        <v>1152200</v>
+        <v>728300</v>
       </c>
       <c r="G24" s="3">
-        <v>-1990400</v>
+        <v>1114400</v>
       </c>
       <c r="H24" s="3">
-        <v>-1692700</v>
+        <v>-1925100</v>
       </c>
       <c r="I24" s="3">
-        <v>559200</v>
+        <v>-1637200</v>
       </c>
       <c r="J24" s="3">
+        <v>540800</v>
+      </c>
+      <c r="K24" s="3">
         <v>50200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>434100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>428200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>918200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>236100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>542400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>488100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>237900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>289500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>497700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>74000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1792,138 +1840,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2717700</v>
+        <v>101600</v>
       </c>
       <c r="E26" s="3">
-        <v>2439900</v>
+        <v>-2628500</v>
       </c>
       <c r="F26" s="3">
-        <v>450600</v>
+        <v>2359800</v>
       </c>
       <c r="G26" s="3">
-        <v>-8994900</v>
+        <v>435800</v>
       </c>
       <c r="H26" s="3">
-        <v>-11218800</v>
+        <v>-8699700</v>
       </c>
       <c r="I26" s="3">
-        <v>1597000</v>
+        <v>-10850700</v>
       </c>
       <c r="J26" s="3">
+        <v>1544600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-37400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1222500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1698700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1344500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3117900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>887200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2136700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-76300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>867300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>938000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2003700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>351000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2725900</v>
+        <v>96000</v>
       </c>
       <c r="E27" s="3">
-        <v>2438700</v>
+        <v>-2636400</v>
       </c>
       <c r="F27" s="3">
-        <v>447100</v>
+        <v>2358700</v>
       </c>
       <c r="G27" s="3">
-        <v>-8991400</v>
+        <v>432400</v>
       </c>
       <c r="H27" s="3">
-        <v>-11229300</v>
+        <v>-8696300</v>
       </c>
       <c r="I27" s="3">
-        <v>1598200</v>
+        <v>-10860800</v>
       </c>
       <c r="J27" s="3">
+        <v>1545700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-50200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1212700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1698700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1350500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3109000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>880600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2136700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-78500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>870700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>935700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1783000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>346300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1987,8 +2044,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,61 +2059,64 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-87600</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>5788000</v>
+        <v>-84700</v>
       </c>
       <c r="H29" s="3">
-        <v>82900</v>
+        <v>5598100</v>
       </c>
       <c r="I29" s="3">
-        <v>140100</v>
+        <v>80200</v>
       </c>
       <c r="J29" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K29" s="3">
         <v>1700900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>56300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>231800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>134000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>47300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>70900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>8800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>244600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3483800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>437600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>662000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>185500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2117,8 +2180,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2182,138 +2248,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>115600</v>
+        <v>379400</v>
       </c>
       <c r="E32" s="3">
-        <v>406300</v>
+        <v>111800</v>
       </c>
       <c r="F32" s="3">
-        <v>165800</v>
+        <v>392900</v>
       </c>
       <c r="G32" s="3">
-        <v>12800</v>
+        <v>160300</v>
       </c>
       <c r="H32" s="3">
-        <v>322200</v>
+        <v>12400</v>
       </c>
       <c r="I32" s="3">
-        <v>761200</v>
+        <v>311600</v>
       </c>
       <c r="J32" s="3">
+        <v>736200</v>
+      </c>
+      <c r="K32" s="3">
         <v>441300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>219300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>884700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>356500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>851700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>752100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>354700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-142700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>289500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>452200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>414000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>347400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>262900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2725900</v>
+        <v>96000</v>
       </c>
       <c r="E33" s="3">
-        <v>2438700</v>
+        <v>-2636400</v>
       </c>
       <c r="F33" s="3">
-        <v>359600</v>
+        <v>2358700</v>
       </c>
       <c r="G33" s="3">
-        <v>-3203400</v>
+        <v>347800</v>
       </c>
       <c r="H33" s="3">
-        <v>-11146400</v>
+        <v>-3098300</v>
       </c>
       <c r="I33" s="3">
-        <v>1738300</v>
+        <v>-10780600</v>
       </c>
       <c r="J33" s="3">
+        <v>1681200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1650700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1269100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1930500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1484500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3179900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>871800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2145500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>166100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4354400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1373300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2445000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>531700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2377,143 +2452,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2725900</v>
+        <v>96000</v>
       </c>
       <c r="E35" s="3">
-        <v>2438700</v>
+        <v>-2636400</v>
       </c>
       <c r="F35" s="3">
-        <v>359600</v>
+        <v>2358700</v>
       </c>
       <c r="G35" s="3">
-        <v>-3203400</v>
+        <v>347800</v>
       </c>
       <c r="H35" s="3">
-        <v>-11146400</v>
+        <v>-3098300</v>
       </c>
       <c r="I35" s="3">
-        <v>1738300</v>
+        <v>-10780600</v>
       </c>
       <c r="J35" s="3">
+        <v>1681200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1650700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1269100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1930500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1484500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3179900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>871800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2145500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>166100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4354400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1373300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2445000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>531700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2537,8 +2621,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2562,593 +2647,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3956400</v>
+        <v>4873200</v>
       </c>
       <c r="E41" s="3">
-        <v>6479100</v>
+        <v>3826500</v>
       </c>
       <c r="F41" s="3">
-        <v>4892600</v>
+        <v>6266500</v>
       </c>
       <c r="G41" s="3">
-        <v>5915300</v>
+        <v>4732100</v>
       </c>
       <c r="H41" s="3">
-        <v>3675000</v>
+        <v>5721100</v>
       </c>
       <c r="I41" s="3">
-        <v>2672200</v>
+        <v>3554400</v>
       </c>
       <c r="J41" s="3">
+        <v>2584500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3718200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5402200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3932700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4859000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4793100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5371900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5469100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5854500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8505800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6232700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3111300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2610600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2229100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3629500</v>
+        <v>4406900</v>
       </c>
       <c r="E42" s="3">
-        <v>4391800</v>
+        <v>3510400</v>
       </c>
       <c r="F42" s="3">
-        <v>9269200</v>
+        <v>4247700</v>
       </c>
       <c r="G42" s="3">
-        <v>12226300</v>
+        <v>8965100</v>
       </c>
       <c r="H42" s="3">
-        <v>2988600</v>
+        <v>11825100</v>
       </c>
       <c r="I42" s="3">
-        <v>3224400</v>
+        <v>2890500</v>
       </c>
       <c r="J42" s="3">
+        <v>3118600</v>
+      </c>
+      <c r="K42" s="3">
         <v>2715400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1401400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1022300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1019200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1379300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1773300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1709600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8031900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3959500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>6806000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8115400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7819900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7365700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18440400</v>
+        <v>14737000</v>
       </c>
       <c r="E43" s="3">
-        <v>18553600</v>
+        <v>17835300</v>
       </c>
       <c r="F43" s="3">
-        <v>14540100</v>
+        <v>17944800</v>
       </c>
       <c r="G43" s="3">
-        <v>15531200</v>
+        <v>14082100</v>
       </c>
       <c r="H43" s="3">
-        <v>18355200</v>
+        <v>15021500</v>
       </c>
       <c r="I43" s="3">
-        <v>19467700</v>
+        <v>17752800</v>
       </c>
       <c r="J43" s="3">
+        <v>18828900</v>
+      </c>
+      <c r="K43" s="3">
         <v>17675800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17387500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19478800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20154800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17129600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15883000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18145500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12064800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11592400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11857200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15914300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>18548500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>16263100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11820000</v>
+        <v>12018100</v>
       </c>
       <c r="E44" s="3">
-        <v>12207600</v>
+        <v>11432100</v>
       </c>
       <c r="F44" s="3">
-        <v>12796000</v>
+        <v>11807000</v>
       </c>
       <c r="G44" s="3">
-        <v>12201800</v>
+        <v>12376100</v>
       </c>
       <c r="H44" s="3">
-        <v>11823500</v>
+        <v>11801400</v>
       </c>
       <c r="I44" s="3">
-        <v>11681100</v>
+        <v>11435500</v>
       </c>
       <c r="J44" s="3">
+        <v>11297800</v>
+      </c>
+      <c r="K44" s="3">
         <v>12432900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12733800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12082800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12574500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13168000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12230100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12023100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7029400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7349000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7558800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9490900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>10181600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9869400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>37400</v>
+        <v>33900</v>
       </c>
       <c r="E45" s="3">
-        <v>157600</v>
+        <v>36100</v>
       </c>
       <c r="F45" s="3">
-        <v>131900</v>
+        <v>152400</v>
       </c>
       <c r="G45" s="3">
-        <v>50200</v>
+        <v>127600</v>
       </c>
       <c r="H45" s="3">
-        <v>1391600</v>
+        <v>48600</v>
       </c>
       <c r="I45" s="3">
-        <v>1475600</v>
+        <v>1345900</v>
       </c>
       <c r="J45" s="3">
+        <v>1427200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1327300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3981200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1892800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>277500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>276800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>260300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4083500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3438900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2334900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2046500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>32900</v>
-      </c>
-      <c r="V45" s="3">
-        <v>11700</v>
       </c>
       <c r="W45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>37883600</v>
+        <v>36069100</v>
       </c>
       <c r="E46" s="3">
-        <v>41789800</v>
+        <v>36640400</v>
       </c>
       <c r="F46" s="3">
-        <v>41629800</v>
+        <v>40418400</v>
       </c>
       <c r="G46" s="3">
-        <v>45924700</v>
+        <v>40282900</v>
       </c>
       <c r="H46" s="3">
-        <v>38233800</v>
+        <v>44417700</v>
       </c>
       <c r="I46" s="3">
-        <v>38521000</v>
+        <v>36979200</v>
       </c>
       <c r="J46" s="3">
+        <v>37256900</v>
+      </c>
+      <c r="K46" s="3">
         <v>37869600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40906100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>38409500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38884900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>36746800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35518500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>41430800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36419600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>33741600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>34501200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36635200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>39193500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35739000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3969200</v>
+        <v>4028600</v>
       </c>
       <c r="E47" s="3">
-        <v>3841900</v>
+        <v>3838900</v>
       </c>
       <c r="F47" s="3">
-        <v>3363300</v>
+        <v>3715900</v>
       </c>
       <c r="G47" s="3">
-        <v>3497600</v>
+        <v>3252900</v>
       </c>
       <c r="H47" s="3">
-        <v>3230200</v>
+        <v>3382800</v>
       </c>
       <c r="I47" s="3">
-        <v>3213900</v>
+        <v>3124200</v>
       </c>
       <c r="J47" s="3">
+        <v>3108400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3279300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4450400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4032700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4044400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3848000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4316300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4441400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5320900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6777900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6690400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2778000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2882900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2873500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>13810500</v>
+        <v>13589800</v>
       </c>
       <c r="E48" s="3">
-        <v>13787100</v>
+        <v>13357300</v>
       </c>
       <c r="F48" s="3">
-        <v>13670400</v>
+        <v>13334700</v>
       </c>
       <c r="G48" s="3">
-        <v>13427500</v>
+        <v>13221800</v>
       </c>
       <c r="H48" s="3">
-        <v>13833800</v>
+        <v>12986900</v>
       </c>
       <c r="I48" s="3">
-        <v>14129200</v>
+        <v>13379800</v>
       </c>
       <c r="J48" s="3">
+        <v>13665500</v>
+      </c>
+      <c r="K48" s="3">
         <v>14568100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16013100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16103700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16666700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15310300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14609200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14381600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>8048300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8564100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8308300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14217900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15359300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15393300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>72698100</v>
+        <v>72703900</v>
       </c>
       <c r="E49" s="3">
-        <v>74310300</v>
+        <v>70312400</v>
       </c>
       <c r="F49" s="3">
-        <v>72506700</v>
+        <v>71871700</v>
       </c>
       <c r="G49" s="3">
-        <v>70717000</v>
+        <v>69790800</v>
       </c>
       <c r="H49" s="3">
-        <v>84273000</v>
+        <v>68396400</v>
       </c>
       <c r="I49" s="3">
-        <v>86273900</v>
+        <v>81507500</v>
       </c>
       <c r="J49" s="3">
+        <v>83442700</v>
+      </c>
+      <c r="K49" s="3">
         <v>86195700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>92670500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>86197200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>90551100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>88880700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>85576500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>85283900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28180200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29648600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30135500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31985700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>34811700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>35072300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3212,8 +3325,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3277,73 +3393,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5221800</v>
+        <v>5204000</v>
       </c>
       <c r="E52" s="3">
-        <v>4932300</v>
+        <v>5050500</v>
       </c>
       <c r="F52" s="3">
-        <v>5470500</v>
+        <v>4770400</v>
       </c>
       <c r="G52" s="3">
-        <v>5962000</v>
+        <v>5288700</v>
       </c>
       <c r="H52" s="3">
-        <v>4799200</v>
+        <v>5766300</v>
       </c>
       <c r="I52" s="3">
-        <v>4341600</v>
+        <v>4641700</v>
       </c>
       <c r="J52" s="3">
+        <v>4199100</v>
+      </c>
+      <c r="K52" s="3">
         <v>5384100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6040400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6190200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5782400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5125500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4535600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5569100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4813600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5514600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6432400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7104400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7589900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7453700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3407,73 +3529,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>133583200</v>
+        <v>131595500</v>
       </c>
       <c r="E54" s="3">
-        <v>138661500</v>
+        <v>129199500</v>
       </c>
       <c r="F54" s="3">
-        <v>136640700</v>
+        <v>134111100</v>
       </c>
       <c r="G54" s="3">
-        <v>139528800</v>
+        <v>131837100</v>
       </c>
       <c r="H54" s="3">
-        <v>144370100</v>
+        <v>134950000</v>
       </c>
       <c r="I54" s="3">
-        <v>146479600</v>
+        <v>139632400</v>
       </c>
       <c r="J54" s="3">
+        <v>141672700</v>
+      </c>
+      <c r="K54" s="3">
         <v>147296800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>160080500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>150933300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155929500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>149911300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>144556200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>151106800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82782600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84246900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>86067900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>92721300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>99837200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>96531800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3497,8 +3625,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3522,398 +3651,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>5974800</v>
+        <v>6308300</v>
       </c>
       <c r="E57" s="3">
-        <v>6058900</v>
+        <v>5778700</v>
       </c>
       <c r="F57" s="3">
-        <v>6634400</v>
+        <v>5860000</v>
       </c>
       <c r="G57" s="3">
-        <v>6375200</v>
+        <v>6416700</v>
       </c>
       <c r="H57" s="3">
-        <v>5951500</v>
+        <v>6166000</v>
       </c>
       <c r="I57" s="3">
-        <v>6223500</v>
+        <v>5756200</v>
       </c>
       <c r="J57" s="3">
+        <v>6019200</v>
+      </c>
+      <c r="K57" s="3">
         <v>7501800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6978800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6333700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6835100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7142400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6154900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5456000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4329400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5754700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4407200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5846700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6679000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7524100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4328800</v>
+        <v>5410600</v>
       </c>
       <c r="E58" s="3">
-        <v>5775200</v>
+        <v>4186700</v>
       </c>
       <c r="F58" s="3">
-        <v>10004700</v>
+        <v>5585700</v>
       </c>
       <c r="G58" s="3">
-        <v>9642800</v>
+        <v>9676400</v>
       </c>
       <c r="H58" s="3">
-        <v>8606100</v>
+        <v>9326400</v>
       </c>
       <c r="I58" s="3">
-        <v>3735700</v>
+        <v>8323700</v>
       </c>
       <c r="J58" s="3">
+        <v>3613100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2547300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7378100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7853600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5007300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4355400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3867700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>10470500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1933600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2171100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3973000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5651500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4928800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3992100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>22297500</v>
+        <v>20716700</v>
       </c>
       <c r="E59" s="3">
-        <v>21941500</v>
+        <v>21565800</v>
       </c>
       <c r="F59" s="3">
-        <v>26237500</v>
+        <v>21221400</v>
       </c>
       <c r="G59" s="3">
-        <v>25763600</v>
+        <v>25418300</v>
       </c>
       <c r="H59" s="3">
-        <v>28103100</v>
+        <v>24918100</v>
       </c>
       <c r="I59" s="3">
-        <v>16097400</v>
+        <v>27180800</v>
       </c>
       <c r="J59" s="3">
+        <v>15569200</v>
+      </c>
+      <c r="K59" s="3">
         <v>17052400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17562700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15766100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16841300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15856800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12639900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13753500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8118600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7325500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8352100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9550400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11366000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10242700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>32601100</v>
+        <v>32435700</v>
       </c>
       <c r="E60" s="3">
-        <v>33775500</v>
+        <v>31531200</v>
       </c>
       <c r="F60" s="3">
-        <v>42876600</v>
+        <v>32667100</v>
       </c>
       <c r="G60" s="3">
-        <v>41781600</v>
+        <v>41511400</v>
       </c>
       <c r="H60" s="3">
-        <v>42660700</v>
+        <v>40410500</v>
       </c>
       <c r="I60" s="3">
-        <v>26056600</v>
+        <v>41260700</v>
       </c>
       <c r="J60" s="3">
+        <v>25201500</v>
+      </c>
+      <c r="K60" s="3">
         <v>27101400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>31919600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29953500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28683700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27354600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22662600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29680000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14381600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15251200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16732200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>21048500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22973800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21758900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>42801900</v>
+        <v>41747300</v>
       </c>
       <c r="E61" s="3">
-        <v>44265900</v>
+        <v>41397300</v>
       </c>
       <c r="F61" s="3">
-        <v>38753300</v>
+        <v>42813200</v>
       </c>
       <c r="G61" s="3">
-        <v>41081200</v>
+        <v>37481600</v>
       </c>
       <c r="H61" s="3">
-        <v>39630100</v>
+        <v>39733000</v>
       </c>
       <c r="I61" s="3">
-        <v>42974700</v>
+        <v>38329600</v>
       </c>
       <c r="J61" s="3">
+        <v>41564400</v>
+      </c>
+      <c r="K61" s="3">
         <v>43091400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46258100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43117400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45397000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44609500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44700500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>46767100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>13475800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14005800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14110100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>15896400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17358300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>18992200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>22483100</v>
+        <v>22102100</v>
       </c>
       <c r="E62" s="3">
-        <v>20026900</v>
+        <v>21745300</v>
       </c>
       <c r="F62" s="3">
-        <v>19172400</v>
+        <v>19369700</v>
       </c>
       <c r="G62" s="3">
-        <v>19919500</v>
+        <v>18209000</v>
       </c>
       <c r="H62" s="3">
-        <v>20209000</v>
+        <v>19265800</v>
       </c>
       <c r="I62" s="3">
-        <v>20500900</v>
+        <v>19545900</v>
       </c>
       <c r="J62" s="3">
+        <v>19828100</v>
+      </c>
+      <c r="K62" s="3">
         <v>21730200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25476100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25085600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24434800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23358700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21373400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22817500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12779600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13632200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13426900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15964800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17415800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>18339600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3977,8 +4125,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4042,8 +4193,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4107,73 +4261,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>98106800</v>
+        <v>96477100</v>
       </c>
       <c r="E66" s="3">
-        <v>98283100</v>
+        <v>94887300</v>
       </c>
       <c r="F66" s="3">
-        <v>101006600</v>
+        <v>95057800</v>
       </c>
       <c r="G66" s="3">
-        <v>102957400</v>
+        <v>97373600</v>
       </c>
       <c r="H66" s="3">
-        <v>102688900</v>
+        <v>99578700</v>
       </c>
       <c r="I66" s="3">
-        <v>89733000</v>
+        <v>99319000</v>
       </c>
       <c r="J66" s="3">
+        <v>86788300</v>
+      </c>
+      <c r="K66" s="3">
         <v>92133200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>103876700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>98357600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>98720000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>95525100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>88927000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>99344800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40698500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>42956500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>44334300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>56088300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>60377300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>60926600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4197,8 +4357,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4262,8 +4423,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4327,8 +4491,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4392,8 +4559,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4457,73 +4627,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>11222300</v>
+        <v>11660200</v>
       </c>
       <c r="E72" s="3">
-        <v>16124300</v>
+        <v>10854000</v>
       </c>
       <c r="F72" s="3">
-        <v>11379900</v>
+        <v>15595100</v>
       </c>
       <c r="G72" s="3">
-        <v>12317300</v>
+        <v>11005300</v>
       </c>
       <c r="H72" s="3">
-        <v>17427100</v>
+        <v>11913100</v>
       </c>
       <c r="I72" s="3">
-        <v>32492500</v>
+        <v>16855200</v>
       </c>
       <c r="J72" s="3">
+        <v>31426200</v>
+      </c>
+      <c r="K72" s="3">
         <v>30909500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30754600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28136000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>32358400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29811400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32618800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28951000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29155200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28078900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28522100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>23421500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36975000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>33120200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4587,8 +4763,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4652,8 +4831,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4717,73 +4899,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>35476400</v>
+        <v>35118400</v>
       </c>
       <c r="E76" s="3">
-        <v>40378400</v>
+        <v>34312200</v>
       </c>
       <c r="F76" s="3">
-        <v>35634000</v>
+        <v>39053300</v>
       </c>
       <c r="G76" s="3">
-        <v>36571500</v>
+        <v>34463500</v>
       </c>
       <c r="H76" s="3">
-        <v>41681200</v>
+        <v>35371300</v>
       </c>
       <c r="I76" s="3">
-        <v>56746600</v>
+        <v>40313400</v>
       </c>
       <c r="J76" s="3">
+        <v>54884400</v>
+      </c>
+      <c r="K76" s="3">
         <v>55163600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56203800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52575700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>57209500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54386200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55629200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51761900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42084100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41290400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41733500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36633000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39460000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35605200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4847,143 +5035,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2725900</v>
+        <v>96000</v>
       </c>
       <c r="E81" s="3">
-        <v>2438700</v>
+        <v>-2636400</v>
       </c>
       <c r="F81" s="3">
-        <v>359600</v>
+        <v>2358700</v>
       </c>
       <c r="G81" s="3">
-        <v>-3203400</v>
+        <v>347800</v>
       </c>
       <c r="H81" s="3">
-        <v>-11146400</v>
+        <v>-3098300</v>
       </c>
       <c r="I81" s="3">
-        <v>1738300</v>
+        <v>-10780600</v>
       </c>
       <c r="J81" s="3">
+        <v>1681200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1650700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1269100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1930500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1484500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3179900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>871800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2145500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>166100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4354400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1373300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2445000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>531700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5007,73 +5204,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1622700</v>
+        <v>982300</v>
       </c>
       <c r="E83" s="3">
-        <v>1267800</v>
+        <v>1569400</v>
       </c>
       <c r="F83" s="3">
-        <v>594200</v>
+        <v>1226200</v>
       </c>
       <c r="G83" s="3">
-        <v>12016200</v>
+        <v>574700</v>
       </c>
       <c r="H83" s="3">
-        <v>1377500</v>
+        <v>11621800</v>
       </c>
       <c r="I83" s="3">
-        <v>1490800</v>
+        <v>1332300</v>
       </c>
       <c r="J83" s="3">
+        <v>1441900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1874900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1238500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3232700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1421100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5043900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>991300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>752100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>557800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>936900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>295100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>933500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>856900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1320500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5137,8 +5338,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5202,8 +5406,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5267,8 +5474,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5332,8 +5542,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5397,73 +5610,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2331300</v>
+        <v>3228100</v>
       </c>
       <c r="E89" s="3">
-        <v>-3227900</v>
+        <v>2254800</v>
       </c>
       <c r="F89" s="3">
-        <v>876700</v>
+        <v>-3122000</v>
       </c>
       <c r="G89" s="3">
-        <v>2296300</v>
+        <v>848000</v>
       </c>
       <c r="H89" s="3">
-        <v>2818100</v>
+        <v>2220900</v>
       </c>
       <c r="I89" s="3">
-        <v>-275500</v>
+        <v>2725600</v>
       </c>
       <c r="J89" s="3">
+        <v>-266500</v>
+      </c>
+      <c r="K89" s="3">
         <v>3767200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2795400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3150400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1289500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3510800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2271700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2459500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>723600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2545800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3041700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2595200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>987200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3212700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5487,73 +5706,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-575500</v>
+        <v>-732800</v>
       </c>
       <c r="E91" s="3">
-        <v>-384100</v>
+        <v>-556600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1042500</v>
+        <v>-371500</v>
       </c>
       <c r="G91" s="3">
-        <v>-640900</v>
+        <v>-1008300</v>
       </c>
       <c r="H91" s="3">
-        <v>-682900</v>
+        <v>-619900</v>
       </c>
       <c r="I91" s="3">
-        <v>-456500</v>
+        <v>-660500</v>
       </c>
       <c r="J91" s="3">
+        <v>-441500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-893000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-472500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-729900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-504000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-383200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-624900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-534100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-487100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>748900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5617,8 +5840,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5682,73 +5908,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>521800</v>
+        <v>-2878100</v>
       </c>
       <c r="E94" s="3">
-        <v>4605400</v>
+        <v>504700</v>
       </c>
       <c r="F94" s="3">
-        <v>-226500</v>
+        <v>4454300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3338800</v>
+        <v>-219000</v>
       </c>
       <c r="H94" s="3">
-        <v>-491500</v>
+        <v>-3229200</v>
       </c>
       <c r="I94" s="3">
-        <v>-698100</v>
+        <v>-475400</v>
       </c>
       <c r="J94" s="3">
+        <v>-675200</v>
+      </c>
+      <c r="K94" s="3">
         <v>40900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-292800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-549400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>92100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-675400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7090900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1917500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>194100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5772,13 +6004,14 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5787,58 +6020,61 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-19800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-3211500</v>
+        <v>-19200</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-3106200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-4900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-4700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5902,8 +6138,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5967,8 +6206,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6032,199 +6274,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-5373600</v>
+        <v>726000</v>
       </c>
       <c r="E100" s="3">
-        <v>131900</v>
+        <v>-5197200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1580700</v>
+        <v>127600</v>
       </c>
       <c r="G100" s="3">
-        <v>3347000</v>
+        <v>-1528800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1314500</v>
+        <v>3237100</v>
       </c>
       <c r="I100" s="3">
-        <v>42000</v>
+        <v>-1271400</v>
       </c>
       <c r="J100" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>39249100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-637900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-41500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-616000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>717200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3413400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2300</v>
       </c>
-      <c r="E101" s="3">
-        <v>77000</v>
-      </c>
       <c r="F101" s="3">
-        <v>-92200</v>
+        <v>74500</v>
       </c>
       <c r="G101" s="3">
-        <v>-72400</v>
+        <v>-89200</v>
       </c>
       <c r="H101" s="3">
-        <v>-36200</v>
+        <v>-70000</v>
       </c>
       <c r="I101" s="3">
-        <v>-79400</v>
+        <v>-35000</v>
       </c>
       <c r="J101" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>27500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-26000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-59800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-424900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-129600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-51600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-72900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-41500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-2522800</v>
+        <v>1046700</v>
       </c>
       <c r="E102" s="3">
-        <v>1586500</v>
+        <v>-2440000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1022700</v>
+        <v>1534400</v>
       </c>
       <c r="G102" s="3">
-        <v>2232100</v>
+        <v>-989100</v>
       </c>
       <c r="H102" s="3">
-        <v>976000</v>
+        <v>2158800</v>
       </c>
       <c r="I102" s="3">
-        <v>-1011000</v>
+        <v>943900</v>
       </c>
       <c r="J102" s="3">
+        <v>-977800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1260500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-789400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-942800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-179400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-357900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2273200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3121400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>616000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>381500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>782900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,298 +662,310 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11043700</v>
+        <v>12128700</v>
       </c>
       <c r="E8" s="3">
-        <v>12255300</v>
+        <v>10670200</v>
       </c>
       <c r="F8" s="3">
-        <v>13919500</v>
+        <v>11840700</v>
       </c>
       <c r="G8" s="3">
-        <v>11285400</v>
+        <v>13448700</v>
       </c>
       <c r="H8" s="3">
-        <v>9604100</v>
+        <v>10903600</v>
       </c>
       <c r="I8" s="3">
-        <v>11352000</v>
+        <v>9279300</v>
       </c>
       <c r="J8" s="3">
+        <v>10968000</v>
+      </c>
+      <c r="K8" s="3">
         <v>14503300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12549700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12041700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27016000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14655800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12248900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10257500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10410100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10033500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9644600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9004000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9777000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11362500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10356500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4388800</v>
+        <v>4020000</v>
       </c>
       <c r="E9" s="3">
-        <v>5132900</v>
+        <v>4240400</v>
       </c>
       <c r="F9" s="3">
-        <v>5304500</v>
+        <v>4959300</v>
       </c>
       <c r="G9" s="3">
-        <v>4142700</v>
+        <v>5125100</v>
       </c>
       <c r="H9" s="3">
-        <v>7672200</v>
+        <v>4002500</v>
       </c>
       <c r="I9" s="3">
-        <v>4536700</v>
+        <v>7412700</v>
       </c>
       <c r="J9" s="3">
+        <v>4383300</v>
+      </c>
+      <c r="K9" s="3">
         <v>5257100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5743700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4634100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10481700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5821900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6676300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4542300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3850700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3194100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3418700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2877900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3122500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3506200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3695200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6654900</v>
+        <v>8108700</v>
       </c>
       <c r="E10" s="3">
-        <v>7122400</v>
+        <v>6429800</v>
       </c>
       <c r="F10" s="3">
-        <v>8615000</v>
+        <v>6881500</v>
       </c>
       <c r="G10" s="3">
-        <v>7142700</v>
+        <v>8323600</v>
       </c>
       <c r="H10" s="3">
-        <v>1931900</v>
+        <v>6901100</v>
       </c>
       <c r="I10" s="3">
-        <v>6815200</v>
+        <v>1866500</v>
       </c>
       <c r="J10" s="3">
+        <v>6584700</v>
+      </c>
+      <c r="K10" s="3">
         <v>9246200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6806000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7407500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16534300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8833900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5572600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5715200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6559500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6839400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6225900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6126100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6654500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7856300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6661400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,76 +990,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1765900</v>
+        <v>1104000</v>
       </c>
       <c r="E12" s="3">
-        <v>1849500</v>
+        <v>1706200</v>
       </c>
       <c r="F12" s="3">
-        <v>1352700</v>
+        <v>1786900</v>
       </c>
       <c r="G12" s="3">
-        <v>1457700</v>
+        <v>1306900</v>
       </c>
       <c r="H12" s="3">
-        <v>3800600</v>
+        <v>1408400</v>
       </c>
       <c r="I12" s="3">
-        <v>1317700</v>
+        <v>3672000</v>
       </c>
       <c r="J12" s="3">
+        <v>1273100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1470100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1633200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1569200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3083300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1575400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2008600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1292600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1391200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1141900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1384500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1210600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1230800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1284100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1461400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1114,8 +1130,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1182,8 +1201,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1250,8 +1272,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1273,144 +1298,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10445300</v>
+        <v>9924000</v>
       </c>
       <c r="E17" s="3">
-        <v>14830700</v>
+        <v>10092000</v>
       </c>
       <c r="F17" s="3">
-        <v>10438500</v>
+        <v>14329100</v>
       </c>
       <c r="G17" s="3">
-        <v>9574800</v>
+        <v>10085500</v>
       </c>
       <c r="H17" s="3">
-        <v>20216500</v>
+        <v>9250900</v>
       </c>
       <c r="I17" s="3">
-        <v>23528200</v>
+        <v>19532700</v>
       </c>
       <c r="J17" s="3">
+        <v>22732400</v>
+      </c>
+      <c r="K17" s="3">
         <v>11681700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12095500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10561900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23998600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12526600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17224200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5469300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8932200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7497100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8943400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7446600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8135500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8513600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9668700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>598400</v>
+        <v>2204700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2575500</v>
+        <v>578200</v>
       </c>
       <c r="F18" s="3">
-        <v>3481000</v>
+        <v>-2488400</v>
       </c>
       <c r="G18" s="3">
-        <v>1710600</v>
+        <v>3363300</v>
       </c>
       <c r="H18" s="3">
-        <v>-10612400</v>
+        <v>1652700</v>
       </c>
       <c r="I18" s="3">
-        <v>-12176200</v>
+        <v>-10253500</v>
       </c>
       <c r="J18" s="3">
+        <v>-11764400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2821600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>454100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1479800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3017500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2129200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4788200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1477900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2536400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>701200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1557300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1641500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2848800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>687900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1435,144 +1467,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-379400</v>
+        <v>-571600</v>
       </c>
       <c r="E20" s="3">
-        <v>-111800</v>
+        <v>-366500</v>
       </c>
       <c r="F20" s="3">
-        <v>-392900</v>
+        <v>-108000</v>
       </c>
       <c r="G20" s="3">
-        <v>-160300</v>
+        <v>-379600</v>
       </c>
       <c r="H20" s="3">
-        <v>-12400</v>
+        <v>-154900</v>
       </c>
       <c r="I20" s="3">
-        <v>-311600</v>
+        <v>-12000</v>
       </c>
       <c r="J20" s="3">
+        <v>-301100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-736200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-441300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-219300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-884700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-356500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-851700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-752100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-354700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>142700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-289500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-452200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-414000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-347400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-262900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1201400</v>
+        <v>1316700</v>
       </c>
       <c r="E21" s="3">
-        <v>-1117800</v>
+        <v>1160700</v>
       </c>
       <c r="F21" s="3">
-        <v>4314300</v>
+        <v>-1080000</v>
       </c>
       <c r="G21" s="3">
-        <v>2125000</v>
+        <v>4168400</v>
       </c>
       <c r="H21" s="3">
-        <v>997000</v>
+        <v>2053100</v>
       </c>
       <c r="I21" s="3">
-        <v>-11155500</v>
+        <v>963300</v>
       </c>
       <c r="J21" s="3">
+        <v>-10778200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3527300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1887700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2499000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5365600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3193900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-914400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5027400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1875400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3236900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1348600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1757000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1804200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3358300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2344100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1639,144 +1678,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>219000</v>
+        <v>1633100</v>
       </c>
       <c r="E23" s="3">
-        <v>-2687300</v>
+        <v>211600</v>
       </c>
       <c r="F23" s="3">
-        <v>3088100</v>
+        <v>-2596400</v>
       </c>
       <c r="G23" s="3">
-        <v>1550300</v>
+        <v>2983600</v>
       </c>
       <c r="H23" s="3">
-        <v>-10624800</v>
+        <v>1497800</v>
       </c>
       <c r="I23" s="3">
-        <v>-12487800</v>
+        <v>-10265500</v>
       </c>
       <c r="J23" s="3">
+        <v>-12065500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2085400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1260500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2132800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1772800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4036100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1123300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2679100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>411800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1105200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1227500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2501400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>424900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>117400</v>
+        <v>356700</v>
       </c>
       <c r="E24" s="3">
-        <v>-58700</v>
+        <v>113500</v>
       </c>
       <c r="F24" s="3">
-        <v>728300</v>
+        <v>-56700</v>
       </c>
       <c r="G24" s="3">
-        <v>1114400</v>
+        <v>703600</v>
       </c>
       <c r="H24" s="3">
-        <v>-1925100</v>
+        <v>1076700</v>
       </c>
       <c r="I24" s="3">
-        <v>-1637200</v>
+        <v>-1860000</v>
       </c>
       <c r="J24" s="3">
+        <v>-1581800</v>
+      </c>
+      <c r="K24" s="3">
         <v>540800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>434100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>428200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>918200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>236100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>542400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>488100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>237900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>289500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>497700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>74000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1843,144 +1891,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>101600</v>
+        <v>1276400</v>
       </c>
       <c r="E26" s="3">
-        <v>-2628500</v>
+        <v>98200</v>
       </c>
       <c r="F26" s="3">
-        <v>2359800</v>
+        <v>-2539600</v>
       </c>
       <c r="G26" s="3">
-        <v>435800</v>
+        <v>2280000</v>
       </c>
       <c r="H26" s="3">
-        <v>-8699700</v>
+        <v>421100</v>
       </c>
       <c r="I26" s="3">
-        <v>-10850700</v>
+        <v>-8405500</v>
       </c>
       <c r="J26" s="3">
+        <v>-10483600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1544600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1222500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1698700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1344500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3117900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>887200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2136700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-76300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>867300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>938000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2003700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>351000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>96000</v>
+        <v>1266500</v>
       </c>
       <c r="E27" s="3">
-        <v>-2636400</v>
+        <v>92700</v>
       </c>
       <c r="F27" s="3">
-        <v>2358700</v>
+        <v>-2547300</v>
       </c>
       <c r="G27" s="3">
-        <v>432400</v>
+        <v>2278900</v>
       </c>
       <c r="H27" s="3">
-        <v>-8696300</v>
+        <v>417800</v>
       </c>
       <c r="I27" s="3">
-        <v>-10860800</v>
+        <v>-8402200</v>
       </c>
       <c r="J27" s="3">
+        <v>-10493500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1545700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-50200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1212700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1698700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1350500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3109000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>880600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2136700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-78500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>870700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>935700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1783000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>346300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2047,8 +2104,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2062,61 +2122,64 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-84700</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>5598100</v>
+        <v>-81800</v>
       </c>
       <c r="I29" s="3">
-        <v>80200</v>
+        <v>5408700</v>
       </c>
       <c r="J29" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K29" s="3">
         <v>135500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>1700900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>56300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>231800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>134000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>47300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>70900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-8800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>8800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>244600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>3483800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>437600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>662000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>185500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2183,8 +2246,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2251,144 +2317,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>379400</v>
+        <v>571600</v>
       </c>
       <c r="E32" s="3">
-        <v>111800</v>
+        <v>366500</v>
       </c>
       <c r="F32" s="3">
-        <v>392900</v>
+        <v>108000</v>
       </c>
       <c r="G32" s="3">
-        <v>160300</v>
+        <v>379600</v>
       </c>
       <c r="H32" s="3">
-        <v>12400</v>
+        <v>154900</v>
       </c>
       <c r="I32" s="3">
-        <v>311600</v>
+        <v>12000</v>
       </c>
       <c r="J32" s="3">
+        <v>301100</v>
+      </c>
+      <c r="K32" s="3">
         <v>736200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>441300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>219300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>884700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>356500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>851700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>752100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>354700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-142700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>289500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>452200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>414000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>347400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>262900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>96000</v>
+        <v>1266500</v>
       </c>
       <c r="E33" s="3">
-        <v>-2636400</v>
+        <v>92700</v>
       </c>
       <c r="F33" s="3">
-        <v>2358700</v>
+        <v>-2547300</v>
       </c>
       <c r="G33" s="3">
-        <v>347800</v>
+        <v>2278900</v>
       </c>
       <c r="H33" s="3">
-        <v>-3098300</v>
+        <v>336000</v>
       </c>
       <c r="I33" s="3">
-        <v>-10780600</v>
+        <v>-2993500</v>
       </c>
       <c r="J33" s="3">
+        <v>-10416000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1681200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1650700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1269100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1930500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1484500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3179900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>871800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2145500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>166100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4354400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1373300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2445000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>531700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2455,149 +2530,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>96000</v>
+        <v>1266500</v>
       </c>
       <c r="E35" s="3">
-        <v>-2636400</v>
+        <v>92700</v>
       </c>
       <c r="F35" s="3">
-        <v>2358700</v>
+        <v>-2547300</v>
       </c>
       <c r="G35" s="3">
-        <v>347800</v>
+        <v>2278900</v>
       </c>
       <c r="H35" s="3">
-        <v>-3098300</v>
+        <v>336000</v>
       </c>
       <c r="I35" s="3">
-        <v>-10780600</v>
+        <v>-2993500</v>
       </c>
       <c r="J35" s="3">
+        <v>-10416000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1681200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1650700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1269100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1930500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1484500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3179900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>871800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2145500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>166100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4354400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1373300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2445000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>531700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2622,8 +2706,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2648,620 +2733,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4873200</v>
+        <v>4978900</v>
       </c>
       <c r="E41" s="3">
-        <v>3826500</v>
+        <v>4708400</v>
       </c>
       <c r="F41" s="3">
-        <v>6266500</v>
+        <v>3697100</v>
       </c>
       <c r="G41" s="3">
-        <v>4732100</v>
+        <v>6054600</v>
       </c>
       <c r="H41" s="3">
-        <v>5721100</v>
+        <v>4572000</v>
       </c>
       <c r="I41" s="3">
-        <v>3554400</v>
+        <v>5527600</v>
       </c>
       <c r="J41" s="3">
+        <v>3434200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2584500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3718200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5402200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3932700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4859000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4793100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5371900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5469100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5854500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8505800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6232700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3111300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2610600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2229100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4406900</v>
+        <v>3645800</v>
       </c>
       <c r="E42" s="3">
-        <v>3510400</v>
+        <v>4257800</v>
       </c>
       <c r="F42" s="3">
-        <v>4247700</v>
+        <v>3391600</v>
       </c>
       <c r="G42" s="3">
-        <v>8965100</v>
+        <v>4104000</v>
       </c>
       <c r="H42" s="3">
-        <v>11825100</v>
+        <v>8661800</v>
       </c>
       <c r="I42" s="3">
-        <v>2890500</v>
+        <v>11425100</v>
       </c>
       <c r="J42" s="3">
+        <v>2792700</v>
+      </c>
+      <c r="K42" s="3">
         <v>3118600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2715400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1401400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1022300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1019200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1379300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1773300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1709600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8031900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3959500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>6806000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8115400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7819900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7365700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14737000</v>
+        <v>14489500</v>
       </c>
       <c r="E43" s="3">
-        <v>17835300</v>
+        <v>14238600</v>
       </c>
       <c r="F43" s="3">
-        <v>17944800</v>
+        <v>17232000</v>
       </c>
       <c r="G43" s="3">
-        <v>14082100</v>
+        <v>17337800</v>
       </c>
       <c r="H43" s="3">
-        <v>15021500</v>
+        <v>13603600</v>
       </c>
       <c r="I43" s="3">
-        <v>17752800</v>
+        <v>14513500</v>
       </c>
       <c r="J43" s="3">
+        <v>17152400</v>
+      </c>
+      <c r="K43" s="3">
         <v>18828900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17675800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17387500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19478800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20154800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17129600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15883000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18145500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12064800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11592400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11857200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15914300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>18548500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>16263100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>12018100</v>
+        <v>12342600</v>
       </c>
       <c r="E44" s="3">
-        <v>11432100</v>
+        <v>11611600</v>
       </c>
       <c r="F44" s="3">
-        <v>11807000</v>
+        <v>11045500</v>
       </c>
       <c r="G44" s="3">
-        <v>12376100</v>
+        <v>11407600</v>
       </c>
       <c r="H44" s="3">
-        <v>11801400</v>
+        <v>11957500</v>
       </c>
       <c r="I44" s="3">
-        <v>11435500</v>
+        <v>11402200</v>
       </c>
       <c r="J44" s="3">
+        <v>11048700</v>
+      </c>
+      <c r="K44" s="3">
         <v>11297800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12432900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12733800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12082800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12574500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>13168000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12230100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12023100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7029400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7349000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7558800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9490900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>10181600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>9869400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>33900</v>
+        <v>82900</v>
       </c>
       <c r="E45" s="3">
-        <v>36100</v>
+        <v>32700</v>
       </c>
       <c r="F45" s="3">
-        <v>152400</v>
+        <v>34900</v>
       </c>
       <c r="G45" s="3">
-        <v>127600</v>
+        <v>147300</v>
       </c>
       <c r="H45" s="3">
-        <v>48600</v>
+        <v>123300</v>
       </c>
       <c r="I45" s="3">
-        <v>1345900</v>
+        <v>46900</v>
       </c>
       <c r="J45" s="3">
+        <v>1300400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1427200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1327300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3981200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1892800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>277500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>276800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>260300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4083500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3438900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2334900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2046500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32900</v>
-      </c>
-      <c r="W45" s="3">
-        <v>11700</v>
       </c>
       <c r="X45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>36069100</v>
+        <v>35539700</v>
       </c>
       <c r="E46" s="3">
-        <v>36640400</v>
+        <v>34849100</v>
       </c>
       <c r="F46" s="3">
-        <v>40418400</v>
+        <v>35401100</v>
       </c>
       <c r="G46" s="3">
-        <v>40282900</v>
+        <v>39051300</v>
       </c>
       <c r="H46" s="3">
-        <v>44417700</v>
+        <v>38918200</v>
       </c>
       <c r="I46" s="3">
-        <v>36979200</v>
+        <v>42915300</v>
       </c>
       <c r="J46" s="3">
+        <v>35728400</v>
+      </c>
+      <c r="K46" s="3">
         <v>37256900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37869600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40906100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>38409500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38884900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>36746800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>35518500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>41430800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36419600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>33741600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>34501200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>36635200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>39193500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>35739000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4028600</v>
+        <v>4397500</v>
       </c>
       <c r="E47" s="3">
-        <v>3838900</v>
+        <v>3892400</v>
       </c>
       <c r="F47" s="3">
-        <v>3715900</v>
+        <v>3709100</v>
       </c>
       <c r="G47" s="3">
-        <v>3252900</v>
+        <v>3590200</v>
       </c>
       <c r="H47" s="3">
-        <v>3382800</v>
+        <v>3142900</v>
       </c>
       <c r="I47" s="3">
-        <v>3124200</v>
+        <v>3268400</v>
       </c>
       <c r="J47" s="3">
+        <v>3018500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3108400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3279300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4450400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4032700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4044400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3848000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4316300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4441400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5320900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6777900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6690400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2778000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2882900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2873500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>13589800</v>
+        <v>13841500</v>
       </c>
       <c r="E48" s="3">
-        <v>13357300</v>
+        <v>13130200</v>
       </c>
       <c r="F48" s="3">
-        <v>13334700</v>
+        <v>12905500</v>
       </c>
       <c r="G48" s="3">
-        <v>13221800</v>
+        <v>12883600</v>
       </c>
       <c r="H48" s="3">
-        <v>12986900</v>
+        <v>12788700</v>
       </c>
       <c r="I48" s="3">
-        <v>13379800</v>
+        <v>12547600</v>
       </c>
       <c r="J48" s="3">
+        <v>12927300</v>
+      </c>
+      <c r="K48" s="3">
         <v>13665500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14568100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16013100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16103700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16666700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15310300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14609200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14381600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>8048300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8564100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8308300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14217900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15359300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15393300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>72703900</v>
+        <v>72397200</v>
       </c>
       <c r="E49" s="3">
-        <v>70312400</v>
+        <v>70244800</v>
       </c>
       <c r="F49" s="3">
-        <v>71871700</v>
+        <v>67934200</v>
       </c>
       <c r="G49" s="3">
-        <v>69790800</v>
+        <v>69440800</v>
       </c>
       <c r="H49" s="3">
-        <v>68396400</v>
+        <v>67464100</v>
       </c>
       <c r="I49" s="3">
-        <v>81507500</v>
+        <v>66083000</v>
       </c>
       <c r="J49" s="3">
+        <v>78750600</v>
+      </c>
+      <c r="K49" s="3">
         <v>83442700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86195700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>92670500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>86197200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>90551100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>88880700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>85576500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>85283900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28180200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29648600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30135500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31985700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>34811700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>35072300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3328,8 +3441,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3396,76 +3512,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5204000</v>
+        <v>4996400</v>
       </c>
       <c r="E52" s="3">
-        <v>5050500</v>
+        <v>5028000</v>
       </c>
       <c r="F52" s="3">
-        <v>4770400</v>
+        <v>4879600</v>
       </c>
       <c r="G52" s="3">
-        <v>5288700</v>
+        <v>4609100</v>
       </c>
       <c r="H52" s="3">
-        <v>5766300</v>
+        <v>5108700</v>
       </c>
       <c r="I52" s="3">
-        <v>4641700</v>
+        <v>5571300</v>
       </c>
       <c r="J52" s="3">
+        <v>4484700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4199100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5384100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6040400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6190200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5782400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5125500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4535600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5569100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4813600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5514600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6432400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7104400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7589900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7453700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3532,76 +3654,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>131595500</v>
+        <v>131172100</v>
       </c>
       <c r="E54" s="3">
-        <v>129199500</v>
+        <v>127144500</v>
       </c>
       <c r="F54" s="3">
-        <v>134111100</v>
+        <v>124829600</v>
       </c>
       <c r="G54" s="3">
-        <v>131837100</v>
+        <v>129575000</v>
       </c>
       <c r="H54" s="3">
-        <v>134950000</v>
+        <v>127422700</v>
       </c>
       <c r="I54" s="3">
-        <v>139632400</v>
+        <v>130385600</v>
       </c>
       <c r="J54" s="3">
+        <v>134909600</v>
+      </c>
+      <c r="K54" s="3">
         <v>141672700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>147296800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>160080500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>150933300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>155929500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>149911300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>144556200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>151106800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82782600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>84246900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>86067900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>92721300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>99837200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>96531800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3626,8 +3754,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3652,416 +3781,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6308300</v>
+        <v>7409500</v>
       </c>
       <c r="E57" s="3">
-        <v>5778700</v>
+        <v>6094900</v>
       </c>
       <c r="F57" s="3">
-        <v>5860000</v>
+        <v>5583300</v>
       </c>
       <c r="G57" s="3">
-        <v>6416700</v>
+        <v>5661800</v>
       </c>
       <c r="H57" s="3">
-        <v>6166000</v>
+        <v>6194200</v>
       </c>
       <c r="I57" s="3">
-        <v>5756200</v>
+        <v>5957500</v>
       </c>
       <c r="J57" s="3">
+        <v>5561500</v>
+      </c>
+      <c r="K57" s="3">
         <v>6019200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7501800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6978800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6333700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6835100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7142400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6154900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5456000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4329400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5754700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4407200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5846700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6679000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>7524100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>5410600</v>
+        <v>4790200</v>
       </c>
       <c r="E58" s="3">
-        <v>4186700</v>
+        <v>5227600</v>
       </c>
       <c r="F58" s="3">
-        <v>5585700</v>
+        <v>4045100</v>
       </c>
       <c r="G58" s="3">
-        <v>9676400</v>
+        <v>5396700</v>
       </c>
       <c r="H58" s="3">
-        <v>9326400</v>
+        <v>9348000</v>
       </c>
       <c r="I58" s="3">
-        <v>8323700</v>
+        <v>9010900</v>
       </c>
       <c r="J58" s="3">
+        <v>8042200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3613100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2547300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7378100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7853600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5007300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4355400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3867700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>10470500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1933600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2171100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3973000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5651500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4928800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3992100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20716700</v>
+        <v>19876400</v>
       </c>
       <c r="E59" s="3">
-        <v>21565800</v>
+        <v>20016000</v>
       </c>
       <c r="F59" s="3">
-        <v>21221400</v>
+        <v>20836400</v>
       </c>
       <c r="G59" s="3">
-        <v>25418300</v>
+        <v>20503700</v>
       </c>
       <c r="H59" s="3">
-        <v>24918100</v>
+        <v>24568400</v>
       </c>
       <c r="I59" s="3">
-        <v>27180800</v>
+        <v>24075300</v>
       </c>
       <c r="J59" s="3">
+        <v>26261500</v>
+      </c>
+      <c r="K59" s="3">
         <v>15569200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17052400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17562700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15766100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16841300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15856800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12639900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13753500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8118600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7325500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8352100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9550400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11366000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10242700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>32435700</v>
+        <v>32076000</v>
       </c>
       <c r="E60" s="3">
-        <v>31531200</v>
+        <v>31338600</v>
       </c>
       <c r="F60" s="3">
-        <v>32667100</v>
+        <v>30464800</v>
       </c>
       <c r="G60" s="3">
-        <v>41511400</v>
+        <v>31562200</v>
       </c>
       <c r="H60" s="3">
-        <v>40410500</v>
+        <v>40110600</v>
       </c>
       <c r="I60" s="3">
-        <v>41260700</v>
+        <v>39043700</v>
       </c>
       <c r="J60" s="3">
+        <v>39865100</v>
+      </c>
+      <c r="K60" s="3">
         <v>25201500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27101400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>31919600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29953500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28683700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27354600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22662600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29680000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14381600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15251200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16732200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>21048500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22973800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21758900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>41747300</v>
+        <v>39797500</v>
       </c>
       <c r="E61" s="3">
-        <v>41397300</v>
+        <v>40335300</v>
       </c>
       <c r="F61" s="3">
-        <v>42813200</v>
+        <v>39997100</v>
       </c>
       <c r="G61" s="3">
-        <v>37481600</v>
+        <v>41365100</v>
       </c>
       <c r="H61" s="3">
-        <v>39733000</v>
+        <v>36219300</v>
       </c>
       <c r="I61" s="3">
-        <v>38329600</v>
+        <v>38389100</v>
       </c>
       <c r="J61" s="3">
+        <v>37033100</v>
+      </c>
+      <c r="K61" s="3">
         <v>41564400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43091400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46258100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43117400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45397000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44609500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44700500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>46767100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>13475800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14005800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14110100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>15896400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17358300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>18992200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>22102100</v>
+        <v>23115300</v>
       </c>
       <c r="E62" s="3">
-        <v>21745300</v>
+        <v>21354600</v>
       </c>
       <c r="F62" s="3">
-        <v>19369700</v>
+        <v>21009800</v>
       </c>
       <c r="G62" s="3">
-        <v>18209000</v>
+        <v>18714600</v>
       </c>
       <c r="H62" s="3">
-        <v>19265800</v>
+        <v>17629100</v>
       </c>
       <c r="I62" s="3">
-        <v>19545900</v>
+        <v>18614200</v>
       </c>
       <c r="J62" s="3">
+        <v>18884700</v>
+      </c>
+      <c r="K62" s="3">
         <v>19828100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21730200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25476100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25085600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24434800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23358700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21373400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22817500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12779600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13632200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13426900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15964800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17415800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>18339600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4128,8 +4276,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4196,8 +4347,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4264,76 +4418,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>96477100</v>
+        <v>95150300</v>
       </c>
       <c r="E66" s="3">
-        <v>94887300</v>
+        <v>93213900</v>
       </c>
       <c r="F66" s="3">
-        <v>95057800</v>
+        <v>91677900</v>
       </c>
       <c r="G66" s="3">
-        <v>97373600</v>
+        <v>91842600</v>
       </c>
       <c r="H66" s="3">
-        <v>99578700</v>
+        <v>94124800</v>
       </c>
       <c r="I66" s="3">
-        <v>99319000</v>
+        <v>96210600</v>
       </c>
       <c r="J66" s="3">
+        <v>95959700</v>
+      </c>
+      <c r="K66" s="3">
         <v>86788300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92133200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>103876700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>98357600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>98720000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>95525100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>88927000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>99344800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40698500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>42956500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>44334300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>56088300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>60377300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>60926600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4358,8 +4518,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4426,8 +4587,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4494,8 +4658,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4562,8 +4729,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4630,76 +4800,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>11660200</v>
+        <v>13357100</v>
       </c>
       <c r="E72" s="3">
-        <v>10854000</v>
+        <v>11265800</v>
       </c>
       <c r="F72" s="3">
-        <v>15595100</v>
+        <v>10486900</v>
       </c>
       <c r="G72" s="3">
-        <v>11005300</v>
+        <v>15067600</v>
       </c>
       <c r="H72" s="3">
-        <v>11913100</v>
+        <v>10633100</v>
       </c>
       <c r="I72" s="3">
-        <v>16855200</v>
+        <v>11510200</v>
       </c>
       <c r="J72" s="3">
+        <v>16285100</v>
+      </c>
+      <c r="K72" s="3">
         <v>31426200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30909500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30754600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28136000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>32358400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29811400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32618800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28951000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29155200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28078900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28522100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>23421500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>36975000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>33120200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4766,8 +4942,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4834,8 +5013,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4902,76 +5084,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>35118400</v>
+        <v>36021800</v>
       </c>
       <c r="E76" s="3">
-        <v>34312200</v>
+        <v>33930600</v>
       </c>
       <c r="F76" s="3">
-        <v>39053300</v>
+        <v>33151700</v>
       </c>
       <c r="G76" s="3">
-        <v>34463500</v>
+        <v>37732400</v>
       </c>
       <c r="H76" s="3">
-        <v>35371300</v>
+        <v>33297800</v>
       </c>
       <c r="I76" s="3">
-        <v>40313400</v>
+        <v>34174900</v>
       </c>
       <c r="J76" s="3">
+        <v>38949900</v>
+      </c>
+      <c r="K76" s="3">
         <v>54884400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>55163600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56203800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52575700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>57209500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54386200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55629200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51761900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>42084100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41290400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41733500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36633000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39460000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35605200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5038,149 +5226,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>96000</v>
+        <v>1266500</v>
       </c>
       <c r="E81" s="3">
-        <v>-2636400</v>
+        <v>92700</v>
       </c>
       <c r="F81" s="3">
-        <v>2358700</v>
+        <v>-2547300</v>
       </c>
       <c r="G81" s="3">
-        <v>347800</v>
+        <v>2278900</v>
       </c>
       <c r="H81" s="3">
-        <v>-3098300</v>
+        <v>336000</v>
       </c>
       <c r="I81" s="3">
-        <v>-10780600</v>
+        <v>-2993500</v>
       </c>
       <c r="J81" s="3">
+        <v>-10416000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1681200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1650700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1269100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1930500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1484500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3179900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>871800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2145500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>166100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4354400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1373300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2445000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>531700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5205,76 +5402,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>982300</v>
+        <v>-316400</v>
       </c>
       <c r="E83" s="3">
-        <v>1569400</v>
+        <v>949100</v>
       </c>
       <c r="F83" s="3">
-        <v>1226200</v>
+        <v>1516400</v>
       </c>
       <c r="G83" s="3">
-        <v>574700</v>
+        <v>1184700</v>
       </c>
       <c r="H83" s="3">
-        <v>11621800</v>
+        <v>555300</v>
       </c>
       <c r="I83" s="3">
-        <v>1332300</v>
+        <v>11228700</v>
       </c>
       <c r="J83" s="3">
+        <v>1287300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1441900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1874900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1238500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3232700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1421100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5043900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>991300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>752100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>557800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>936900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>295100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>933500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>856900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1320500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5341,8 +5542,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5409,8 +5613,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5477,8 +5684,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5545,8 +5755,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5613,76 +5826,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3228100</v>
+        <v>3313100</v>
       </c>
       <c r="E89" s="3">
-        <v>2254800</v>
+        <v>3118900</v>
       </c>
       <c r="F89" s="3">
-        <v>-3122000</v>
+        <v>2178500</v>
       </c>
       <c r="G89" s="3">
-        <v>848000</v>
+        <v>-3016400</v>
       </c>
       <c r="H89" s="3">
-        <v>2220900</v>
+        <v>819300</v>
       </c>
       <c r="I89" s="3">
-        <v>2725600</v>
+        <v>2145800</v>
       </c>
       <c r="J89" s="3">
+        <v>2633500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-266500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3767200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2795400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3150400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1289500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3510800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2271700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2459500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>723600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2545800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3041700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2595200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>987200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3212700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5707,76 +5926,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-732800</v>
+        <v>-1243600</v>
       </c>
       <c r="E91" s="3">
-        <v>-556600</v>
+        <v>-708000</v>
       </c>
       <c r="F91" s="3">
-        <v>-371500</v>
+        <v>-537800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1008300</v>
+        <v>-358900</v>
       </c>
       <c r="H91" s="3">
-        <v>-619900</v>
+        <v>-974200</v>
       </c>
       <c r="I91" s="3">
-        <v>-660500</v>
+        <v>-598900</v>
       </c>
       <c r="J91" s="3">
+        <v>-638200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-441500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-893000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-472500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-729900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-504000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-383200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-624900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-534100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-487100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>748900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5843,8 +6066,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5911,76 +6137,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2878100</v>
+        <v>-1077800</v>
       </c>
       <c r="E94" s="3">
-        <v>504700</v>
+        <v>-2780700</v>
       </c>
       <c r="F94" s="3">
-        <v>4454300</v>
+        <v>487600</v>
       </c>
       <c r="G94" s="3">
-        <v>-219000</v>
+        <v>4303600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3229200</v>
+        <v>-211600</v>
       </c>
       <c r="I94" s="3">
-        <v>-475400</v>
+        <v>-3120000</v>
       </c>
       <c r="J94" s="3">
+        <v>-459300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-675200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>40900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-292800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-549400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>92100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-675400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7090900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1917500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>194100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6005,16 +6237,17 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-4500</v>
+        <v>-26200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -6023,58 +6256,61 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-19200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-3106200</v>
+        <v>-18500</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-3001100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-4900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-4700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6141,8 +6377,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6209,8 +6448,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6277,208 +6519,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>726000</v>
+        <v>-1961500</v>
       </c>
       <c r="E100" s="3">
-        <v>-5197200</v>
+        <v>701500</v>
       </c>
       <c r="F100" s="3">
-        <v>127600</v>
+        <v>-5021500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1528800</v>
+        <v>123300</v>
       </c>
       <c r="H100" s="3">
-        <v>3237100</v>
+        <v>-1477100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1271400</v>
+        <v>3127600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1228400</v>
+      </c>
+      <c r="K100" s="3">
         <v>40600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>39249100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-637900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-41500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-616000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>717200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3413400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-29400</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>-28400</v>
       </c>
       <c r="F101" s="3">
-        <v>74500</v>
+        <v>-2200</v>
       </c>
       <c r="G101" s="3">
-        <v>-89200</v>
+        <v>72000</v>
       </c>
       <c r="H101" s="3">
-        <v>-70000</v>
+        <v>-86200</v>
       </c>
       <c r="I101" s="3">
-        <v>-35000</v>
+        <v>-67600</v>
       </c>
       <c r="J101" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-76800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-26000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-424900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-129600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-51600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-72900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-41500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>10600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1046700</v>
+        <v>270500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2440000</v>
+        <v>1011300</v>
       </c>
       <c r="F102" s="3">
-        <v>1534400</v>
+        <v>-2357500</v>
       </c>
       <c r="G102" s="3">
-        <v>-989100</v>
+        <v>1482500</v>
       </c>
       <c r="H102" s="3">
-        <v>2158800</v>
+        <v>-955600</v>
       </c>
       <c r="I102" s="3">
-        <v>943900</v>
+        <v>2085800</v>
       </c>
       <c r="J102" s="3">
+        <v>912000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-977800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1260500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-789400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-942800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-179400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-357900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2273200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3121400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>616000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>381500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>782900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>BAYRY</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,310 +665,322 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12128700</v>
+        <v>15193800</v>
       </c>
       <c r="E8" s="3">
-        <v>10670200</v>
+        <v>11539400</v>
       </c>
       <c r="F8" s="3">
-        <v>11840700</v>
+        <v>10151700</v>
       </c>
       <c r="G8" s="3">
-        <v>13448700</v>
+        <v>11265400</v>
       </c>
       <c r="H8" s="3">
-        <v>10903600</v>
+        <v>12795200</v>
       </c>
       <c r="I8" s="3">
-        <v>9279300</v>
+        <v>10373800</v>
       </c>
       <c r="J8" s="3">
+        <v>8828400</v>
+      </c>
+      <c r="K8" s="3">
         <v>10968000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14503300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12549700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12041700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27016000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14655800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12248900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10257500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10410100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10033500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>9644600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9004000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9777000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11362500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10356500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4020000</v>
+        <v>5372200</v>
       </c>
       <c r="E9" s="3">
-        <v>4240400</v>
+        <v>3824700</v>
       </c>
       <c r="F9" s="3">
-        <v>4959300</v>
+        <v>4034300</v>
       </c>
       <c r="G9" s="3">
-        <v>5125100</v>
+        <v>4718300</v>
       </c>
       <c r="H9" s="3">
-        <v>4002500</v>
+        <v>4876100</v>
       </c>
       <c r="I9" s="3">
-        <v>7412700</v>
+        <v>3808100</v>
       </c>
       <c r="J9" s="3">
+        <v>7052500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4383300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5257100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5743700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4634100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10481700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5821900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6676300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4542300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3850700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3194100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3418700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2877900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3122500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3506200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3695200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8108700</v>
+        <v>9821600</v>
       </c>
       <c r="E10" s="3">
-        <v>6429800</v>
+        <v>7714700</v>
       </c>
       <c r="F10" s="3">
-        <v>6881500</v>
+        <v>6117400</v>
       </c>
       <c r="G10" s="3">
-        <v>8323600</v>
+        <v>6547100</v>
       </c>
       <c r="H10" s="3">
-        <v>6901100</v>
+        <v>7919200</v>
       </c>
       <c r="I10" s="3">
-        <v>1866500</v>
+        <v>6565800</v>
       </c>
       <c r="J10" s="3">
+        <v>1775800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6584700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9246200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6806000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7407500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16534300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8833900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5572600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5715200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6559500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6839400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6225900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6126100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6654500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7856300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6661400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,79 +1006,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1104000</v>
+        <v>1509100</v>
       </c>
       <c r="E12" s="3">
-        <v>1706200</v>
+        <v>1050400</v>
       </c>
       <c r="F12" s="3">
-        <v>1786900</v>
+        <v>1623300</v>
       </c>
       <c r="G12" s="3">
-        <v>1306900</v>
+        <v>1700100</v>
       </c>
       <c r="H12" s="3">
-        <v>1408400</v>
+        <v>1243400</v>
       </c>
       <c r="I12" s="3">
-        <v>3672000</v>
+        <v>1339900</v>
       </c>
       <c r="J12" s="3">
+        <v>3493600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1273100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1470100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1633200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1569200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3083300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1575400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2008600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1292600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1391200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1141900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1384500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1210600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1230800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1284100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1461400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1133,8 +1152,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1204,8 +1226,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1275,8 +1300,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1299,150 +1327,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>9924000</v>
+        <v>10822200</v>
       </c>
       <c r="E17" s="3">
-        <v>10092000</v>
+        <v>9441800</v>
       </c>
       <c r="F17" s="3">
-        <v>14329100</v>
+        <v>9601600</v>
       </c>
       <c r="G17" s="3">
-        <v>10085500</v>
+        <v>13632800</v>
       </c>
       <c r="H17" s="3">
-        <v>9250900</v>
+        <v>9595400</v>
       </c>
       <c r="I17" s="3">
-        <v>19532700</v>
+        <v>8801400</v>
       </c>
       <c r="J17" s="3">
+        <v>18583600</v>
+      </c>
+      <c r="K17" s="3">
         <v>22732400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11681700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12095500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10561900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23998600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12526600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17224200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5469300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8932200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7497100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8943400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7446600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8135500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8513600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9668700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2204700</v>
+        <v>4371600</v>
       </c>
       <c r="E18" s="3">
-        <v>578200</v>
+        <v>2097600</v>
       </c>
       <c r="F18" s="3">
-        <v>-2488400</v>
+        <v>550100</v>
       </c>
       <c r="G18" s="3">
-        <v>3363300</v>
+        <v>-2367400</v>
       </c>
       <c r="H18" s="3">
-        <v>1652700</v>
+        <v>3199800</v>
       </c>
       <c r="I18" s="3">
-        <v>-10253500</v>
+        <v>1572400</v>
       </c>
       <c r="J18" s="3">
+        <v>-9755200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-11764400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2821600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>454100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1479800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3017500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2129200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4788200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1477900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2536400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>701200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1557300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1641500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2848800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>687900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1468,150 +1503,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-571600</v>
+        <v>-508600</v>
       </c>
       <c r="E20" s="3">
-        <v>-366500</v>
+        <v>-543900</v>
       </c>
       <c r="F20" s="3">
-        <v>-108000</v>
+        <v>-348700</v>
       </c>
       <c r="G20" s="3">
-        <v>-379600</v>
+        <v>-102800</v>
       </c>
       <c r="H20" s="3">
-        <v>-154900</v>
+        <v>-361200</v>
       </c>
       <c r="I20" s="3">
-        <v>-12000</v>
+        <v>-147400</v>
       </c>
       <c r="J20" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-301100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-736200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-441300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-219300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-884700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-356500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-851700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-752100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-354700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>142700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-289500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-452200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-414000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-347400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-262900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1316700</v>
+        <v>4984000</v>
       </c>
       <c r="E21" s="3">
-        <v>1160700</v>
+        <v>1252700</v>
       </c>
       <c r="F21" s="3">
-        <v>-1080000</v>
+        <v>1104300</v>
       </c>
       <c r="G21" s="3">
-        <v>4168400</v>
+        <v>-1027500</v>
       </c>
       <c r="H21" s="3">
-        <v>2053100</v>
+        <v>3965800</v>
       </c>
       <c r="I21" s="3">
-        <v>963300</v>
+        <v>1953300</v>
       </c>
       <c r="J21" s="3">
+        <v>916500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-10778200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3527300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1887700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2499000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5365600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3193900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-914400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5027400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1875400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3236900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1348600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1757000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1804200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3358300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2344100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1681,150 +1723,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1633100</v>
+        <v>3863100</v>
       </c>
       <c r="E23" s="3">
-        <v>211600</v>
+        <v>1553700</v>
       </c>
       <c r="F23" s="3">
-        <v>-2596400</v>
+        <v>201400</v>
       </c>
       <c r="G23" s="3">
-        <v>2983600</v>
+        <v>-2470200</v>
       </c>
       <c r="H23" s="3">
-        <v>1497800</v>
+        <v>2838700</v>
       </c>
       <c r="I23" s="3">
-        <v>-10265500</v>
+        <v>1425000</v>
       </c>
       <c r="J23" s="3">
+        <v>-9766600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12065500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2085400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1260500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2132800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1772800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4036100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1123300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2679100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>411800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1105200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1227500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2501400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>424900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>356700</v>
+        <v>444200</v>
       </c>
       <c r="E24" s="3">
-        <v>113500</v>
+        <v>339400</v>
       </c>
       <c r="F24" s="3">
-        <v>-56700</v>
+        <v>107900</v>
       </c>
       <c r="G24" s="3">
-        <v>703600</v>
+        <v>-54000</v>
       </c>
       <c r="H24" s="3">
-        <v>1076700</v>
+        <v>669400</v>
       </c>
       <c r="I24" s="3">
-        <v>-1860000</v>
+        <v>1024400</v>
       </c>
       <c r="J24" s="3">
+        <v>-1769600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1581800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>540800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>434100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>428200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>918200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>236100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>542400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>488100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>237900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>289500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>497700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>74000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1894,150 +1945,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1276400</v>
+        <v>3418800</v>
       </c>
       <c r="E26" s="3">
-        <v>98200</v>
+        <v>1214300</v>
       </c>
       <c r="F26" s="3">
-        <v>-2539600</v>
+        <v>93400</v>
       </c>
       <c r="G26" s="3">
-        <v>2280000</v>
+        <v>-2416200</v>
       </c>
       <c r="H26" s="3">
-        <v>421100</v>
+        <v>2169200</v>
       </c>
       <c r="I26" s="3">
-        <v>-8405500</v>
+        <v>400600</v>
       </c>
       <c r="J26" s="3">
+        <v>-7997000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10483600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1544600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1222500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1698700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1344500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3117900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>887200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2136700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-76300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>867300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>938000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2003700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>351000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1266500</v>
+        <v>3415700</v>
       </c>
       <c r="E27" s="3">
-        <v>92700</v>
+        <v>1205000</v>
       </c>
       <c r="F27" s="3">
-        <v>-2547300</v>
+        <v>88200</v>
       </c>
       <c r="G27" s="3">
-        <v>2278900</v>
+        <v>-2423500</v>
       </c>
       <c r="H27" s="3">
-        <v>417800</v>
+        <v>2168200</v>
       </c>
       <c r="I27" s="3">
-        <v>-8402200</v>
+        <v>397500</v>
       </c>
       <c r="J27" s="3">
+        <v>-7993900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10493500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1545700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-50200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1212700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1698700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1350500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3109000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>880600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2136700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-78500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>870700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>935700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1783000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>346300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2107,13 +2167,16 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2125,61 +2188,64 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-81800</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>5408700</v>
+        <v>-77800</v>
       </c>
       <c r="J29" s="3">
+        <v>5145900</v>
+      </c>
+      <c r="K29" s="3">
         <v>77500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>135500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>1700900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>56300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>231800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>134000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>47300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>70900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-8800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>8800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>244600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3483800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>437600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>662000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>185500</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2249,8 +2315,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2320,150 +2389,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>571600</v>
+        <v>508600</v>
       </c>
       <c r="E32" s="3">
-        <v>366500</v>
+        <v>543900</v>
       </c>
       <c r="F32" s="3">
-        <v>108000</v>
+        <v>348700</v>
       </c>
       <c r="G32" s="3">
-        <v>379600</v>
+        <v>102800</v>
       </c>
       <c r="H32" s="3">
-        <v>154900</v>
+        <v>361200</v>
       </c>
       <c r="I32" s="3">
-        <v>12000</v>
+        <v>147400</v>
       </c>
       <c r="J32" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K32" s="3">
         <v>301100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>736200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>441300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>219300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>884700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>356500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>851700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>752100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>354700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-142700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>289500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>452200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>414000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>347400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>262900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1266500</v>
+        <v>3415700</v>
       </c>
       <c r="E33" s="3">
-        <v>92700</v>
+        <v>1205000</v>
       </c>
       <c r="F33" s="3">
-        <v>-2547300</v>
+        <v>88200</v>
       </c>
       <c r="G33" s="3">
-        <v>2278900</v>
+        <v>-2423500</v>
       </c>
       <c r="H33" s="3">
-        <v>336000</v>
+        <v>2168200</v>
       </c>
       <c r="I33" s="3">
-        <v>-2993500</v>
+        <v>319700</v>
       </c>
       <c r="J33" s="3">
+        <v>-2848000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10416000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1681200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1650700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1269100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1930500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1484500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3179900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>871800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2145500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>166100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4354400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1373300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2445000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>531700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2533,155 +2611,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1266500</v>
+        <v>3415700</v>
       </c>
       <c r="E35" s="3">
-        <v>92700</v>
+        <v>1205000</v>
       </c>
       <c r="F35" s="3">
-        <v>-2547300</v>
+        <v>88200</v>
       </c>
       <c r="G35" s="3">
-        <v>2278900</v>
+        <v>-2423500</v>
       </c>
       <c r="H35" s="3">
-        <v>336000</v>
+        <v>2168200</v>
       </c>
       <c r="I35" s="3">
-        <v>-2993500</v>
+        <v>319700</v>
       </c>
       <c r="J35" s="3">
+        <v>-2848000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10416000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1681200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1650700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1269100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1930500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1484500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3179900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>871800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2145500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>166100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4354400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1373300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2445000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>531700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2707,8 +2794,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2734,647 +2822,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4978900</v>
+        <v>6004300</v>
       </c>
       <c r="E41" s="3">
-        <v>4708400</v>
+        <v>4737000</v>
       </c>
       <c r="F41" s="3">
-        <v>3697100</v>
+        <v>4479600</v>
       </c>
       <c r="G41" s="3">
-        <v>6054600</v>
+        <v>3517400</v>
       </c>
       <c r="H41" s="3">
-        <v>4572000</v>
+        <v>5760300</v>
       </c>
       <c r="I41" s="3">
-        <v>5527600</v>
+        <v>4349800</v>
       </c>
       <c r="J41" s="3">
+        <v>5259000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3434200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2584500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3718200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5402200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3932700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4859000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4793100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5371900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5469100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5854500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8505800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6232700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3111300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2610600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2229100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3645800</v>
+        <v>2500300</v>
       </c>
       <c r="E42" s="3">
-        <v>4257800</v>
+        <v>3468700</v>
       </c>
       <c r="F42" s="3">
-        <v>3391600</v>
+        <v>4050900</v>
       </c>
       <c r="G42" s="3">
-        <v>4104000</v>
+        <v>3226800</v>
       </c>
       <c r="H42" s="3">
-        <v>8661800</v>
+        <v>3904600</v>
       </c>
       <c r="I42" s="3">
-        <v>11425100</v>
+        <v>8240900</v>
       </c>
       <c r="J42" s="3">
+        <v>10869900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2792700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3118600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2715400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1401400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1022300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1019200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1379300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1773300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1709600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8031900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3959500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>6806000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8115400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7819900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7365700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14489500</v>
+        <v>18499500</v>
       </c>
       <c r="E43" s="3">
-        <v>14238600</v>
+        <v>13785400</v>
       </c>
       <c r="F43" s="3">
-        <v>17232000</v>
+        <v>13546700</v>
       </c>
       <c r="G43" s="3">
-        <v>17337800</v>
+        <v>16394700</v>
       </c>
       <c r="H43" s="3">
-        <v>13603600</v>
+        <v>16513000</v>
       </c>
       <c r="I43" s="3">
-        <v>14513500</v>
+        <v>12942600</v>
       </c>
       <c r="J43" s="3">
+        <v>13808200</v>
+      </c>
+      <c r="K43" s="3">
         <v>17152400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18828900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17675800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17387500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19478800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20154800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17129600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>15883000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18145500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>12064800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11592400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11857200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15914300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>18548500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>16263100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>12342600</v>
+        <v>11280900</v>
       </c>
       <c r="E44" s="3">
-        <v>11611600</v>
+        <v>11742800</v>
       </c>
       <c r="F44" s="3">
-        <v>11045500</v>
+        <v>11047400</v>
       </c>
       <c r="G44" s="3">
-        <v>11407600</v>
+        <v>10508700</v>
       </c>
       <c r="H44" s="3">
-        <v>11957500</v>
+        <v>10853300</v>
       </c>
       <c r="I44" s="3">
-        <v>11402200</v>
+        <v>11376400</v>
       </c>
       <c r="J44" s="3">
+        <v>10848100</v>
+      </c>
+      <c r="K44" s="3">
         <v>11048700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11297800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>12432900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12733800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12082800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12574500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>13168000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12230100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12023100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7029400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7349000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7558800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9490900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>10181600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>9869400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>82900</v>
+        <v>1410500</v>
       </c>
       <c r="E45" s="3">
-        <v>32700</v>
+        <v>78900</v>
       </c>
       <c r="F45" s="3">
-        <v>34900</v>
+        <v>31100</v>
       </c>
       <c r="G45" s="3">
-        <v>147300</v>
+        <v>33200</v>
       </c>
       <c r="H45" s="3">
-        <v>123300</v>
+        <v>140100</v>
       </c>
       <c r="I45" s="3">
-        <v>46900</v>
+        <v>117300</v>
       </c>
       <c r="J45" s="3">
+        <v>44600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1300400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1427200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1327300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3981200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1892800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>277500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>276800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>260300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4083500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3438900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2334900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2046500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32900</v>
-      </c>
-      <c r="X45" s="3">
-        <v>11700</v>
       </c>
       <c r="Y45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>35539700</v>
+        <v>39695500</v>
       </c>
       <c r="E46" s="3">
-        <v>34849100</v>
+        <v>33812700</v>
       </c>
       <c r="F46" s="3">
-        <v>35401100</v>
+        <v>33155700</v>
       </c>
       <c r="G46" s="3">
-        <v>39051300</v>
+        <v>33680900</v>
       </c>
       <c r="H46" s="3">
-        <v>38918200</v>
+        <v>37171400</v>
       </c>
       <c r="I46" s="3">
-        <v>42915300</v>
+        <v>37027100</v>
       </c>
       <c r="J46" s="3">
+        <v>40829900</v>
+      </c>
+      <c r="K46" s="3">
         <v>35728400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37256900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37869600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40906100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>38409500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38884900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>36746800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>35518500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>41430800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>36419600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33741600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>34501200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>36635200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>39193500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>35739000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4397500</v>
+        <v>4151600</v>
       </c>
       <c r="E47" s="3">
-        <v>3892400</v>
+        <v>4183800</v>
       </c>
       <c r="F47" s="3">
-        <v>3709100</v>
+        <v>3703200</v>
       </c>
       <c r="G47" s="3">
-        <v>3590200</v>
+        <v>3528900</v>
       </c>
       <c r="H47" s="3">
-        <v>3142900</v>
+        <v>3415700</v>
       </c>
       <c r="I47" s="3">
-        <v>3268400</v>
+        <v>2990200</v>
       </c>
       <c r="J47" s="3">
+        <v>3109500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3018500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3108400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3279300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4450400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4032700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4044400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3848000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4316300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4441400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5320900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6777900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6690400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2778000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2882900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2873500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>13841500</v>
+        <v>13270600</v>
       </c>
       <c r="E48" s="3">
-        <v>13130200</v>
+        <v>13168900</v>
       </c>
       <c r="F48" s="3">
-        <v>12905500</v>
+        <v>12492200</v>
       </c>
       <c r="G48" s="3">
-        <v>12883600</v>
+        <v>12278400</v>
       </c>
       <c r="H48" s="3">
-        <v>12788700</v>
+        <v>12271100</v>
       </c>
       <c r="I48" s="3">
-        <v>12547600</v>
+        <v>12167300</v>
       </c>
       <c r="J48" s="3">
+        <v>11937900</v>
+      </c>
+      <c r="K48" s="3">
         <v>12927300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13665500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14568100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16013100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16103700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16666700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15310300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14609200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14381600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8048300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8564100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8308300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14217900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15359300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15393300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>72397200</v>
+        <v>68350900</v>
       </c>
       <c r="E49" s="3">
-        <v>70244800</v>
+        <v>68879200</v>
       </c>
       <c r="F49" s="3">
-        <v>67934200</v>
+        <v>66831400</v>
       </c>
       <c r="G49" s="3">
-        <v>69440800</v>
+        <v>64633100</v>
       </c>
       <c r="H49" s="3">
-        <v>67464100</v>
+        <v>65780000</v>
       </c>
       <c r="I49" s="3">
-        <v>66083000</v>
+        <v>64185800</v>
       </c>
       <c r="J49" s="3">
+        <v>62871800</v>
+      </c>
+      <c r="K49" s="3">
         <v>78750600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>83442700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>86195700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>92670500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>86197200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>90551100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>88880700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>85576500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>85283900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28180200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29648600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30135500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31985700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>34811700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>35072300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3444,8 +3560,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3515,79 +3634,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>4996400</v>
+        <v>5080500</v>
       </c>
       <c r="E52" s="3">
-        <v>5028000</v>
+        <v>4753600</v>
       </c>
       <c r="F52" s="3">
-        <v>4879600</v>
+        <v>4783700</v>
       </c>
       <c r="G52" s="3">
-        <v>4609100</v>
+        <v>4642500</v>
       </c>
       <c r="H52" s="3">
-        <v>5108700</v>
+        <v>4382000</v>
       </c>
       <c r="I52" s="3">
-        <v>5571300</v>
+        <v>4860500</v>
       </c>
       <c r="J52" s="3">
+        <v>5300600</v>
+      </c>
+      <c r="K52" s="3">
         <v>4484700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4199100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5384100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6040400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6190200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5782400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5125500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4535600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5569100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4813600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5514600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6432400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7104400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7589900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7453700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3657,79 +3782,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>131172100</v>
+        <v>130549100</v>
       </c>
       <c r="E54" s="3">
-        <v>127144500</v>
+        <v>124798100</v>
       </c>
       <c r="F54" s="3">
-        <v>124829600</v>
+        <v>120966200</v>
       </c>
       <c r="G54" s="3">
-        <v>129575000</v>
+        <v>118763800</v>
       </c>
       <c r="H54" s="3">
-        <v>127422700</v>
+        <v>123020200</v>
       </c>
       <c r="I54" s="3">
-        <v>130385600</v>
+        <v>121230900</v>
       </c>
       <c r="J54" s="3">
+        <v>124049800</v>
+      </c>
+      <c r="K54" s="3">
         <v>134909600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>141672700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>147296800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>160080500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>150933300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>155929500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>149911300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>144556200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>151106800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>82782600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84246900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>86067900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>92721300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>99837200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>96531800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3755,8 +3886,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3782,434 +3914,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>7409500</v>
+        <v>6068600</v>
       </c>
       <c r="E57" s="3">
-        <v>6094900</v>
+        <v>7049400</v>
       </c>
       <c r="F57" s="3">
-        <v>5583300</v>
+        <v>5798700</v>
       </c>
       <c r="G57" s="3">
-        <v>5661800</v>
+        <v>5312000</v>
       </c>
       <c r="H57" s="3">
-        <v>6194200</v>
+        <v>5381500</v>
       </c>
       <c r="I57" s="3">
-        <v>5957500</v>
+        <v>5893200</v>
       </c>
       <c r="J57" s="3">
+        <v>5668000</v>
+      </c>
+      <c r="K57" s="3">
         <v>5561500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6019200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7501800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6978800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6333700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6835100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7142400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6154900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5456000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4329400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5754700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4407200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5846700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6679000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>7524100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>4790200</v>
+        <v>6122600</v>
       </c>
       <c r="E58" s="3">
-        <v>5227600</v>
+        <v>4557400</v>
       </c>
       <c r="F58" s="3">
-        <v>4045100</v>
+        <v>4973600</v>
       </c>
       <c r="G58" s="3">
-        <v>5396700</v>
+        <v>3848500</v>
       </c>
       <c r="H58" s="3">
-        <v>9348000</v>
+        <v>5133500</v>
       </c>
       <c r="I58" s="3">
-        <v>9010900</v>
+        <v>8893800</v>
       </c>
       <c r="J58" s="3">
+        <v>8573100</v>
+      </c>
+      <c r="K58" s="3">
         <v>8042200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3613100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2547300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7378100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7853600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5007300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4355400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3867700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>10470500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1933600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2171100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3973000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5651500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4928800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3992100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>19876400</v>
+        <v>20003400</v>
       </c>
       <c r="E59" s="3">
-        <v>20016000</v>
+        <v>18910500</v>
       </c>
       <c r="F59" s="3">
-        <v>20836400</v>
+        <v>19043400</v>
       </c>
       <c r="G59" s="3">
-        <v>20503700</v>
+        <v>19823900</v>
       </c>
       <c r="H59" s="3">
-        <v>24568400</v>
+        <v>19560300</v>
       </c>
       <c r="I59" s="3">
-        <v>24075300</v>
+        <v>23374500</v>
       </c>
       <c r="J59" s="3">
+        <v>22905400</v>
+      </c>
+      <c r="K59" s="3">
         <v>26261500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15569200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17052400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17562700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15766100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16841300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15856800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12639900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13753500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8118600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7325500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8352100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9550400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11366000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10242700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>32076000</v>
+        <v>32194600</v>
       </c>
       <c r="E60" s="3">
-        <v>31338600</v>
+        <v>30517400</v>
       </c>
       <c r="F60" s="3">
-        <v>30464800</v>
+        <v>29815800</v>
       </c>
       <c r="G60" s="3">
-        <v>31562200</v>
+        <v>28984400</v>
       </c>
       <c r="H60" s="3">
-        <v>40110600</v>
+        <v>30075200</v>
       </c>
       <c r="I60" s="3">
-        <v>39043700</v>
+        <v>38161500</v>
       </c>
       <c r="J60" s="3">
+        <v>37146400</v>
+      </c>
+      <c r="K60" s="3">
         <v>39865100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>25201500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27101400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>31919600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>29953500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>28683700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27354600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22662600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29680000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14381600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15251200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16732200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>21048500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22973800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21758900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>39797500</v>
+        <v>38037000</v>
       </c>
       <c r="E61" s="3">
-        <v>40335300</v>
+        <v>37863600</v>
       </c>
       <c r="F61" s="3">
-        <v>39997100</v>
+        <v>38375300</v>
       </c>
       <c r="G61" s="3">
-        <v>41365100</v>
+        <v>38053600</v>
       </c>
       <c r="H61" s="3">
-        <v>36219300</v>
+        <v>39360300</v>
       </c>
       <c r="I61" s="3">
-        <v>38389100</v>
+        <v>34459300</v>
       </c>
       <c r="J61" s="3">
+        <v>36523700</v>
+      </c>
+      <c r="K61" s="3">
         <v>37033100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41564400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43091400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46258100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43117400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45397000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44609500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44700500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>46767100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>13475800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14005800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14110100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>15896400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17358300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>18992200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>23115300</v>
+        <v>21285300</v>
       </c>
       <c r="E62" s="3">
-        <v>21354600</v>
+        <v>21992100</v>
       </c>
       <c r="F62" s="3">
-        <v>21009800</v>
+        <v>20316900</v>
       </c>
       <c r="G62" s="3">
-        <v>18714600</v>
+        <v>19988900</v>
       </c>
       <c r="H62" s="3">
-        <v>17629100</v>
+        <v>17517700</v>
       </c>
       <c r="I62" s="3">
-        <v>18614200</v>
+        <v>16772500</v>
       </c>
       <c r="J62" s="3">
+        <v>17709700</v>
+      </c>
+      <c r="K62" s="3">
         <v>18884700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19828100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21730200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25476100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25085600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24434800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23358700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21373400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22817500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12779600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13632200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13426900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15964800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17415800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>18339600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4279,8 +4430,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4350,8 +4504,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4421,79 +4578,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>95150300</v>
+        <v>91693300</v>
       </c>
       <c r="E66" s="3">
-        <v>93213900</v>
+        <v>90526700</v>
       </c>
       <c r="F66" s="3">
-        <v>91677900</v>
+        <v>88684400</v>
       </c>
       <c r="G66" s="3">
-        <v>91842600</v>
+        <v>87223000</v>
       </c>
       <c r="H66" s="3">
-        <v>94124800</v>
+        <v>87120300</v>
       </c>
       <c r="I66" s="3">
-        <v>96210600</v>
+        <v>89551000</v>
       </c>
       <c r="J66" s="3">
+        <v>91535500</v>
+      </c>
+      <c r="K66" s="3">
         <v>95959700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86788300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>92133200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>103876700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>98357600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>98720000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>95525100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>88927000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>99344800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40698500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>42956500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>44334300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>56088300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>60377300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>60926600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4519,8 +4682,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4590,8 +4754,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4661,8 +4828,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4732,8 +4902,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4803,79 +4976,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>13357100</v>
+        <v>17292500</v>
       </c>
       <c r="E72" s="3">
-        <v>11265800</v>
+        <v>12708000</v>
       </c>
       <c r="F72" s="3">
-        <v>10486900</v>
+        <v>10718400</v>
       </c>
       <c r="G72" s="3">
-        <v>15067600</v>
+        <v>9977300</v>
       </c>
       <c r="H72" s="3">
-        <v>10633100</v>
+        <v>14336500</v>
       </c>
       <c r="I72" s="3">
-        <v>11510200</v>
+        <v>10116400</v>
       </c>
       <c r="J72" s="3">
+        <v>10950900</v>
+      </c>
+      <c r="K72" s="3">
         <v>16285100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31426200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30909500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30754600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28136000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>32358400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29811400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32618800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28951000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29155200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28078900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28522100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>23421500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>36975000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>33120200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4945,8 +5124,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5016,8 +5198,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5087,79 +5272,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>36021800</v>
+        <v>38855900</v>
       </c>
       <c r="E76" s="3">
-        <v>33930600</v>
+        <v>34271500</v>
       </c>
       <c r="F76" s="3">
-        <v>33151700</v>
+        <v>32281800</v>
       </c>
       <c r="G76" s="3">
-        <v>37732400</v>
+        <v>31540700</v>
       </c>
       <c r="H76" s="3">
-        <v>33297800</v>
+        <v>35899900</v>
       </c>
       <c r="I76" s="3">
-        <v>34174900</v>
+        <v>31679800</v>
       </c>
       <c r="J76" s="3">
+        <v>32514300</v>
+      </c>
+      <c r="K76" s="3">
         <v>38949900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54884400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55163600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56203800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52575700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>57209500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54386200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55629200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>51761900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42084100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41290400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41733500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36633000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>39460000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>35605200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5229,155 +5420,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1266500</v>
+        <v>3415700</v>
       </c>
       <c r="E81" s="3">
-        <v>92700</v>
+        <v>1205000</v>
       </c>
       <c r="F81" s="3">
-        <v>-2547300</v>
+        <v>88200</v>
       </c>
       <c r="G81" s="3">
-        <v>2278900</v>
+        <v>-2423500</v>
       </c>
       <c r="H81" s="3">
-        <v>336000</v>
+        <v>2168200</v>
       </c>
       <c r="I81" s="3">
-        <v>-2993500</v>
+        <v>319700</v>
       </c>
       <c r="J81" s="3">
+        <v>-2848000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10416000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1681200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1650700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1269100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1930500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1484500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3179900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>871800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2145500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>166100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4354400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1373300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2445000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>531700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5403,79 +5603,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>-316400</v>
+        <v>1120900</v>
       </c>
       <c r="E83" s="3">
-        <v>949100</v>
+        <v>-301000</v>
       </c>
       <c r="F83" s="3">
-        <v>1516400</v>
+        <v>903000</v>
       </c>
       <c r="G83" s="3">
-        <v>1184700</v>
+        <v>1442700</v>
       </c>
       <c r="H83" s="3">
-        <v>555300</v>
+        <v>1127200</v>
       </c>
       <c r="I83" s="3">
-        <v>11228700</v>
+        <v>528300</v>
       </c>
       <c r="J83" s="3">
+        <v>10683100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1287300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1441900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1874900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1238500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3232700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1421100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5043900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>991300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>752100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>557800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>936900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>295100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>933500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>856900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>1320500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5545,8 +5749,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5616,8 +5823,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5687,8 +5897,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5758,8 +5971,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5829,79 +6045,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3313100</v>
+        <v>-750400</v>
       </c>
       <c r="E89" s="3">
-        <v>3118900</v>
+        <v>3152100</v>
       </c>
       <c r="F89" s="3">
-        <v>2178500</v>
+        <v>2967400</v>
       </c>
       <c r="G89" s="3">
-        <v>-3016400</v>
+        <v>2072700</v>
       </c>
       <c r="H89" s="3">
-        <v>819300</v>
+        <v>-2869800</v>
       </c>
       <c r="I89" s="3">
-        <v>2145800</v>
+        <v>779500</v>
       </c>
       <c r="J89" s="3">
+        <v>2041500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2633500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-266500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3767200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2795400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3150400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1289500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3510800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2271700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2459500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>723600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2545800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3041700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2595200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>987200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3212700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5927,79 +6149,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1243600</v>
+        <v>-362200</v>
       </c>
       <c r="E91" s="3">
-        <v>-708000</v>
+        <v>-1183200</v>
       </c>
       <c r="F91" s="3">
-        <v>-537800</v>
+        <v>-673600</v>
       </c>
       <c r="G91" s="3">
-        <v>-358900</v>
+        <v>-511700</v>
       </c>
       <c r="H91" s="3">
-        <v>-974200</v>
+        <v>-341500</v>
       </c>
       <c r="I91" s="3">
-        <v>-598900</v>
+        <v>-926800</v>
       </c>
       <c r="J91" s="3">
+        <v>-569800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-638200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-441500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-893000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-472500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-729900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-504000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-383200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-624900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-534100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-487100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>748900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6069,8 +6295,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6140,79 +6369,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1077800</v>
+        <v>770100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2780700</v>
+        <v>-1025400</v>
       </c>
       <c r="F94" s="3">
-        <v>487600</v>
+        <v>-2645600</v>
       </c>
       <c r="G94" s="3">
-        <v>4303600</v>
+        <v>463900</v>
       </c>
       <c r="H94" s="3">
-        <v>-211600</v>
+        <v>4094500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3120000</v>
+        <v>-201400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2968400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-459300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-675200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>40900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-292800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-549400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>92100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-675400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7090900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1917500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>194100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6238,19 +6473,20 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-26200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4400</v>
+        <v>-24900</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6259,58 +6495,61 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-18500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3001100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-4900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6380,8 +6619,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6451,8 +6693,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6522,217 +6767,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1961500</v>
+        <v>1115700</v>
       </c>
       <c r="E100" s="3">
-        <v>701500</v>
+        <v>-1866100</v>
       </c>
       <c r="F100" s="3">
-        <v>-5021500</v>
+        <v>667400</v>
       </c>
       <c r="G100" s="3">
-        <v>123300</v>
+        <v>-4777500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1477100</v>
+        <v>117300</v>
       </c>
       <c r="I100" s="3">
-        <v>3127600</v>
+        <v>-1405300</v>
       </c>
       <c r="J100" s="3">
+        <v>2975700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1228400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>40600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>39249100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-637900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-41500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-616000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>717200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3413400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>137000</v>
       </c>
       <c r="E101" s="3">
-        <v>-28400</v>
+        <v>-3100</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>-27000</v>
       </c>
       <c r="G101" s="3">
-        <v>72000</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
-        <v>-86200</v>
+        <v>68500</v>
       </c>
       <c r="I101" s="3">
-        <v>-67600</v>
+        <v>-82000</v>
       </c>
       <c r="J101" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-76800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-18700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-59800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-424900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-129600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-51600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-72900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-41500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>10600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>270500</v>
+        <v>1272500</v>
       </c>
       <c r="E102" s="3">
-        <v>1011300</v>
+        <v>257400</v>
       </c>
       <c r="F102" s="3">
-        <v>-2357500</v>
+        <v>962100</v>
       </c>
       <c r="G102" s="3">
-        <v>1482500</v>
+        <v>-2242900</v>
       </c>
       <c r="H102" s="3">
-        <v>-955600</v>
+        <v>1410500</v>
       </c>
       <c r="I102" s="3">
-        <v>2085800</v>
+        <v>-909200</v>
       </c>
       <c r="J102" s="3">
+        <v>1984500</v>
+      </c>
+      <c r="K102" s="3">
         <v>912000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-977800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1260500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-789400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-942800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-179400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-357900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2273200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3121400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>616000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>381500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>782900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>BAYRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,322 +665,334 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15193800</v>
+        <v>12785700</v>
       </c>
       <c r="E8" s="3">
-        <v>11539400</v>
+        <v>14600900</v>
       </c>
       <c r="F8" s="3">
-        <v>10151700</v>
+        <v>11089100</v>
       </c>
       <c r="G8" s="3">
-        <v>11265400</v>
+        <v>9755600</v>
       </c>
       <c r="H8" s="3">
-        <v>12795200</v>
+        <v>10825800</v>
       </c>
       <c r="I8" s="3">
-        <v>10373800</v>
+        <v>12295900</v>
       </c>
       <c r="J8" s="3">
+        <v>9969000</v>
+      </c>
+      <c r="K8" s="3">
         <v>8828400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10968000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14503300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12549700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12041700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>27016000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14655800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12248900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10257500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10410100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10033500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>9644600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9004000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9777000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11362500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10356500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5372200</v>
+        <v>5665200</v>
       </c>
       <c r="E9" s="3">
-        <v>3824700</v>
+        <v>5162500</v>
       </c>
       <c r="F9" s="3">
-        <v>4034300</v>
+        <v>3675400</v>
       </c>
       <c r="G9" s="3">
-        <v>4718300</v>
+        <v>3876900</v>
       </c>
       <c r="H9" s="3">
-        <v>4876100</v>
+        <v>4534200</v>
       </c>
       <c r="I9" s="3">
-        <v>3808100</v>
+        <v>4685800</v>
       </c>
       <c r="J9" s="3">
+        <v>3659500</v>
+      </c>
+      <c r="K9" s="3">
         <v>7052500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4383300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5257100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5743700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4634100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10481700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5821900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6676300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4542300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3850700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3194100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3418700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2877900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3122500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3506200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3695200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9821600</v>
+        <v>7120400</v>
       </c>
       <c r="E10" s="3">
-        <v>7714700</v>
+        <v>9438400</v>
       </c>
       <c r="F10" s="3">
-        <v>6117400</v>
+        <v>7413700</v>
       </c>
       <c r="G10" s="3">
-        <v>6547100</v>
+        <v>5878700</v>
       </c>
       <c r="H10" s="3">
-        <v>7919200</v>
+        <v>6291600</v>
       </c>
       <c r="I10" s="3">
-        <v>6565800</v>
+        <v>7610200</v>
       </c>
       <c r="J10" s="3">
+        <v>6309600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1775800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6584700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9246200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6806000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7407500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>16534300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8833900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5572600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5715200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6559500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6839400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6225900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6126100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6654500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>7856300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6661400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,82 +1019,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1509100</v>
+        <v>1923000</v>
       </c>
       <c r="E12" s="3">
-        <v>1050400</v>
+        <v>1450200</v>
       </c>
       <c r="F12" s="3">
-        <v>1623300</v>
+        <v>1009400</v>
       </c>
       <c r="G12" s="3">
-        <v>1700100</v>
+        <v>1559900</v>
       </c>
       <c r="H12" s="3">
-        <v>1243400</v>
+        <v>1633700</v>
       </c>
       <c r="I12" s="3">
-        <v>1339900</v>
+        <v>1194900</v>
       </c>
       <c r="J12" s="3">
+        <v>1287600</v>
+      </c>
+      <c r="K12" s="3">
         <v>3493600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1273100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1470100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1633200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1569200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3083300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1575400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2008600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1292600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1391200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1141900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1384500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1210600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1230800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1284100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1461400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1155,8 +1171,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1229,8 +1248,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1303,8 +1325,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1328,156 +1353,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>10822200</v>
+        <v>12617100</v>
       </c>
       <c r="E17" s="3">
-        <v>9441800</v>
+        <v>10399900</v>
       </c>
       <c r="F17" s="3">
-        <v>9601600</v>
+        <v>9073300</v>
       </c>
       <c r="G17" s="3">
-        <v>13632800</v>
+        <v>9226900</v>
       </c>
       <c r="H17" s="3">
-        <v>9595400</v>
+        <v>13100800</v>
       </c>
       <c r="I17" s="3">
-        <v>8801400</v>
+        <v>9221000</v>
       </c>
       <c r="J17" s="3">
+        <v>8458000</v>
+      </c>
+      <c r="K17" s="3">
         <v>18583600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22732400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11681700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12095500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10561900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23998600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12526600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17224200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5469300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8932200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7497100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8943400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7446600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8135500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8513600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9668700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4371600</v>
+        <v>168600</v>
       </c>
       <c r="E18" s="3">
-        <v>2097600</v>
+        <v>4201000</v>
       </c>
       <c r="F18" s="3">
-        <v>550100</v>
+        <v>2015700</v>
       </c>
       <c r="G18" s="3">
-        <v>-2367400</v>
+        <v>528600</v>
       </c>
       <c r="H18" s="3">
-        <v>3199800</v>
+        <v>-2275100</v>
       </c>
       <c r="I18" s="3">
-        <v>1572400</v>
+        <v>3075000</v>
       </c>
       <c r="J18" s="3">
+        <v>1511100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9755200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11764400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2821600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>454100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1479800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3017500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2129200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4788200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1477900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2536400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>701200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1557300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1641500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2848800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>687900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1504,156 +1536,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-508600</v>
+        <v>-690200</v>
       </c>
       <c r="E20" s="3">
-        <v>-543900</v>
+        <v>-488700</v>
       </c>
       <c r="F20" s="3">
-        <v>-348700</v>
+        <v>-522600</v>
       </c>
       <c r="G20" s="3">
-        <v>-102800</v>
+        <v>-335100</v>
       </c>
       <c r="H20" s="3">
-        <v>-361200</v>
+        <v>-98700</v>
       </c>
       <c r="I20" s="3">
-        <v>-147400</v>
+        <v>-347100</v>
       </c>
       <c r="J20" s="3">
+        <v>-141600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-11400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-301100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-736200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-441300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-219300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-884700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-356500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-851700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-752100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-354700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>142700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-289500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-452200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-414000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-347400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-262900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4984000</v>
+        <v>1953900</v>
       </c>
       <c r="E21" s="3">
-        <v>1252700</v>
+        <v>4789500</v>
       </c>
       <c r="F21" s="3">
-        <v>1104300</v>
+        <v>1203900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1027500</v>
+        <v>1061200</v>
       </c>
       <c r="H21" s="3">
-        <v>3965800</v>
+        <v>-987400</v>
       </c>
       <c r="I21" s="3">
-        <v>1953300</v>
+        <v>3811100</v>
       </c>
       <c r="J21" s="3">
+        <v>1877100</v>
+      </c>
+      <c r="K21" s="3">
         <v>916500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10778200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3527300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1887700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2499000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5365600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3193900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-914400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5027400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1875400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3236900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1348600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1757000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1804200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3358300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2344100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1726,156 +1765,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3863100</v>
+        <v>-521600</v>
       </c>
       <c r="E23" s="3">
-        <v>1553700</v>
+        <v>3712300</v>
       </c>
       <c r="F23" s="3">
-        <v>201400</v>
+        <v>1493100</v>
       </c>
       <c r="G23" s="3">
-        <v>-2470200</v>
+        <v>193500</v>
       </c>
       <c r="H23" s="3">
-        <v>2838700</v>
+        <v>-2373800</v>
       </c>
       <c r="I23" s="3">
-        <v>1425000</v>
+        <v>2727900</v>
       </c>
       <c r="J23" s="3">
+        <v>1369400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-9766600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12065500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2085400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1260500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2132800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1772800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4036100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1123300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2679100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>411800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1105200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1227500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2501400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>424900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>444200</v>
+        <v>-233400</v>
       </c>
       <c r="E24" s="3">
-        <v>339400</v>
+        <v>426900</v>
       </c>
       <c r="F24" s="3">
-        <v>107900</v>
+        <v>326100</v>
       </c>
       <c r="G24" s="3">
-        <v>-54000</v>
+        <v>103700</v>
       </c>
       <c r="H24" s="3">
-        <v>669400</v>
+        <v>-51900</v>
       </c>
       <c r="I24" s="3">
-        <v>1024400</v>
+        <v>643300</v>
       </c>
       <c r="J24" s="3">
+        <v>984400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1769600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1581800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>540800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>434100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>428200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>918200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>236100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>542400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>488100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>237900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>289500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>497700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>74000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1948,156 +1996,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>3418800</v>
+        <v>-288200</v>
       </c>
       <c r="E26" s="3">
-        <v>1214300</v>
+        <v>3285400</v>
       </c>
       <c r="F26" s="3">
-        <v>93400</v>
+        <v>1167000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2416200</v>
+        <v>89800</v>
       </c>
       <c r="H26" s="3">
-        <v>2169200</v>
+        <v>-2321900</v>
       </c>
       <c r="I26" s="3">
-        <v>400600</v>
+        <v>2084600</v>
       </c>
       <c r="J26" s="3">
+        <v>385000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7997000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10483600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1544600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-37400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1222500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1698700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1344500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3117900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>887200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2136700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-76300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>867300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>938000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2003700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>351000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3415700</v>
+        <v>-297200</v>
       </c>
       <c r="E27" s="3">
-        <v>1205000</v>
+        <v>3282400</v>
       </c>
       <c r="F27" s="3">
-        <v>88200</v>
+        <v>1158000</v>
       </c>
       <c r="G27" s="3">
-        <v>-2423500</v>
+        <v>84800</v>
       </c>
       <c r="H27" s="3">
-        <v>2168200</v>
+        <v>-2328900</v>
       </c>
       <c r="I27" s="3">
-        <v>397500</v>
+        <v>2083600</v>
       </c>
       <c r="J27" s="3">
+        <v>382000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7993900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10493500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1545700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-50200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1212700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1698700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1350500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3109000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>880600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2136700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-78500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>870700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>935700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1783000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>346300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2170,16 +2227,19 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2191,61 +2251,64 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-77800</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="K29" s="3">
         <v>5145900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>77500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>135500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1700900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>56300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>231800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>134000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>47300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>70900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-8800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>8800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>244600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3483800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>437600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>662000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>185500</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2318,8 +2381,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2392,156 +2458,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>508600</v>
+        <v>690200</v>
       </c>
       <c r="E32" s="3">
-        <v>543900</v>
+        <v>488700</v>
       </c>
       <c r="F32" s="3">
-        <v>348700</v>
+        <v>522600</v>
       </c>
       <c r="G32" s="3">
-        <v>102800</v>
+        <v>335100</v>
       </c>
       <c r="H32" s="3">
-        <v>361200</v>
+        <v>98700</v>
       </c>
       <c r="I32" s="3">
-        <v>147400</v>
+        <v>347100</v>
       </c>
       <c r="J32" s="3">
+        <v>141600</v>
+      </c>
+      <c r="K32" s="3">
         <v>11400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>301100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>736200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>441300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>219300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>884700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>356500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>851700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>752100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>354700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-142700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>289500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>452200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>414000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>347400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>262900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3415700</v>
+        <v>-297200</v>
       </c>
       <c r="E33" s="3">
-        <v>1205000</v>
+        <v>3282400</v>
       </c>
       <c r="F33" s="3">
-        <v>88200</v>
+        <v>1158000</v>
       </c>
       <c r="G33" s="3">
-        <v>-2423500</v>
+        <v>84800</v>
       </c>
       <c r="H33" s="3">
-        <v>2168200</v>
+        <v>-2328900</v>
       </c>
       <c r="I33" s="3">
-        <v>319700</v>
+        <v>2083600</v>
       </c>
       <c r="J33" s="3">
+        <v>307200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2848000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10416000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1681200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1650700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1269100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1930500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1484500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3179900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>871800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2145500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>166100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>4354400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1373300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2445000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>531700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2614,161 +2689,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3415700</v>
+        <v>-297200</v>
       </c>
       <c r="E35" s="3">
-        <v>1205000</v>
+        <v>3282400</v>
       </c>
       <c r="F35" s="3">
-        <v>88200</v>
+        <v>1158000</v>
       </c>
       <c r="G35" s="3">
-        <v>-2423500</v>
+        <v>84800</v>
       </c>
       <c r="H35" s="3">
-        <v>2168200</v>
+        <v>-2328900</v>
       </c>
       <c r="I35" s="3">
-        <v>319700</v>
+        <v>2083600</v>
       </c>
       <c r="J35" s="3">
+        <v>307200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2848000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10416000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1681200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1650700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1269100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1930500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1484500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3179900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>871800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2145500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>166100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>4354400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1373300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2445000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>531700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2795,8 +2879,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2823,674 +2908,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>6004300</v>
+        <v>3403100</v>
       </c>
       <c r="E41" s="3">
-        <v>4737000</v>
+        <v>5770000</v>
       </c>
       <c r="F41" s="3">
-        <v>4479600</v>
+        <v>4552100</v>
       </c>
       <c r="G41" s="3">
-        <v>3517400</v>
+        <v>4304800</v>
       </c>
       <c r="H41" s="3">
-        <v>5760300</v>
+        <v>3380200</v>
       </c>
       <c r="I41" s="3">
-        <v>4349800</v>
+        <v>5535600</v>
       </c>
       <c r="J41" s="3">
+        <v>4180100</v>
+      </c>
+      <c r="K41" s="3">
         <v>5259000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3434200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2584500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3718200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5402200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3932700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4859000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4793100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5371900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5469100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5854500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8505800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6232700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3111300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2610600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2229100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2500300</v>
+        <v>4769600</v>
       </c>
       <c r="E42" s="3">
-        <v>3468700</v>
+        <v>2402700</v>
       </c>
       <c r="F42" s="3">
-        <v>4050900</v>
+        <v>3333300</v>
       </c>
       <c r="G42" s="3">
-        <v>3226800</v>
+        <v>3892900</v>
       </c>
       <c r="H42" s="3">
-        <v>3904600</v>
+        <v>3100900</v>
       </c>
       <c r="I42" s="3">
-        <v>8240900</v>
+        <v>3752200</v>
       </c>
       <c r="J42" s="3">
+        <v>7919400</v>
+      </c>
+      <c r="K42" s="3">
         <v>10869900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2792700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3118600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2715400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1401400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1022300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1019200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1379300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1773300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1709600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8031900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3959500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>6806000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8115400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7819900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7365700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18499500</v>
+        <v>18337200</v>
       </c>
       <c r="E43" s="3">
-        <v>13785400</v>
+        <v>17777700</v>
       </c>
       <c r="F43" s="3">
-        <v>13546700</v>
+        <v>13247500</v>
       </c>
       <c r="G43" s="3">
-        <v>16394700</v>
+        <v>13018100</v>
       </c>
       <c r="H43" s="3">
-        <v>16513000</v>
+        <v>15770900</v>
       </c>
       <c r="I43" s="3">
-        <v>12942600</v>
+        <v>15868600</v>
       </c>
       <c r="J43" s="3">
+        <v>12437600</v>
+      </c>
+      <c r="K43" s="3">
         <v>13808200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17152400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18828900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17675800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17387500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19478800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20154800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17129600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>15883000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18145500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>12064800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11592400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11857200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15914300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>18548500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>16263100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11280900</v>
+        <v>11341400</v>
       </c>
       <c r="E44" s="3">
-        <v>11742800</v>
+        <v>10840700</v>
       </c>
       <c r="F44" s="3">
-        <v>11047400</v>
+        <v>11284600</v>
       </c>
       <c r="G44" s="3">
-        <v>10508700</v>
+        <v>10616300</v>
       </c>
       <c r="H44" s="3">
-        <v>10853300</v>
+        <v>10098700</v>
       </c>
       <c r="I44" s="3">
-        <v>11376400</v>
+        <v>10429800</v>
       </c>
       <c r="J44" s="3">
+        <v>10932500</v>
+      </c>
+      <c r="K44" s="3">
         <v>10848100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11048700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11297800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>12432900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12733800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12082800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12574500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13168000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12230100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12023100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7029400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7349000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7558800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>9490900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>10181600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>9869400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1410500</v>
+        <v>1595800</v>
       </c>
       <c r="E45" s="3">
-        <v>78900</v>
+        <v>1355500</v>
       </c>
       <c r="F45" s="3">
-        <v>31100</v>
+        <v>75800</v>
       </c>
       <c r="G45" s="3">
-        <v>33200</v>
+        <v>29900</v>
       </c>
       <c r="H45" s="3">
-        <v>140100</v>
+        <v>31900</v>
       </c>
       <c r="I45" s="3">
-        <v>117300</v>
+        <v>134600</v>
       </c>
       <c r="J45" s="3">
+        <v>112700</v>
+      </c>
+      <c r="K45" s="3">
         <v>44600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1427200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1327300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3981200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1892800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>277500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>276800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>260300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4083500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3438900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2334900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2046500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>32900</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>11700</v>
       </c>
       <c r="Z45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>39695500</v>
+        <v>39447200</v>
       </c>
       <c r="E46" s="3">
-        <v>33812700</v>
+        <v>38146600</v>
       </c>
       <c r="F46" s="3">
-        <v>33155700</v>
+        <v>32493300</v>
       </c>
       <c r="G46" s="3">
-        <v>33680900</v>
+        <v>31861900</v>
       </c>
       <c r="H46" s="3">
-        <v>37171400</v>
+        <v>32382600</v>
       </c>
       <c r="I46" s="3">
-        <v>37027100</v>
+        <v>35720900</v>
       </c>
       <c r="J46" s="3">
+        <v>35582200</v>
+      </c>
+      <c r="K46" s="3">
         <v>40829900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35728400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37256900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37869600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40906100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38409500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38884900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36746800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>35518500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>41430800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36419600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>33741600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>34501200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>36635200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>39193500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>35739000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4151600</v>
+        <v>3936700</v>
       </c>
       <c r="E47" s="3">
-        <v>4183800</v>
+        <v>3989600</v>
       </c>
       <c r="F47" s="3">
-        <v>3703200</v>
+        <v>4020500</v>
       </c>
       <c r="G47" s="3">
-        <v>3528900</v>
+        <v>3558700</v>
       </c>
       <c r="H47" s="3">
-        <v>3415700</v>
+        <v>3391200</v>
       </c>
       <c r="I47" s="3">
-        <v>2990200</v>
+        <v>3282400</v>
       </c>
       <c r="J47" s="3">
+        <v>2873500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3109500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3018500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3108400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3279300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4450400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4032700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4044400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3848000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4316300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4441400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5320900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6777900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6690400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2778000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2882900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2873500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>13270600</v>
+        <v>13240500</v>
       </c>
       <c r="E48" s="3">
-        <v>13168900</v>
+        <v>12752800</v>
       </c>
       <c r="F48" s="3">
-        <v>12492200</v>
+        <v>12655000</v>
       </c>
       <c r="G48" s="3">
-        <v>12278400</v>
+        <v>12004700</v>
       </c>
       <c r="H48" s="3">
-        <v>12271100</v>
+        <v>11812200</v>
       </c>
       <c r="I48" s="3">
-        <v>12167300</v>
+        <v>11792300</v>
       </c>
       <c r="J48" s="3">
+        <v>11692500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11937900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12927300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13665500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14568100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16013100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16103700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16666700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15310300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14609200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14381600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8048300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8564100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8308300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14217900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15359300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15393300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>68350900</v>
+        <v>66775900</v>
       </c>
       <c r="E49" s="3">
-        <v>68879200</v>
+        <v>65683800</v>
       </c>
       <c r="F49" s="3">
-        <v>66831400</v>
+        <v>66191500</v>
       </c>
       <c r="G49" s="3">
-        <v>64633100</v>
+        <v>64223600</v>
       </c>
       <c r="H49" s="3">
-        <v>65780000</v>
+        <v>61838800</v>
       </c>
       <c r="I49" s="3">
-        <v>64185800</v>
+        <v>63213200</v>
       </c>
       <c r="J49" s="3">
+        <v>61681200</v>
+      </c>
+      <c r="K49" s="3">
         <v>62871800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>78750600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>83442700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>86195700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>92670500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>86197200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>90551100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>88880700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>85576500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>85283900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28180200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29648600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30135500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>31985700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>34811700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>35072300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3563,8 +3676,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3637,82 +3753,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5080500</v>
+        <v>5058800</v>
       </c>
       <c r="E52" s="3">
-        <v>4753600</v>
+        <v>4882300</v>
       </c>
       <c r="F52" s="3">
-        <v>4783700</v>
+        <v>4568100</v>
       </c>
       <c r="G52" s="3">
-        <v>4642500</v>
+        <v>4597000</v>
       </c>
       <c r="H52" s="3">
-        <v>4382000</v>
+        <v>4458400</v>
       </c>
       <c r="I52" s="3">
-        <v>4860500</v>
+        <v>4211000</v>
       </c>
       <c r="J52" s="3">
+        <v>4670800</v>
+      </c>
+      <c r="K52" s="3">
         <v>5300600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4484700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4199100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5384100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6040400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6190200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5782400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5125500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4535600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5569100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4813600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5514600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6432400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7104400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7589900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7453700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3785,82 +3907,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>130549100</v>
+        <v>128459100</v>
       </c>
       <c r="E54" s="3">
-        <v>124798100</v>
+        <v>125455000</v>
       </c>
       <c r="F54" s="3">
-        <v>120966200</v>
+        <v>119928400</v>
       </c>
       <c r="G54" s="3">
-        <v>118763800</v>
+        <v>116246000</v>
       </c>
       <c r="H54" s="3">
-        <v>123020200</v>
+        <v>113883100</v>
       </c>
       <c r="I54" s="3">
-        <v>121230900</v>
+        <v>118219800</v>
       </c>
       <c r="J54" s="3">
+        <v>116500300</v>
+      </c>
+      <c r="K54" s="3">
         <v>124049800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134909600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>141672700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>147296800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>160080500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>150933300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>155929500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>149911300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>144556200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>151106800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>82782600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>84246900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>86067900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>92721300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>99837200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>96531800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3887,8 +4015,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3915,452 +4044,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6068600</v>
+        <v>6081100</v>
       </c>
       <c r="E57" s="3">
-        <v>7049400</v>
+        <v>5831800</v>
       </c>
       <c r="F57" s="3">
-        <v>5798700</v>
+        <v>6774300</v>
       </c>
       <c r="G57" s="3">
-        <v>5312000</v>
+        <v>5572500</v>
       </c>
       <c r="H57" s="3">
-        <v>5381500</v>
+        <v>5099700</v>
       </c>
       <c r="I57" s="3">
-        <v>5893200</v>
+        <v>5171500</v>
       </c>
       <c r="J57" s="3">
+        <v>5663200</v>
+      </c>
+      <c r="K57" s="3">
         <v>5668000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5561500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6019200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7501800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6978800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6333700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6835100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7142400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6154900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5456000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4329400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5754700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4407200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5846700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>6679000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7524100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6122600</v>
+        <v>6555900</v>
       </c>
       <c r="E58" s="3">
-        <v>4557400</v>
+        <v>5883700</v>
       </c>
       <c r="F58" s="3">
-        <v>4973600</v>
+        <v>4379600</v>
       </c>
       <c r="G58" s="3">
-        <v>3848500</v>
+        <v>4779500</v>
       </c>
       <c r="H58" s="3">
-        <v>5133500</v>
+        <v>3697400</v>
       </c>
       <c r="I58" s="3">
-        <v>8893800</v>
+        <v>4933100</v>
       </c>
       <c r="J58" s="3">
+        <v>8546700</v>
+      </c>
+      <c r="K58" s="3">
         <v>8573100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8042200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3613100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2547300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7378100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7853600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5007300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4355400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3867700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>10470500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1933600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2171100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3973000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5651500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4928800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3992100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20003400</v>
+        <v>20918500</v>
       </c>
       <c r="E59" s="3">
-        <v>18910500</v>
+        <v>19222900</v>
       </c>
       <c r="F59" s="3">
-        <v>19043400</v>
+        <v>18172600</v>
       </c>
       <c r="G59" s="3">
-        <v>19823900</v>
+        <v>18300300</v>
       </c>
       <c r="H59" s="3">
-        <v>19560300</v>
+        <v>19099200</v>
       </c>
       <c r="I59" s="3">
-        <v>23374500</v>
+        <v>18797000</v>
       </c>
       <c r="J59" s="3">
+        <v>22462400</v>
+      </c>
+      <c r="K59" s="3">
         <v>22905400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26261500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15569200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17052400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17562700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15766100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16841300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15856800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12639900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13753500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8118600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7325500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8352100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9550400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11366000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10242700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>32194600</v>
+        <v>33555500</v>
       </c>
       <c r="E60" s="3">
-        <v>30517400</v>
+        <v>30938400</v>
       </c>
       <c r="F60" s="3">
-        <v>29815800</v>
+        <v>29326600</v>
       </c>
       <c r="G60" s="3">
-        <v>28984400</v>
+        <v>28652300</v>
       </c>
       <c r="H60" s="3">
-        <v>30075200</v>
+        <v>27896300</v>
       </c>
       <c r="I60" s="3">
-        <v>38161500</v>
+        <v>28901700</v>
       </c>
       <c r="J60" s="3">
+        <v>36672400</v>
+      </c>
+      <c r="K60" s="3">
         <v>37146400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39865100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>25201500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27101400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>31919600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>29953500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>28683700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27354600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22662600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>29680000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14381600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15251200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16732200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>21048500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>22973800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21758900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>38037000</v>
+        <v>37962000</v>
       </c>
       <c r="E61" s="3">
-        <v>37863600</v>
+        <v>36552700</v>
       </c>
       <c r="F61" s="3">
-        <v>38375300</v>
+        <v>36386100</v>
       </c>
       <c r="G61" s="3">
-        <v>38053600</v>
+        <v>36877900</v>
       </c>
       <c r="H61" s="3">
-        <v>39360300</v>
+        <v>36573700</v>
       </c>
       <c r="I61" s="3">
-        <v>34459300</v>
+        <v>37824400</v>
       </c>
       <c r="J61" s="3">
+        <v>33114700</v>
+      </c>
+      <c r="K61" s="3">
         <v>36523700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37033100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41564400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>43091400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>46258100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43117400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45397000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>44609500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44700500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>46767100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>13475800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14005800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14110100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>15896400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17358300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>18992200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>21285300</v>
+        <v>18836900</v>
       </c>
       <c r="E62" s="3">
-        <v>21992100</v>
+        <v>20454700</v>
       </c>
       <c r="F62" s="3">
-        <v>20316900</v>
+        <v>21133900</v>
       </c>
       <c r="G62" s="3">
-        <v>19988900</v>
+        <v>19524100</v>
       </c>
       <c r="H62" s="3">
-        <v>17517700</v>
+        <v>18937600</v>
       </c>
       <c r="I62" s="3">
-        <v>16772500</v>
+        <v>16834100</v>
       </c>
       <c r="J62" s="3">
+        <v>16118000</v>
+      </c>
+      <c r="K62" s="3">
         <v>17709700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18884700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19828100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>21730200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25476100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25085600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24434800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23358700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21373400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22817500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12779600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13632200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13426900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15964800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17415800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>18339600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4433,8 +4581,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4507,8 +4658,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4581,82 +4735,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>91693300</v>
+        <v>90539000</v>
       </c>
       <c r="E66" s="3">
-        <v>90526700</v>
+        <v>88115300</v>
       </c>
       <c r="F66" s="3">
-        <v>88684400</v>
+        <v>86994200</v>
       </c>
       <c r="G66" s="3">
-        <v>87223000</v>
+        <v>85223800</v>
       </c>
       <c r="H66" s="3">
-        <v>87120300</v>
+        <v>83573100</v>
       </c>
       <c r="I66" s="3">
-        <v>89551000</v>
+        <v>83720800</v>
       </c>
       <c r="J66" s="3">
+        <v>86056700</v>
+      </c>
+      <c r="K66" s="3">
         <v>91535500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>95959700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86788300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>92133200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>103876700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>98357600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>98720000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>95525100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>88927000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>99344800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40698500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>42956500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>44334300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>56088300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>60377300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>60926600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4683,8 +4843,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4757,8 +4918,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4831,8 +4995,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4905,8 +5072,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4979,82 +5149,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>17292500</v>
+        <v>17198200</v>
       </c>
       <c r="E72" s="3">
-        <v>12708000</v>
+        <v>16617700</v>
       </c>
       <c r="F72" s="3">
-        <v>10718400</v>
+        <v>12212200</v>
       </c>
       <c r="G72" s="3">
-        <v>9977300</v>
+        <v>10300100</v>
       </c>
       <c r="H72" s="3">
-        <v>14336500</v>
+        <v>9588000</v>
       </c>
       <c r="I72" s="3">
-        <v>10116400</v>
+        <v>13777100</v>
       </c>
       <c r="J72" s="3">
+        <v>9721700</v>
+      </c>
+      <c r="K72" s="3">
         <v>10950900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16285100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31426200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30909500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30754600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28136000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>32358400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29811400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32618800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28951000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>29155200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28078900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28522100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>23421500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>36975000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>33120200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5127,8 +5303,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5201,8 +5380,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5275,82 +5457,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>38855900</v>
+        <v>37920200</v>
       </c>
       <c r="E76" s="3">
-        <v>34271500</v>
+        <v>37339700</v>
       </c>
       <c r="F76" s="3">
-        <v>32281800</v>
+        <v>32934100</v>
       </c>
       <c r="G76" s="3">
-        <v>31540700</v>
+        <v>31022100</v>
       </c>
       <c r="H76" s="3">
-        <v>35899900</v>
+        <v>30310000</v>
       </c>
       <c r="I76" s="3">
-        <v>31679800</v>
+        <v>34499100</v>
       </c>
       <c r="J76" s="3">
+        <v>30443600</v>
+      </c>
+      <c r="K76" s="3">
         <v>32514300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38949900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>54884400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>55163600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56203800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52575700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>57209500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54386200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55629200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>51761900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42084100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41290400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41733500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36633000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>39460000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>35605200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5423,161 +5611,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3415700</v>
+        <v>-297200</v>
       </c>
       <c r="E81" s="3">
-        <v>1205000</v>
+        <v>3282400</v>
       </c>
       <c r="F81" s="3">
-        <v>88200</v>
+        <v>1158000</v>
       </c>
       <c r="G81" s="3">
-        <v>-2423500</v>
+        <v>84800</v>
       </c>
       <c r="H81" s="3">
-        <v>2168200</v>
+        <v>-2328900</v>
       </c>
       <c r="I81" s="3">
-        <v>319700</v>
+        <v>2083600</v>
       </c>
       <c r="J81" s="3">
+        <v>307200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2848000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10416000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1681200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1650700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1269100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1930500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1484500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3179900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>871800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2145500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>166100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>4354400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1373300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2445000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>531700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5604,82 +5801,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1120900</v>
+        <v>2475500</v>
       </c>
       <c r="E83" s="3">
-        <v>-301000</v>
+        <v>1077200</v>
       </c>
       <c r="F83" s="3">
-        <v>903000</v>
+        <v>-289200</v>
       </c>
       <c r="G83" s="3">
-        <v>1442700</v>
+        <v>867700</v>
       </c>
       <c r="H83" s="3">
-        <v>1127200</v>
+        <v>1386400</v>
       </c>
       <c r="I83" s="3">
-        <v>528300</v>
+        <v>1083200</v>
       </c>
       <c r="J83" s="3">
+        <v>507700</v>
+      </c>
+      <c r="K83" s="3">
         <v>10683100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1287300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1441900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1874900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1238500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3232700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1421100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5043900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>991300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>752100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>557800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>936900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>295100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>933500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>856900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1320500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5752,8 +5953,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5826,8 +6030,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5900,8 +6107,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5974,8 +6184,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6048,82 +6261,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-750400</v>
+        <v>2098500</v>
       </c>
       <c r="E89" s="3">
-        <v>3152100</v>
+        <v>-721100</v>
       </c>
       <c r="F89" s="3">
-        <v>2967400</v>
+        <v>3029100</v>
       </c>
       <c r="G89" s="3">
-        <v>2072700</v>
+        <v>2851600</v>
       </c>
       <c r="H89" s="3">
-        <v>-2869800</v>
+        <v>1991800</v>
       </c>
       <c r="I89" s="3">
-        <v>779500</v>
+        <v>-2757800</v>
       </c>
       <c r="J89" s="3">
+        <v>749000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2041500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2633500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-266500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3767200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2795400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3150400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1289500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3510800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2271700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2459500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>723600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2545800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3041700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2595200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>987200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3212700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6150,82 +6369,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-362200</v>
+        <v>-548600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1183200</v>
+        <v>-348100</v>
       </c>
       <c r="F91" s="3">
-        <v>-673600</v>
+        <v>-1137000</v>
       </c>
       <c r="G91" s="3">
-        <v>-511700</v>
+        <v>-647300</v>
       </c>
       <c r="H91" s="3">
-        <v>-341500</v>
+        <v>-491700</v>
       </c>
       <c r="I91" s="3">
-        <v>-926800</v>
+        <v>-328100</v>
       </c>
       <c r="J91" s="3">
+        <v>-890700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-569800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-638200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-441500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-893000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-472500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-729900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-504000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-383200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-624900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-534100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-487100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>748900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6298,8 +6521,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6372,82 +6598,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>770100</v>
+        <v>-2763800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1025400</v>
+        <v>740100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2645600</v>
+        <v>-985400</v>
       </c>
       <c r="G94" s="3">
-        <v>463900</v>
+        <v>-2542400</v>
       </c>
       <c r="H94" s="3">
-        <v>4094500</v>
+        <v>445800</v>
       </c>
       <c r="I94" s="3">
-        <v>-201400</v>
+        <v>3934700</v>
       </c>
       <c r="J94" s="3">
+        <v>-193500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2968400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-459300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-675200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>40900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-292800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-549400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>92100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-675400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7090900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1917500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>194100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6474,8 +6706,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,13 +6716,13 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-24900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-4200</v>
+        <v>-23900</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6498,58 +6731,61 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-17600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3001100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-4900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-3400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6622,8 +6858,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6696,8 +6935,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6770,226 +7012,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1115700</v>
+        <v>-1809300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1866100</v>
+        <v>1072200</v>
       </c>
       <c r="F100" s="3">
-        <v>667400</v>
+        <v>-1793300</v>
       </c>
       <c r="G100" s="3">
-        <v>-4777500</v>
+        <v>641300</v>
       </c>
       <c r="H100" s="3">
-        <v>117300</v>
+        <v>-4591000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1405300</v>
+        <v>112700</v>
       </c>
       <c r="J100" s="3">
+        <v>-1350500</v>
+      </c>
+      <c r="K100" s="3">
         <v>2975700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1228400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>40600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>39249100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-637900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-41500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-616000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>717200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3413400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>137000</v>
+        <v>105700</v>
       </c>
       <c r="E101" s="3">
-        <v>-3100</v>
+        <v>131700</v>
       </c>
       <c r="F101" s="3">
-        <v>-27000</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>-25900</v>
       </c>
       <c r="H101" s="3">
-        <v>68500</v>
+        <v>-2000</v>
       </c>
       <c r="I101" s="3">
-        <v>-82000</v>
+        <v>65800</v>
       </c>
       <c r="J101" s="3">
+        <v>-78800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-64300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-76800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-26000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-59800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-424900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-129600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-51600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-72900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-41500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>1272500</v>
+        <v>-2368800</v>
       </c>
       <c r="E102" s="3">
-        <v>257400</v>
+        <v>1222800</v>
       </c>
       <c r="F102" s="3">
-        <v>962100</v>
+        <v>247400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2242900</v>
+        <v>924600</v>
       </c>
       <c r="H102" s="3">
-        <v>1410500</v>
+        <v>-2155400</v>
       </c>
       <c r="I102" s="3">
-        <v>-909200</v>
+        <v>1355500</v>
       </c>
       <c r="J102" s="3">
+        <v>-873700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1984500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>912000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-977800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1260500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-789400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-942800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-179400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-357900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2273200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3121400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>616000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>381500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>782900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>BAYRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12785700</v>
+        <v>11515600</v>
       </c>
       <c r="E8" s="3">
-        <v>14600900</v>
+        <v>13085600</v>
       </c>
       <c r="F8" s="3">
-        <v>11089100</v>
+        <v>14943500</v>
       </c>
       <c r="G8" s="3">
-        <v>9755600</v>
+        <v>11349300</v>
       </c>
       <c r="H8" s="3">
-        <v>10825800</v>
+        <v>9984400</v>
       </c>
       <c r="I8" s="3">
-        <v>12295900</v>
+        <v>11079800</v>
       </c>
       <c r="J8" s="3">
+        <v>12584400</v>
+      </c>
+      <c r="K8" s="3">
         <v>9969000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8828400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10968000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14503300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12549700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12041700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>27016000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14655800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12248900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10257500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10410100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10033500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>9644600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9004000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9777000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11362500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>10356500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5665200</v>
+        <v>4335300</v>
       </c>
       <c r="E9" s="3">
-        <v>5162500</v>
+        <v>5798100</v>
       </c>
       <c r="F9" s="3">
-        <v>3675400</v>
+        <v>5283700</v>
       </c>
       <c r="G9" s="3">
-        <v>3876900</v>
+        <v>3761600</v>
       </c>
       <c r="H9" s="3">
-        <v>4534200</v>
+        <v>3967800</v>
       </c>
       <c r="I9" s="3">
-        <v>4685800</v>
+        <v>4640600</v>
       </c>
       <c r="J9" s="3">
+        <v>4795700</v>
+      </c>
+      <c r="K9" s="3">
         <v>3659500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7052500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4383300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5257100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5743700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4634100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>10481700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5821900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6676300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4542300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3850700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3194100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3418700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2877900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3122500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3506200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3695200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7120400</v>
+        <v>7180300</v>
       </c>
       <c r="E10" s="3">
-        <v>9438400</v>
+        <v>7287500</v>
       </c>
       <c r="F10" s="3">
-        <v>7413700</v>
+        <v>9659800</v>
       </c>
       <c r="G10" s="3">
-        <v>5878700</v>
+        <v>7587600</v>
       </c>
       <c r="H10" s="3">
-        <v>6291600</v>
+        <v>6016600</v>
       </c>
       <c r="I10" s="3">
-        <v>7610200</v>
+        <v>6439200</v>
       </c>
       <c r="J10" s="3">
+        <v>7788700</v>
+      </c>
+      <c r="K10" s="3">
         <v>6309600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1775800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6584700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9246200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6806000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7407500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>16534300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8833900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5572600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5715200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6559500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6839400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6225900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6126100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6654500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>7856300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6661400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,85 +1032,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1923000</v>
+        <v>1608800</v>
       </c>
       <c r="E12" s="3">
-        <v>1450200</v>
+        <v>1968100</v>
       </c>
       <c r="F12" s="3">
-        <v>1009400</v>
+        <v>1484200</v>
       </c>
       <c r="G12" s="3">
-        <v>1559900</v>
+        <v>1033000</v>
       </c>
       <c r="H12" s="3">
-        <v>1633700</v>
+        <v>1596500</v>
       </c>
       <c r="I12" s="3">
-        <v>1194900</v>
+        <v>1672100</v>
       </c>
       <c r="J12" s="3">
+        <v>1222900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1287600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3493600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1273100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1470100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1633200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1569200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3083300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1575400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2008600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1292600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1391200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1141900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1384500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1210600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1230800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1284100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1461400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1174,8 +1190,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1251,8 +1270,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1328,8 +1350,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1354,162 +1379,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3">
-        <v>12617100</v>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="3">
-        <v>10399900</v>
+        <v>12913100</v>
       </c>
       <c r="F17" s="3">
-        <v>9073300</v>
+        <v>10643900</v>
       </c>
       <c r="G17" s="3">
-        <v>9226900</v>
+        <v>9286200</v>
       </c>
       <c r="H17" s="3">
-        <v>13100800</v>
+        <v>9443400</v>
       </c>
       <c r="I17" s="3">
-        <v>9221000</v>
+        <v>13408200</v>
       </c>
       <c r="J17" s="3">
+        <v>9437300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8458000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18583600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22732400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11681700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12095500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10561900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23998600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12526600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17224200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5469300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8932200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7497100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8943400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7446600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8135500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8513600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9668700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
-        <v>168600</v>
+      <c r="D18" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E18" s="3">
-        <v>4201000</v>
+        <v>172500</v>
       </c>
       <c r="F18" s="3">
-        <v>2015700</v>
+        <v>4299600</v>
       </c>
       <c r="G18" s="3">
-        <v>528600</v>
+        <v>2063000</v>
       </c>
       <c r="H18" s="3">
-        <v>-2275100</v>
+        <v>541000</v>
       </c>
       <c r="I18" s="3">
-        <v>3075000</v>
+        <v>-2328400</v>
       </c>
       <c r="J18" s="3">
+        <v>3147100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1511100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9755200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-11764400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2821600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>454100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1479800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3017500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2129200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4788200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1477900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2536400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>701200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1557300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1641500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2848800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>687900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1537,162 +1569,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
-        <v>-690200</v>
+      <c r="D20" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E20" s="3">
-        <v>-488700</v>
+        <v>-706400</v>
       </c>
       <c r="F20" s="3">
-        <v>-522600</v>
+        <v>-500200</v>
       </c>
       <c r="G20" s="3">
-        <v>-335100</v>
+        <v>-534900</v>
       </c>
       <c r="H20" s="3">
-        <v>-98700</v>
+        <v>-343000</v>
       </c>
       <c r="I20" s="3">
-        <v>-347100</v>
+        <v>-101100</v>
       </c>
       <c r="J20" s="3">
+        <v>-355200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-141600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-301100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-736200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-441300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-219300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-884700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-356500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-851700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-752100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-354700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>142700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-289500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-452200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-414000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-347400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-262900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>1953900</v>
+      <c r="D21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="3">
-        <v>4789500</v>
+        <v>1999700</v>
       </c>
       <c r="F21" s="3">
-        <v>1203900</v>
+        <v>4901900</v>
       </c>
       <c r="G21" s="3">
-        <v>1061200</v>
+        <v>1232100</v>
       </c>
       <c r="H21" s="3">
-        <v>-987400</v>
+        <v>1086100</v>
       </c>
       <c r="I21" s="3">
-        <v>3811100</v>
+        <v>-1010600</v>
       </c>
       <c r="J21" s="3">
+        <v>3900500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1877100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>916500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10778200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3527300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1887700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2499000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5365600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3193900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-914400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5027400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1875400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3236900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1348600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1757000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1804200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3358300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2344100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1768,162 +1807,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-521600</v>
+        <v>613500</v>
       </c>
       <c r="E23" s="3">
-        <v>3712300</v>
+        <v>-533900</v>
       </c>
       <c r="F23" s="3">
-        <v>1493100</v>
+        <v>3799400</v>
       </c>
       <c r="G23" s="3">
-        <v>193500</v>
+        <v>1528100</v>
       </c>
       <c r="H23" s="3">
-        <v>-2373800</v>
+        <v>198000</v>
       </c>
       <c r="I23" s="3">
-        <v>2727900</v>
+        <v>-2429500</v>
       </c>
       <c r="J23" s="3">
+        <v>2791900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1369400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9766600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12065500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2085400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1260500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2132800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1772800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4036100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1123300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2679100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>411800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1105200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1227500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2501400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>424900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-233400</v>
+        <v>50000</v>
       </c>
       <c r="E24" s="3">
-        <v>426900</v>
+        <v>-238900</v>
       </c>
       <c r="F24" s="3">
-        <v>326100</v>
+        <v>436900</v>
       </c>
       <c r="G24" s="3">
-        <v>103700</v>
+        <v>333800</v>
       </c>
       <c r="H24" s="3">
-        <v>-51900</v>
+        <v>106200</v>
       </c>
       <c r="I24" s="3">
-        <v>643300</v>
+        <v>-53100</v>
       </c>
       <c r="J24" s="3">
+        <v>658400</v>
+      </c>
+      <c r="K24" s="3">
         <v>984400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1769600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1581800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>540800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>50200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>434100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>428200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>918200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>236100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>542400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>488100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>237900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>289500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>497700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>74000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1999,162 +2047,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-288200</v>
+        <v>563500</v>
       </c>
       <c r="E26" s="3">
-        <v>3285400</v>
+        <v>-295000</v>
       </c>
       <c r="F26" s="3">
-        <v>1167000</v>
+        <v>3362500</v>
       </c>
       <c r="G26" s="3">
-        <v>89800</v>
+        <v>1194300</v>
       </c>
       <c r="H26" s="3">
-        <v>-2321900</v>
+        <v>91900</v>
       </c>
       <c r="I26" s="3">
-        <v>2084600</v>
+        <v>-2376400</v>
       </c>
       <c r="J26" s="3">
+        <v>2133500</v>
+      </c>
+      <c r="K26" s="3">
         <v>385000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7997000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10483600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1544600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-37400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1222500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1698700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1344500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3117900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>887200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2136700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-76300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>867300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>938000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2003700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>351000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-297200</v>
+        <v>557400</v>
       </c>
       <c r="E27" s="3">
-        <v>3282400</v>
+        <v>-304200</v>
       </c>
       <c r="F27" s="3">
-        <v>1158000</v>
+        <v>3359500</v>
       </c>
       <c r="G27" s="3">
-        <v>84800</v>
+        <v>1185100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2328900</v>
+        <v>86800</v>
       </c>
       <c r="I27" s="3">
-        <v>2083600</v>
+        <v>-2383600</v>
       </c>
       <c r="J27" s="3">
+        <v>2132500</v>
+      </c>
+      <c r="K27" s="3">
         <v>382000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7993900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10493500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1545700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-50200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1212700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1698700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1350500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3109000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>880600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2136700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-78500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>870700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>935700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1783000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>346300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2230,8 +2287,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2241,8 +2301,8 @@
       <c r="E29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2254,61 +2314,64 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-74800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5145900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>77500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>135500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1700900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>56300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>231800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>134000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>47300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>70900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-8800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>8800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>244600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>3483800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>437600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>662000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>185500</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2447,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,162 +2527,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
-        <v>690200</v>
+      <c r="D32" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E32" s="3">
-        <v>488700</v>
+        <v>706400</v>
       </c>
       <c r="F32" s="3">
-        <v>522600</v>
+        <v>500200</v>
       </c>
       <c r="G32" s="3">
-        <v>335100</v>
+        <v>534900</v>
       </c>
       <c r="H32" s="3">
-        <v>98700</v>
+        <v>343000</v>
       </c>
       <c r="I32" s="3">
-        <v>347100</v>
+        <v>101100</v>
       </c>
       <c r="J32" s="3">
+        <v>355200</v>
+      </c>
+      <c r="K32" s="3">
         <v>141600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>301100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>736200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>441300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>219300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>884700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>356500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>851700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>752100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>354700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-142700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>289500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>452200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>414000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>347400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>262900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-297200</v>
+        <v>557400</v>
       </c>
       <c r="E33" s="3">
-        <v>3282400</v>
+        <v>-304200</v>
       </c>
       <c r="F33" s="3">
-        <v>1158000</v>
+        <v>3359500</v>
       </c>
       <c r="G33" s="3">
-        <v>84800</v>
+        <v>1185100</v>
       </c>
       <c r="H33" s="3">
-        <v>-2328900</v>
+        <v>86800</v>
       </c>
       <c r="I33" s="3">
-        <v>2083600</v>
+        <v>-2383600</v>
       </c>
       <c r="J33" s="3">
+        <v>2132500</v>
+      </c>
+      <c r="K33" s="3">
         <v>307200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2848000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10416000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1681200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1650700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1269100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1930500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1484500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3179900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>871800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2145500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>166100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4354400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1373300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2445000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>531700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2692,167 +2767,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-297200</v>
+        <v>557400</v>
       </c>
       <c r="E35" s="3">
-        <v>3282400</v>
+        <v>-304200</v>
       </c>
       <c r="F35" s="3">
-        <v>1158000</v>
+        <v>3359500</v>
       </c>
       <c r="G35" s="3">
-        <v>84800</v>
+        <v>1185100</v>
       </c>
       <c r="H35" s="3">
-        <v>-2328900</v>
+        <v>86800</v>
       </c>
       <c r="I35" s="3">
-        <v>2083600</v>
+        <v>-2383600</v>
       </c>
       <c r="J35" s="3">
+        <v>2132500</v>
+      </c>
+      <c r="K35" s="3">
         <v>307200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2848000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10416000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1681200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1650700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1269100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1930500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1484500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3179900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>871800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2145500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>166100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4354400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1373300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2445000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>531700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2880,8 +2964,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2909,701 +2994,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3403100</v>
+        <v>4451700</v>
       </c>
       <c r="E41" s="3">
-        <v>5770000</v>
+        <v>3483000</v>
       </c>
       <c r="F41" s="3">
-        <v>4552100</v>
+        <v>5905300</v>
       </c>
       <c r="G41" s="3">
-        <v>4304800</v>
+        <v>4658900</v>
       </c>
       <c r="H41" s="3">
-        <v>3380200</v>
+        <v>4405800</v>
       </c>
       <c r="I41" s="3">
-        <v>5535600</v>
+        <v>3459500</v>
       </c>
       <c r="J41" s="3">
+        <v>5665400</v>
+      </c>
+      <c r="K41" s="3">
         <v>4180100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5259000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3434200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2584500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3718200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5402200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3932700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4859000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4793100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5371900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5469100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5854500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8505800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6232700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3111300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2610600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2229100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4769600</v>
+        <v>4811000</v>
       </c>
       <c r="E42" s="3">
-        <v>2402700</v>
+        <v>4881500</v>
       </c>
       <c r="F42" s="3">
-        <v>3333300</v>
+        <v>2459100</v>
       </c>
       <c r="G42" s="3">
-        <v>3892900</v>
+        <v>3411500</v>
       </c>
       <c r="H42" s="3">
-        <v>3100900</v>
+        <v>3984200</v>
       </c>
       <c r="I42" s="3">
-        <v>3752200</v>
+        <v>3173700</v>
       </c>
       <c r="J42" s="3">
+        <v>3840200</v>
+      </c>
+      <c r="K42" s="3">
         <v>7919400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10869900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2792700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3118600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2715400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1401400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1022300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1019200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1379300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1773300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1709600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8031900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3959500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>6806000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8115400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7819900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7365700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18337200</v>
+        <v>15053700</v>
       </c>
       <c r="E43" s="3">
-        <v>17777700</v>
+        <v>18767400</v>
       </c>
       <c r="F43" s="3">
-        <v>13247500</v>
+        <v>18194700</v>
       </c>
       <c r="G43" s="3">
-        <v>13018100</v>
+        <v>13558300</v>
       </c>
       <c r="H43" s="3">
-        <v>15770900</v>
+        <v>13323500</v>
       </c>
       <c r="I43" s="3">
-        <v>15868600</v>
+        <v>16140900</v>
       </c>
       <c r="J43" s="3">
+        <v>16240900</v>
+      </c>
+      <c r="K43" s="3">
         <v>12437600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>13808200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17152400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18828900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17675800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17387500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19478800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20154800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17129600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>15883000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18145500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>12064800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11592400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>11857200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>15914300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>18548500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>16263100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>11341400</v>
+        <v>13057100</v>
       </c>
       <c r="E44" s="3">
-        <v>10840700</v>
+        <v>11607500</v>
       </c>
       <c r="F44" s="3">
-        <v>11284600</v>
+        <v>11095100</v>
       </c>
       <c r="G44" s="3">
-        <v>10616300</v>
+        <v>11549300</v>
       </c>
       <c r="H44" s="3">
-        <v>10098700</v>
+        <v>10865400</v>
       </c>
       <c r="I44" s="3">
-        <v>10429800</v>
+        <v>10335600</v>
       </c>
       <c r="J44" s="3">
+        <v>10674500</v>
+      </c>
+      <c r="K44" s="3">
         <v>10932500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10848100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>11048700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11297800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12432900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12733800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12082800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12574500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13168000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12230100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12023100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7029400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7349000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7558800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>9490900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>10181600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>9869400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1595800</v>
+        <v>1837400</v>
       </c>
       <c r="E45" s="3">
-        <v>1355500</v>
+        <v>1633300</v>
       </c>
       <c r="F45" s="3">
-        <v>75800</v>
+        <v>1387300</v>
       </c>
       <c r="G45" s="3">
-        <v>29900</v>
+        <v>77600</v>
       </c>
       <c r="H45" s="3">
-        <v>31900</v>
+        <v>30600</v>
       </c>
       <c r="I45" s="3">
-        <v>134600</v>
+        <v>32700</v>
       </c>
       <c r="J45" s="3">
+        <v>137800</v>
+      </c>
+      <c r="K45" s="3">
         <v>112700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1427200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1327300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3981200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1892800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>277500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>276800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>260300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4083500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3438900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2334900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2046500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>32900</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>11700</v>
       </c>
       <c r="AA45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>39447200</v>
+        <v>39211000</v>
       </c>
       <c r="E46" s="3">
-        <v>38146600</v>
+        <v>40372600</v>
       </c>
       <c r="F46" s="3">
-        <v>32493300</v>
+        <v>39041500</v>
       </c>
       <c r="G46" s="3">
-        <v>31861900</v>
+        <v>33255600</v>
       </c>
       <c r="H46" s="3">
-        <v>32382600</v>
+        <v>32609500</v>
       </c>
       <c r="I46" s="3">
-        <v>35720900</v>
+        <v>33142300</v>
       </c>
       <c r="J46" s="3">
+        <v>36558900</v>
+      </c>
+      <c r="K46" s="3">
         <v>35582200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>40829900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35728400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>37256900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37869600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40906100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38409500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38884900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36746800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>35518500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>41430800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>36419600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>33741600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>34501200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>36635200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>39193500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>35739000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>3936700</v>
+        <v>2086500</v>
       </c>
       <c r="E47" s="3">
-        <v>3989600</v>
+        <v>4029100</v>
       </c>
       <c r="F47" s="3">
-        <v>4020500</v>
+        <v>4083200</v>
       </c>
       <c r="G47" s="3">
-        <v>3558700</v>
+        <v>4114800</v>
       </c>
       <c r="H47" s="3">
-        <v>3391200</v>
+        <v>3642200</v>
       </c>
       <c r="I47" s="3">
-        <v>3282400</v>
+        <v>3470700</v>
       </c>
       <c r="J47" s="3">
+        <v>3359500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2873500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3109500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3018500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3108400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3279300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4450400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4032700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4044400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3848000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4316300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4441400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5320900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6777900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6690400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2778000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2882900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2873500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>13240500</v>
+        <v>14210600</v>
       </c>
       <c r="E48" s="3">
-        <v>12752800</v>
+        <v>13551100</v>
       </c>
       <c r="F48" s="3">
-        <v>12655000</v>
+        <v>13051900</v>
       </c>
       <c r="G48" s="3">
-        <v>12004700</v>
+        <v>12951900</v>
       </c>
       <c r="H48" s="3">
-        <v>11812200</v>
+        <v>12286300</v>
       </c>
       <c r="I48" s="3">
-        <v>11792300</v>
+        <v>12089300</v>
       </c>
       <c r="J48" s="3">
+        <v>12068900</v>
+      </c>
+      <c r="K48" s="3">
         <v>11692500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11937900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12927300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13665500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14568100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16013100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16103700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16666700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15310300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>14609200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14381600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>8048300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8564100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8308300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14217900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15359300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15393300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>66775900</v>
+        <v>70893500</v>
       </c>
       <c r="E49" s="3">
-        <v>65683800</v>
+        <v>68342600</v>
       </c>
       <c r="F49" s="3">
-        <v>66191500</v>
+        <v>67224800</v>
       </c>
       <c r="G49" s="3">
-        <v>64223600</v>
+        <v>67744400</v>
       </c>
       <c r="H49" s="3">
-        <v>61838800</v>
+        <v>65730300</v>
       </c>
       <c r="I49" s="3">
-        <v>63213200</v>
+        <v>63289600</v>
       </c>
       <c r="J49" s="3">
+        <v>64696300</v>
+      </c>
+      <c r="K49" s="3">
         <v>61681200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62871800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>78750600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>83442700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>86195700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>92670500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>86197200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>90551100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>88880700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>85576500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>85283900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28180200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29648600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>30135500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>31985700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>34811700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>35072300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3679,8 +3792,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3756,85 +3872,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5058800</v>
+        <v>5268300</v>
       </c>
       <c r="E52" s="3">
-        <v>4882300</v>
+        <v>5177500</v>
       </c>
       <c r="F52" s="3">
-        <v>4568100</v>
+        <v>4996800</v>
       </c>
       <c r="G52" s="3">
-        <v>4597000</v>
+        <v>4675300</v>
       </c>
       <c r="H52" s="3">
-        <v>4458400</v>
+        <v>4704900</v>
       </c>
       <c r="I52" s="3">
-        <v>4211000</v>
+        <v>4563000</v>
       </c>
       <c r="J52" s="3">
+        <v>4309800</v>
+      </c>
+      <c r="K52" s="3">
         <v>4670800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4484700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4199100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5384100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6040400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6190200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5782400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5125500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4535600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5569100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4813600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5514600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6432400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7104400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7589900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7453700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3910,85 +4032,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>128459100</v>
+        <v>133735000</v>
       </c>
       <c r="E54" s="3">
-        <v>125455000</v>
+        <v>131472900</v>
       </c>
       <c r="F54" s="3">
-        <v>119928400</v>
+        <v>128398300</v>
       </c>
       <c r="G54" s="3">
-        <v>116246000</v>
+        <v>122742000</v>
       </c>
       <c r="H54" s="3">
-        <v>113883100</v>
+        <v>118973200</v>
       </c>
       <c r="I54" s="3">
-        <v>118219800</v>
+        <v>116554900</v>
       </c>
       <c r="J54" s="3">
+        <v>120993400</v>
+      </c>
+      <c r="K54" s="3">
         <v>116500300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>124049800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>134909600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>141672700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>147296800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>160080500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>150933300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>155929500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>149911300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>144556200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>151106800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82782600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>84246900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>86067900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>92721300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>99837200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>96531800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4016,8 +4144,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4045,470 +4174,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6081100</v>
+        <v>6685200</v>
       </c>
       <c r="E57" s="3">
-        <v>5831800</v>
+        <v>6223800</v>
       </c>
       <c r="F57" s="3">
-        <v>6774300</v>
+        <v>5968600</v>
       </c>
       <c r="G57" s="3">
-        <v>5572500</v>
+        <v>6933300</v>
       </c>
       <c r="H57" s="3">
-        <v>5099700</v>
+        <v>5703200</v>
       </c>
       <c r="I57" s="3">
-        <v>5171500</v>
+        <v>5219400</v>
       </c>
       <c r="J57" s="3">
+        <v>5292800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5663200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5668000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5561500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6019200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7501800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6978800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6333700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6835100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7142400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6154900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5456000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4329400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5754700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4407200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5846700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>6679000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>7524100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>6555900</v>
+        <v>5441900</v>
       </c>
       <c r="E58" s="3">
-        <v>5883700</v>
+        <v>6709700</v>
       </c>
       <c r="F58" s="3">
-        <v>4379600</v>
+        <v>6021700</v>
       </c>
       <c r="G58" s="3">
-        <v>4779500</v>
+        <v>4482300</v>
       </c>
       <c r="H58" s="3">
-        <v>3697400</v>
+        <v>4891700</v>
       </c>
       <c r="I58" s="3">
-        <v>4933100</v>
+        <v>3784100</v>
       </c>
       <c r="J58" s="3">
+        <v>5048900</v>
+      </c>
+      <c r="K58" s="3">
         <v>8546700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8573100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8042200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3613100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2547300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7378100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7853600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5007300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4355400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3867700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>10470500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1933600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2171100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3973000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5651500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4928800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3992100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20918500</v>
+        <v>21734900</v>
       </c>
       <c r="E59" s="3">
-        <v>19222900</v>
+        <v>21409200</v>
       </c>
       <c r="F59" s="3">
-        <v>18172600</v>
+        <v>19673900</v>
       </c>
       <c r="G59" s="3">
-        <v>18300300</v>
+        <v>18599000</v>
       </c>
       <c r="H59" s="3">
-        <v>19099200</v>
+        <v>18729600</v>
       </c>
       <c r="I59" s="3">
-        <v>18797000</v>
+        <v>19547300</v>
       </c>
       <c r="J59" s="3">
+        <v>19238000</v>
+      </c>
+      <c r="K59" s="3">
         <v>22462400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22905400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>26261500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15569200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17052400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17562700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15766100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16841300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15856800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12639900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13753500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8118600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7325500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8352100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9550400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11366000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10242700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>33555500</v>
+        <v>33862000</v>
       </c>
       <c r="E60" s="3">
-        <v>30938400</v>
+        <v>34342800</v>
       </c>
       <c r="F60" s="3">
-        <v>29326600</v>
+        <v>31664200</v>
       </c>
       <c r="G60" s="3">
-        <v>28652300</v>
+        <v>30014600</v>
       </c>
       <c r="H60" s="3">
-        <v>27896300</v>
+        <v>29324500</v>
       </c>
       <c r="I60" s="3">
-        <v>28901700</v>
+        <v>28550800</v>
       </c>
       <c r="J60" s="3">
+        <v>29579700</v>
+      </c>
+      <c r="K60" s="3">
         <v>36672400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>37146400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39865100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>25201500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27101400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>31919600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>29953500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>28683700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27354600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22662600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29680000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14381600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15251200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>16732200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>21048500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>22973800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>21758900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>37962000</v>
+        <v>40280800</v>
       </c>
       <c r="E61" s="3">
-        <v>36552700</v>
+        <v>38852700</v>
       </c>
       <c r="F61" s="3">
-        <v>36386100</v>
+        <v>37410300</v>
       </c>
       <c r="G61" s="3">
-        <v>36877900</v>
+        <v>37239800</v>
       </c>
       <c r="H61" s="3">
-        <v>36573700</v>
+        <v>37743100</v>
       </c>
       <c r="I61" s="3">
-        <v>37824400</v>
+        <v>37431700</v>
       </c>
       <c r="J61" s="3">
+        <v>38711800</v>
+      </c>
+      <c r="K61" s="3">
         <v>33114700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36523700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37033100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41564400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>43091400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>46258100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43117400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>45397000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>44609500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44700500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>46767100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>13475800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14005800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14110100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>15896400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17358300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>18992200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>18836900</v>
+        <v>17262700</v>
       </c>
       <c r="E62" s="3">
-        <v>20454700</v>
+        <v>19278800</v>
       </c>
       <c r="F62" s="3">
-        <v>21133900</v>
+        <v>20934600</v>
       </c>
       <c r="G62" s="3">
-        <v>19524100</v>
+        <v>21629700</v>
       </c>
       <c r="H62" s="3">
-        <v>18937600</v>
+        <v>19982200</v>
       </c>
       <c r="I62" s="3">
-        <v>16834100</v>
+        <v>19381900</v>
       </c>
       <c r="J62" s="3">
+        <v>17229100</v>
+      </c>
+      <c r="K62" s="3">
         <v>16118000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17709700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18884700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19828100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>21730200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25476100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25085600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24434800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23358700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21373400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22817500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12779600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13632200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13426900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15964800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17415800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>18339600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4584,8 +4732,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4661,8 +4812,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4738,85 +4892,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>90539000</v>
+        <v>91604600</v>
       </c>
       <c r="E66" s="3">
-        <v>88115300</v>
+        <v>92663100</v>
       </c>
       <c r="F66" s="3">
-        <v>86994200</v>
+        <v>90182600</v>
       </c>
       <c r="G66" s="3">
-        <v>85223800</v>
+        <v>89035200</v>
       </c>
       <c r="H66" s="3">
-        <v>83573100</v>
+        <v>87223300</v>
       </c>
       <c r="I66" s="3">
-        <v>83720800</v>
+        <v>85533900</v>
       </c>
       <c r="J66" s="3">
+        <v>85684900</v>
+      </c>
+      <c r="K66" s="3">
         <v>86056700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>91535500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>95959700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86788300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>92133200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>103876700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>98357600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>98720000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>95525100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>88927000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>99344800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>40698500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>42956500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>44334300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>56088300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>60377300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>60926600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4844,8 +5004,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4921,8 +5082,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4998,8 +5162,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5075,8 +5242,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5152,85 +5322,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>17198200</v>
+        <v>20922300</v>
       </c>
       <c r="E72" s="3">
-        <v>16617700</v>
+        <v>17601700</v>
       </c>
       <c r="F72" s="3">
-        <v>12212200</v>
+        <v>17007500</v>
       </c>
       <c r="G72" s="3">
-        <v>10300100</v>
+        <v>12498700</v>
       </c>
       <c r="H72" s="3">
-        <v>9588000</v>
+        <v>10541800</v>
       </c>
       <c r="I72" s="3">
-        <v>13777100</v>
+        <v>9813000</v>
       </c>
       <c r="J72" s="3">
+        <v>14100300</v>
+      </c>
+      <c r="K72" s="3">
         <v>9721700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10950900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16285100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31426200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30909500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30754600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28136000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>32358400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29811400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32618800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28951000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29155200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28078900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28522100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>23421500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>36975000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>33120200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5306,8 +5482,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5383,8 +5562,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5460,85 +5642,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>37920200</v>
+        <v>42130500</v>
       </c>
       <c r="E76" s="3">
-        <v>37339700</v>
+        <v>38809800</v>
       </c>
       <c r="F76" s="3">
-        <v>32934100</v>
+        <v>38215700</v>
       </c>
       <c r="G76" s="3">
-        <v>31022100</v>
+        <v>33706800</v>
       </c>
       <c r="H76" s="3">
-        <v>30310000</v>
+        <v>31749900</v>
       </c>
       <c r="I76" s="3">
-        <v>34499100</v>
+        <v>31021100</v>
       </c>
       <c r="J76" s="3">
+        <v>35308500</v>
+      </c>
+      <c r="K76" s="3">
         <v>30443600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32514300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38949900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>54884400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>55163600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56203800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>52575700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>57209500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>54386200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>55629200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>51761900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>42084100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>41290400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41733500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36633000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>39460000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>35605200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5614,167 +5802,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-297200</v>
+        <v>557400</v>
       </c>
       <c r="E81" s="3">
-        <v>3282400</v>
+        <v>-304200</v>
       </c>
       <c r="F81" s="3">
-        <v>1158000</v>
+        <v>3359500</v>
       </c>
       <c r="G81" s="3">
-        <v>84800</v>
+        <v>1185100</v>
       </c>
       <c r="H81" s="3">
-        <v>-2328900</v>
+        <v>86800</v>
       </c>
       <c r="I81" s="3">
-        <v>2083600</v>
+        <v>-2383600</v>
       </c>
       <c r="J81" s="3">
+        <v>2132500</v>
+      </c>
+      <c r="K81" s="3">
         <v>307200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2848000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10416000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1681200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1650700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1269100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1930500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1484500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3179900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>871800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2145500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>166100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4354400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1373300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2445000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>531700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5802,85 +5999,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2475500</v>
+        <v>1119800</v>
       </c>
       <c r="E83" s="3">
-        <v>1077200</v>
+        <v>2533600</v>
       </c>
       <c r="F83" s="3">
-        <v>-289200</v>
+        <v>1102500</v>
       </c>
       <c r="G83" s="3">
-        <v>867700</v>
+        <v>-296000</v>
       </c>
       <c r="H83" s="3">
-        <v>1386400</v>
+        <v>888100</v>
       </c>
       <c r="I83" s="3">
-        <v>1083200</v>
+        <v>1418900</v>
       </c>
       <c r="J83" s="3">
+        <v>1108600</v>
+      </c>
+      <c r="K83" s="3">
         <v>507700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10683100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1287300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1441900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1874900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1238500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3232700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1421100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5043900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>991300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>752100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>557800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>936900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>295100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>933500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>856900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1320500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5956,8 +6157,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6033,8 +6237,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6110,8 +6317,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6187,8 +6397,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6264,85 +6477,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2098500</v>
+        <v>2706100</v>
       </c>
       <c r="E89" s="3">
-        <v>-721100</v>
+        <v>2147800</v>
       </c>
       <c r="F89" s="3">
-        <v>3029100</v>
+        <v>-738000</v>
       </c>
       <c r="G89" s="3">
-        <v>2851600</v>
+        <v>3100200</v>
       </c>
       <c r="H89" s="3">
-        <v>1991800</v>
+        <v>2918500</v>
       </c>
       <c r="I89" s="3">
-        <v>-2757800</v>
+        <v>2038500</v>
       </c>
       <c r="J89" s="3">
+        <v>-2822500</v>
+      </c>
+      <c r="K89" s="3">
         <v>749000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2041500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2633500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-266500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3767200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2795400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3150400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1289500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3510800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2271700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2459500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>723600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2545800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3041700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2595200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>987200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3212700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6370,85 +6589,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-548600</v>
+        <v>-741100</v>
       </c>
       <c r="E91" s="3">
-        <v>-348100</v>
+        <v>-561400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1137000</v>
+        <v>-356300</v>
       </c>
       <c r="G91" s="3">
-        <v>-647300</v>
+        <v>-1163700</v>
       </c>
       <c r="H91" s="3">
-        <v>-491700</v>
+        <v>-662500</v>
       </c>
       <c r="I91" s="3">
-        <v>-328100</v>
+        <v>-503300</v>
       </c>
       <c r="J91" s="3">
+        <v>-335800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-890700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-569800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-638200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-441500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-893000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-472500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-729900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-504000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-383200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-624900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-534100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-487100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>748900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6524,8 +6747,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6601,85 +6827,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2763800</v>
+        <v>-427700</v>
       </c>
       <c r="E94" s="3">
-        <v>740100</v>
+        <v>-2828600</v>
       </c>
       <c r="F94" s="3">
-        <v>-985400</v>
+        <v>757400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2542400</v>
+        <v>-1008600</v>
       </c>
       <c r="H94" s="3">
-        <v>445800</v>
+        <v>-2602000</v>
       </c>
       <c r="I94" s="3">
-        <v>3934700</v>
+        <v>456300</v>
       </c>
       <c r="J94" s="3">
+        <v>4027100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-193500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2968400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-459300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-675200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>40900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-292800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-549400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>92100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-675400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7090900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1917500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>194100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6707,25 +6939,26 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-23900</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-4000</v>
+        <v>-24500</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6734,58 +6967,61 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-17600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3001100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-4900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-3400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6861,8 +7097,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6938,8 +7177,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7015,235 +7257,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1809300</v>
+        <v>-1367900</v>
       </c>
       <c r="E100" s="3">
-        <v>1072200</v>
+        <v>-1851700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1793300</v>
+        <v>1097400</v>
       </c>
       <c r="G100" s="3">
-        <v>641300</v>
+        <v>-1835400</v>
       </c>
       <c r="H100" s="3">
-        <v>-4591000</v>
+        <v>656400</v>
       </c>
       <c r="I100" s="3">
-        <v>112700</v>
+        <v>-4698700</v>
       </c>
       <c r="J100" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1350500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2975700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1228400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>40600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>39249100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-637900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-41500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-616000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>717200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3413400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>105700</v>
+        <v>56100</v>
       </c>
       <c r="E101" s="3">
-        <v>131700</v>
+        <v>108200</v>
       </c>
       <c r="F101" s="3">
-        <v>-3000</v>
+        <v>134700</v>
       </c>
       <c r="G101" s="3">
-        <v>-25900</v>
+        <v>-3100</v>
       </c>
       <c r="H101" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
-        <v>65800</v>
-      </c>
       <c r="J101" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-78800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-64300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-76800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-26000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-59800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-424900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-129600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-51600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-72900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-41500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D102" s="3">
-        <v>-2368800</v>
+      <c r="D102" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E102" s="3">
-        <v>1222800</v>
+        <v>-2424400</v>
       </c>
       <c r="F102" s="3">
-        <v>247400</v>
+        <v>1251500</v>
       </c>
       <c r="G102" s="3">
-        <v>924600</v>
+        <v>253200</v>
       </c>
       <c r="H102" s="3">
-        <v>-2155400</v>
+        <v>946300</v>
       </c>
       <c r="I102" s="3">
-        <v>1355500</v>
+        <v>-2205900</v>
       </c>
       <c r="J102" s="3">
+        <v>1387300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-873700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1984500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>912000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-977800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1260500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-789400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-942800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-179400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-357900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2273200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3121400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>616000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>381500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>782900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>BAYRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,358 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11515600</v>
+        <v>12696000</v>
       </c>
       <c r="E8" s="3">
-        <v>13085600</v>
+        <v>11935300</v>
       </c>
       <c r="F8" s="3">
-        <v>14943500</v>
+        <v>13562500</v>
       </c>
       <c r="G8" s="3">
-        <v>11349300</v>
+        <v>15488100</v>
       </c>
       <c r="H8" s="3">
-        <v>9984400</v>
+        <v>11762800</v>
       </c>
       <c r="I8" s="3">
-        <v>11079800</v>
+        <v>10348300</v>
       </c>
       <c r="J8" s="3">
+        <v>11483500</v>
+      </c>
+      <c r="K8" s="3">
         <v>12584400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9969000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8828400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10968000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14503300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12549700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12041700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27016000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14655800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12248900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10257500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10410100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10033500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>9644600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9004000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9777000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11362500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>10356500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4335300</v>
+        <v>5044500</v>
       </c>
       <c r="E9" s="3">
-        <v>5798100</v>
+        <v>4493300</v>
       </c>
       <c r="F9" s="3">
-        <v>5283700</v>
+        <v>6009400</v>
       </c>
       <c r="G9" s="3">
-        <v>3761600</v>
+        <v>5476200</v>
       </c>
       <c r="H9" s="3">
-        <v>3967800</v>
+        <v>3898700</v>
       </c>
       <c r="I9" s="3">
-        <v>4640600</v>
+        <v>4112400</v>
       </c>
       <c r="J9" s="3">
+        <v>4809700</v>
+      </c>
+      <c r="K9" s="3">
         <v>4795700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3659500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7052500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4383300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5257100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5743700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4634100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>10481700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5821900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6676300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4542300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3850700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3194100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3418700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2877900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3122500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3506200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3695200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7180300</v>
+        <v>7651500</v>
       </c>
       <c r="E10" s="3">
-        <v>7287500</v>
+        <v>7442000</v>
       </c>
       <c r="F10" s="3">
-        <v>9659800</v>
+        <v>7553100</v>
       </c>
       <c r="G10" s="3">
-        <v>7587600</v>
+        <v>10011900</v>
       </c>
       <c r="H10" s="3">
-        <v>6016600</v>
+        <v>7864100</v>
       </c>
       <c r="I10" s="3">
-        <v>6439200</v>
+        <v>6235900</v>
       </c>
       <c r="J10" s="3">
+        <v>6673900</v>
+      </c>
+      <c r="K10" s="3">
         <v>7788700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6309600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1775800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6584700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9246200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6806000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7407500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16534300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8833900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5572600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5715200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6559500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6839400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6225900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6126100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6654500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>7856300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6661400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,88 +1045,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1608800</v>
+        <v>1707600</v>
       </c>
       <c r="E12" s="3">
-        <v>1968100</v>
+        <v>1667400</v>
       </c>
       <c r="F12" s="3">
-        <v>1484200</v>
+        <v>2039800</v>
       </c>
       <c r="G12" s="3">
-        <v>1033000</v>
+        <v>1538300</v>
       </c>
       <c r="H12" s="3">
-        <v>1596500</v>
+        <v>1070700</v>
       </c>
       <c r="I12" s="3">
-        <v>1672100</v>
+        <v>1654700</v>
       </c>
       <c r="J12" s="3">
+        <v>1733000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1222900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1287600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3493600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1273100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1470100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1633200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1569200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3083300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1575400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2008600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1292600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1391200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1141900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1384500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1210600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1230800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1284100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1461400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1193,8 +1209,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1273,8 +1292,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1353,8 +1375,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1380,168 +1405,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
+      <c r="D17" s="3">
+        <v>11180900</v>
       </c>
       <c r="E17" s="3">
-        <v>12913100</v>
+        <v>10666800</v>
       </c>
       <c r="F17" s="3">
-        <v>10643900</v>
+        <v>13383700</v>
       </c>
       <c r="G17" s="3">
-        <v>9286200</v>
+        <v>11031800</v>
       </c>
       <c r="H17" s="3">
-        <v>9443400</v>
+        <v>9624600</v>
       </c>
       <c r="I17" s="3">
-        <v>13408200</v>
+        <v>9787600</v>
       </c>
       <c r="J17" s="3">
+        <v>13896800</v>
+      </c>
+      <c r="K17" s="3">
         <v>9437300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8458000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18583600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22732400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11681700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12095500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10561900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23998600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12526600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>17224200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5469300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8932200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7497100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8943400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7446600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8135500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8513600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>9668700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>91</v>
+      <c r="D18" s="3">
+        <v>1515100</v>
       </c>
       <c r="E18" s="3">
-        <v>172500</v>
+        <v>1268500</v>
       </c>
       <c r="F18" s="3">
-        <v>4299600</v>
+        <v>178800</v>
       </c>
       <c r="G18" s="3">
-        <v>2063000</v>
+        <v>4456300</v>
       </c>
       <c r="H18" s="3">
-        <v>541000</v>
+        <v>2138200</v>
       </c>
       <c r="I18" s="3">
-        <v>-2328400</v>
+        <v>560700</v>
       </c>
       <c r="J18" s="3">
+        <v>-2413300</v>
+      </c>
+      <c r="K18" s="3">
         <v>3147100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1511100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9755200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11764400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2821600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>454100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1479800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3017500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2129200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4788200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1477900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2536400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>701200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1557300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1641500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2848800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>687900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1570,168 +1602,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>91</v>
+      <c r="D20" s="3">
+        <v>-594600</v>
       </c>
       <c r="E20" s="3">
-        <v>-706400</v>
+        <v>-632700</v>
       </c>
       <c r="F20" s="3">
-        <v>-500200</v>
+        <v>-732100</v>
       </c>
       <c r="G20" s="3">
-        <v>-534900</v>
+        <v>-518400</v>
       </c>
       <c r="H20" s="3">
-        <v>-343000</v>
+        <v>-554400</v>
       </c>
       <c r="I20" s="3">
-        <v>-101100</v>
+        <v>-355500</v>
       </c>
       <c r="J20" s="3">
+        <v>-104700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-355200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-141600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-301100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-736200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-441300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-219300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-884700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-356500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-851700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-752100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-354700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>142700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-289500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-452200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-414000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-347400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-262900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>91</v>
+      <c r="D21" s="3">
+        <v>2871400</v>
       </c>
       <c r="E21" s="3">
-        <v>1999700</v>
+        <v>1796500</v>
       </c>
       <c r="F21" s="3">
-        <v>4901900</v>
+        <v>2072600</v>
       </c>
       <c r="G21" s="3">
-        <v>1232100</v>
+        <v>5080500</v>
       </c>
       <c r="H21" s="3">
-        <v>1086100</v>
+        <v>1277000</v>
       </c>
       <c r="I21" s="3">
-        <v>-1010600</v>
+        <v>1125700</v>
       </c>
       <c r="J21" s="3">
+        <v>-1047400</v>
+      </c>
+      <c r="K21" s="3">
         <v>3900500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1877100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>916500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10778200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3527300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1887700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2499000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5365600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3193900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-914400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5027400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1875400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3236900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1348600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1757000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1804200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3358300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2344100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1810,168 +1849,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>613500</v>
+        <v>920500</v>
       </c>
       <c r="E23" s="3">
-        <v>-533900</v>
+        <v>635900</v>
       </c>
       <c r="F23" s="3">
-        <v>3799400</v>
+        <v>-553300</v>
       </c>
       <c r="G23" s="3">
-        <v>1528100</v>
+        <v>3937900</v>
       </c>
       <c r="H23" s="3">
-        <v>198000</v>
+        <v>1583800</v>
       </c>
       <c r="I23" s="3">
-        <v>-2429500</v>
+        <v>205300</v>
       </c>
       <c r="J23" s="3">
+        <v>-2518000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2791900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1369400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9766600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12065500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2085400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1260500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2132800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1772800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4036100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1123300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2679100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>411800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1105200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1227500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2501400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>424900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>50000</v>
+        <v>276100</v>
       </c>
       <c r="E24" s="3">
-        <v>-238900</v>
+        <v>51800</v>
       </c>
       <c r="F24" s="3">
-        <v>436900</v>
+        <v>-247600</v>
       </c>
       <c r="G24" s="3">
-        <v>333800</v>
+        <v>452800</v>
       </c>
       <c r="H24" s="3">
-        <v>106200</v>
+        <v>346000</v>
       </c>
       <c r="I24" s="3">
-        <v>-53100</v>
+        <v>110000</v>
       </c>
       <c r="J24" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K24" s="3">
         <v>658400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>984400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1769600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1581800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>540800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>434100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>428200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>918200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>236100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>542400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>488100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>237900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>289500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>497700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>74000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2050,168 +2098,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>563500</v>
+        <v>644300</v>
       </c>
       <c r="E26" s="3">
-        <v>-295000</v>
+        <v>584000</v>
       </c>
       <c r="F26" s="3">
-        <v>3362500</v>
+        <v>-305800</v>
       </c>
       <c r="G26" s="3">
-        <v>1194300</v>
+        <v>3485100</v>
       </c>
       <c r="H26" s="3">
-        <v>91900</v>
+        <v>1237900</v>
       </c>
       <c r="I26" s="3">
-        <v>-2376400</v>
+        <v>95200</v>
       </c>
       <c r="J26" s="3">
+        <v>-2463000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2133500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>385000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7997000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10483600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1544600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1222500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1698700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1344500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3117900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>887200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2136700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-76300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>867300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>938000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2003700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>351000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>557400</v>
+        <v>646400</v>
       </c>
       <c r="E27" s="3">
-        <v>-304200</v>
+        <v>577700</v>
       </c>
       <c r="F27" s="3">
-        <v>3359500</v>
+        <v>-315300</v>
       </c>
       <c r="G27" s="3">
-        <v>1185100</v>
+        <v>3481900</v>
       </c>
       <c r="H27" s="3">
-        <v>86800</v>
+        <v>1228300</v>
       </c>
       <c r="I27" s="3">
-        <v>-2383600</v>
+        <v>89900</v>
       </c>
       <c r="J27" s="3">
+        <v>-2470400</v>
+      </c>
+      <c r="K27" s="3">
         <v>2132500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>382000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7993900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10493500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1545700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-50200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1212700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1698700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1350500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3109000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>880600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2136700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-78500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>870700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>935700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1783000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>346300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2290,8 +2347,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2364,8 @@
       <c r="F29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2317,61 +2377,64 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-74800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5145900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>77500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>135500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1700900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>56300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>231800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>134000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>47300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>70900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-8800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>8800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>244600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>3483800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>437600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>662000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>185500</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2450,8 +2513,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,168 +2596,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>91</v>
+      <c r="D32" s="3">
+        <v>594600</v>
       </c>
       <c r="E32" s="3">
-        <v>706400</v>
+        <v>632700</v>
       </c>
       <c r="F32" s="3">
-        <v>500200</v>
+        <v>732100</v>
       </c>
       <c r="G32" s="3">
-        <v>534900</v>
+        <v>518400</v>
       </c>
       <c r="H32" s="3">
-        <v>343000</v>
+        <v>554400</v>
       </c>
       <c r="I32" s="3">
-        <v>101100</v>
+        <v>355500</v>
       </c>
       <c r="J32" s="3">
+        <v>104700</v>
+      </c>
+      <c r="K32" s="3">
         <v>355200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>141600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>301100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>736200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>441300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>219300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>884700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>356500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>851700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>752100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>354700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-142700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>289500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>452200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>414000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>347400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>262900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>557400</v>
+        <v>646400</v>
       </c>
       <c r="E33" s="3">
-        <v>-304200</v>
+        <v>577700</v>
       </c>
       <c r="F33" s="3">
-        <v>3359500</v>
+        <v>-315300</v>
       </c>
       <c r="G33" s="3">
-        <v>1185100</v>
+        <v>3481900</v>
       </c>
       <c r="H33" s="3">
-        <v>86800</v>
+        <v>1228300</v>
       </c>
       <c r="I33" s="3">
-        <v>-2383600</v>
+        <v>89900</v>
       </c>
       <c r="J33" s="3">
+        <v>-2470400</v>
+      </c>
+      <c r="K33" s="3">
         <v>2132500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>307200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2848000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10416000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1681200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1650700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1269100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1930500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1484500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3179900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>871800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2145500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>166100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4354400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1373300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2445000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>531700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2770,173 +2845,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>557400</v>
+        <v>646400</v>
       </c>
       <c r="E35" s="3">
-        <v>-304200</v>
+        <v>577700</v>
       </c>
       <c r="F35" s="3">
-        <v>3359500</v>
+        <v>-315300</v>
       </c>
       <c r="G35" s="3">
-        <v>1185100</v>
+        <v>3481900</v>
       </c>
       <c r="H35" s="3">
-        <v>86800</v>
+        <v>1228300</v>
       </c>
       <c r="I35" s="3">
-        <v>-2383600</v>
+        <v>89900</v>
       </c>
       <c r="J35" s="3">
+        <v>-2470400</v>
+      </c>
+      <c r="K35" s="3">
         <v>2132500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>307200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2848000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10416000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1681200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1650700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1269100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1930500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1484500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3179900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>871800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2145500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>166100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4354400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1373300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2445000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>531700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2965,8 +3049,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2995,728 +3080,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4451700</v>
+        <v>5470900</v>
       </c>
       <c r="E41" s="3">
-        <v>3483000</v>
+        <v>4613900</v>
       </c>
       <c r="F41" s="3">
-        <v>5905300</v>
+        <v>3609900</v>
       </c>
       <c r="G41" s="3">
-        <v>4658900</v>
+        <v>6120500</v>
       </c>
       <c r="H41" s="3">
-        <v>4405800</v>
+        <v>4828700</v>
       </c>
       <c r="I41" s="3">
-        <v>3459500</v>
+        <v>4566300</v>
       </c>
       <c r="J41" s="3">
+        <v>3585600</v>
+      </c>
+      <c r="K41" s="3">
         <v>5665400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4180100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5259000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3434200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2584500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3718200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5402200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3932700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4859000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4793100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5371900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5469100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5854500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8505800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6232700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3111300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2610600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2229100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>4811000</v>
+        <v>5510100</v>
       </c>
       <c r="E42" s="3">
-        <v>4881500</v>
+        <v>4986400</v>
       </c>
       <c r="F42" s="3">
-        <v>2459100</v>
+        <v>5059400</v>
       </c>
       <c r="G42" s="3">
-        <v>3411500</v>
+        <v>2548700</v>
       </c>
       <c r="H42" s="3">
-        <v>3984200</v>
+        <v>3535800</v>
       </c>
       <c r="I42" s="3">
-        <v>3173700</v>
+        <v>4129400</v>
       </c>
       <c r="J42" s="3">
+        <v>3289300</v>
+      </c>
+      <c r="K42" s="3">
         <v>3840200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>7919400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10869900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2792700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3118600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2715400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1401400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1022300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1019200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1379300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1773300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1709600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8031900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>3959500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>6806000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8115400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7819900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7365700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>15053700</v>
+        <v>14539000</v>
       </c>
       <c r="E43" s="3">
-        <v>18767400</v>
+        <v>15602300</v>
       </c>
       <c r="F43" s="3">
-        <v>18194700</v>
+        <v>19451300</v>
       </c>
       <c r="G43" s="3">
-        <v>13558300</v>
+        <v>18857800</v>
       </c>
       <c r="H43" s="3">
-        <v>13323500</v>
+        <v>14052400</v>
       </c>
       <c r="I43" s="3">
-        <v>16140900</v>
+        <v>13809000</v>
       </c>
       <c r="J43" s="3">
+        <v>16729100</v>
+      </c>
+      <c r="K43" s="3">
         <v>16240900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12437600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13808200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17152400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18828900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17675800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17387500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19478800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20154800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17129600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>15883000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>18145500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>12064800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>11592400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>11857200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>15914300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>18548500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>16263100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>13057100</v>
+        <v>14426900</v>
       </c>
       <c r="E44" s="3">
-        <v>11607500</v>
+        <v>13532900</v>
       </c>
       <c r="F44" s="3">
-        <v>11095100</v>
+        <v>12030500</v>
       </c>
       <c r="G44" s="3">
-        <v>11549300</v>
+        <v>11499400</v>
       </c>
       <c r="H44" s="3">
-        <v>10865400</v>
+        <v>11970200</v>
       </c>
       <c r="I44" s="3">
-        <v>10335600</v>
+        <v>11261400</v>
       </c>
       <c r="J44" s="3">
+        <v>10712300</v>
+      </c>
+      <c r="K44" s="3">
         <v>10674500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10932500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10848100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>11048700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11297800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12432900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12733800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12082800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12574500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>13168000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12230100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12023100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7029400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7349000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7558800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>9490900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>10181600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>9869400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1837400</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>1633300</v>
+        <v>1904400</v>
       </c>
       <c r="F45" s="3">
-        <v>1387300</v>
+        <v>1692800</v>
       </c>
       <c r="G45" s="3">
-        <v>77600</v>
+        <v>1437800</v>
       </c>
       <c r="H45" s="3">
-        <v>30600</v>
+        <v>80400</v>
       </c>
       <c r="I45" s="3">
-        <v>32700</v>
+        <v>31700</v>
       </c>
       <c r="J45" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K45" s="3">
         <v>137800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>112700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1427200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1327300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3981200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1892800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>277500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>276800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>260300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4083500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3438900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2334900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2046500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>32900</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>11700</v>
       </c>
       <c r="AB45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>39211000</v>
+        <v>39950100</v>
       </c>
       <c r="E46" s="3">
-        <v>40372600</v>
+        <v>40639900</v>
       </c>
       <c r="F46" s="3">
-        <v>39041500</v>
+        <v>41843900</v>
       </c>
       <c r="G46" s="3">
-        <v>33255600</v>
+        <v>40464300</v>
       </c>
       <c r="H46" s="3">
-        <v>32609500</v>
+        <v>34467500</v>
       </c>
       <c r="I46" s="3">
-        <v>33142300</v>
+        <v>33797800</v>
       </c>
       <c r="J46" s="3">
+        <v>34350100</v>
+      </c>
+      <c r="K46" s="3">
         <v>36558900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>35582200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>40829900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35728400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>37256900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37869600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40906100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38409500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38884900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>36746800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>35518500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>41430800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>36419600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>33741600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>34501200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>36635200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>39193500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>35739000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>2086500</v>
+        <v>4239400</v>
       </c>
       <c r="E47" s="3">
-        <v>4029100</v>
+        <v>4302900</v>
       </c>
       <c r="F47" s="3">
-        <v>4083200</v>
+        <v>4175900</v>
       </c>
       <c r="G47" s="3">
-        <v>4114800</v>
+        <v>4232000</v>
       </c>
       <c r="H47" s="3">
-        <v>3642200</v>
+        <v>4264800</v>
       </c>
       <c r="I47" s="3">
-        <v>3470700</v>
+        <v>3774900</v>
       </c>
       <c r="J47" s="3">
+        <v>3597200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3359500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2873500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3109500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3018500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3108400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3279300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4450400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4032700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4044400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3848000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4316300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4441400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5320900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>6777900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6690400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2778000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2882900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2873500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14210600</v>
+        <v>14467100</v>
       </c>
       <c r="E48" s="3">
-        <v>13551100</v>
+        <v>14728400</v>
       </c>
       <c r="F48" s="3">
-        <v>13051900</v>
+        <v>14045000</v>
       </c>
       <c r="G48" s="3">
-        <v>12951900</v>
+        <v>13527600</v>
       </c>
       <c r="H48" s="3">
-        <v>12286300</v>
+        <v>13423900</v>
       </c>
       <c r="I48" s="3">
-        <v>12089300</v>
+        <v>12734100</v>
       </c>
       <c r="J48" s="3">
+        <v>12529900</v>
+      </c>
+      <c r="K48" s="3">
         <v>12068900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11692500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11937900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12927300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13665500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14568100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16013100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16103700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16666700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15310300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14609200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14381600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>8048300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8564100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8308300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14217900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15359300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15393300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>70893500</v>
+        <v>67533200</v>
       </c>
       <c r="E49" s="3">
-        <v>68342600</v>
+        <v>73477000</v>
       </c>
       <c r="F49" s="3">
-        <v>67224800</v>
+        <v>70833100</v>
       </c>
       <c r="G49" s="3">
-        <v>67744400</v>
+        <v>69674600</v>
       </c>
       <c r="H49" s="3">
-        <v>65730300</v>
+        <v>70213100</v>
       </c>
       <c r="I49" s="3">
-        <v>63289600</v>
+        <v>68125700</v>
       </c>
       <c r="J49" s="3">
+        <v>65596000</v>
+      </c>
+      <c r="K49" s="3">
         <v>64696300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>61681200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62871800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>78750600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>83442700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>86195700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>92670500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86197200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>90551100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>88880700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>85576500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>85283900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28180200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>29648600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>30135500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>31985700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>34811700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>35072300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3795,8 +3908,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3875,88 +3991,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5268300</v>
+        <v>5930100</v>
       </c>
       <c r="E52" s="3">
-        <v>5177500</v>
+        <v>5460300</v>
       </c>
       <c r="F52" s="3">
-        <v>4996800</v>
+        <v>5366200</v>
       </c>
       <c r="G52" s="3">
-        <v>4675300</v>
+        <v>5178900</v>
       </c>
       <c r="H52" s="3">
-        <v>4704900</v>
+        <v>4845600</v>
       </c>
       <c r="I52" s="3">
-        <v>4563000</v>
+        <v>4876300</v>
       </c>
       <c r="J52" s="3">
+        <v>4729300</v>
+      </c>
+      <c r="K52" s="3">
         <v>4309800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4670800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4484700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4199100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5384100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6040400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6190200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5782400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5125500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4535600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5569100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4813600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5514600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6432400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7104400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7589900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7453700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4035,88 +4157,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>133735000</v>
+        <v>132119900</v>
       </c>
       <c r="E54" s="3">
-        <v>131472900</v>
+        <v>138608600</v>
       </c>
       <c r="F54" s="3">
-        <v>128398300</v>
+        <v>136264100</v>
       </c>
       <c r="G54" s="3">
-        <v>122742000</v>
+        <v>133077400</v>
       </c>
       <c r="H54" s="3">
-        <v>118973200</v>
+        <v>127215000</v>
       </c>
       <c r="I54" s="3">
-        <v>116554900</v>
+        <v>123308800</v>
       </c>
       <c r="J54" s="3">
+        <v>120802400</v>
+      </c>
+      <c r="K54" s="3">
         <v>120993400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>116500300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>124049800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>134909600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>141672700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>147296800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>160080500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>150933300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>155929500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>149911300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>144556200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>151106800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>82782600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>84246900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>86067900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>92721300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>99837200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>96531800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4145,8 +4273,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4175,488 +4304,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6685200</v>
+        <v>7982600</v>
       </c>
       <c r="E57" s="3">
-        <v>6223800</v>
+        <v>6928800</v>
       </c>
       <c r="F57" s="3">
-        <v>5968600</v>
+        <v>6450600</v>
       </c>
       <c r="G57" s="3">
-        <v>6933300</v>
+        <v>6186100</v>
       </c>
       <c r="H57" s="3">
-        <v>5703200</v>
+        <v>7185900</v>
       </c>
       <c r="I57" s="3">
-        <v>5219400</v>
+        <v>5911000</v>
       </c>
       <c r="J57" s="3">
+        <v>5409600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5292800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5663200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5668000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5561500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6019200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7501800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6978800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6333700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6835100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7142400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6154900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5456000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4329400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5754700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4407200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5846700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>6679000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>7524100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>5441900</v>
+        <v>8316900</v>
       </c>
       <c r="E58" s="3">
-        <v>6709700</v>
+        <v>5640200</v>
       </c>
       <c r="F58" s="3">
-        <v>6021700</v>
+        <v>6954200</v>
       </c>
       <c r="G58" s="3">
-        <v>4482300</v>
+        <v>6241100</v>
       </c>
       <c r="H58" s="3">
-        <v>4891700</v>
+        <v>4645700</v>
       </c>
       <c r="I58" s="3">
-        <v>3784100</v>
+        <v>5069900</v>
       </c>
       <c r="J58" s="3">
+        <v>3922000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5048900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8546700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8573100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8042200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3613100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2547300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7378100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7853600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5007300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4355400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3867700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>10470500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1933600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2171100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3973000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5651500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4928800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3992100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>21734900</v>
+        <v>20819300</v>
       </c>
       <c r="E59" s="3">
-        <v>21409200</v>
+        <v>22526900</v>
       </c>
       <c r="F59" s="3">
-        <v>19673900</v>
+        <v>22189400</v>
       </c>
       <c r="G59" s="3">
-        <v>18599000</v>
+        <v>20390800</v>
       </c>
       <c r="H59" s="3">
-        <v>18729600</v>
+        <v>19276800</v>
       </c>
       <c r="I59" s="3">
-        <v>19547300</v>
+        <v>19412200</v>
       </c>
       <c r="J59" s="3">
+        <v>20259600</v>
+      </c>
+      <c r="K59" s="3">
         <v>19238000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22462400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22905400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>26261500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>15569200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17052400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17562700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15766100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16841300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15856800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12639900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13753500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8118600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7325500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8352100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9550400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11366000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10242700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>33862000</v>
+        <v>37118900</v>
       </c>
       <c r="E60" s="3">
-        <v>34342800</v>
+        <v>35096000</v>
       </c>
       <c r="F60" s="3">
-        <v>31664200</v>
+        <v>35594300</v>
       </c>
       <c r="G60" s="3">
-        <v>30014600</v>
+        <v>32818100</v>
       </c>
       <c r="H60" s="3">
-        <v>29324500</v>
+        <v>31108400</v>
       </c>
       <c r="I60" s="3">
-        <v>28550800</v>
+        <v>30393200</v>
       </c>
       <c r="J60" s="3">
+        <v>29591200</v>
+      </c>
+      <c r="K60" s="3">
         <v>29579700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36672400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>37146400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>39865100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>25201500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27101400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>31919600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>29953500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>28683700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>27354600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>22662600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>29680000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14381600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15251200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>16732200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>21048500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>22973800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>21758900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>40280800</v>
+        <v>35750900</v>
       </c>
       <c r="E61" s="3">
-        <v>38852700</v>
+        <v>41748700</v>
       </c>
       <c r="F61" s="3">
-        <v>37410300</v>
+        <v>40268500</v>
       </c>
       <c r="G61" s="3">
-        <v>37239800</v>
+        <v>38773600</v>
       </c>
       <c r="H61" s="3">
-        <v>37743100</v>
+        <v>38596900</v>
       </c>
       <c r="I61" s="3">
-        <v>37431700</v>
+        <v>39118500</v>
       </c>
       <c r="J61" s="3">
+        <v>38795800</v>
+      </c>
+      <c r="K61" s="3">
         <v>38711800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33114700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36523700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>37033100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41564400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43091400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>46258100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>43117400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>45397000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>44609500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>44700500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>46767100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>13475800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14005800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14110100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>15896400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>17358300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>18992200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>17262700</v>
+        <v>18066400</v>
       </c>
       <c r="E62" s="3">
-        <v>19278800</v>
+        <v>17891800</v>
       </c>
       <c r="F62" s="3">
-        <v>20934600</v>
+        <v>19981400</v>
       </c>
       <c r="G62" s="3">
-        <v>21629700</v>
+        <v>21697500</v>
       </c>
       <c r="H62" s="3">
-        <v>19982200</v>
+        <v>22418000</v>
       </c>
       <c r="I62" s="3">
-        <v>19381900</v>
+        <v>20710400</v>
       </c>
       <c r="J62" s="3">
+        <v>20088200</v>
+      </c>
+      <c r="K62" s="3">
         <v>17229100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16118000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17709700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18884700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19828100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21730200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25476100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25085600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>24434800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23358700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>21373400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22817500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12779600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>13632200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13426900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15964800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17415800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>18339600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4735,8 +4883,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4815,8 +4966,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,88 +5049,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>91604600</v>
+        <v>91098000</v>
       </c>
       <c r="E66" s="3">
-        <v>92663100</v>
+        <v>94942800</v>
       </c>
       <c r="F66" s="3">
-        <v>90182600</v>
+        <v>96040000</v>
       </c>
       <c r="G66" s="3">
-        <v>89035200</v>
+        <v>93469000</v>
       </c>
       <c r="H66" s="3">
-        <v>87223300</v>
+        <v>92279800</v>
       </c>
       <c r="I66" s="3">
-        <v>85533900</v>
+        <v>90401900</v>
       </c>
       <c r="J66" s="3">
+        <v>88650900</v>
+      </c>
+      <c r="K66" s="3">
         <v>85684900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>86056700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91535500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>95959700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86788300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>92133200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>103876700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>98357600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>98720000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>95525100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>88927000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>99344800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>40698500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>42956500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>44334300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>56088300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>60377300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>60926600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5005,8 +5165,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5085,8 +5246,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5165,8 +5329,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5245,8 +5412,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5325,88 +5495,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>20922300</v>
+        <v>19040800</v>
       </c>
       <c r="E72" s="3">
-        <v>17601700</v>
+        <v>21684800</v>
       </c>
       <c r="F72" s="3">
-        <v>17007500</v>
+        <v>18243100</v>
       </c>
       <c r="G72" s="3">
-        <v>12498700</v>
+        <v>17627300</v>
       </c>
       <c r="H72" s="3">
-        <v>10541800</v>
+        <v>12954200</v>
       </c>
       <c r="I72" s="3">
-        <v>9813000</v>
+        <v>10926000</v>
       </c>
       <c r="J72" s="3">
+        <v>10170600</v>
+      </c>
+      <c r="K72" s="3">
         <v>14100300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9721700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10950900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>16285100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31426200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30909500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30754600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28136000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>32358400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29811400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>32618800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28951000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29155200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28078900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28522100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>23421500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>36975000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>33120200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5485,8 +5661,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5565,8 +5744,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5645,88 +5827,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>42130500</v>
+        <v>41021800</v>
       </c>
       <c r="E76" s="3">
-        <v>38809800</v>
+        <v>43665800</v>
       </c>
       <c r="F76" s="3">
-        <v>38215700</v>
+        <v>40224100</v>
       </c>
       <c r="G76" s="3">
-        <v>33706800</v>
+        <v>39608300</v>
       </c>
       <c r="H76" s="3">
-        <v>31749900</v>
+        <v>34935200</v>
       </c>
       <c r="I76" s="3">
-        <v>31021100</v>
+        <v>32907000</v>
       </c>
       <c r="J76" s="3">
+        <v>32151600</v>
+      </c>
+      <c r="K76" s="3">
         <v>35308500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30443600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32514300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38949900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>54884400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>55163600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>56203800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>52575700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>57209500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>54386200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>55629200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>51761900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>42084100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>41290400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41733500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>36633000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>39460000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>35605200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5805,173 +5993,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>557400</v>
+        <v>646400</v>
       </c>
       <c r="E81" s="3">
-        <v>-304200</v>
+        <v>577700</v>
       </c>
       <c r="F81" s="3">
-        <v>3359500</v>
+        <v>-315300</v>
       </c>
       <c r="G81" s="3">
-        <v>1185100</v>
+        <v>3481900</v>
       </c>
       <c r="H81" s="3">
-        <v>86800</v>
+        <v>1228300</v>
       </c>
       <c r="I81" s="3">
-        <v>-2383600</v>
+        <v>89900</v>
       </c>
       <c r="J81" s="3">
+        <v>-2470400</v>
+      </c>
+      <c r="K81" s="3">
         <v>2132500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>307200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2848000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10416000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1681200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1650700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1269100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1930500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1484500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3179900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>871800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2145500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>166100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4354400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1373300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2445000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>531700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6000,88 +6197,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1119800</v>
+        <v>1951000</v>
       </c>
       <c r="E83" s="3">
-        <v>2533600</v>
+        <v>1160600</v>
       </c>
       <c r="F83" s="3">
-        <v>1102500</v>
+        <v>2626000</v>
       </c>
       <c r="G83" s="3">
-        <v>-296000</v>
+        <v>1142600</v>
       </c>
       <c r="H83" s="3">
-        <v>888100</v>
+        <v>-306800</v>
       </c>
       <c r="I83" s="3">
-        <v>1418900</v>
+        <v>920500</v>
       </c>
       <c r="J83" s="3">
+        <v>1470600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1108600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>507700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10683100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1287300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1441900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1874900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1238500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3232700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1421100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5043900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>991300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>752100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>557800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>936900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>295100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>933500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>856900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1320500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6160,8 +6361,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6240,8 +6444,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6320,8 +6527,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6400,8 +6610,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6480,88 +6693,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>2706100</v>
+        <v>3238500</v>
       </c>
       <c r="E89" s="3">
-        <v>2147800</v>
+        <v>2807900</v>
       </c>
       <c r="F89" s="3">
-        <v>-738000</v>
+        <v>2226000</v>
       </c>
       <c r="G89" s="3">
-        <v>3100200</v>
+        <v>-764900</v>
       </c>
       <c r="H89" s="3">
-        <v>2918500</v>
+        <v>3213100</v>
       </c>
       <c r="I89" s="3">
-        <v>2038500</v>
+        <v>3024800</v>
       </c>
       <c r="J89" s="3">
+        <v>2112800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2822500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>749000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2041500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2633500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-266500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3767200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2795400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3150400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1289500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3510800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2271700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2459500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>723600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2545800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3041700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2595200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>987200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3212700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6590,88 +6809,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-741100</v>
+        <v>-1400800</v>
       </c>
       <c r="E91" s="3">
-        <v>-561400</v>
+        <v>-768100</v>
       </c>
       <c r="F91" s="3">
-        <v>-356300</v>
+        <v>-581900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1163700</v>
+        <v>-369200</v>
       </c>
       <c r="H91" s="3">
-        <v>-662500</v>
+        <v>-1206100</v>
       </c>
       <c r="I91" s="3">
-        <v>-503300</v>
+        <v>-686600</v>
       </c>
       <c r="J91" s="3">
+        <v>-521600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-335800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-890700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-569800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-638200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-441500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-893000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-472500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-729900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-504000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-383200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-624900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-534100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-487100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>748900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6750,8 +6973,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6830,88 +7056,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-427700</v>
+        <v>70900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2828600</v>
+        <v>-443300</v>
       </c>
       <c r="F94" s="3">
-        <v>757400</v>
+        <v>-2931700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1008600</v>
+        <v>785000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2602000</v>
+        <v>-1045300</v>
       </c>
       <c r="I94" s="3">
-        <v>456300</v>
+        <v>-2696800</v>
       </c>
       <c r="J94" s="3">
+        <v>472900</v>
+      </c>
+      <c r="K94" s="3">
         <v>4027100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-193500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2968400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-459300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-675200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>40900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-292800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-549400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>92100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-675400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7090900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1917500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>194100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6940,28 +7172,29 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-4100</v>
+        <v>-15900</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-24500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-4100</v>
+        <v>-25400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6970,58 +7203,61 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-17600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3001100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7100,8 +7336,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7180,8 +7419,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7260,244 +7502,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1367900</v>
+        <v>-2265200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1851700</v>
+        <v>-1417700</v>
       </c>
       <c r="F100" s="3">
-        <v>1097400</v>
+        <v>-1919200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1835400</v>
+        <v>1137400</v>
       </c>
       <c r="H100" s="3">
-        <v>656400</v>
+        <v>-1902300</v>
       </c>
       <c r="I100" s="3">
-        <v>-4698700</v>
+        <v>680300</v>
       </c>
       <c r="J100" s="3">
+        <v>-4870000</v>
+      </c>
+      <c r="K100" s="3">
         <v>115400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1350500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2975700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1228400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>40600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>39249100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-637900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-41500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-616000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>717200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3413400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>56100</v>
+        <v>-191500</v>
       </c>
       <c r="E101" s="3">
-        <v>108200</v>
+        <v>58200</v>
       </c>
       <c r="F101" s="3">
-        <v>134700</v>
+        <v>112100</v>
       </c>
       <c r="G101" s="3">
-        <v>-3100</v>
+        <v>139700</v>
       </c>
       <c r="H101" s="3">
-        <v>-26500</v>
+        <v>-3200</v>
       </c>
       <c r="I101" s="3">
-        <v>-2000</v>
+        <v>-27500</v>
       </c>
       <c r="J101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K101" s="3">
         <v>67400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-78800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-64300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-33800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-76800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-18700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-26000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-59800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-424900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-129600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-51600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-72900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-41500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>91</v>
+      <c r="D102" s="3">
+        <v>852700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2424400</v>
+        <v>1005100</v>
       </c>
       <c r="F102" s="3">
-        <v>1251500</v>
+        <v>-2512800</v>
       </c>
       <c r="G102" s="3">
-        <v>253200</v>
+        <v>1297100</v>
       </c>
       <c r="H102" s="3">
-        <v>946300</v>
+        <v>262400</v>
       </c>
       <c r="I102" s="3">
-        <v>-2205900</v>
+        <v>980800</v>
       </c>
       <c r="J102" s="3">
+        <v>-2286300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1387300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-873700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1984500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>912000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-977800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1260500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-789400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-942800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-179400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-357900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2273200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3121400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>616000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>381500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>782900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>BAYRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,358 +665,370 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12696000</v>
+        <v>15495500</v>
       </c>
       <c r="E8" s="3">
-        <v>11935300</v>
+        <v>12922800</v>
       </c>
       <c r="F8" s="3">
-        <v>13562500</v>
+        <v>12148500</v>
       </c>
       <c r="G8" s="3">
-        <v>15488100</v>
+        <v>13804800</v>
       </c>
       <c r="H8" s="3">
-        <v>11762800</v>
+        <v>15764700</v>
       </c>
       <c r="I8" s="3">
-        <v>10348300</v>
+        <v>11973000</v>
       </c>
       <c r="J8" s="3">
+        <v>10533200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11483500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12584400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9969000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8828400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10968000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14503300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12549700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12041700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>27016000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14655800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12248900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10257500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10410100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10033500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>9644600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9004000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9777000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11362500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>10356500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5044500</v>
+        <v>6173900</v>
       </c>
       <c r="E9" s="3">
-        <v>4493300</v>
+        <v>5134700</v>
       </c>
       <c r="F9" s="3">
-        <v>6009400</v>
+        <v>4573600</v>
       </c>
       <c r="G9" s="3">
-        <v>5476200</v>
+        <v>6116800</v>
       </c>
       <c r="H9" s="3">
-        <v>3898700</v>
+        <v>5574000</v>
       </c>
       <c r="I9" s="3">
-        <v>4112400</v>
+        <v>3968400</v>
       </c>
       <c r="J9" s="3">
+        <v>4185900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4809700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4795700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3659500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7052500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4383300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5257100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5743700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4634100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10481700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5821900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6676300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4542300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3850700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3194100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3418700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2877900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3122500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3506200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3695200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7651500</v>
+        <v>9321600</v>
       </c>
       <c r="E10" s="3">
-        <v>7442000</v>
+        <v>7788100</v>
       </c>
       <c r="F10" s="3">
-        <v>7553100</v>
+        <v>7574900</v>
       </c>
       <c r="G10" s="3">
-        <v>10011900</v>
+        <v>7688000</v>
       </c>
       <c r="H10" s="3">
-        <v>7864100</v>
+        <v>10190700</v>
       </c>
       <c r="I10" s="3">
-        <v>6235900</v>
+        <v>8004600</v>
       </c>
       <c r="J10" s="3">
+        <v>6347200</v>
+      </c>
+      <c r="K10" s="3">
         <v>6673900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7788700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6309600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1775800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6584700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9246200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6806000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7407500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16534300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8833900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5572600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5715200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6559500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6839400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6225900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6126100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6654500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>7856300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6661400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,91 +1058,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1707600</v>
+        <v>1691800</v>
       </c>
       <c r="E12" s="3">
-        <v>1667400</v>
+        <v>1738100</v>
       </c>
       <c r="F12" s="3">
-        <v>2039800</v>
+        <v>1697200</v>
       </c>
       <c r="G12" s="3">
-        <v>1538300</v>
+        <v>2076300</v>
       </c>
       <c r="H12" s="3">
-        <v>1070700</v>
+        <v>1565800</v>
       </c>
       <c r="I12" s="3">
-        <v>1654700</v>
+        <v>1089800</v>
       </c>
       <c r="J12" s="3">
+        <v>1684300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1733000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1222900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1287600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3493600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1273100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1470100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1633200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1569200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3083300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1575400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2008600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1292600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1391200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1141900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1384500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1210600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1230800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1284100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1461400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1212,8 +1228,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1295,8 +1314,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1378,8 +1400,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1406,174 +1431,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11180900</v>
+        <v>12293900</v>
       </c>
       <c r="E17" s="3">
-        <v>10666800</v>
+        <v>11380700</v>
       </c>
       <c r="F17" s="3">
-        <v>13383700</v>
+        <v>10857300</v>
       </c>
       <c r="G17" s="3">
-        <v>11031800</v>
+        <v>13622800</v>
       </c>
       <c r="H17" s="3">
-        <v>9624600</v>
+        <v>11228800</v>
       </c>
       <c r="I17" s="3">
-        <v>9787600</v>
+        <v>9796600</v>
       </c>
       <c r="J17" s="3">
+        <v>9962400</v>
+      </c>
+      <c r="K17" s="3">
         <v>13896800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9437300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8458000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18583600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22732400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11681700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12095500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10561900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23998600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12526600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>17224200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5469300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8932200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7497100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8943400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7446600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8135500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8513600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>9668700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1515100</v>
+        <v>3201600</v>
       </c>
       <c r="E18" s="3">
-        <v>1268500</v>
+        <v>1542100</v>
       </c>
       <c r="F18" s="3">
-        <v>178800</v>
+        <v>1291200</v>
       </c>
       <c r="G18" s="3">
-        <v>4456300</v>
+        <v>182000</v>
       </c>
       <c r="H18" s="3">
-        <v>2138200</v>
+        <v>4535900</v>
       </c>
       <c r="I18" s="3">
-        <v>560700</v>
+        <v>2176400</v>
       </c>
       <c r="J18" s="3">
+        <v>570800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2413300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3147100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1511100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9755200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11764400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2821600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>454100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1479800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3017500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2129200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4788200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1477900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2536400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>701200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1557300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1641500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2848800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>687900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1603,174 +1635,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-594600</v>
+        <v>-395200</v>
       </c>
       <c r="E20" s="3">
-        <v>-632700</v>
+        <v>-605200</v>
       </c>
       <c r="F20" s="3">
-        <v>-732100</v>
+        <v>-644000</v>
       </c>
       <c r="G20" s="3">
-        <v>-518400</v>
+        <v>-745200</v>
       </c>
       <c r="H20" s="3">
-        <v>-554400</v>
+        <v>-527700</v>
       </c>
       <c r="I20" s="3">
-        <v>-355500</v>
+        <v>-564300</v>
       </c>
       <c r="J20" s="3">
+        <v>-361800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-104700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-355200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-141600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-301100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-736200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-441300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-219300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-884700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-356500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-851700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-752100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-354700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>142700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-289500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-452200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-414000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-347400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-262900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2871400</v>
+        <v>4254800</v>
       </c>
       <c r="E21" s="3">
-        <v>1796500</v>
+        <v>2922700</v>
       </c>
       <c r="F21" s="3">
-        <v>2072600</v>
+        <v>1828600</v>
       </c>
       <c r="G21" s="3">
-        <v>5080500</v>
+        <v>2109600</v>
       </c>
       <c r="H21" s="3">
-        <v>1277000</v>
+        <v>5171300</v>
       </c>
       <c r="I21" s="3">
-        <v>1125700</v>
+        <v>1299800</v>
       </c>
       <c r="J21" s="3">
+        <v>1145800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1047400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3900500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1877100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>916500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10778200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3527300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1887700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2499000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>5365600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3193900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-914400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>5027400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1875400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3236900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1348600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1757000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1804200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3358300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2344100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1852,174 +1891,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>920500</v>
+        <v>2806400</v>
       </c>
       <c r="E23" s="3">
-        <v>635900</v>
+        <v>936900</v>
       </c>
       <c r="F23" s="3">
-        <v>-553300</v>
+        <v>647200</v>
       </c>
       <c r="G23" s="3">
-        <v>3937900</v>
+        <v>-563200</v>
       </c>
       <c r="H23" s="3">
-        <v>1583800</v>
+        <v>4008200</v>
       </c>
       <c r="I23" s="3">
-        <v>205300</v>
+        <v>1612100</v>
       </c>
       <c r="J23" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2518000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2791900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1369400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9766600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12065500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2085400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1260500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2132800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1772800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4036100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1123300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2679100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>411800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1105200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1227500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2501400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>424900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>276100</v>
+        <v>456600</v>
       </c>
       <c r="E24" s="3">
-        <v>51800</v>
+        <v>281100</v>
       </c>
       <c r="F24" s="3">
-        <v>-247600</v>
+        <v>52800</v>
       </c>
       <c r="G24" s="3">
-        <v>452800</v>
+        <v>-252000</v>
       </c>
       <c r="H24" s="3">
-        <v>346000</v>
+        <v>460900</v>
       </c>
       <c r="I24" s="3">
-        <v>110000</v>
+        <v>352100</v>
       </c>
       <c r="J24" s="3">
+        <v>112000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>658400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>984400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1769600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1581800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>540800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>434100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>428200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>918200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>236100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>542400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>488100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>237900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>289500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>497700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>74000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2101,174 +2149,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>644300</v>
+        <v>2349800</v>
       </c>
       <c r="E26" s="3">
-        <v>584000</v>
+        <v>655800</v>
       </c>
       <c r="F26" s="3">
-        <v>-305800</v>
+        <v>594400</v>
       </c>
       <c r="G26" s="3">
-        <v>3485100</v>
+        <v>-311200</v>
       </c>
       <c r="H26" s="3">
-        <v>1237900</v>
+        <v>3547300</v>
       </c>
       <c r="I26" s="3">
-        <v>95200</v>
+        <v>1260000</v>
       </c>
       <c r="J26" s="3">
+        <v>96900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2463000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2133500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>385000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7997000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10483600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1544600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-37400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1222500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1698700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1344500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3117900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>887200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2136700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-76300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>867300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>938000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2003700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>351000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>646400</v>
+        <v>2345500</v>
       </c>
       <c r="E27" s="3">
-        <v>577700</v>
+        <v>658000</v>
       </c>
       <c r="F27" s="3">
-        <v>-315300</v>
+        <v>588000</v>
       </c>
       <c r="G27" s="3">
-        <v>3481900</v>
+        <v>-320900</v>
       </c>
       <c r="H27" s="3">
-        <v>1228300</v>
+        <v>3544100</v>
       </c>
       <c r="I27" s="3">
-        <v>89900</v>
+        <v>1250300</v>
       </c>
       <c r="J27" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2470400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2132500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>382000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7993900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10493500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1545700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1212700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1698700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1350500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3109000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>880600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2136700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-78500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>870700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>935700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1783000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>346300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2350,8 +2407,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2367,8 +2427,8 @@
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2380,61 +2440,64 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-74800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5145900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>77500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>135500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1700900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>56300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>231800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>134000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>47300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>70900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-8800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>8800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>244600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>3483800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>437600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>662000</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>185500</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2516,8 +2579,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2599,174 +2665,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>594600</v>
+        <v>395200</v>
       </c>
       <c r="E32" s="3">
-        <v>632700</v>
+        <v>605200</v>
       </c>
       <c r="F32" s="3">
-        <v>732100</v>
+        <v>644000</v>
       </c>
       <c r="G32" s="3">
-        <v>518400</v>
+        <v>745200</v>
       </c>
       <c r="H32" s="3">
-        <v>554400</v>
+        <v>527700</v>
       </c>
       <c r="I32" s="3">
-        <v>355500</v>
+        <v>564300</v>
       </c>
       <c r="J32" s="3">
+        <v>361800</v>
+      </c>
+      <c r="K32" s="3">
         <v>104700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>355200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>141600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>301100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>736200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>441300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>219300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>884700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>356500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>851700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>752100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>354700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-142700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>289500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>452200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>414000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>347400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>262900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>646400</v>
+        <v>2345500</v>
       </c>
       <c r="E33" s="3">
-        <v>577700</v>
+        <v>658000</v>
       </c>
       <c r="F33" s="3">
-        <v>-315300</v>
+        <v>588000</v>
       </c>
       <c r="G33" s="3">
-        <v>3481900</v>
+        <v>-320900</v>
       </c>
       <c r="H33" s="3">
-        <v>1228300</v>
+        <v>3544100</v>
       </c>
       <c r="I33" s="3">
-        <v>89900</v>
+        <v>1250300</v>
       </c>
       <c r="J33" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2470400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2132500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>307200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2848000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10416000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1681200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1650700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1269100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1930500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1484500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3179900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>871800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2145500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>166100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4354400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1373300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>2445000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>531700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2848,179 +2923,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>646400</v>
+        <v>2345500</v>
       </c>
       <c r="E35" s="3">
-        <v>577700</v>
+        <v>658000</v>
       </c>
       <c r="F35" s="3">
-        <v>-315300</v>
+        <v>588000</v>
       </c>
       <c r="G35" s="3">
-        <v>3481900</v>
+        <v>-320900</v>
       </c>
       <c r="H35" s="3">
-        <v>1228300</v>
+        <v>3544100</v>
       </c>
       <c r="I35" s="3">
-        <v>89900</v>
+        <v>1250300</v>
       </c>
       <c r="J35" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2470400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2132500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>307200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2848000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10416000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1681200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1650700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1269100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1930500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1484500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3179900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>871800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2145500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>166100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4354400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1373300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>2445000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>531700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3050,8 +3134,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3081,340 +3166,353 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5470900</v>
+        <v>5227300</v>
       </c>
       <c r="E41" s="3">
-        <v>4613900</v>
+        <v>5568600</v>
       </c>
       <c r="F41" s="3">
-        <v>3609900</v>
+        <v>4696400</v>
       </c>
       <c r="G41" s="3">
-        <v>6120500</v>
+        <v>3674400</v>
       </c>
       <c r="H41" s="3">
-        <v>4828700</v>
+        <v>6229900</v>
       </c>
       <c r="I41" s="3">
-        <v>4566300</v>
+        <v>4915000</v>
       </c>
       <c r="J41" s="3">
+        <v>4647900</v>
+      </c>
+      <c r="K41" s="3">
         <v>3585600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5665400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4180100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5259000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3434200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2584500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3718200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5402200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3932700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4859000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4793100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5371900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5469100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5854500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8505800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6232700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3111300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2610600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2229100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5510100</v>
+        <v>3361000</v>
       </c>
       <c r="E42" s="3">
-        <v>4986400</v>
+        <v>5608500</v>
       </c>
       <c r="F42" s="3">
-        <v>5059400</v>
+        <v>5075400</v>
       </c>
       <c r="G42" s="3">
-        <v>2548700</v>
+        <v>5149700</v>
       </c>
       <c r="H42" s="3">
-        <v>3535800</v>
+        <v>2594300</v>
       </c>
       <c r="I42" s="3">
-        <v>4129400</v>
+        <v>3599000</v>
       </c>
       <c r="J42" s="3">
+        <v>4203100</v>
+      </c>
+      <c r="K42" s="3">
         <v>3289300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3840200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7919400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10869900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2792700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3118600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2715400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1401400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1022300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1019200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1379300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1773300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1709600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8031900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>3959500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>6806000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>8115400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7819900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7365700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14539000</v>
+        <v>19507000</v>
       </c>
       <c r="E43" s="3">
-        <v>15602300</v>
+        <v>14798800</v>
       </c>
       <c r="F43" s="3">
-        <v>19451300</v>
+        <v>15881000</v>
       </c>
       <c r="G43" s="3">
-        <v>18857800</v>
+        <v>19798800</v>
       </c>
       <c r="H43" s="3">
-        <v>14052400</v>
+        <v>19194700</v>
       </c>
       <c r="I43" s="3">
-        <v>13809000</v>
+        <v>14303400</v>
       </c>
       <c r="J43" s="3">
+        <v>14055700</v>
+      </c>
+      <c r="K43" s="3">
         <v>16729100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16240900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12437600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13808200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17152400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18828900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17675800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17387500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19478800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20154800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17129600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>15883000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>18145500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>12064800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>11592400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>11857200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>15914300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>18548500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>16263100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14426900</v>
+        <v>14571500</v>
       </c>
       <c r="E44" s="3">
-        <v>13532900</v>
+        <v>14684600</v>
       </c>
       <c r="F44" s="3">
-        <v>12030500</v>
+        <v>13774600</v>
       </c>
       <c r="G44" s="3">
-        <v>11499400</v>
+        <v>12245400</v>
       </c>
       <c r="H44" s="3">
-        <v>11970200</v>
+        <v>11704800</v>
       </c>
       <c r="I44" s="3">
-        <v>11261400</v>
+        <v>12184000</v>
       </c>
       <c r="J44" s="3">
+        <v>11462500</v>
+      </c>
+      <c r="K44" s="3">
         <v>10712300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10674500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10932500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10848100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>11048700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11297800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>12432900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12733800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12082800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12574500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>13168000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12230100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12023100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7029400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7349000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7558800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>9490900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>10181600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>9869400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3422,414 +3520,429 @@
         <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>1904400</v>
+        <v>3200</v>
       </c>
       <c r="F45" s="3">
-        <v>1692800</v>
+        <v>1938400</v>
       </c>
       <c r="G45" s="3">
-        <v>1437800</v>
+        <v>1723000</v>
       </c>
       <c r="H45" s="3">
-        <v>80400</v>
+        <v>1463500</v>
       </c>
       <c r="I45" s="3">
-        <v>31700</v>
+        <v>81800</v>
       </c>
       <c r="J45" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K45" s="3">
         <v>33900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>137800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1427200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1327300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3981200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1892800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>277500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>276800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>260300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4083500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3438900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2334900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2046500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>32900</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>11700</v>
       </c>
       <c r="AC45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>39950100</v>
+        <v>42670000</v>
       </c>
       <c r="E46" s="3">
-        <v>40639900</v>
+        <v>40663700</v>
       </c>
       <c r="F46" s="3">
-        <v>41843900</v>
+        <v>41365900</v>
       </c>
       <c r="G46" s="3">
-        <v>40464300</v>
+        <v>42591400</v>
       </c>
       <c r="H46" s="3">
-        <v>34467500</v>
+        <v>41187100</v>
       </c>
       <c r="I46" s="3">
-        <v>33797800</v>
+        <v>35083200</v>
       </c>
       <c r="J46" s="3">
+        <v>34401600</v>
+      </c>
+      <c r="K46" s="3">
         <v>34350100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>36558900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>35582200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>40829900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35728400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>37256900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37869600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40906100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38409500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>38884900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36746800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>35518500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>41430800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>36419600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>33741600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>34501200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>36635200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>39193500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>35739000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4239400</v>
+        <v>4301100</v>
       </c>
       <c r="E47" s="3">
-        <v>4302900</v>
+        <v>4315100</v>
       </c>
       <c r="F47" s="3">
-        <v>4175900</v>
+        <v>4379800</v>
       </c>
       <c r="G47" s="3">
-        <v>4232000</v>
+        <v>4250500</v>
       </c>
       <c r="H47" s="3">
-        <v>4264800</v>
+        <v>4307600</v>
       </c>
       <c r="I47" s="3">
-        <v>3774900</v>
+        <v>4341000</v>
       </c>
       <c r="J47" s="3">
+        <v>3842400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3597200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3359500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2873500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3109500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3018500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3108400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3279300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4450400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4032700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4044400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3848000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4316300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4441400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5320900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>6777900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>6690400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2778000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2882900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2873500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14467100</v>
+        <v>14335700</v>
       </c>
       <c r="E48" s="3">
-        <v>14728400</v>
+        <v>14725500</v>
       </c>
       <c r="F48" s="3">
-        <v>14045000</v>
+        <v>14991500</v>
       </c>
       <c r="G48" s="3">
-        <v>13527600</v>
+        <v>14295800</v>
       </c>
       <c r="H48" s="3">
-        <v>13423900</v>
+        <v>13769200</v>
       </c>
       <c r="I48" s="3">
-        <v>12734100</v>
+        <v>13663700</v>
       </c>
       <c r="J48" s="3">
+        <v>12961600</v>
+      </c>
+      <c r="K48" s="3">
         <v>12529900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12068900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11692500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11937900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12927300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13665500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14568100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16013100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16103700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16666700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15310300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14609200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14381600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>8048300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8564100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8308300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>14217900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15359300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15393300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>67533200</v>
+        <v>67420400</v>
       </c>
       <c r="E49" s="3">
-        <v>73477000</v>
+        <v>68739600</v>
       </c>
       <c r="F49" s="3">
-        <v>70833100</v>
+        <v>74789600</v>
       </c>
       <c r="G49" s="3">
-        <v>69674600</v>
+        <v>72098500</v>
       </c>
       <c r="H49" s="3">
-        <v>70213100</v>
+        <v>70919200</v>
       </c>
       <c r="I49" s="3">
-        <v>68125700</v>
+        <v>71467400</v>
       </c>
       <c r="J49" s="3">
+        <v>69342700</v>
+      </c>
+      <c r="K49" s="3">
         <v>65596000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64696300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>61681200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62871800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>78750600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>83442700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>86195700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>92670500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>86197200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>90551100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>88880700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>85576500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>85283900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28180200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>29648600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>30135500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>31985700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>34811700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>35072300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3911,8 +4024,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3994,91 +4110,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5930100</v>
+        <v>5941300</v>
       </c>
       <c r="E52" s="3">
-        <v>5460300</v>
+        <v>6036000</v>
       </c>
       <c r="F52" s="3">
-        <v>5366200</v>
+        <v>5557900</v>
       </c>
       <c r="G52" s="3">
-        <v>5178900</v>
+        <v>5462000</v>
       </c>
       <c r="H52" s="3">
-        <v>4845600</v>
+        <v>5271400</v>
       </c>
       <c r="I52" s="3">
-        <v>4876300</v>
+        <v>4932200</v>
       </c>
       <c r="J52" s="3">
+        <v>4963400</v>
+      </c>
+      <c r="K52" s="3">
         <v>4729300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4309800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4670800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5300600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4484700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4199100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5384100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6040400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6190200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5782400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5125500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4535600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5569100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4813600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5514600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6432400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7104400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7589900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7453700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4160,91 +4282,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>132119900</v>
+        <v>134668500</v>
       </c>
       <c r="E54" s="3">
-        <v>138608600</v>
+        <v>134480000</v>
       </c>
       <c r="F54" s="3">
-        <v>136264100</v>
+        <v>141084700</v>
       </c>
       <c r="G54" s="3">
-        <v>133077400</v>
+        <v>138698300</v>
       </c>
       <c r="H54" s="3">
-        <v>127215000</v>
+        <v>135454600</v>
       </c>
       <c r="I54" s="3">
-        <v>123308800</v>
+        <v>129487500</v>
       </c>
       <c r="J54" s="3">
+        <v>125511600</v>
+      </c>
+      <c r="K54" s="3">
         <v>120802400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>120993400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>116500300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>124049800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>134909600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>141672700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>147296800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>160080500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>150933300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>155929500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>149911300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>144556200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>151106800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>82782600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>84246900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>86067900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>92721300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>99837200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>96531800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4274,8 +4402,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4305,506 +4434,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>7982600</v>
+        <v>6750000</v>
       </c>
       <c r="E57" s="3">
-        <v>6928800</v>
+        <v>8125200</v>
       </c>
       <c r="F57" s="3">
-        <v>6450600</v>
+        <v>7052600</v>
       </c>
       <c r="G57" s="3">
-        <v>6186100</v>
+        <v>6565900</v>
       </c>
       <c r="H57" s="3">
-        <v>7185900</v>
+        <v>6296600</v>
       </c>
       <c r="I57" s="3">
-        <v>5911000</v>
+        <v>7314300</v>
       </c>
       <c r="J57" s="3">
+        <v>6016600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5409600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5292800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5663200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5668000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5561500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6019200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7501800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6978800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6333700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6835100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7142400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6154900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5456000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4329400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5754700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4407200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5846700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>6679000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>7524100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>8316900</v>
+        <v>10476100</v>
       </c>
       <c r="E58" s="3">
-        <v>5640200</v>
+        <v>8465500</v>
       </c>
       <c r="F58" s="3">
-        <v>6954200</v>
+        <v>5741000</v>
       </c>
       <c r="G58" s="3">
-        <v>6241100</v>
+        <v>7078500</v>
       </c>
       <c r="H58" s="3">
-        <v>4645700</v>
+        <v>6352600</v>
       </c>
       <c r="I58" s="3">
-        <v>5069900</v>
+        <v>4728700</v>
       </c>
       <c r="J58" s="3">
+        <v>5160500</v>
+      </c>
+      <c r="K58" s="3">
         <v>3922000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5048900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8546700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8573100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8042200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3613100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2547300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7378100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7853600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5007300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4355400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3867700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>10470500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1933600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2171100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3973000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5651500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4928800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3992100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>20819300</v>
+        <v>19809600</v>
       </c>
       <c r="E59" s="3">
-        <v>22526900</v>
+        <v>21191200</v>
       </c>
       <c r="F59" s="3">
-        <v>22189400</v>
+        <v>22929400</v>
       </c>
       <c r="G59" s="3">
-        <v>20390800</v>
+        <v>22585800</v>
       </c>
       <c r="H59" s="3">
-        <v>19276800</v>
+        <v>20755100</v>
       </c>
       <c r="I59" s="3">
-        <v>19412200</v>
+        <v>19621100</v>
       </c>
       <c r="J59" s="3">
+        <v>19759000</v>
+      </c>
+      <c r="K59" s="3">
         <v>20259600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19238000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22462400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22905400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>26261500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>15569200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>17052400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17562700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>15766100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16841300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15856800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12639900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>13753500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8118600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7325500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8352100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9550400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11366000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10242700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>37118900</v>
+        <v>37035700</v>
       </c>
       <c r="E60" s="3">
-        <v>35096000</v>
+        <v>37782000</v>
       </c>
       <c r="F60" s="3">
-        <v>35594300</v>
+        <v>35722900</v>
       </c>
       <c r="G60" s="3">
-        <v>32818100</v>
+        <v>36230100</v>
       </c>
       <c r="H60" s="3">
-        <v>31108400</v>
+        <v>33404400</v>
       </c>
       <c r="I60" s="3">
-        <v>30393200</v>
+        <v>31664100</v>
       </c>
       <c r="J60" s="3">
+        <v>30936100</v>
+      </c>
+      <c r="K60" s="3">
         <v>29591200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29579700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>36672400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>37146400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>39865100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>25201500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>27101400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>31919600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>29953500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>28683700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>27354600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>22662600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>29680000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14381600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15251200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>16732200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>21048500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>22973800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>21758900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>35750900</v>
+        <v>36152600</v>
       </c>
       <c r="E61" s="3">
-        <v>41748700</v>
+        <v>36389500</v>
       </c>
       <c r="F61" s="3">
-        <v>40268500</v>
+        <v>42494500</v>
       </c>
       <c r="G61" s="3">
-        <v>38773600</v>
+        <v>40987900</v>
       </c>
       <c r="H61" s="3">
-        <v>38596900</v>
+        <v>39466200</v>
       </c>
       <c r="I61" s="3">
-        <v>39118500</v>
+        <v>39286400</v>
       </c>
       <c r="J61" s="3">
+        <v>39817300</v>
+      </c>
+      <c r="K61" s="3">
         <v>38795800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38711800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33114700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36523700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37033100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41564400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43091400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>46258100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>43117400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>45397000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>44609500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>44700500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>46767100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>13475800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14005800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14110100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>15896400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>17358300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>18992200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>18066400</v>
+        <v>17309000</v>
       </c>
       <c r="E62" s="3">
-        <v>17891800</v>
+        <v>18389100</v>
       </c>
       <c r="F62" s="3">
-        <v>19981400</v>
+        <v>18211500</v>
       </c>
       <c r="G62" s="3">
-        <v>21697500</v>
+        <v>20338300</v>
       </c>
       <c r="H62" s="3">
-        <v>22418000</v>
+        <v>22085100</v>
       </c>
       <c r="I62" s="3">
-        <v>20710400</v>
+        <v>22818400</v>
       </c>
       <c r="J62" s="3">
+        <v>21080300</v>
+      </c>
+      <c r="K62" s="3">
         <v>20088200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17229100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16118000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17709700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18884700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19828100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>21730200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>25476100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25085600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>24434800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23358700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>21373400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22817500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12779600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>13632200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13426900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15964800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>17415800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>18339600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4886,8 +5034,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4969,8 +5120,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,91 +5206,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>91098000</v>
+        <v>90662100</v>
       </c>
       <c r="E66" s="3">
-        <v>94942800</v>
+        <v>92725400</v>
       </c>
       <c r="F66" s="3">
-        <v>96040000</v>
+        <v>96638900</v>
       </c>
       <c r="G66" s="3">
-        <v>93469000</v>
+        <v>97755600</v>
       </c>
       <c r="H66" s="3">
-        <v>92279800</v>
+        <v>95138700</v>
       </c>
       <c r="I66" s="3">
-        <v>90401900</v>
+        <v>93928300</v>
       </c>
       <c r="J66" s="3">
+        <v>92016800</v>
+      </c>
+      <c r="K66" s="3">
         <v>88650900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>85684900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>86056700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>91535500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>95959700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>86788300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>92133200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>103876700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>98357600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>98720000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>95525100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>88927000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>99344800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>40698500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>42956500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>44334300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>56088300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>60377300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>60926600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5166,8 +5326,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5249,8 +5410,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5332,8 +5496,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5415,8 +5582,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5498,91 +5668,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>19040800</v>
+        <v>21632800</v>
       </c>
       <c r="E72" s="3">
-        <v>21684800</v>
+        <v>19381000</v>
       </c>
       <c r="F72" s="3">
-        <v>18243100</v>
+        <v>22072100</v>
       </c>
       <c r="G72" s="3">
-        <v>17627300</v>
+        <v>18569000</v>
       </c>
       <c r="H72" s="3">
-        <v>12954200</v>
+        <v>17942200</v>
       </c>
       <c r="I72" s="3">
-        <v>10926000</v>
+        <v>13185600</v>
       </c>
       <c r="J72" s="3">
+        <v>11121100</v>
+      </c>
+      <c r="K72" s="3">
         <v>10170600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14100300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9721700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10950900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>16285100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31426200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30909500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30754600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28136000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>32358400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>29811400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32618800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28951000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>29155200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28078900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28522100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>23421500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>36975000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>33120200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5664,8 +5840,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5747,8 +5926,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5830,91 +6012,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>41021800</v>
+        <v>44006400</v>
       </c>
       <c r="E76" s="3">
-        <v>43665800</v>
+        <v>41754600</v>
       </c>
       <c r="F76" s="3">
-        <v>40224100</v>
+        <v>44445800</v>
       </c>
       <c r="G76" s="3">
-        <v>39608300</v>
+        <v>40942700</v>
       </c>
       <c r="H76" s="3">
-        <v>34935200</v>
+        <v>40315900</v>
       </c>
       <c r="I76" s="3">
-        <v>32907000</v>
+        <v>35559200</v>
       </c>
       <c r="J76" s="3">
+        <v>33494800</v>
+      </c>
+      <c r="K76" s="3">
         <v>32151600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35308500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30443600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32514300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38949900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>54884400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>55163600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>56203800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>52575700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>57209500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>54386200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>55629200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>51761900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>42084100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>41290400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41733500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>36633000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>39460000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>35605200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5996,179 +6184,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>646400</v>
+        <v>2345500</v>
       </c>
       <c r="E81" s="3">
-        <v>577700</v>
+        <v>658000</v>
       </c>
       <c r="F81" s="3">
-        <v>-315300</v>
+        <v>588000</v>
       </c>
       <c r="G81" s="3">
-        <v>3481900</v>
+        <v>-320900</v>
       </c>
       <c r="H81" s="3">
-        <v>1228300</v>
+        <v>3544100</v>
       </c>
       <c r="I81" s="3">
-        <v>89900</v>
+        <v>1250300</v>
       </c>
       <c r="J81" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2470400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2132500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>307200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2848000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10416000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1681200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1650700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1269100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1930500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1484500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3179900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>871800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2145500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>166100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4354400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1373300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>2445000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>531700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6198,91 +6395,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1951000</v>
+        <v>1448400</v>
       </c>
       <c r="E83" s="3">
-        <v>1160600</v>
+        <v>1985800</v>
       </c>
       <c r="F83" s="3">
-        <v>2626000</v>
+        <v>1181400</v>
       </c>
       <c r="G83" s="3">
-        <v>1142600</v>
+        <v>2672900</v>
       </c>
       <c r="H83" s="3">
-        <v>-306800</v>
+        <v>1163100</v>
       </c>
       <c r="I83" s="3">
-        <v>920500</v>
+        <v>-312300</v>
       </c>
       <c r="J83" s="3">
+        <v>936900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1470600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1108600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>507700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10683100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1287300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1441900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1874900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1238500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3232700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1421100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5043900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>991300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>752100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>557800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>936900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>295100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>933500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>856900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>1320500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6364,8 +6565,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6447,8 +6651,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6530,8 +6737,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6613,8 +6823,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6696,91 +6909,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>3238500</v>
+        <v>-3823000</v>
       </c>
       <c r="E89" s="3">
-        <v>2807900</v>
+        <v>3296400</v>
       </c>
       <c r="F89" s="3">
-        <v>2226000</v>
+        <v>2858100</v>
       </c>
       <c r="G89" s="3">
-        <v>-764900</v>
+        <v>2265800</v>
       </c>
       <c r="H89" s="3">
-        <v>3213100</v>
+        <v>-778600</v>
       </c>
       <c r="I89" s="3">
-        <v>3024800</v>
+        <v>3270500</v>
       </c>
       <c r="J89" s="3">
+        <v>3078900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2112800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2822500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>749000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2041500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2633500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-266500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3767200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2795400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3150400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1289500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3510800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2271700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2459500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>723600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2545800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3041700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2595200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>987200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3212700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6810,91 +7029,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1400800</v>
+        <v>-466000</v>
       </c>
       <c r="E91" s="3">
-        <v>-768100</v>
+        <v>-1324000</v>
       </c>
       <c r="F91" s="3">
-        <v>-581900</v>
+        <v>-726000</v>
       </c>
       <c r="G91" s="3">
-        <v>-369200</v>
+        <v>-550000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1206100</v>
+        <v>-349000</v>
       </c>
       <c r="I91" s="3">
-        <v>-686600</v>
+        <v>-1140000</v>
       </c>
       <c r="J91" s="3">
+        <v>-649000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-521600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-335800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-890700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-569800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-638200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-441500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-893000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-472500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-729900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-504000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-383200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-624900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-534100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-487100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>748900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6976,8 +7199,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7059,91 +7285,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>70900</v>
+        <v>1725200</v>
       </c>
       <c r="E94" s="3">
-        <v>-443300</v>
+        <v>72200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2931700</v>
+        <v>-451200</v>
       </c>
       <c r="G94" s="3">
-        <v>785000</v>
+        <v>-2984100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1045300</v>
+        <v>799100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2696800</v>
+        <v>-1064000</v>
       </c>
       <c r="J94" s="3">
+        <v>-2745000</v>
+      </c>
+      <c r="K94" s="3">
         <v>472900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4027100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-193500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2968400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-459300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-675200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>40900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-292800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-549400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>92100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-675400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>7090900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1917500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>194100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7173,31 +7405,32 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-15900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-4200</v>
+        <v>-16200</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-25400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-4200</v>
+        <v>-25800</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7206,58 +7439,61 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-17600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3001100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7339,8 +7575,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7422,8 +7661,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7505,253 +7747,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-2265200</v>
+        <v>1789800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1417700</v>
+        <v>-2305600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1919200</v>
+        <v>-1443000</v>
       </c>
       <c r="G100" s="3">
-        <v>1137400</v>
+        <v>-1953500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1902300</v>
+        <v>1157700</v>
       </c>
       <c r="I100" s="3">
-        <v>680300</v>
+        <v>-1936300</v>
       </c>
       <c r="J100" s="3">
+        <v>692400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-4870000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>115400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1350500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2975700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1228400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>40600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>39249100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-637900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-41500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-616000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>717200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3413400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-191500</v>
+        <v>-33400</v>
       </c>
       <c r="E101" s="3">
-        <v>58200</v>
+        <v>-194900</v>
       </c>
       <c r="F101" s="3">
-        <v>112100</v>
+        <v>59200</v>
       </c>
       <c r="G101" s="3">
-        <v>139700</v>
+        <v>114200</v>
       </c>
       <c r="H101" s="3">
+        <v>142200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3200</v>
       </c>
-      <c r="I101" s="3">
-        <v>-27500</v>
-      </c>
       <c r="J101" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>67400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-78800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-64300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-33800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-76800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-18700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>24700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-26000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-59800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-424900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-129600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-51600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-72900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-41500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>10600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>5900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>852700</v>
+        <v>-341400</v>
       </c>
       <c r="E102" s="3">
-        <v>1005100</v>
+        <v>868000</v>
       </c>
       <c r="F102" s="3">
-        <v>-2512800</v>
+        <v>1023100</v>
       </c>
       <c r="G102" s="3">
-        <v>1297100</v>
+        <v>-2557600</v>
       </c>
       <c r="H102" s="3">
-        <v>262400</v>
+        <v>1320300</v>
       </c>
       <c r="I102" s="3">
-        <v>980800</v>
+        <v>267100</v>
       </c>
       <c r="J102" s="3">
+        <v>998300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2286300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1387300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-873700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1984500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>912000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-977800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1260500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-789400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-942800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-179400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-357900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2273200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3121400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>616000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>381500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>782900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>BAYRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,382 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15495500</v>
+        <v>11972800</v>
       </c>
       <c r="E8" s="3">
-        <v>12922800</v>
+        <v>15599100</v>
       </c>
       <c r="F8" s="3">
-        <v>12148500</v>
+        <v>13009200</v>
       </c>
       <c r="G8" s="3">
-        <v>13804800</v>
+        <v>12229700</v>
       </c>
       <c r="H8" s="3">
-        <v>15764700</v>
+        <v>13897100</v>
       </c>
       <c r="I8" s="3">
-        <v>11973000</v>
+        <v>15870100</v>
       </c>
       <c r="J8" s="3">
+        <v>12053000</v>
+      </c>
+      <c r="K8" s="3">
         <v>10533200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11483500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12584400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9969000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8828400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10968000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14503300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12549700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12041700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>27016000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14655800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>12248900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>10257500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10410100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10033500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>9644600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9004000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9777000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11362500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>10356500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6173900</v>
+        <v>5114800</v>
       </c>
       <c r="E9" s="3">
-        <v>5134700</v>
+        <v>6215100</v>
       </c>
       <c r="F9" s="3">
-        <v>4573600</v>
+        <v>5169000</v>
       </c>
       <c r="G9" s="3">
-        <v>6116800</v>
+        <v>4604200</v>
       </c>
       <c r="H9" s="3">
-        <v>5574000</v>
+        <v>6157700</v>
       </c>
       <c r="I9" s="3">
-        <v>3968400</v>
+        <v>5611300</v>
       </c>
       <c r="J9" s="3">
+        <v>3994900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4185900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4809700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4795700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3659500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7052500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4383300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5257100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5743700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4634100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10481700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5821900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6676300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4542300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3850700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3194100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3418700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2877900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3122500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3506200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3695200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9321600</v>
+        <v>6858000</v>
       </c>
       <c r="E10" s="3">
-        <v>7788100</v>
+        <v>9384000</v>
       </c>
       <c r="F10" s="3">
-        <v>7574900</v>
+        <v>7840200</v>
       </c>
       <c r="G10" s="3">
-        <v>7688000</v>
+        <v>7625600</v>
       </c>
       <c r="H10" s="3">
-        <v>10190700</v>
+        <v>7739400</v>
       </c>
       <c r="I10" s="3">
-        <v>8004600</v>
+        <v>10258800</v>
       </c>
       <c r="J10" s="3">
+        <v>8058100</v>
+      </c>
+      <c r="K10" s="3">
         <v>6347200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6673900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7788700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6309600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1775800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6584700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9246200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6806000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7407500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16534300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8833900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5572600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5715200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>6559500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6839400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6225900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6126100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6654500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>7856300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>6661400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,94 +1071,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1691800</v>
+        <v>1331300</v>
       </c>
       <c r="E12" s="3">
-        <v>1738100</v>
+        <v>1703100</v>
       </c>
       <c r="F12" s="3">
-        <v>1697200</v>
+        <v>1749700</v>
       </c>
       <c r="G12" s="3">
-        <v>2076300</v>
+        <v>1708500</v>
       </c>
       <c r="H12" s="3">
-        <v>1565800</v>
+        <v>2090100</v>
       </c>
       <c r="I12" s="3">
-        <v>1089800</v>
+        <v>1576300</v>
       </c>
       <c r="J12" s="3">
+        <v>1097100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1684300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1733000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1222900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1287600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3493600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1273100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1470100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1633200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1569200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3083300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1575400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2008600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1292600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1391200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1141900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1384500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1210600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1230800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1284100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1461400</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1231,8 +1247,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1317,8 +1336,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1403,8 +1425,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1432,180 +1457,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>12293900</v>
+        <v>13009200</v>
       </c>
       <c r="E17" s="3">
-        <v>11380700</v>
+        <v>12376100</v>
       </c>
       <c r="F17" s="3">
-        <v>10857300</v>
+        <v>11456800</v>
       </c>
       <c r="G17" s="3">
-        <v>13622800</v>
+        <v>10929900</v>
       </c>
       <c r="H17" s="3">
-        <v>11228800</v>
+        <v>13713900</v>
       </c>
       <c r="I17" s="3">
-        <v>9796600</v>
+        <v>11303900</v>
       </c>
       <c r="J17" s="3">
+        <v>9862100</v>
+      </c>
+      <c r="K17" s="3">
         <v>9962400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13896800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9437300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8458000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18583600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22732400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11681700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12095500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10561900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23998600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12526600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17224200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5469300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8932200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7497100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8943400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7446600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8135500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8513600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>9668700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3201600</v>
+        <v>-1036400</v>
       </c>
       <c r="E18" s="3">
-        <v>1542100</v>
+        <v>3223000</v>
       </c>
       <c r="F18" s="3">
-        <v>1291200</v>
+        <v>1552400</v>
       </c>
       <c r="G18" s="3">
-        <v>182000</v>
+        <v>1299800</v>
       </c>
       <c r="H18" s="3">
-        <v>4535900</v>
+        <v>183200</v>
       </c>
       <c r="I18" s="3">
-        <v>2176400</v>
+        <v>4566200</v>
       </c>
       <c r="J18" s="3">
+        <v>2191000</v>
+      </c>
+      <c r="K18" s="3">
         <v>570800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2413300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3147100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1511100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9755200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11764400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2821600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>454100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1479800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3017500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2129200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>4788200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1477900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2536400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>701200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1557300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1641500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2848800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>687900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1636,180 +1668,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-395200</v>
+        <v>-670000</v>
       </c>
       <c r="E20" s="3">
-        <v>-605200</v>
+        <v>-397900</v>
       </c>
       <c r="F20" s="3">
-        <v>-644000</v>
+        <v>-609300</v>
       </c>
       <c r="G20" s="3">
-        <v>-745200</v>
+        <v>-648300</v>
       </c>
       <c r="H20" s="3">
-        <v>-527700</v>
+        <v>-750200</v>
       </c>
       <c r="I20" s="3">
-        <v>-564300</v>
+        <v>-531200</v>
       </c>
       <c r="J20" s="3">
+        <v>-568100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-361800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-104700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-355200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-141600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-301100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-736200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-441300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-219300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-884700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-356500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-851700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-752100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-354700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>142700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-289500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-452200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-414000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-347400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-262900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4254800</v>
+        <v>1857100</v>
       </c>
       <c r="E21" s="3">
-        <v>2922700</v>
+        <v>4283300</v>
       </c>
       <c r="F21" s="3">
-        <v>1828600</v>
+        <v>2942200</v>
       </c>
       <c r="G21" s="3">
-        <v>2109600</v>
+        <v>1840800</v>
       </c>
       <c r="H21" s="3">
-        <v>5171300</v>
+        <v>2123800</v>
       </c>
       <c r="I21" s="3">
-        <v>1299800</v>
+        <v>5205800</v>
       </c>
       <c r="J21" s="3">
+        <v>1308500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1145800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1047400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3900500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1877100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>916500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10778200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3527300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1887700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2499000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>5365600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3193900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-914400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>5027400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1875400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3236900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1348600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1757000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1804200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3358300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2344100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1894,180 +1933,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2806400</v>
+        <v>-1706400</v>
       </c>
       <c r="E23" s="3">
-        <v>936900</v>
+        <v>2825200</v>
       </c>
       <c r="F23" s="3">
-        <v>647200</v>
+        <v>943200</v>
       </c>
       <c r="G23" s="3">
-        <v>-563200</v>
+        <v>651500</v>
       </c>
       <c r="H23" s="3">
-        <v>4008200</v>
+        <v>-567000</v>
       </c>
       <c r="I23" s="3">
-        <v>1612100</v>
+        <v>4035000</v>
       </c>
       <c r="J23" s="3">
+        <v>1622900</v>
+      </c>
+      <c r="K23" s="3">
         <v>208900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2518000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2791900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1369400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9766600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12065500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2085400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1260500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2132800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1772800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4036100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1123300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2679100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>411800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1105200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1227500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2501400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>424900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>456600</v>
+        <v>341500</v>
       </c>
       <c r="E24" s="3">
-        <v>281100</v>
+        <v>459700</v>
       </c>
       <c r="F24" s="3">
-        <v>52800</v>
+        <v>283000</v>
       </c>
       <c r="G24" s="3">
-        <v>-252000</v>
+        <v>53100</v>
       </c>
       <c r="H24" s="3">
-        <v>460900</v>
+        <v>-253700</v>
       </c>
       <c r="I24" s="3">
-        <v>352100</v>
+        <v>464000</v>
       </c>
       <c r="J24" s="3">
+        <v>354500</v>
+      </c>
+      <c r="K24" s="3">
         <v>112000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>658400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>984400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1769600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1581800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>540800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>434100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>428200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>918200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>236100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>542400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>488100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>237900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>289500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>497700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>74000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2152,180 +2200,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2349800</v>
+        <v>-2047900</v>
       </c>
       <c r="E26" s="3">
-        <v>655800</v>
+        <v>2365500</v>
       </c>
       <c r="F26" s="3">
-        <v>594400</v>
+        <v>660200</v>
       </c>
       <c r="G26" s="3">
-        <v>-311200</v>
+        <v>598400</v>
       </c>
       <c r="H26" s="3">
-        <v>3547300</v>
+        <v>-313300</v>
       </c>
       <c r="I26" s="3">
-        <v>1260000</v>
+        <v>3571000</v>
       </c>
       <c r="J26" s="3">
+        <v>1268400</v>
+      </c>
+      <c r="K26" s="3">
         <v>96900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2463000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2133500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>385000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7997000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10483600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1544600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-37400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1222500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1698700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1344500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3117900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>887200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2136700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-76300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>867300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>938000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2003700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>351000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2345500</v>
+        <v>-2045700</v>
       </c>
       <c r="E27" s="3">
-        <v>658000</v>
+        <v>2361200</v>
       </c>
       <c r="F27" s="3">
-        <v>588000</v>
+        <v>662400</v>
       </c>
       <c r="G27" s="3">
-        <v>-320900</v>
+        <v>591900</v>
       </c>
       <c r="H27" s="3">
-        <v>3544100</v>
+        <v>-323100</v>
       </c>
       <c r="I27" s="3">
-        <v>1250300</v>
+        <v>3567800</v>
       </c>
       <c r="J27" s="3">
+        <v>1258600</v>
+      </c>
+      <c r="K27" s="3">
         <v>91500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2470400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2132500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>382000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7993900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10493500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1545700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-50200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1212700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1698700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1350500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3109000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>880600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2136700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-78500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>870700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>935700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1783000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>346300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2410,8 +2467,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2430,8 +2490,8 @@
       <c r="H29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2443,61 +2503,64 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-74800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>5145900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>77500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>135500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1700900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>56300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>231800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>134000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>47300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>70900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-8800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>8800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>244600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>3483800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>437600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>662000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>185500</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2582,8 +2645,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2668,180 +2734,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>395200</v>
+        <v>670000</v>
       </c>
       <c r="E32" s="3">
-        <v>605200</v>
+        <v>397900</v>
       </c>
       <c r="F32" s="3">
-        <v>644000</v>
+        <v>609300</v>
       </c>
       <c r="G32" s="3">
-        <v>745200</v>
+        <v>648300</v>
       </c>
       <c r="H32" s="3">
-        <v>527700</v>
+        <v>750200</v>
       </c>
       <c r="I32" s="3">
-        <v>564300</v>
+        <v>531200</v>
       </c>
       <c r="J32" s="3">
+        <v>568100</v>
+      </c>
+      <c r="K32" s="3">
         <v>361800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>104700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>355200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>141600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>301100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>736200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>441300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>219300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>884700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>356500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>851700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>752100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>354700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-142700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>289500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>452200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>414000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>347400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>262900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2345500</v>
+        <v>-2045700</v>
       </c>
       <c r="E33" s="3">
-        <v>658000</v>
+        <v>2361200</v>
       </c>
       <c r="F33" s="3">
-        <v>588000</v>
+        <v>662400</v>
       </c>
       <c r="G33" s="3">
-        <v>-320900</v>
+        <v>591900</v>
       </c>
       <c r="H33" s="3">
-        <v>3544100</v>
+        <v>-323100</v>
       </c>
       <c r="I33" s="3">
-        <v>1250300</v>
+        <v>3567800</v>
       </c>
       <c r="J33" s="3">
+        <v>1258600</v>
+      </c>
+      <c r="K33" s="3">
         <v>91500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2470400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2132500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>307200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2848000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10416000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1681200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1650700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1269100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1930500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1484500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3179900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>871800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2145500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>166100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>4354400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1373300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>2445000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>531700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2926,185 +3001,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2345500</v>
+        <v>-2045700</v>
       </c>
       <c r="E35" s="3">
-        <v>658000</v>
+        <v>2361200</v>
       </c>
       <c r="F35" s="3">
-        <v>588000</v>
+        <v>662400</v>
       </c>
       <c r="G35" s="3">
-        <v>-320900</v>
+        <v>591900</v>
       </c>
       <c r="H35" s="3">
-        <v>3544100</v>
+        <v>-323100</v>
       </c>
       <c r="I35" s="3">
-        <v>1250300</v>
+        <v>3567800</v>
       </c>
       <c r="J35" s="3">
+        <v>1258600</v>
+      </c>
+      <c r="K35" s="3">
         <v>91500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2470400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2132500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>307200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2848000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10416000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1681200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1650700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1269100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1930500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1484500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3179900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>871800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2145500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>166100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>4354400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1373300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>2445000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>531700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3135,8 +3219,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3167,782 +3252,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>5227300</v>
+        <v>4857900</v>
       </c>
       <c r="E41" s="3">
-        <v>5568600</v>
+        <v>5262200</v>
       </c>
       <c r="F41" s="3">
-        <v>4696400</v>
+        <v>5605900</v>
       </c>
       <c r="G41" s="3">
-        <v>3674400</v>
+        <v>4727800</v>
       </c>
       <c r="H41" s="3">
-        <v>6229900</v>
+        <v>3698900</v>
       </c>
       <c r="I41" s="3">
-        <v>4915000</v>
+        <v>6271500</v>
       </c>
       <c r="J41" s="3">
+        <v>4947800</v>
+      </c>
+      <c r="K41" s="3">
         <v>4647900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3585600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5665400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4180100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5259000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3434200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2584500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3718200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5402200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3932700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4859000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4793100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5371900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5469100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5854500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8505800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6232700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3111300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2610600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2229100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3361000</v>
+        <v>3413800</v>
       </c>
       <c r="E42" s="3">
-        <v>5608500</v>
+        <v>3383500</v>
       </c>
       <c r="F42" s="3">
-        <v>5075400</v>
+        <v>5646000</v>
       </c>
       <c r="G42" s="3">
-        <v>5149700</v>
+        <v>5109400</v>
       </c>
       <c r="H42" s="3">
-        <v>2594300</v>
+        <v>5184200</v>
       </c>
       <c r="I42" s="3">
-        <v>3599000</v>
+        <v>2611600</v>
       </c>
       <c r="J42" s="3">
+        <v>3623100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4203100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3289300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3840200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7919400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10869900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2792700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3118600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2715400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1401400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1022300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1019200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1379300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1773300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1709600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8031900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>3959500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>6806000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>8115400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7819900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7365700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>19507000</v>
+        <v>18825400</v>
       </c>
       <c r="E43" s="3">
-        <v>14798800</v>
+        <v>19637400</v>
       </c>
       <c r="F43" s="3">
-        <v>15881000</v>
+        <v>14897700</v>
       </c>
       <c r="G43" s="3">
-        <v>19798800</v>
+        <v>15987200</v>
       </c>
       <c r="H43" s="3">
-        <v>19194700</v>
+        <v>19931200</v>
       </c>
       <c r="I43" s="3">
-        <v>14303400</v>
+        <v>19323000</v>
       </c>
       <c r="J43" s="3">
+        <v>14399000</v>
+      </c>
+      <c r="K43" s="3">
         <v>14055700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16729100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16240900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12437600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13808200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17152400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18828900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17675800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17387500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19478800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20154800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17129600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>15883000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>18145500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>12064800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>11592400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>11857200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>15914300</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>18548500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>16263100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14571500</v>
+        <v>14925900</v>
       </c>
       <c r="E44" s="3">
-        <v>14684600</v>
+        <v>14669000</v>
       </c>
       <c r="F44" s="3">
-        <v>13774600</v>
+        <v>14782800</v>
       </c>
       <c r="G44" s="3">
-        <v>12245400</v>
+        <v>13866700</v>
       </c>
       <c r="H44" s="3">
-        <v>11704800</v>
+        <v>12327300</v>
       </c>
       <c r="I44" s="3">
-        <v>12184000</v>
+        <v>11783100</v>
       </c>
       <c r="J44" s="3">
+        <v>12265500</v>
+      </c>
+      <c r="K44" s="3">
         <v>11462500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10712300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10674500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10932500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10848100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>11048700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11297800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>12432900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12733800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12082800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12574500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>13168000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>12230100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12023100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7029400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7349000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7558800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>9490900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>10181600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>9869400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>3200</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F45" s="3">
-        <v>1938400</v>
+        <v>3300</v>
       </c>
       <c r="G45" s="3">
-        <v>1723000</v>
+        <v>1951400</v>
       </c>
       <c r="H45" s="3">
-        <v>1463500</v>
+        <v>1734600</v>
       </c>
       <c r="I45" s="3">
-        <v>81800</v>
+        <v>1473300</v>
       </c>
       <c r="J45" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K45" s="3">
         <v>32300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>137800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>112700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1427200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1327300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3981200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1892800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>277500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>276800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>260300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4083500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3438900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>2334900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2046500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>32900</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>11700</v>
       </c>
       <c r="AD45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>42670000</v>
+        <v>42038100</v>
       </c>
       <c r="E46" s="3">
-        <v>40663700</v>
+        <v>42955300</v>
       </c>
       <c r="F46" s="3">
-        <v>41365900</v>
+        <v>40935600</v>
       </c>
       <c r="G46" s="3">
-        <v>42591400</v>
+        <v>41642400</v>
       </c>
       <c r="H46" s="3">
-        <v>41187100</v>
+        <v>42876200</v>
       </c>
       <c r="I46" s="3">
-        <v>35083200</v>
+        <v>41462500</v>
       </c>
       <c r="J46" s="3">
+        <v>35317800</v>
+      </c>
+      <c r="K46" s="3">
         <v>34401600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34350100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>36558900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>35582200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>40829900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>35728400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>37256900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37869600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40906100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>38409500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38884900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>36746800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>35518500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>41430800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>36419600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>33741600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>34501200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>36635200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>39193500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>35739000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4301100</v>
+        <v>4346200</v>
       </c>
       <c r="E47" s="3">
-        <v>4315100</v>
+        <v>4329900</v>
       </c>
       <c r="F47" s="3">
-        <v>4379800</v>
+        <v>4344000</v>
       </c>
       <c r="G47" s="3">
-        <v>4250500</v>
+        <v>4409000</v>
       </c>
       <c r="H47" s="3">
-        <v>4307600</v>
+        <v>4278900</v>
       </c>
       <c r="I47" s="3">
-        <v>4341000</v>
+        <v>4336400</v>
       </c>
       <c r="J47" s="3">
+        <v>4370000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3842400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3597200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3359500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2873500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3109500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3018500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3108400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3279300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4450400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4032700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4044400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3848000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4316300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4441400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5320900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>6777900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>6690400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2778000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2882900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2873500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14335700</v>
+        <v>14285200</v>
       </c>
       <c r="E48" s="3">
-        <v>14725500</v>
+        <v>14431500</v>
       </c>
       <c r="F48" s="3">
-        <v>14991500</v>
+        <v>14824000</v>
       </c>
       <c r="G48" s="3">
-        <v>14295800</v>
+        <v>15091800</v>
       </c>
       <c r="H48" s="3">
-        <v>13769200</v>
+        <v>14391400</v>
       </c>
       <c r="I48" s="3">
-        <v>13663700</v>
+        <v>13861300</v>
       </c>
       <c r="J48" s="3">
+        <v>13755100</v>
+      </c>
+      <c r="K48" s="3">
         <v>12961600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12529900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12068900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11692500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11937900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12927300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13665500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14568100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16013100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16103700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16666700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15310300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>14609200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14381600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>8048300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8564100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8308300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>14217900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15359300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>15393300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>67420400</v>
+        <v>65436300</v>
       </c>
       <c r="E49" s="3">
-        <v>68739600</v>
+        <v>67871200</v>
       </c>
       <c r="F49" s="3">
-        <v>74789600</v>
+        <v>69199200</v>
       </c>
       <c r="G49" s="3">
-        <v>72098500</v>
+        <v>75289700</v>
       </c>
       <c r="H49" s="3">
-        <v>70919200</v>
+        <v>72580500</v>
       </c>
       <c r="I49" s="3">
-        <v>71467400</v>
+        <v>71393400</v>
       </c>
       <c r="J49" s="3">
+        <v>71945200</v>
+      </c>
+      <c r="K49" s="3">
         <v>69342700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>65596000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64696300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>61681200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62871800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>78750600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83442700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86195700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>92670500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>86197200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>90551100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>88880700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>85576500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>85283900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28180200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>29648600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>30135500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>31985700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>34811700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>35072300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4027,8 +4140,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4113,94 +4229,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5941300</v>
+        <v>5793400</v>
       </c>
       <c r="E52" s="3">
-        <v>6036000</v>
+        <v>5981000</v>
       </c>
       <c r="F52" s="3">
-        <v>5557900</v>
+        <v>6076400</v>
       </c>
       <c r="G52" s="3">
-        <v>5462000</v>
+        <v>5595000</v>
       </c>
       <c r="H52" s="3">
-        <v>5271400</v>
+        <v>5498600</v>
       </c>
       <c r="I52" s="3">
-        <v>4932200</v>
+        <v>5306700</v>
       </c>
       <c r="J52" s="3">
+        <v>4965200</v>
+      </c>
+      <c r="K52" s="3">
         <v>4963400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4729300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4309800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4670800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5300600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4484700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4199100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5384100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6040400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6190200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5782400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5125500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4535600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5569100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4813600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5514600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6432400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7104400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7589900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7453700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4285,94 +4407,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>134668500</v>
+        <v>131899200</v>
       </c>
       <c r="E54" s="3">
-        <v>134480000</v>
+        <v>135568900</v>
       </c>
       <c r="F54" s="3">
-        <v>141084700</v>
+        <v>135379200</v>
       </c>
       <c r="G54" s="3">
-        <v>138698300</v>
+        <v>142027900</v>
       </c>
       <c r="H54" s="3">
-        <v>135454600</v>
+        <v>139625600</v>
       </c>
       <c r="I54" s="3">
-        <v>129487500</v>
+        <v>136360300</v>
       </c>
       <c r="J54" s="3">
+        <v>130353300</v>
+      </c>
+      <c r="K54" s="3">
         <v>125511600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>120802400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>120993400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>116500300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>124049800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>134909600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>141672700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>147296800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>160080500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>150933300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>155929500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>149911300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>144556200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>151106800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>82782600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>84246900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>86067900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>92721300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>99837200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>96531800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4403,8 +4531,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4435,524 +4564,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6750000</v>
+        <v>6472100</v>
       </c>
       <c r="E57" s="3">
-        <v>8125200</v>
+        <v>6795100</v>
       </c>
       <c r="F57" s="3">
-        <v>7052600</v>
+        <v>8179500</v>
       </c>
       <c r="G57" s="3">
-        <v>6565900</v>
+        <v>7099800</v>
       </c>
       <c r="H57" s="3">
-        <v>6296600</v>
+        <v>6609800</v>
       </c>
       <c r="I57" s="3">
-        <v>7314300</v>
+        <v>6338700</v>
       </c>
       <c r="J57" s="3">
+        <v>7363200</v>
+      </c>
+      <c r="K57" s="3">
         <v>6016600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5409600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5292800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5663200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5668000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5561500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6019200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7501800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6978800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6333700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6835100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7142400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>6154900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5456000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4329400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5754700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4407200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5846700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>6679000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>7524100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>10476100</v>
+        <v>10797600</v>
       </c>
       <c r="E58" s="3">
-        <v>8465500</v>
+        <v>10546100</v>
       </c>
       <c r="F58" s="3">
-        <v>5741000</v>
+        <v>8522100</v>
       </c>
       <c r="G58" s="3">
-        <v>7078500</v>
+        <v>5779300</v>
       </c>
       <c r="H58" s="3">
-        <v>6352600</v>
+        <v>7125800</v>
       </c>
       <c r="I58" s="3">
-        <v>4728700</v>
+        <v>6395100</v>
       </c>
       <c r="J58" s="3">
+        <v>4760300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5160500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3922000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5048900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8546700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8573100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8042200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3613100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2547300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7378100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7853600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5007300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4355400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3867700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>10470500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1933600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2171100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3973000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5651500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4928800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>3992100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>19809600</v>
+        <v>17624200</v>
       </c>
       <c r="E59" s="3">
-        <v>21191200</v>
+        <v>19942000</v>
       </c>
       <c r="F59" s="3">
-        <v>22929400</v>
+        <v>21332900</v>
       </c>
       <c r="G59" s="3">
-        <v>22585800</v>
+        <v>23082700</v>
       </c>
       <c r="H59" s="3">
-        <v>20755100</v>
+        <v>22736800</v>
       </c>
       <c r="I59" s="3">
-        <v>19621100</v>
+        <v>20893900</v>
       </c>
       <c r="J59" s="3">
+        <v>19752300</v>
+      </c>
+      <c r="K59" s="3">
         <v>19759000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20259600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19238000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22462400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22905400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>26261500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>15569200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>17052400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17562700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>15766100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>16841300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>15856800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12639900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>13753500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8118600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7325500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>8352100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9550400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11366000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>10242700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>37035700</v>
+        <v>34893900</v>
       </c>
       <c r="E60" s="3">
-        <v>37782000</v>
+        <v>37283300</v>
       </c>
       <c r="F60" s="3">
-        <v>35722900</v>
+        <v>38034600</v>
       </c>
       <c r="G60" s="3">
-        <v>36230100</v>
+        <v>35961800</v>
       </c>
       <c r="H60" s="3">
-        <v>33404400</v>
+        <v>36472400</v>
       </c>
       <c r="I60" s="3">
-        <v>31664100</v>
+        <v>33627700</v>
       </c>
       <c r="J60" s="3">
+        <v>31875800</v>
+      </c>
+      <c r="K60" s="3">
         <v>30936100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>29591200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29579700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>36672400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>37146400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>39865100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>25201500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>27101400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>31919600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>29953500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>28683700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>27354600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>22662600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>29680000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14381600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>15251200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>16732200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>21048500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>22973800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>21758900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>36152600</v>
+        <v>39631400</v>
       </c>
       <c r="E61" s="3">
-        <v>36389500</v>
+        <v>36394300</v>
       </c>
       <c r="F61" s="3">
-        <v>42494500</v>
+        <v>36632800</v>
       </c>
       <c r="G61" s="3">
-        <v>40987900</v>
+        <v>42778600</v>
       </c>
       <c r="H61" s="3">
-        <v>39466200</v>
+        <v>41261900</v>
       </c>
       <c r="I61" s="3">
-        <v>39286400</v>
+        <v>39730100</v>
       </c>
       <c r="J61" s="3">
+        <v>39549100</v>
+      </c>
+      <c r="K61" s="3">
         <v>39817300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38795800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38711800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33114700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36523700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37033100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>41564400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>43091400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>46258100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>43117400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>45397000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>44609500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>44700500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>46767100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>13475800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14005800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14110100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>15896400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>17358300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>18992200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>17309000</v>
+        <v>17127700</v>
       </c>
       <c r="E62" s="3">
-        <v>18389100</v>
+        <v>17424700</v>
       </c>
       <c r="F62" s="3">
-        <v>18211500</v>
+        <v>18512100</v>
       </c>
       <c r="G62" s="3">
-        <v>20338300</v>
+        <v>18333200</v>
       </c>
       <c r="H62" s="3">
-        <v>22085100</v>
+        <v>20474300</v>
       </c>
       <c r="I62" s="3">
-        <v>22818400</v>
+        <v>22232700</v>
       </c>
       <c r="J62" s="3">
+        <v>22971000</v>
+      </c>
+      <c r="K62" s="3">
         <v>21080300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20088200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17229100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16118000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17709700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18884700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19828100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21730200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>25476100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25085600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>24434800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23358700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21373400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22817500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>12779600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>13632200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13426900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>15964800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>17415800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>18339600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5037,8 +5185,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5123,8 +5274,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5209,94 +5363,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>90662100</v>
+        <v>91843900</v>
       </c>
       <c r="E66" s="3">
-        <v>92725400</v>
+        <v>91268200</v>
       </c>
       <c r="F66" s="3">
-        <v>96638900</v>
+        <v>93345300</v>
       </c>
       <c r="G66" s="3">
-        <v>97755600</v>
+        <v>97285000</v>
       </c>
       <c r="H66" s="3">
-        <v>95138700</v>
+        <v>98409200</v>
       </c>
       <c r="I66" s="3">
-        <v>93928300</v>
+        <v>95774800</v>
       </c>
       <c r="J66" s="3">
+        <v>94556300</v>
+      </c>
+      <c r="K66" s="3">
         <v>92016800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88650900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>85684900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>86056700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>91535500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>95959700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>86788300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>92133200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>103876700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>98357600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>98720000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>95525100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>88927000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>99344800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>40698500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>42956500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>44334300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>56088300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>60377300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>60926600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5327,8 +5487,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5413,8 +5574,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5499,8 +5663,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5585,8 +5752,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5671,94 +5841,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>21632800</v>
+        <v>17532100</v>
       </c>
       <c r="E72" s="3">
-        <v>19381000</v>
+        <v>21777400</v>
       </c>
       <c r="F72" s="3">
-        <v>22072100</v>
+        <v>19510500</v>
       </c>
       <c r="G72" s="3">
-        <v>18569000</v>
+        <v>22219700</v>
       </c>
       <c r="H72" s="3">
-        <v>17942200</v>
+        <v>18693100</v>
       </c>
       <c r="I72" s="3">
-        <v>13185600</v>
+        <v>18062200</v>
       </c>
       <c r="J72" s="3">
+        <v>13273700</v>
+      </c>
+      <c r="K72" s="3">
         <v>11121100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10170600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14100300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9721700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10950900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>16285100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31426200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30909500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30754600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28136000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>32358400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29811400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>32618800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28951000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>29155200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28078900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>28522100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>23421500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>36975000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>33120200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5843,8 +6019,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5929,8 +6108,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6015,94 +6197,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>44006400</v>
+        <v>40055300</v>
       </c>
       <c r="E76" s="3">
-        <v>41754600</v>
+        <v>44300700</v>
       </c>
       <c r="F76" s="3">
-        <v>44445800</v>
+        <v>42033800</v>
       </c>
       <c r="G76" s="3">
-        <v>40942700</v>
+        <v>44743000</v>
       </c>
       <c r="H76" s="3">
-        <v>40315900</v>
+        <v>41216400</v>
       </c>
       <c r="I76" s="3">
-        <v>35559200</v>
+        <v>40585500</v>
       </c>
       <c r="J76" s="3">
+        <v>35797000</v>
+      </c>
+      <c r="K76" s="3">
         <v>33494800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32151600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35308500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30443600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32514300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>38949900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>54884400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>55163600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>56203800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>52575700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>57209500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>54386200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>55629200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>51761900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>42084100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>41290400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41733500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>36633000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>39460000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>35605200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6187,185 +6375,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2345500</v>
+        <v>-2045700</v>
       </c>
       <c r="E81" s="3">
-        <v>658000</v>
+        <v>2361200</v>
       </c>
       <c r="F81" s="3">
-        <v>588000</v>
+        <v>662400</v>
       </c>
       <c r="G81" s="3">
-        <v>-320900</v>
+        <v>591900</v>
       </c>
       <c r="H81" s="3">
-        <v>3544100</v>
+        <v>-323100</v>
       </c>
       <c r="I81" s="3">
-        <v>1250300</v>
+        <v>3567800</v>
       </c>
       <c r="J81" s="3">
+        <v>1258600</v>
+      </c>
+      <c r="K81" s="3">
         <v>91500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2470400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2132500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>307200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2848000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10416000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1681200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1650700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1269100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1930500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1484500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3179900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>871800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2145500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>166100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>4354400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1373300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>2445000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>531700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6396,94 +6593,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>1448400</v>
+        <v>3563400</v>
       </c>
       <c r="E83" s="3">
-        <v>1985800</v>
+        <v>1458100</v>
       </c>
       <c r="F83" s="3">
-        <v>1181400</v>
+        <v>1999100</v>
       </c>
       <c r="G83" s="3">
-        <v>2672900</v>
+        <v>1189300</v>
       </c>
       <c r="H83" s="3">
-        <v>1163100</v>
+        <v>2690700</v>
       </c>
       <c r="I83" s="3">
-        <v>-312300</v>
+        <v>1170800</v>
       </c>
       <c r="J83" s="3">
+        <v>-314400</v>
+      </c>
+      <c r="K83" s="3">
         <v>936900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1470600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1108600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>507700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10683100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1287300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1441900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1874900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1238500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3232700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1421100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5043900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>991300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>752100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>557800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>936900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>295100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>933500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>856900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1320500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6568,8 +6769,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6654,8 +6858,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6740,8 +6947,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6826,8 +7036,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6912,94 +7125,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-3823000</v>
+        <v>523600</v>
       </c>
       <c r="E89" s="3">
-        <v>3296400</v>
+        <v>-3848600</v>
       </c>
       <c r="F89" s="3">
-        <v>2858100</v>
+        <v>3318400</v>
       </c>
       <c r="G89" s="3">
-        <v>2265800</v>
+        <v>2877200</v>
       </c>
       <c r="H89" s="3">
-        <v>-778600</v>
+        <v>2280900</v>
       </c>
       <c r="I89" s="3">
-        <v>3270500</v>
+        <v>-783800</v>
       </c>
       <c r="J89" s="3">
+        <v>3292400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3078900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2112800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2822500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>749000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2041500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2633500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-266500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3767200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2795400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3150400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1289500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3510800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2271700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2459500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>723600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2545800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3041700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2595200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>987200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3212700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7030,94 +7249,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-606000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-466000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1324000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-726000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-550000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-349000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1140000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-649000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-521600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-335800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-890700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-569800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-638200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-441500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-893000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-472500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-729900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-504000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-383200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-624900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-534100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-487100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>748900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7202,8 +7425,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7288,94 +7514,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>1725200</v>
+        <v>-1189300</v>
       </c>
       <c r="E94" s="3">
-        <v>72200</v>
+        <v>1736700</v>
       </c>
       <c r="F94" s="3">
-        <v>-451200</v>
+        <v>72600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2984100</v>
+        <v>-454200</v>
       </c>
       <c r="H94" s="3">
-        <v>799100</v>
+        <v>-3004000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1064000</v>
+        <v>804400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1071100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2745000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>472900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4027100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-193500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2968400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-459300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-675200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>40900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-292800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-549400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>92100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-675400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7090900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1917500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>194100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7406,8 +7638,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -7415,26 +7648,26 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-16200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-4300</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-25800</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7442,58 +7675,61 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-17600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3001100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-4900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7578,8 +7814,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7664,8 +7903,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7750,262 +7992,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>1789800</v>
+        <v>294900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2305600</v>
+        <v>1801800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1443000</v>
+        <v>-2321100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1953500</v>
+        <v>-1452700</v>
       </c>
       <c r="H100" s="3">
-        <v>1157700</v>
+        <v>-1966600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1936300</v>
+        <v>1165400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1949200</v>
+      </c>
+      <c r="K100" s="3">
         <v>692400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4870000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>115400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1350500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2975700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1228400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>40600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>39249100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-637900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-41500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-616000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>717200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3413400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="E101" s="3">
-        <v>-194900</v>
+        <v>-33600</v>
       </c>
       <c r="F101" s="3">
-        <v>59200</v>
+        <v>-196200</v>
       </c>
       <c r="G101" s="3">
-        <v>114200</v>
+        <v>59600</v>
       </c>
       <c r="H101" s="3">
-        <v>142200</v>
+        <v>114900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3200</v>
+        <v>143100</v>
       </c>
       <c r="J101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-28000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>67400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-78800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-64300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-33800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-76800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-18700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>24700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>27500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-26000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-59800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-424900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-129600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-51600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-72900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-41500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>10600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>5900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-341400</v>
+        <v>-404400</v>
       </c>
       <c r="E102" s="3">
-        <v>868000</v>
+        <v>-343700</v>
       </c>
       <c r="F102" s="3">
-        <v>1023100</v>
+        <v>873800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2557600</v>
+        <v>1029900</v>
       </c>
       <c r="H102" s="3">
-        <v>1320300</v>
+        <v>-2574700</v>
       </c>
       <c r="I102" s="3">
-        <v>267100</v>
+        <v>1329100</v>
       </c>
       <c r="J102" s="3">
+        <v>268900</v>
+      </c>
+      <c r="K102" s="3">
         <v>998300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2286300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1387300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-873700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1984500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>912000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-977800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1260500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-789400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>12000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-942800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-179400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-357900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2273200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3121400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>616000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>381500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>782900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>207800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BAYRY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>BAYRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,394 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11972800</v>
+        <v>11221100</v>
       </c>
       <c r="E8" s="3">
-        <v>15599100</v>
+        <v>11982700</v>
       </c>
       <c r="F8" s="3">
-        <v>13009200</v>
+        <v>15612100</v>
       </c>
       <c r="G8" s="3">
-        <v>12229700</v>
+        <v>13020000</v>
       </c>
       <c r="H8" s="3">
-        <v>13897100</v>
+        <v>12239900</v>
       </c>
       <c r="I8" s="3">
-        <v>15870100</v>
+        <v>13908600</v>
       </c>
       <c r="J8" s="3">
+        <v>15883300</v>
+      </c>
+      <c r="K8" s="3">
         <v>12053000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10533200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11483500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12584400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9969000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8828400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10968000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14503300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12549700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12041700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>27016000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>14655800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12248900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>10257500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10410100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>10033500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>9644600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>9004000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>9777000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11362500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>10356500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>9693300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5114800</v>
+        <v>5221000</v>
       </c>
       <c r="E9" s="3">
-        <v>6215100</v>
+        <v>5119000</v>
       </c>
       <c r="F9" s="3">
-        <v>5169000</v>
+        <v>6220300</v>
       </c>
       <c r="G9" s="3">
-        <v>4604200</v>
+        <v>5173300</v>
       </c>
       <c r="H9" s="3">
-        <v>6157700</v>
+        <v>4608000</v>
       </c>
       <c r="I9" s="3">
-        <v>5611300</v>
+        <v>6162800</v>
       </c>
       <c r="J9" s="3">
+        <v>5616000</v>
+      </c>
+      <c r="K9" s="3">
         <v>3994900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4185900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4809700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4795700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3659500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7052500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4383300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5257100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5743700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4634100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>10481700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5821900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6676300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4542300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3850700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3194100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3418700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2877900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3122500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3506200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3695200</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3188100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6858000</v>
+        <v>6000100</v>
       </c>
       <c r="E10" s="3">
-        <v>9384000</v>
+        <v>6863700</v>
       </c>
       <c r="F10" s="3">
-        <v>7840200</v>
+        <v>9391800</v>
       </c>
       <c r="G10" s="3">
-        <v>7625600</v>
+        <v>7846700</v>
       </c>
       <c r="H10" s="3">
-        <v>7739400</v>
+        <v>7631900</v>
       </c>
       <c r="I10" s="3">
-        <v>10258800</v>
+        <v>7745800</v>
       </c>
       <c r="J10" s="3">
+        <v>10267400</v>
+      </c>
+      <c r="K10" s="3">
         <v>8058100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6347200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6673900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7788700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6309600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1775800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6584700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9246200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6806000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7407500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>16534300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8833900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5572600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5715200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>6559500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>6839400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>6225900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>6126100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>6654500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>7856300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>6661400</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>6505300</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,97 +1084,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1331300</v>
+        <v>1629700</v>
       </c>
       <c r="E12" s="3">
-        <v>1703100</v>
+        <v>1332400</v>
       </c>
       <c r="F12" s="3">
-        <v>1749700</v>
+        <v>1704500</v>
       </c>
       <c r="G12" s="3">
-        <v>1708500</v>
+        <v>1751200</v>
       </c>
       <c r="H12" s="3">
-        <v>2090100</v>
+        <v>1710000</v>
       </c>
       <c r="I12" s="3">
-        <v>1576300</v>
+        <v>2091900</v>
       </c>
       <c r="J12" s="3">
+        <v>1577600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1097100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1684300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1733000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1222900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1287600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3493600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1273100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1470100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1633200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1569200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3083300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1575400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2008600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1292600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1391200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1141900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1384500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1210600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1230800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1284100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1461400</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>1238400</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1250,8 +1266,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1339,8 +1358,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1428,8 +1450,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1458,186 +1483,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>13009200</v>
+        <v>15120600</v>
       </c>
       <c r="E17" s="3">
-        <v>12376100</v>
+        <v>13020000</v>
       </c>
       <c r="F17" s="3">
-        <v>11456800</v>
+        <v>12386400</v>
       </c>
       <c r="G17" s="3">
-        <v>10929900</v>
+        <v>11466300</v>
       </c>
       <c r="H17" s="3">
-        <v>13713900</v>
+        <v>10939000</v>
       </c>
       <c r="I17" s="3">
-        <v>11303900</v>
+        <v>13725300</v>
       </c>
       <c r="J17" s="3">
+        <v>11313300</v>
+      </c>
+      <c r="K17" s="3">
         <v>9862100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9962400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13896800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9437300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8458000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18583600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22732400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11681700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12095500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10561900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23998600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12526600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17224200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5469300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8932200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7497100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8943400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7446600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8135500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8513600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>9668700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>8053500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1036400</v>
+        <v>-3899500</v>
       </c>
       <c r="E18" s="3">
-        <v>3223000</v>
+        <v>-1037300</v>
       </c>
       <c r="F18" s="3">
-        <v>1552400</v>
+        <v>3225700</v>
       </c>
       <c r="G18" s="3">
-        <v>1299800</v>
+        <v>1553700</v>
       </c>
       <c r="H18" s="3">
-        <v>183200</v>
+        <v>1300900</v>
       </c>
       <c r="I18" s="3">
-        <v>4566200</v>
+        <v>183400</v>
       </c>
       <c r="J18" s="3">
+        <v>4570000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2191000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>570800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2413300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3147100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1511100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9755200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11764400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2821600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>454100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1479800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3017500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2129200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-4975300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>4788200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1477900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2536400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>701200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1557300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1641500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2848800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>687900</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1639800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1669,186 +1701,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-670000</v>
+        <v>-762800</v>
       </c>
       <c r="E20" s="3">
-        <v>-397900</v>
+        <v>-670500</v>
       </c>
       <c r="F20" s="3">
-        <v>-609300</v>
+        <v>-398200</v>
       </c>
       <c r="G20" s="3">
-        <v>-648300</v>
+        <v>-609800</v>
       </c>
       <c r="H20" s="3">
-        <v>-750200</v>
+        <v>-648800</v>
       </c>
       <c r="I20" s="3">
-        <v>-531200</v>
+        <v>-750800</v>
       </c>
       <c r="J20" s="3">
+        <v>-531600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-568100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-361800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-104700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-355200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-141600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-301100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-736200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-441300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-219300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-884700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-356500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-851700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-752100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-354700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>142700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-289500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-452200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-414000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-347400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-262900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-273500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1857100</v>
+        <v>687900</v>
       </c>
       <c r="E21" s="3">
-        <v>4283300</v>
+        <v>1858600</v>
       </c>
       <c r="F21" s="3">
-        <v>2942200</v>
+        <v>4286800</v>
       </c>
       <c r="G21" s="3">
-        <v>1840800</v>
+        <v>2944700</v>
       </c>
       <c r="H21" s="3">
-        <v>2123800</v>
+        <v>1842300</v>
       </c>
       <c r="I21" s="3">
-        <v>5205800</v>
+        <v>2125500</v>
       </c>
       <c r="J21" s="3">
+        <v>5210200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1308500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1145800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1047400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3900500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1877100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>916500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10778200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3527300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1887700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2499000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5365600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3193900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-914400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>5027400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1875400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3236900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1348600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1757000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1804200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3358300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2344100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1665600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1936,186 +1975,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1706400</v>
+        <v>-4662200</v>
       </c>
       <c r="E23" s="3">
-        <v>2825200</v>
+        <v>-1707800</v>
       </c>
       <c r="F23" s="3">
-        <v>943200</v>
+        <v>2827500</v>
       </c>
       <c r="G23" s="3">
-        <v>651500</v>
+        <v>944000</v>
       </c>
       <c r="H23" s="3">
-        <v>-567000</v>
+        <v>652100</v>
       </c>
       <c r="I23" s="3">
-        <v>4035000</v>
+        <v>-567500</v>
       </c>
       <c r="J23" s="3">
+        <v>4038400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1622900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>208900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2518000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2791900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1369400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9766600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-12065500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2085400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1260500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2132800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1772800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5827000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4036100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1123300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2679100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>411800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1105200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1227500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2501400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>424900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1366300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>341500</v>
+        <v>303800</v>
       </c>
       <c r="E24" s="3">
-        <v>459700</v>
+        <v>341800</v>
       </c>
       <c r="F24" s="3">
-        <v>283000</v>
+        <v>460000</v>
       </c>
       <c r="G24" s="3">
-        <v>53100</v>
+        <v>283200</v>
       </c>
       <c r="H24" s="3">
-        <v>-253700</v>
+        <v>53200</v>
       </c>
       <c r="I24" s="3">
-        <v>464000</v>
+        <v>-253900</v>
       </c>
       <c r="J24" s="3">
+        <v>464400</v>
+      </c>
+      <c r="K24" s="3">
         <v>354500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>112000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>658400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>984400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1769600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1581800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>540800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>50200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>434100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>428200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1140300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>918200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>236100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>542400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>488100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>237900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>289500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>497700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>74000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2203,186 +2251,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-2047900</v>
+        <v>-4966000</v>
       </c>
       <c r="E26" s="3">
-        <v>2365500</v>
+        <v>-2049600</v>
       </c>
       <c r="F26" s="3">
-        <v>660200</v>
+        <v>2367500</v>
       </c>
       <c r="G26" s="3">
-        <v>598400</v>
+        <v>660800</v>
       </c>
       <c r="H26" s="3">
-        <v>-313300</v>
+        <v>598900</v>
       </c>
       <c r="I26" s="3">
-        <v>3571000</v>
+        <v>-313600</v>
       </c>
       <c r="J26" s="3">
+        <v>3574000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1268400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>96900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2463000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2133500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>385000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7997000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10483600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1544600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-37400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1222500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1698700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1344500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4686600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3117900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>887200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2136700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-76300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>867300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>938000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2003700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>351000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>1123300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-2045700</v>
+        <v>-4957400</v>
       </c>
       <c r="E27" s="3">
-        <v>2361200</v>
+        <v>-2047400</v>
       </c>
       <c r="F27" s="3">
-        <v>662400</v>
+        <v>2363100</v>
       </c>
       <c r="G27" s="3">
-        <v>591900</v>
+        <v>662900</v>
       </c>
       <c r="H27" s="3">
-        <v>-323100</v>
+        <v>592400</v>
       </c>
       <c r="I27" s="3">
-        <v>3567800</v>
+        <v>-323300</v>
       </c>
       <c r="J27" s="3">
+        <v>3570700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1258600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>91500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2470400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2132500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>382000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7993900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10493500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1545700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-50200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1212700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1698700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1350500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4689000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3109000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>880600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2136700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-78500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>870700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>935700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1783000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>346300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>1118600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2470,8 +2527,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2493,8 +2553,8 @@
       <c r="I29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2506,61 +2566,64 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-74800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5145900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>77500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>135500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1700900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>56300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>231800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>134000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>47300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>70900</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>8800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>244600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>3483800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>437600</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>662000</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>185500</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>274700</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2648,8 +2711,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2737,186 +2803,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>670000</v>
+        <v>762800</v>
       </c>
       <c r="E32" s="3">
-        <v>397900</v>
+        <v>670500</v>
       </c>
       <c r="F32" s="3">
-        <v>609300</v>
+        <v>398200</v>
       </c>
       <c r="G32" s="3">
-        <v>648300</v>
+        <v>609800</v>
       </c>
       <c r="H32" s="3">
-        <v>750200</v>
+        <v>648800</v>
       </c>
       <c r="I32" s="3">
-        <v>531200</v>
+        <v>750800</v>
       </c>
       <c r="J32" s="3">
+        <v>531600</v>
+      </c>
+      <c r="K32" s="3">
         <v>568100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>361800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>104700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>355200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>141600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>301100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>736200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>441300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>219300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>884700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>356500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>851700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>752100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>354700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-142700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>289500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>452200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>414000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>347400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>262900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>273500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-2045700</v>
+        <v>-4957400</v>
       </c>
       <c r="E33" s="3">
-        <v>2361200</v>
+        <v>-2047400</v>
       </c>
       <c r="F33" s="3">
-        <v>662400</v>
+        <v>2363100</v>
       </c>
       <c r="G33" s="3">
-        <v>591900</v>
+        <v>662900</v>
       </c>
       <c r="H33" s="3">
-        <v>-323100</v>
+        <v>592400</v>
       </c>
       <c r="I33" s="3">
-        <v>3567800</v>
+        <v>-323300</v>
       </c>
       <c r="J33" s="3">
+        <v>3570700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1258600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>91500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2470400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2132500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>307200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2848000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10416000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1681200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1650700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1269100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1930500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1484500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4641700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3179900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>871800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2145500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>166100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4354400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1373300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>2445000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>531700</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3004,191 +3079,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-2045700</v>
+        <v>-4957400</v>
       </c>
       <c r="E35" s="3">
-        <v>2361200</v>
+        <v>-2047400</v>
       </c>
       <c r="F35" s="3">
-        <v>662400</v>
+        <v>2363100</v>
       </c>
       <c r="G35" s="3">
-        <v>591900</v>
+        <v>662900</v>
       </c>
       <c r="H35" s="3">
-        <v>-323100</v>
+        <v>592400</v>
       </c>
       <c r="I35" s="3">
-        <v>3567800</v>
+        <v>-323300</v>
       </c>
       <c r="J35" s="3">
+        <v>3570700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1258600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>91500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2470400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2132500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>307200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2848000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10416000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1681200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1650700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1269100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1930500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1484500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4641700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3179900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>871800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2145500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>166100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4354400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1373300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>2445000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>531700</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3220,8 +3304,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3253,809 +3338,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4857900</v>
+        <v>7394300</v>
       </c>
       <c r="E41" s="3">
-        <v>5262200</v>
+        <v>4861900</v>
       </c>
       <c r="F41" s="3">
-        <v>5605900</v>
+        <v>5266600</v>
       </c>
       <c r="G41" s="3">
-        <v>4727800</v>
+        <v>5610500</v>
       </c>
       <c r="H41" s="3">
-        <v>3698900</v>
+        <v>4731700</v>
       </c>
       <c r="I41" s="3">
-        <v>6271500</v>
+        <v>3702000</v>
       </c>
       <c r="J41" s="3">
+        <v>6276700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4947800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4647900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3585600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5665400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4180100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5259000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3434200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2584500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3718200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5402200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3932700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4859000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4793100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5371900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5469100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5854500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>8505800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6232700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3111300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2610600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2229100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1446100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3413800</v>
+        <v>2702700</v>
       </c>
       <c r="E42" s="3">
-        <v>3383500</v>
+        <v>3416700</v>
       </c>
       <c r="F42" s="3">
-        <v>5646000</v>
+        <v>3386300</v>
       </c>
       <c r="G42" s="3">
-        <v>5109400</v>
+        <v>5650700</v>
       </c>
       <c r="H42" s="3">
-        <v>5184200</v>
+        <v>5113600</v>
       </c>
       <c r="I42" s="3">
-        <v>2611600</v>
+        <v>5188500</v>
       </c>
       <c r="J42" s="3">
+        <v>2613800</v>
+      </c>
+      <c r="K42" s="3">
         <v>3623100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4203100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3289300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3840200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7919400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10869900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2792700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3118600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2715400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1401400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1022300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1019200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1379300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1773300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1709600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8031900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>3959500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>6806000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>8115400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7819900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>7365700</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>2541300</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18825400</v>
+        <v>15465600</v>
       </c>
       <c r="E43" s="3">
-        <v>19637400</v>
+        <v>18841000</v>
       </c>
       <c r="F43" s="3">
-        <v>14897700</v>
+        <v>19653700</v>
       </c>
       <c r="G43" s="3">
-        <v>15987200</v>
+        <v>14910100</v>
       </c>
       <c r="H43" s="3">
-        <v>19931200</v>
+        <v>16000500</v>
       </c>
       <c r="I43" s="3">
-        <v>19323000</v>
+        <v>19947700</v>
       </c>
       <c r="J43" s="3">
+        <v>19339000</v>
+      </c>
+      <c r="K43" s="3">
         <v>14399000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14055700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16729100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16240900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12437600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13808200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17152400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18828900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17675800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17387500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19478800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20154800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>17129600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>15883000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>18145500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>12064800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>11592400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>11857200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>15914300</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>18548500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>16263100</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>15738400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14925900</v>
+        <v>15142300</v>
       </c>
       <c r="E44" s="3">
-        <v>14669000</v>
+        <v>14938300</v>
       </c>
       <c r="F44" s="3">
-        <v>14782800</v>
+        <v>14681100</v>
       </c>
       <c r="G44" s="3">
-        <v>13866700</v>
+        <v>14795100</v>
       </c>
       <c r="H44" s="3">
-        <v>12327300</v>
+        <v>13878200</v>
       </c>
       <c r="I44" s="3">
-        <v>11783100</v>
+        <v>12337500</v>
       </c>
       <c r="J44" s="3">
+        <v>11792900</v>
+      </c>
+      <c r="K44" s="3">
         <v>12265500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>11462500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10712300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10674500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>10932500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>10848100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>11048700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>11297800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12432900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12733800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12082800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>12574500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>13168000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12230100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>12023100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>7029400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>7349000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>7558800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>9490900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>10181600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>9869400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>9807200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3300</v>
       </c>
       <c r="F45" s="3">
         <v>3300</v>
       </c>
       <c r="G45" s="3">
-        <v>1951400</v>
+        <v>3300</v>
       </c>
       <c r="H45" s="3">
-        <v>1734600</v>
+        <v>1953000</v>
       </c>
       <c r="I45" s="3">
-        <v>1473300</v>
+        <v>1736000</v>
       </c>
       <c r="J45" s="3">
+        <v>1474500</v>
+      </c>
+      <c r="K45" s="3">
         <v>82400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>137800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>112700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>44600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1427200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1327300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3981200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1892800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>277500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>276800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>260300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4083500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3438900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>2334900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>2046500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>3400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>32900</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>11700</v>
       </c>
       <c r="AE45" s="3">
         <v>11700</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>42038100</v>
+        <v>40717900</v>
       </c>
       <c r="E46" s="3">
-        <v>42955300</v>
+        <v>42073000</v>
       </c>
       <c r="F46" s="3">
-        <v>40935600</v>
+        <v>42991000</v>
       </c>
       <c r="G46" s="3">
-        <v>41642400</v>
+        <v>40969600</v>
       </c>
       <c r="H46" s="3">
-        <v>42876200</v>
+        <v>41677000</v>
       </c>
       <c r="I46" s="3">
-        <v>41462500</v>
+        <v>42911800</v>
       </c>
       <c r="J46" s="3">
+        <v>41496900</v>
+      </c>
+      <c r="K46" s="3">
         <v>35317800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34401600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34350100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>36558900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>35582200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>40829900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>35728400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>37256900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>37869600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40906100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>38409500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>38884900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>36746800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>35518500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>41430800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>36419600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>33741600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>34501200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>36635200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>39193500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>35739000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>29544800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>4346200</v>
+        <v>4330200</v>
       </c>
       <c r="E47" s="3">
-        <v>4329900</v>
+        <v>4349800</v>
       </c>
       <c r="F47" s="3">
-        <v>4344000</v>
+        <v>4333500</v>
       </c>
       <c r="G47" s="3">
-        <v>4409000</v>
+        <v>4347600</v>
       </c>
       <c r="H47" s="3">
-        <v>4278900</v>
+        <v>4412700</v>
       </c>
       <c r="I47" s="3">
-        <v>4336400</v>
+        <v>4282500</v>
       </c>
       <c r="J47" s="3">
+        <v>4340000</v>
+      </c>
+      <c r="K47" s="3">
         <v>4370000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3842400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3597200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3359500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2873500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3109500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3018500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3108400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3279300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4450400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4032700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4044400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3848000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4316300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4441400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5320900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>6777900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>6690400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2778000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2882900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2873500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2798400</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14285200</v>
+        <v>14592200</v>
       </c>
       <c r="E48" s="3">
-        <v>14431500</v>
+        <v>14297000</v>
       </c>
       <c r="F48" s="3">
-        <v>14824000</v>
+        <v>14443500</v>
       </c>
       <c r="G48" s="3">
-        <v>15091800</v>
+        <v>14836300</v>
       </c>
       <c r="H48" s="3">
-        <v>14391400</v>
+        <v>15104300</v>
       </c>
       <c r="I48" s="3">
-        <v>13861300</v>
+        <v>14403400</v>
       </c>
       <c r="J48" s="3">
+        <v>13872800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13755100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12961600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12529900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12068900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11692500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11937900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12927300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13665500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>14568100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16013100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16103700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16666700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15310300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>14609200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14381600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>8048300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>8564100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>8308300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>14217900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>15359300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>15393300</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>14555200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>65436300</v>
+        <v>61893800</v>
       </c>
       <c r="E49" s="3">
-        <v>67871200</v>
+        <v>65490600</v>
       </c>
       <c r="F49" s="3">
-        <v>69199200</v>
+        <v>67927500</v>
       </c>
       <c r="G49" s="3">
-        <v>75289700</v>
+        <v>69256600</v>
       </c>
       <c r="H49" s="3">
-        <v>72580500</v>
+        <v>75352200</v>
       </c>
       <c r="I49" s="3">
-        <v>71393400</v>
+        <v>72640800</v>
       </c>
       <c r="J49" s="3">
+        <v>71452700</v>
+      </c>
+      <c r="K49" s="3">
         <v>71945200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>69342700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>65596000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>64696300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>61681200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>62871800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>78750600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>83442700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>86195700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>92670500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>86197200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>90551100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>88880700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>85576500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>85283900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28180200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>29648600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>30135500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>31985700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>34811700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>35072300</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>35020600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4143,8 +4256,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4232,97 +4348,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>5793400</v>
+        <v>5673500</v>
       </c>
       <c r="E52" s="3">
-        <v>5981000</v>
+        <v>5798200</v>
       </c>
       <c r="F52" s="3">
-        <v>6076400</v>
+        <v>5985900</v>
       </c>
       <c r="G52" s="3">
-        <v>5595000</v>
+        <v>6081400</v>
       </c>
       <c r="H52" s="3">
-        <v>5498600</v>
+        <v>5599700</v>
       </c>
       <c r="I52" s="3">
-        <v>5306700</v>
+        <v>5503100</v>
       </c>
       <c r="J52" s="3">
+        <v>5311100</v>
+      </c>
+      <c r="K52" s="3">
         <v>4965200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4963400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4729300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4309800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4670800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5300600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4484700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4199100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5384100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6040400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6190200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5782400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5125500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4535600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5569100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4813600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5514600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>6432400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7104400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7589900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>7453700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>7917300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4410,97 +4532,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>131899200</v>
+        <v>127207600</v>
       </c>
       <c r="E54" s="3">
-        <v>135568900</v>
+        <v>132008700</v>
       </c>
       <c r="F54" s="3">
-        <v>135379200</v>
+        <v>135681400</v>
       </c>
       <c r="G54" s="3">
-        <v>142027900</v>
+        <v>135491500</v>
       </c>
       <c r="H54" s="3">
-        <v>139625600</v>
+        <v>142145900</v>
       </c>
       <c r="I54" s="3">
-        <v>136360300</v>
+        <v>139741500</v>
       </c>
       <c r="J54" s="3">
+        <v>136473500</v>
+      </c>
+      <c r="K54" s="3">
         <v>130353300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125511600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>120802400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>120993400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>116500300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>124049800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>134909600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>141672700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>147296800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>160080500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>150933300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>155929500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>149911300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>144556200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>151106800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>82782600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>84246900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>86067900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>92721300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>99837200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>96531800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>89836400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4532,8 +4660,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4565,542 +4694,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6472100</v>
+        <v>7052500</v>
       </c>
       <c r="E57" s="3">
-        <v>6795100</v>
+        <v>6477500</v>
       </c>
       <c r="F57" s="3">
-        <v>8179500</v>
+        <v>6800800</v>
       </c>
       <c r="G57" s="3">
-        <v>7099800</v>
+        <v>8186300</v>
       </c>
       <c r="H57" s="3">
-        <v>6609800</v>
+        <v>7105700</v>
       </c>
       <c r="I57" s="3">
-        <v>6338700</v>
+        <v>6615200</v>
       </c>
       <c r="J57" s="3">
+        <v>6344000</v>
+      </c>
+      <c r="K57" s="3">
         <v>7363200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6016600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5409600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5292800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5663200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5668000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5561500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6019200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7501800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6978800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6333700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>6835100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7142400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6154900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5456000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4329400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5754700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4407200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5846700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>6679000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>7524100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>5788100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>10797600</v>
+        <v>13359600</v>
       </c>
       <c r="E58" s="3">
-        <v>10546100</v>
+        <v>10806600</v>
       </c>
       <c r="F58" s="3">
-        <v>8522100</v>
+        <v>10554900</v>
       </c>
       <c r="G58" s="3">
-        <v>5779300</v>
+        <v>8529200</v>
       </c>
       <c r="H58" s="3">
-        <v>7125800</v>
+        <v>5784100</v>
       </c>
       <c r="I58" s="3">
-        <v>6395100</v>
+        <v>7131700</v>
       </c>
       <c r="J58" s="3">
+        <v>6400400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4760300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5160500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3922000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5048900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8546700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8573100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8042200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3613100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2547300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7378100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7853600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5007300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4355400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3867700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>10470500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1933600</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2171100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3973000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5651500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4928800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>3992100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>3185700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>17624200</v>
+        <v>15480800</v>
       </c>
       <c r="E59" s="3">
-        <v>19942000</v>
+        <v>17638800</v>
       </c>
       <c r="F59" s="3">
-        <v>21332900</v>
+        <v>19958600</v>
       </c>
       <c r="G59" s="3">
-        <v>23082700</v>
+        <v>21350600</v>
       </c>
       <c r="H59" s="3">
-        <v>22736800</v>
+        <v>23101800</v>
       </c>
       <c r="I59" s="3">
-        <v>20893900</v>
+        <v>22755700</v>
       </c>
       <c r="J59" s="3">
+        <v>20911200</v>
+      </c>
+      <c r="K59" s="3">
         <v>19752300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19759000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20259600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19238000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>22462400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>22905400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>26261500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>15569200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>17052400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>17562700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>15766100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>16841300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>15856800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12639900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>13753500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>8118600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7325500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>8352100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>9550400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11366000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>10242700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>10601900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>34893900</v>
+        <v>35892900</v>
       </c>
       <c r="E60" s="3">
-        <v>37283300</v>
+        <v>34922900</v>
       </c>
       <c r="F60" s="3">
-        <v>38034600</v>
+        <v>37314200</v>
       </c>
       <c r="G60" s="3">
-        <v>35961800</v>
+        <v>38066100</v>
       </c>
       <c r="H60" s="3">
-        <v>36472400</v>
+        <v>35991600</v>
       </c>
       <c r="I60" s="3">
-        <v>33627700</v>
+        <v>36502700</v>
       </c>
       <c r="J60" s="3">
+        <v>33655600</v>
+      </c>
+      <c r="K60" s="3">
         <v>31875800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>30936100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>29591200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>29579700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>36672400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>37146400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>39865100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>25201500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>27101400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>31919600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>29953500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>28683700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>27354600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>22662600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>29680000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14381600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>15251200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>16732200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>21048500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>22973800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>21758900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>19575600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>39631400</v>
+        <v>38095400</v>
       </c>
       <c r="E61" s="3">
-        <v>36394300</v>
+        <v>39664300</v>
       </c>
       <c r="F61" s="3">
-        <v>36632800</v>
+        <v>36424500</v>
       </c>
       <c r="G61" s="3">
-        <v>42778600</v>
+        <v>36663200</v>
       </c>
       <c r="H61" s="3">
-        <v>41261900</v>
+        <v>42814100</v>
       </c>
       <c r="I61" s="3">
-        <v>39730100</v>
+        <v>41296200</v>
       </c>
       <c r="J61" s="3">
+        <v>39763100</v>
+      </c>
+      <c r="K61" s="3">
         <v>39549100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39817300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38795800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38711800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33114700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>36523700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37033100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>41564400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>43091400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>46258100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>43117400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>45397000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>44609500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>44700500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>46767100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>13475800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>14005800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>14110100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>15896400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>17358300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>18992200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>19385500</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>17127700</v>
+        <v>16820800</v>
       </c>
       <c r="E62" s="3">
-        <v>17424700</v>
+        <v>17141900</v>
       </c>
       <c r="F62" s="3">
-        <v>18512100</v>
+        <v>17439200</v>
       </c>
       <c r="G62" s="3">
-        <v>18333200</v>
+        <v>18527500</v>
       </c>
       <c r="H62" s="3">
-        <v>20474300</v>
+        <v>18348400</v>
       </c>
       <c r="I62" s="3">
-        <v>22232700</v>
+        <v>20491300</v>
       </c>
       <c r="J62" s="3">
+        <v>22251200</v>
+      </c>
+      <c r="K62" s="3">
         <v>22971000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21080300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20088200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17229100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16118000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17709700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18884700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19828100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21730200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>25476100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>25085600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>24434800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23358700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21373400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>22817500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>12779600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>13632200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>13426900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>15964800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>17415800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>18339600</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>21778900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5188,8 +5336,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5277,8 +5428,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5366,97 +5520,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>91843900</v>
+        <v>90990300</v>
       </c>
       <c r="E66" s="3">
-        <v>91268200</v>
+        <v>91920100</v>
       </c>
       <c r="F66" s="3">
-        <v>93345300</v>
+        <v>91344000</v>
       </c>
       <c r="G66" s="3">
-        <v>97285000</v>
+        <v>93422800</v>
       </c>
       <c r="H66" s="3">
-        <v>98409200</v>
+        <v>97365700</v>
       </c>
       <c r="I66" s="3">
-        <v>95774800</v>
+        <v>98490900</v>
       </c>
       <c r="J66" s="3">
+        <v>95854300</v>
+      </c>
+      <c r="K66" s="3">
         <v>94556300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92016800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88650900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>85684900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>86056700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>91535500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>95959700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>86788300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>92133200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>103876700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>98357600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>98720000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>95525100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>88927000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>99344800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>40698500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>42956500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>44334300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>56088300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>60377300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>60926600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>62376300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5488,8 +5648,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5577,8 +5738,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5666,8 +5830,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5755,8 +5922,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5844,97 +6014,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>17532100</v>
+        <v>13675300</v>
       </c>
       <c r="E72" s="3">
-        <v>21777400</v>
+        <v>17546600</v>
       </c>
       <c r="F72" s="3">
-        <v>19510500</v>
+        <v>21795500</v>
       </c>
       <c r="G72" s="3">
-        <v>22219700</v>
+        <v>19526700</v>
       </c>
       <c r="H72" s="3">
-        <v>18693100</v>
+        <v>22238200</v>
       </c>
       <c r="I72" s="3">
-        <v>18062200</v>
+        <v>18708700</v>
       </c>
       <c r="J72" s="3">
+        <v>18077200</v>
+      </c>
+      <c r="K72" s="3">
         <v>13273700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11121100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10170600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>14100300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9721700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10950900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>16285100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>31426200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30909500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30754600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28136000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>32358400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29811400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>32618800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28951000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>29155200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>28078900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>28522100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>23421500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>36975000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>33120200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>24975200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6022,8 +6198,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6111,8 +6290,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6200,97 +6382,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>40055300</v>
+        <v>36217300</v>
       </c>
       <c r="E76" s="3">
-        <v>44300700</v>
+        <v>40088600</v>
       </c>
       <c r="F76" s="3">
-        <v>42033800</v>
+        <v>44337400</v>
       </c>
       <c r="G76" s="3">
-        <v>44743000</v>
+        <v>42068700</v>
       </c>
       <c r="H76" s="3">
-        <v>41216400</v>
+        <v>44780100</v>
       </c>
       <c r="I76" s="3">
-        <v>40585500</v>
+        <v>41250600</v>
       </c>
       <c r="J76" s="3">
+        <v>40619100</v>
+      </c>
+      <c r="K76" s="3">
         <v>35797000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33494800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32151600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35308500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30443600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32514300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>38949900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>54884400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>55163600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>56203800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>52575700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>57209500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>54386200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>55629200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>51761900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>42084100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>41290400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>41733500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>36633000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>39460000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>35605200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>27460100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6378,191 +6566,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-2045700</v>
+        <v>-4957400</v>
       </c>
       <c r="E81" s="3">
-        <v>2361200</v>
+        <v>-2047400</v>
       </c>
       <c r="F81" s="3">
-        <v>662400</v>
+        <v>2363100</v>
       </c>
       <c r="G81" s="3">
-        <v>591900</v>
+        <v>662900</v>
       </c>
       <c r="H81" s="3">
-        <v>-323100</v>
+        <v>592400</v>
       </c>
       <c r="I81" s="3">
-        <v>3567800</v>
+        <v>-323300</v>
       </c>
       <c r="J81" s="3">
+        <v>3570700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1258600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>91500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2470400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2132500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>307200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2848000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10416000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1681200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1650700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1269100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1930500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1484500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4641700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3179900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>871800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2145500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>166100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4354400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1373300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>2445000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>531700</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>1393300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6594,97 +6791,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>3563400</v>
+        <v>5350100</v>
       </c>
       <c r="E83" s="3">
-        <v>1458100</v>
+        <v>3566400</v>
       </c>
       <c r="F83" s="3">
-        <v>1999100</v>
+        <v>1459300</v>
       </c>
       <c r="G83" s="3">
-        <v>1189300</v>
+        <v>2000700</v>
       </c>
       <c r="H83" s="3">
-        <v>2690700</v>
+        <v>1190200</v>
       </c>
       <c r="I83" s="3">
-        <v>1170800</v>
+        <v>2693000</v>
       </c>
       <c r="J83" s="3">
+        <v>1171800</v>
+      </c>
+      <c r="K83" s="3">
         <v>-314400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>936900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1470600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1108600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>507700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10683100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1287300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1441900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1874900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1238500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3232700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1421100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5043900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>991300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>752100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>557800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>936900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>295100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>933500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>856900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1320500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>898000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6772,8 +6973,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6861,8 +7065,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6950,8 +7157,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7039,8 +7249,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7128,97 +7341,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>523600</v>
+        <v>2795000</v>
       </c>
       <c r="E89" s="3">
-        <v>-3848600</v>
+        <v>524100</v>
       </c>
       <c r="F89" s="3">
-        <v>3318400</v>
+        <v>-3851800</v>
       </c>
       <c r="G89" s="3">
-        <v>2877200</v>
+        <v>3321200</v>
       </c>
       <c r="H89" s="3">
-        <v>2280900</v>
+        <v>2879600</v>
       </c>
       <c r="I89" s="3">
-        <v>-783800</v>
+        <v>2282800</v>
       </c>
       <c r="J89" s="3">
+        <v>-784500</v>
+      </c>
+      <c r="K89" s="3">
         <v>3292400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3078900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2112800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2822500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>749000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2041500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2633500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-266500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3767200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2795400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3150400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1289500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3510800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2271700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2459500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>723600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2545800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3041700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2595200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>987200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>3212700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>3583600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7250,97 +7469,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-683000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-606000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-466000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1324000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-726000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-550000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-349000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1140000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-649000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-521600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-335800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-890700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-569800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-638200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-441500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1246800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-893000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1003500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-472500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1331900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-729900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-504000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-383200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1030000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-624900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-534100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-487100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>748900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-2657500</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7428,8 +7651,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7517,97 +7743,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1189300</v>
+        <v>-149700</v>
       </c>
       <c r="E94" s="3">
-        <v>1736700</v>
+        <v>-1190200</v>
       </c>
       <c r="F94" s="3">
-        <v>72600</v>
+        <v>1738200</v>
       </c>
       <c r="G94" s="3">
-        <v>-454200</v>
+        <v>72700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3004000</v>
+        <v>-454600</v>
       </c>
       <c r="I94" s="3">
-        <v>804400</v>
+        <v>-3006500</v>
       </c>
       <c r="J94" s="3">
+        <v>805100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1071100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2745000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>472900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4027100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-193500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2968400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-459300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-675200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>40900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-292800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-549400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>92100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-675400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>7090900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-41641700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2259700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1917500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>194100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1321700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1333400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-5849100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-2393400</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7639,38 +7871,39 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-16300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-4300</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-26000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7678,58 +7911,61 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-17600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3001100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-4900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-3071600</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-3300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2638500</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-4700</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7817,8 +8053,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7906,8 +8145,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7995,271 +8237,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>294900</v>
+        <v>-173600</v>
       </c>
       <c r="E100" s="3">
-        <v>1801800</v>
+        <v>295100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2321100</v>
+        <v>1803300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1452700</v>
+        <v>-2323000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1966600</v>
+        <v>-1453900</v>
       </c>
       <c r="I100" s="3">
-        <v>1165400</v>
+        <v>-1968200</v>
       </c>
       <c r="J100" s="3">
+        <v>1166400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1949200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>692400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4870000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>115400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1350500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2975700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1228400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>40600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5219500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1243400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3415100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1397200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3752200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9482200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>39249100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-637900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2138500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-41500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-616000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>717200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3413400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-993000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-33600</v>
+        <v>60800</v>
       </c>
       <c r="E101" s="3">
         <v>-33600</v>
       </c>
       <c r="F101" s="3">
-        <v>-196200</v>
+        <v>-33600</v>
       </c>
       <c r="G101" s="3">
-        <v>59600</v>
+        <v>-196400</v>
       </c>
       <c r="H101" s="3">
-        <v>114900</v>
+        <v>59700</v>
       </c>
       <c r="I101" s="3">
-        <v>143100</v>
+        <v>115000</v>
       </c>
       <c r="J101" s="3">
+        <v>143200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-28000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>67400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-78800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-64300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-33800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-76800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-18700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>24700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>27500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-26000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-59800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-424900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-129600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-51600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-72900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-41500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>10600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>5900</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-404400</v>
+        <v>2532400</v>
       </c>
       <c r="E102" s="3">
-        <v>-343700</v>
+        <v>-404700</v>
       </c>
       <c r="F102" s="3">
-        <v>873800</v>
+        <v>-343900</v>
       </c>
       <c r="G102" s="3">
-        <v>1029900</v>
+        <v>874500</v>
       </c>
       <c r="H102" s="3">
-        <v>-2574700</v>
+        <v>1030800</v>
       </c>
       <c r="I102" s="3">
-        <v>1329100</v>
+        <v>-2576900</v>
       </c>
       <c r="J102" s="3">
+        <v>1330200</v>
+      </c>
+      <c r="K102" s="3">
         <v>268900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>998300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2286300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1387300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-873700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1984500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>912000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-977800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1430100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1260500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-789400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>12000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-942800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-179400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-357900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2303600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2273200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3121400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>616000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>381500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>782900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>207800</v>
       </c>
     </row>
